--- a/requirements/adaptation_measures.xlsx
+++ b/requirements/adaptation_measures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gkalomalos\Projects\unu\climada-unu\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gkalomalos\Projects\unu\GIZ_RISK_WISE\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3685AC-B6D7-436E-88A8-CBC8198EB0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4B3D4C-0B48-4C9F-9886-BD774804C922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="766" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="766" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="assets" sheetId="1" r:id="rId1"/>
@@ -1292,90 +1292,39 @@
     <t>HW</t>
   </si>
   <si>
-    <t>Early warning system</t>
-  </si>
-  <si>
     <t>0.93 0.33 0.34</t>
   </si>
   <si>
-    <t>Training on Adaptation agricultural practices</t>
-  </si>
-  <si>
     <t>1 0.5 0.4</t>
   </si>
   <si>
-    <t>Water-saving cultivation and production practices</t>
-  </si>
-  <si>
     <t>0.09 0.44 0.61</t>
   </si>
   <si>
-    <t>Research and monitoring</t>
-  </si>
-  <si>
     <t>1 0.75 0.6</t>
   </si>
   <si>
-    <t>Climate smart agriculture</t>
-  </si>
-  <si>
     <t>0.38 0.75 0.6</t>
   </si>
   <si>
-    <t>Green Roofs</t>
-  </si>
-  <si>
     <t>0 0.42 0.36</t>
   </si>
   <si>
-    <t>Trees planting</t>
-  </si>
-  <si>
     <t>0.01 0.67 0.51</t>
   </si>
   <si>
-    <t>Green building codes</t>
-  </si>
-  <si>
     <t>1 0.89 0.84</t>
   </si>
   <si>
-    <t>Wetland restoration and rehabilitation</t>
-  </si>
-  <si>
-    <t>Soil, water, and pest management</t>
-  </si>
-  <si>
-    <t>Legume seeds production and propagation</t>
-  </si>
-  <si>
-    <t>Management of protected environmental areas</t>
-  </si>
-  <si>
-    <t>Climate smart agriculture/Precision agriculture</t>
-  </si>
-  <si>
     <t>0.7 0.88 0.8</t>
   </si>
   <si>
-    <t xml:space="preserve">Improvement of water storage systems </t>
-  </si>
-  <si>
     <t>0.48 0.51 0.55</t>
   </si>
   <si>
-    <t>Improvement of water distribution facilities</t>
-  </si>
-  <si>
     <t>0.81 0.8 0.82</t>
   </si>
   <si>
-    <t>Green Spaces</t>
-  </si>
-  <si>
-    <t>Green/White Roofs</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -1400,37 +1349,88 @@
     <t>0.98 0.63 0.56</t>
   </si>
   <si>
-    <t>Retention reservoirs</t>
-  </si>
-  <si>
-    <t>Dredging of canals</t>
-  </si>
-  <si>
-    <t>Infiltration ponds</t>
-  </si>
-  <si>
-    <t>Recharging wells</t>
-  </si>
-  <si>
-    <t>Small dams</t>
-  </si>
-  <si>
-    <t>Τraining for agricultural topic for adaptation</t>
-  </si>
-  <si>
-    <t>Retention furrows</t>
-  </si>
-  <si>
-    <t>Improved drainage system</t>
-  </si>
-  <si>
-    <t>Agricultural zoning</t>
-  </si>
-  <si>
-    <t>Water tolerant crops</t>
-  </si>
-  <si>
-    <t>Flood index insurance</t>
+    <t>adaptation_measures_green_roofs</t>
+  </si>
+  <si>
+    <t>adaptation_measures_trees_planting</t>
+  </si>
+  <si>
+    <t>adaptation_measures_green_spaces</t>
+  </si>
+  <si>
+    <t>adaptation_measures_green_white_roofs</t>
+  </si>
+  <si>
+    <t>adaptation_measures_early_warning_system</t>
+  </si>
+  <si>
+    <t>adaptation_measures_training_on_adaptation_agricultural_practices</t>
+  </si>
+  <si>
+    <t>adaptation_measures_water_saving_cultivation_and_production_practices</t>
+  </si>
+  <si>
+    <t>adaptation_measures_research_and_monitoring</t>
+  </si>
+  <si>
+    <t>adaptation_measures_climate_smart_agriculture</t>
+  </si>
+  <si>
+    <t>adaptation_measures_green_building_codes</t>
+  </si>
+  <si>
+    <t>adaptation_measures_wetland_restoration_and_rehabilitation</t>
+  </si>
+  <si>
+    <t>adaptation_measures_soil_water_and_pest_management</t>
+  </si>
+  <si>
+    <t>adaptation_measures_legume_seeds_production_and_propagation</t>
+  </si>
+  <si>
+    <t>adaptation_measures_management_of_protected_environmental_areas</t>
+  </si>
+  <si>
+    <t>adaptation_measures_climate_smart_agriculture_precision_agriculture</t>
+  </si>
+  <si>
+    <t>adaptation_measures_improvement_of_water_storage_systems</t>
+  </si>
+  <si>
+    <t>adaptation_measures_improvement_of_water_distribution_facilities</t>
+  </si>
+  <si>
+    <t>adaptation_measures_retention_reservoirs</t>
+  </si>
+  <si>
+    <t>adaptation_measures_dredging_of_canals</t>
+  </si>
+  <si>
+    <t>adaptation_measures_infiltration_ponds</t>
+  </si>
+  <si>
+    <t>adaptation_measures_recharging_wells</t>
+  </si>
+  <si>
+    <t>adaptation_measures_small_dams</t>
+  </si>
+  <si>
+    <t>adaptation_measures_improved_drainage_system</t>
+  </si>
+  <si>
+    <t>adaptation_measures_training_for_agricultural_topic_for_adaptation</t>
+  </si>
+  <si>
+    <t>adaptation_measures_retention_furrows</t>
+  </si>
+  <si>
+    <t>adaptation_measures_agricultural_zoning</t>
+  </si>
+  <si>
+    <t>adaptation_measures_water_tolerant_crops</t>
+  </si>
+  <si>
+    <t>adaptation_measures_flood_index_insurance</t>
   </si>
 </sst>
 </file>
@@ -1657,7 +1657,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
@@ -1722,12 +1722,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="13" applyFont="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2106,9 +2104,9 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="9" width="14.42578125" style="1" customWidth="1"/>
+    <col min="1" max="9" width="14.453125" style="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="1" customWidth="1"/>
     <col min="11" max="16384" width="20" style="1"/>
   </cols>
@@ -2156,11 +2154,11 @@
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.28515625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="26.26953125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="5" width="23.42578125" style="30" customWidth="1"/>
-    <col min="6" max="7" width="23.42578125" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="26.28515625" style="12"/>
+    <col min="1" max="5" width="23.453125" style="30" customWidth="1"/>
+    <col min="6" max="7" width="23.453125" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="26.26953125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -8419,7 +8417,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="12.75">
+    <row r="273" spans="1:7" ht="12.5">
       <c r="A273" s="58">
         <v>1</v>
       </c>
@@ -8442,7 +8440,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="12.75">
+    <row r="274" spans="1:7" ht="12.5">
       <c r="A274" s="58">
         <v>1</v>
       </c>
@@ -8465,7 +8463,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="12.75">
+    <row r="275" spans="1:7" ht="12.5">
       <c r="A275" s="58">
         <v>1</v>
       </c>
@@ -8488,7 +8486,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="12.75">
+    <row r="276" spans="1:7" ht="12.5">
       <c r="A276" s="58">
         <v>1</v>
       </c>
@@ -8511,7 +8509,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="12.75">
+    <row r="277" spans="1:7" ht="12.5">
       <c r="A277" s="58">
         <v>1</v>
       </c>
@@ -8534,7 +8532,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="12.75">
+    <row r="278" spans="1:7" ht="12.5">
       <c r="A278" s="58">
         <v>1</v>
       </c>
@@ -8557,7 +8555,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="12.75">
+    <row r="279" spans="1:7" ht="12.5">
       <c r="A279" s="58">
         <v>1</v>
       </c>
@@ -8580,7 +8578,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="12.75">
+    <row r="280" spans="1:7" ht="12.5">
       <c r="A280" s="58">
         <v>1</v>
       </c>
@@ -8603,7 +8601,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="12.75">
+    <row r="281" spans="1:7" ht="12.5">
       <c r="A281" s="58">
         <v>1</v>
       </c>
@@ -8867,2043 +8865,2043 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" style="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="62" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.85546875" style="62" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" style="62" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="62" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.85546875" style="62" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="62" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="62" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" style="62" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" style="62" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7" style="62" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="62"/>
+    <col min="1" max="1" width="60.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7265625" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7265625" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7265625" style="36" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.26953125" style="36" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7" style="36" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="11.453125" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="62" t="s">
+      <c r="N1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="62" t="s">
+      <c r="O1" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="62" t="s">
+      <c r="P1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="62" t="s">
+      <c r="Q1" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="R1" s="62" t="s">
+      <c r="R1" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="62">
+      <c r="A2" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="36">
         <v>20000000</v>
       </c>
-      <c r="D2" s="62">
-        <v>1</v>
-      </c>
-      <c r="E2" s="62">
-        <v>0</v>
-      </c>
-      <c r="F2" s="62">
-        <v>0</v>
-      </c>
-      <c r="G2" s="62" t="s">
+      <c r="D2" s="36">
+        <v>1</v>
+      </c>
+      <c r="E2" s="36">
+        <v>0</v>
+      </c>
+      <c r="F2" s="36">
+        <v>0</v>
+      </c>
+      <c r="G2" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="62">
+      <c r="H2" s="36">
         <v>0.69</v>
       </c>
-      <c r="I2" s="62">
-        <v>0</v>
-      </c>
-      <c r="J2" s="62">
-        <v>1</v>
-      </c>
-      <c r="K2" s="62">
-        <v>0</v>
-      </c>
-      <c r="L2" s="62" t="s">
+      <c r="I2" s="36">
+        <v>0</v>
+      </c>
+      <c r="J2" s="36">
+        <v>1</v>
+      </c>
+      <c r="K2" s="36">
+        <v>0</v>
+      </c>
+      <c r="L2" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="62" t="s">
+      <c r="M2" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="62">
-        <v>0</v>
-      </c>
-      <c r="O2" s="62">
-        <v>0</v>
-      </c>
-      <c r="P2" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="62">
-        <v>1</v>
-      </c>
-      <c r="R2" s="62" t="s">
+      <c r="N2" s="36">
+        <v>0</v>
+      </c>
+      <c r="O2" s="36">
+        <v>0</v>
+      </c>
+      <c r="P2" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="36">
+        <v>1</v>
+      </c>
+      <c r="R2" s="36" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="62">
+      <c r="A3" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="36">
         <v>31120331.950207472</v>
       </c>
-      <c r="D3" s="62">
-        <v>1</v>
-      </c>
-      <c r="E3" s="62">
-        <v>0</v>
-      </c>
-      <c r="F3" s="62">
-        <v>0</v>
-      </c>
-      <c r="G3" s="62" t="s">
+      <c r="D3" s="36">
+        <v>1</v>
+      </c>
+      <c r="E3" s="36">
+        <v>0</v>
+      </c>
+      <c r="F3" s="36">
+        <v>0</v>
+      </c>
+      <c r="G3" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="62">
+      <c r="H3" s="36">
         <v>0.67500000000000004</v>
       </c>
-      <c r="I3" s="62">
-        <v>0</v>
-      </c>
-      <c r="J3" s="62">
-        <v>1</v>
-      </c>
-      <c r="K3" s="62">
-        <v>0</v>
-      </c>
-      <c r="L3" s="62" t="s">
+      <c r="I3" s="36">
+        <v>0</v>
+      </c>
+      <c r="J3" s="36">
+        <v>1</v>
+      </c>
+      <c r="K3" s="36">
+        <v>0</v>
+      </c>
+      <c r="L3" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="62" t="s">
+      <c r="M3" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="62">
-        <v>0</v>
-      </c>
-      <c r="O3" s="62">
-        <v>0</v>
-      </c>
-      <c r="P3" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="62">
-        <v>1</v>
-      </c>
-      <c r="R3" s="62" t="s">
+      <c r="N3" s="36">
+        <v>0</v>
+      </c>
+      <c r="O3" s="36">
+        <v>0</v>
+      </c>
+      <c r="P3" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="36">
+        <v>1</v>
+      </c>
+      <c r="R3" s="36" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="62" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="63" t="s">
-        <v>137</v>
+      <c r="A4" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>131</v>
       </c>
       <c r="C4" s="61">
         <v>1145000</v>
       </c>
-      <c r="D4" s="62">
-        <v>1</v>
-      </c>
-      <c r="E4" s="62">
-        <v>0</v>
-      </c>
-      <c r="F4" s="62">
-        <v>0</v>
-      </c>
-      <c r="G4" s="62" t="s">
+      <c r="D4" s="36">
+        <v>1</v>
+      </c>
+      <c r="E4" s="36">
+        <v>0</v>
+      </c>
+      <c r="F4" s="36">
+        <v>0</v>
+      </c>
+      <c r="G4" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="62">
+      <c r="H4" s="36">
         <v>0.39</v>
       </c>
-      <c r="I4" s="62">
+      <c r="I4" s="36">
         <v>-0.05</v>
       </c>
-      <c r="J4" s="62">
-        <v>1</v>
-      </c>
-      <c r="K4" s="62">
-        <v>0</v>
-      </c>
-      <c r="L4" s="62" t="s">
+      <c r="J4" s="36">
+        <v>1</v>
+      </c>
+      <c r="K4" s="36">
+        <v>0</v>
+      </c>
+      <c r="L4" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="62" t="s">
+      <c r="M4" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="62">
-        <v>0</v>
-      </c>
-      <c r="O4" s="62">
-        <v>0</v>
-      </c>
-      <c r="P4" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="62">
-        <v>1</v>
-      </c>
-      <c r="R4" s="62" t="s">
+      <c r="N4" s="36">
+        <v>0</v>
+      </c>
+      <c r="O4" s="36">
+        <v>0</v>
+      </c>
+      <c r="P4" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="36">
+        <v>1</v>
+      </c>
+      <c r="R4" s="36" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="64" t="s">
-        <v>139</v>
+      <c r="A5" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>132</v>
       </c>
       <c r="C5" s="61">
         <v>298778.18289364426</v>
       </c>
-      <c r="D5" s="62">
-        <v>1</v>
-      </c>
-      <c r="E5" s="62">
-        <v>0</v>
-      </c>
-      <c r="F5" s="62">
-        <v>0</v>
-      </c>
-      <c r="G5" s="62" t="s">
+      <c r="D5" s="36">
+        <v>1</v>
+      </c>
+      <c r="E5" s="36">
+        <v>0</v>
+      </c>
+      <c r="F5" s="36">
+        <v>0</v>
+      </c>
+      <c r="G5" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="62">
+      <c r="H5" s="36">
         <v>0.75</v>
       </c>
-      <c r="I5" s="62">
+      <c r="I5" s="36">
         <v>0.06</v>
       </c>
-      <c r="J5" s="62">
-        <v>1</v>
-      </c>
-      <c r="K5" s="62">
-        <v>0</v>
-      </c>
-      <c r="L5" s="62" t="s">
+      <c r="J5" s="36">
+        <v>1</v>
+      </c>
+      <c r="K5" s="36">
+        <v>0</v>
+      </c>
+      <c r="L5" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="62" t="s">
+      <c r="M5" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="62">
-        <v>0</v>
-      </c>
-      <c r="O5" s="62">
-        <v>0</v>
-      </c>
-      <c r="P5" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="62">
-        <v>1</v>
-      </c>
-      <c r="R5" s="62" t="s">
+      <c r="N5" s="36">
+        <v>0</v>
+      </c>
+      <c r="O5" s="36">
+        <v>0</v>
+      </c>
+      <c r="P5" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="36">
+        <v>1</v>
+      </c>
+      <c r="R5" s="36" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="C6" s="36">
+        <v>22370744.852031101</v>
+      </c>
+      <c r="D6" s="36">
+        <v>1</v>
+      </c>
+      <c r="E6" s="36">
+        <v>0</v>
+      </c>
+      <c r="F6" s="36">
+        <v>0</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="36">
+        <v>0.78</v>
+      </c>
+      <c r="I6" s="36">
+        <v>0</v>
+      </c>
+      <c r="J6" s="36">
+        <v>1</v>
+      </c>
+      <c r="K6" s="36">
+        <v>0</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="36">
+        <v>0</v>
+      </c>
+      <c r="O6" s="36">
+        <v>0</v>
+      </c>
+      <c r="P6" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="36">
+        <v>1</v>
+      </c>
+      <c r="R6" s="36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="62">
-        <v>22370744.852031101</v>
-      </c>
-      <c r="D6" s="62">
-        <v>1</v>
-      </c>
-      <c r="E6" s="62">
-        <v>0</v>
-      </c>
-      <c r="F6" s="62">
-        <v>0</v>
-      </c>
-      <c r="G6" s="62" t="s">
+      <c r="C7" s="36">
+        <v>35952982.797907144</v>
+      </c>
+      <c r="D7" s="36">
+        <v>1</v>
+      </c>
+      <c r="E7" s="36">
+        <v>0</v>
+      </c>
+      <c r="F7" s="36">
+        <v>0</v>
+      </c>
+      <c r="G7" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="62">
+      <c r="H7" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="I7" s="36">
+        <v>0</v>
+      </c>
+      <c r="J7" s="36">
+        <v>1</v>
+      </c>
+      <c r="K7" s="36">
+        <v>0</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="36">
+        <v>0</v>
+      </c>
+      <c r="O7" s="36">
+        <v>0</v>
+      </c>
+      <c r="P7" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="36">
+        <v>1</v>
+      </c>
+      <c r="R7" s="36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="36">
+        <v>34035490.382018767</v>
+      </c>
+      <c r="D8" s="36">
+        <v>1</v>
+      </c>
+      <c r="E8" s="36">
+        <v>0</v>
+      </c>
+      <c r="F8" s="36">
+        <v>0</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="I8" s="36">
+        <v>0</v>
+      </c>
+      <c r="J8" s="36">
+        <v>1</v>
+      </c>
+      <c r="K8" s="36">
+        <v>0</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="36">
+        <v>0</v>
+      </c>
+      <c r="O8" s="36">
+        <v>0</v>
+      </c>
+      <c r="P8" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="36">
+        <v>1</v>
+      </c>
+      <c r="R8" s="36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="36">
+        <v>22398708.28309615</v>
+      </c>
+      <c r="D9" s="36">
+        <v>1</v>
+      </c>
+      <c r="E9" s="36">
+        <v>0</v>
+      </c>
+      <c r="F9" s="36">
+        <v>0</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="36">
+        <v>0.67998999999999998</v>
+      </c>
+      <c r="I9" s="36">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="J9" s="36">
+        <v>1</v>
+      </c>
+      <c r="K9" s="36">
+        <v>0</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="36">
+        <v>0</v>
+      </c>
+      <c r="O9" s="36">
+        <v>0</v>
+      </c>
+      <c r="P9" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="36">
+        <v>1</v>
+      </c>
+      <c r="R9" s="36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="36">
+        <v>113132052.53741448</v>
+      </c>
+      <c r="D10" s="36">
+        <v>1</v>
+      </c>
+      <c r="E10" s="36">
+        <v>0</v>
+      </c>
+      <c r="F10" s="36">
+        <v>0</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="I10" s="36">
+        <v>0</v>
+      </c>
+      <c r="J10" s="36">
+        <v>1</v>
+      </c>
+      <c r="K10" s="36">
+        <v>0</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="36">
+        <v>0</v>
+      </c>
+      <c r="O10" s="36">
+        <v>0</v>
+      </c>
+      <c r="P10" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="36">
+        <v>1</v>
+      </c>
+      <c r="R10" s="36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="36">
+        <v>196542972.62855905</v>
+      </c>
+      <c r="D11" s="36">
+        <v>1</v>
+      </c>
+      <c r="E11" s="36">
+        <v>0</v>
+      </c>
+      <c r="F11" s="36">
+        <v>0</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="36">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I11" s="36">
+        <v>0</v>
+      </c>
+      <c r="J11" s="36">
+        <v>1</v>
+      </c>
+      <c r="K11" s="36">
+        <v>0</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="36">
+        <v>0</v>
+      </c>
+      <c r="O11" s="36">
+        <v>0</v>
+      </c>
+      <c r="P11" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="36">
+        <v>1</v>
+      </c>
+      <c r="R11" s="36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="36">
+        <v>3600000</v>
+      </c>
+      <c r="D12" s="36">
+        <v>1</v>
+      </c>
+      <c r="E12" s="36">
+        <v>0</v>
+      </c>
+      <c r="F12" s="36">
+        <v>0</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="36">
+        <v>0.69</v>
+      </c>
+      <c r="I12" s="36">
+        <v>0</v>
+      </c>
+      <c r="J12" s="36">
+        <v>1</v>
+      </c>
+      <c r="K12" s="36">
+        <v>0</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="36">
+        <v>0</v>
+      </c>
+      <c r="O12" s="36">
+        <v>0</v>
+      </c>
+      <c r="P12" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="36">
+        <v>1</v>
+      </c>
+      <c r="R12" s="36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="36">
+        <v>5601659.7510373443</v>
+      </c>
+      <c r="D13" s="36">
+        <v>1</v>
+      </c>
+      <c r="E13" s="36">
+        <v>0</v>
+      </c>
+      <c r="F13" s="36">
+        <v>0</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="36">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="I13" s="36">
+        <v>0</v>
+      </c>
+      <c r="J13" s="36">
+        <v>1</v>
+      </c>
+      <c r="K13" s="36">
+        <v>0</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" s="36">
+        <v>0</v>
+      </c>
+      <c r="O13" s="36">
+        <v>0</v>
+      </c>
+      <c r="P13" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="36">
+        <v>1</v>
+      </c>
+      <c r="R13" s="36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="36">
+        <v>4026734.073365598</v>
+      </c>
+      <c r="D14" s="36">
+        <v>1</v>
+      </c>
+      <c r="E14" s="36">
+        <v>0</v>
+      </c>
+      <c r="F14" s="36">
+        <v>0</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="36">
         <v>0.78</v>
       </c>
-      <c r="I6" s="62">
-        <v>0</v>
-      </c>
-      <c r="J6" s="62">
-        <v>1</v>
-      </c>
-      <c r="K6" s="62">
-        <v>0</v>
-      </c>
-      <c r="L6" s="62" t="s">
+      <c r="I14" s="36">
+        <v>0</v>
+      </c>
+      <c r="J14" s="36">
+        <v>1</v>
+      </c>
+      <c r="K14" s="36">
+        <v>0</v>
+      </c>
+      <c r="L14" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="62" t="s">
+      <c r="M14" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="62">
-        <v>0</v>
-      </c>
-      <c r="O6" s="62">
-        <v>0</v>
-      </c>
-      <c r="P6" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="62">
-        <v>1</v>
-      </c>
-      <c r="R6" s="62" t="s">
+      <c r="N14" s="36">
+        <v>0</v>
+      </c>
+      <c r="O14" s="36">
+        <v>0</v>
+      </c>
+      <c r="P14" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="36">
+        <v>1</v>
+      </c>
+      <c r="R14" s="36" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="62" t="s">
+    <row r="15" spans="1:18">
+      <c r="A15" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="36">
+        <v>35377735.073140629</v>
+      </c>
+      <c r="D15" s="36">
+        <v>1</v>
+      </c>
+      <c r="E15" s="36">
+        <v>0</v>
+      </c>
+      <c r="F15" s="36">
+        <v>0</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="36">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I15" s="36">
+        <v>0</v>
+      </c>
+      <c r="J15" s="36">
+        <v>1</v>
+      </c>
+      <c r="K15" s="36">
+        <v>0</v>
+      </c>
+      <c r="L15" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="36">
+        <v>0</v>
+      </c>
+      <c r="O15" s="36">
+        <v>0</v>
+      </c>
+      <c r="P15" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="36">
+        <v>1</v>
+      </c>
+      <c r="R15" s="36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="36">
+        <v>3021000</v>
+      </c>
+      <c r="D16" s="36">
+        <v>1</v>
+      </c>
+      <c r="E16" s="36">
+        <v>0</v>
+      </c>
+      <c r="F16" s="36">
+        <v>0</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="36">
+        <v>0.65</v>
+      </c>
+      <c r="I16" s="36">
+        <v>0</v>
+      </c>
+      <c r="J16" s="36">
+        <v>1</v>
+      </c>
+      <c r="K16" s="36">
+        <v>0</v>
+      </c>
+      <c r="L16" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="36">
+        <v>0</v>
+      </c>
+      <c r="O16" s="36">
+        <v>0</v>
+      </c>
+      <c r="P16" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="36">
+        <v>1</v>
+      </c>
+      <c r="R16" s="36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="36">
+        <v>6616532.7210103311</v>
+      </c>
+      <c r="D17" s="36">
+        <v>1</v>
+      </c>
+      <c r="E17" s="36">
+        <v>0</v>
+      </c>
+      <c r="F17" s="36">
+        <v>0</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="I17" s="36">
+        <v>0</v>
+      </c>
+      <c r="J17" s="36">
+        <v>1</v>
+      </c>
+      <c r="K17" s="36">
+        <v>0</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" s="36">
+        <v>0</v>
+      </c>
+      <c r="O17" s="36">
+        <v>0</v>
+      </c>
+      <c r="P17" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="36">
+        <v>1</v>
+      </c>
+      <c r="R17" s="36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="36">
+        <v>3777900</v>
+      </c>
+      <c r="D18" s="36">
+        <v>1</v>
+      </c>
+      <c r="E18" s="36">
+        <v>0</v>
+      </c>
+      <c r="F18" s="36">
+        <v>0</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="I18" s="36">
+        <v>0</v>
+      </c>
+      <c r="J18" s="36">
+        <v>1</v>
+      </c>
+      <c r="K18" s="36">
+        <v>0</v>
+      </c>
+      <c r="L18" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="36">
+        <v>0</v>
+      </c>
+      <c r="O18" s="36">
+        <v>0</v>
+      </c>
+      <c r="P18" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="36">
+        <v>1</v>
+      </c>
+      <c r="R18" s="36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="62">
-        <v>35952982.797907144</v>
-      </c>
-      <c r="D7" s="62">
-        <v>1</v>
-      </c>
-      <c r="E7" s="62">
-        <v>0</v>
-      </c>
-      <c r="F7" s="62">
-        <v>0</v>
-      </c>
-      <c r="G7" s="62" t="s">
+      <c r="C19" s="36">
+        <v>13233065.442020662</v>
+      </c>
+      <c r="D19" s="36">
+        <v>1</v>
+      </c>
+      <c r="E19" s="36">
+        <v>0</v>
+      </c>
+      <c r="F19" s="36">
+        <v>0</v>
+      </c>
+      <c r="G19" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="62">
+      <c r="H19" s="36">
+        <v>0.52</v>
+      </c>
+      <c r="I19" s="36">
+        <v>0</v>
+      </c>
+      <c r="J19" s="36">
+        <v>1</v>
+      </c>
+      <c r="K19" s="36">
+        <v>0</v>
+      </c>
+      <c r="L19" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" s="36">
+        <v>0</v>
+      </c>
+      <c r="O19" s="36">
+        <v>0</v>
+      </c>
+      <c r="P19" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="36">
+        <v>1</v>
+      </c>
+      <c r="R19" s="36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="36">
+        <v>12870471.774193544</v>
+      </c>
+      <c r="D20" s="36">
+        <v>1</v>
+      </c>
+      <c r="E20" s="36">
+        <v>0</v>
+      </c>
+      <c r="F20" s="36">
+        <v>0</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="36">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I20" s="36">
+        <v>0</v>
+      </c>
+      <c r="J20" s="36">
+        <v>1</v>
+      </c>
+      <c r="K20" s="36">
+        <v>0</v>
+      </c>
+      <c r="L20" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" s="36">
+        <v>0</v>
+      </c>
+      <c r="O20" s="36">
+        <v>0</v>
+      </c>
+      <c r="P20" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="36">
+        <v>1</v>
+      </c>
+      <c r="R20" s="36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="36">
+        <v>21420000</v>
+      </c>
+      <c r="D21" s="36">
         <v>0.75</v>
       </c>
-      <c r="I7" s="62">
-        <v>0</v>
-      </c>
-      <c r="J7" s="62">
-        <v>1</v>
-      </c>
-      <c r="K7" s="62">
-        <v>0</v>
-      </c>
-      <c r="L7" s="62" t="s">
+      <c r="E21" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="F21" s="36">
+        <v>0</v>
+      </c>
+      <c r="G21" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="62" t="s">
+      <c r="H21" s="36">
+        <v>0.45</v>
+      </c>
+      <c r="I21" s="36">
+        <v>0</v>
+      </c>
+      <c r="J21" s="36">
+        <v>1</v>
+      </c>
+      <c r="K21" s="36">
+        <v>0</v>
+      </c>
+      <c r="L21" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="62">
-        <v>0</v>
-      </c>
-      <c r="O7" s="62">
-        <v>0</v>
-      </c>
-      <c r="P7" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="62">
-        <v>1</v>
-      </c>
-      <c r="R7" s="62" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="62" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="62">
-        <v>34035490.382018767</v>
-      </c>
-      <c r="D8" s="62">
-        <v>1</v>
-      </c>
-      <c r="E8" s="62">
-        <v>0</v>
-      </c>
-      <c r="F8" s="62">
-        <v>0</v>
-      </c>
-      <c r="G8" s="62" t="s">
+      <c r="M21" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="62">
-        <v>0.8</v>
-      </c>
-      <c r="I8" s="62">
-        <v>0</v>
-      </c>
-      <c r="J8" s="62">
-        <v>1</v>
-      </c>
-      <c r="K8" s="62">
-        <v>0</v>
-      </c>
-      <c r="L8" s="62" t="s">
+      <c r="N21" s="36">
+        <v>0</v>
+      </c>
+      <c r="O21" s="36">
+        <v>0</v>
+      </c>
+      <c r="P21" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="36">
+        <v>1</v>
+      </c>
+      <c r="R21" s="36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="36">
+        <v>105000000</v>
+      </c>
+      <c r="D22" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="E22" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="F22" s="36">
+        <v>0</v>
+      </c>
+      <c r="G22" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="62" t="s">
+      <c r="H22" s="36">
+        <v>0.47</v>
+      </c>
+      <c r="I22" s="36">
+        <v>0</v>
+      </c>
+      <c r="J22" s="36">
+        <v>1</v>
+      </c>
+      <c r="K22" s="36">
+        <v>0</v>
+      </c>
+      <c r="L22" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="62">
-        <v>0</v>
-      </c>
-      <c r="O8" s="62">
-        <v>0</v>
-      </c>
-      <c r="P8" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="62">
-        <v>1</v>
-      </c>
-      <c r="R8" s="62" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="62" t="s">
+      <c r="M22" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" s="36">
+        <v>0</v>
+      </c>
+      <c r="O22" s="36">
+        <v>0</v>
+      </c>
+      <c r="P22" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="36">
+        <v>1</v>
+      </c>
+      <c r="R22" s="36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="63" t="s">
         <v>132</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="62">
-        <v>22398708.28309615</v>
-      </c>
-      <c r="D9" s="62">
-        <v>1</v>
-      </c>
-      <c r="E9" s="62">
-        <v>0</v>
-      </c>
-      <c r="F9" s="62">
-        <v>0</v>
-      </c>
-      <c r="G9" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="62">
-        <v>0.67998999999999998</v>
-      </c>
-      <c r="I9" s="62">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="J9" s="62">
-        <v>1</v>
-      </c>
-      <c r="K9" s="62">
-        <v>0</v>
-      </c>
-      <c r="L9" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="62">
-        <v>0</v>
-      </c>
-      <c r="O9" s="62">
-        <v>0</v>
-      </c>
-      <c r="P9" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="62">
-        <v>1</v>
-      </c>
-      <c r="R9" s="62" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="62">
-        <v>113132052.53741448</v>
-      </c>
-      <c r="D10" s="62">
-        <v>1</v>
-      </c>
-      <c r="E10" s="62">
-        <v>0</v>
-      </c>
-      <c r="F10" s="62">
-        <v>0</v>
-      </c>
-      <c r="G10" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="62">
-        <v>0.6</v>
-      </c>
-      <c r="I10" s="62">
-        <v>0</v>
-      </c>
-      <c r="J10" s="62">
-        <v>1</v>
-      </c>
-      <c r="K10" s="62">
-        <v>0</v>
-      </c>
-      <c r="L10" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="N10" s="62">
-        <v>0</v>
-      </c>
-      <c r="O10" s="62">
-        <v>0</v>
-      </c>
-      <c r="P10" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="62">
-        <v>1</v>
-      </c>
-      <c r="R10" s="62" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="62">
-        <v>196542972.62855905</v>
-      </c>
-      <c r="D11" s="62">
-        <v>1</v>
-      </c>
-      <c r="E11" s="62">
-        <v>0</v>
-      </c>
-      <c r="F11" s="62">
-        <v>0</v>
-      </c>
-      <c r="G11" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="62">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="I11" s="62">
-        <v>0</v>
-      </c>
-      <c r="J11" s="62">
-        <v>1</v>
-      </c>
-      <c r="K11" s="62">
-        <v>0</v>
-      </c>
-      <c r="L11" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" s="62">
-        <v>0</v>
-      </c>
-      <c r="O11" s="62">
-        <v>0</v>
-      </c>
-      <c r="P11" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="62">
-        <v>1</v>
-      </c>
-      <c r="R11" s="62" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="62">
-        <v>3600000</v>
-      </c>
-      <c r="D12" s="62">
-        <v>1</v>
-      </c>
-      <c r="E12" s="62">
-        <v>0</v>
-      </c>
-      <c r="F12" s="62">
-        <v>0</v>
-      </c>
-      <c r="G12" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="62">
-        <v>0.69</v>
-      </c>
-      <c r="I12" s="62">
-        <v>0</v>
-      </c>
-      <c r="J12" s="62">
-        <v>1</v>
-      </c>
-      <c r="K12" s="62">
-        <v>0</v>
-      </c>
-      <c r="L12" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" s="62">
-        <v>0</v>
-      </c>
-      <c r="O12" s="62">
-        <v>0</v>
-      </c>
-      <c r="P12" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="62">
-        <v>1</v>
-      </c>
-      <c r="R12" s="62" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="B13" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="62">
-        <v>5601659.7510373443</v>
-      </c>
-      <c r="D13" s="62">
-        <v>1</v>
-      </c>
-      <c r="E13" s="62">
-        <v>0</v>
-      </c>
-      <c r="F13" s="62">
-        <v>0</v>
-      </c>
-      <c r="G13" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="62">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="I13" s="62">
-        <v>0</v>
-      </c>
-      <c r="J13" s="62">
-        <v>1</v>
-      </c>
-      <c r="K13" s="62">
-        <v>0</v>
-      </c>
-      <c r="L13" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="N13" s="62">
-        <v>0</v>
-      </c>
-      <c r="O13" s="62">
-        <v>0</v>
-      </c>
-      <c r="P13" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="62">
-        <v>1</v>
-      </c>
-      <c r="R13" s="62" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="62">
-        <v>4026734.073365598</v>
-      </c>
-      <c r="D14" s="62">
-        <v>1</v>
-      </c>
-      <c r="E14" s="62">
-        <v>0</v>
-      </c>
-      <c r="F14" s="62">
-        <v>0</v>
-      </c>
-      <c r="G14" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="62">
-        <v>0.78</v>
-      </c>
-      <c r="I14" s="62">
-        <v>0</v>
-      </c>
-      <c r="J14" s="62">
-        <v>1</v>
-      </c>
-      <c r="K14" s="62">
-        <v>0</v>
-      </c>
-      <c r="L14" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="M14" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="N14" s="62">
-        <v>0</v>
-      </c>
-      <c r="O14" s="62">
-        <v>0</v>
-      </c>
-      <c r="P14" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="62">
-        <v>1</v>
-      </c>
-      <c r="R14" s="62" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="62">
-        <v>35377735.073140629</v>
-      </c>
-      <c r="D15" s="62">
-        <v>1</v>
-      </c>
-      <c r="E15" s="62">
-        <v>0</v>
-      </c>
-      <c r="F15" s="62">
-        <v>0</v>
-      </c>
-      <c r="G15" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="62">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="I15" s="62">
-        <v>0</v>
-      </c>
-      <c r="J15" s="62">
-        <v>1</v>
-      </c>
-      <c r="K15" s="62">
-        <v>0</v>
-      </c>
-      <c r="L15" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="N15" s="62">
-        <v>0</v>
-      </c>
-      <c r="O15" s="62">
-        <v>0</v>
-      </c>
-      <c r="P15" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="62">
-        <v>1</v>
-      </c>
-      <c r="R15" s="62" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="B16" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="62">
-        <v>3021000</v>
-      </c>
-      <c r="D16" s="62">
-        <v>1</v>
-      </c>
-      <c r="E16" s="62">
-        <v>0</v>
-      </c>
-      <c r="F16" s="62">
-        <v>0</v>
-      </c>
-      <c r="G16" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="62">
-        <v>0.65</v>
-      </c>
-      <c r="I16" s="62">
-        <v>0</v>
-      </c>
-      <c r="J16" s="62">
-        <v>1</v>
-      </c>
-      <c r="K16" s="62">
-        <v>0</v>
-      </c>
-      <c r="L16" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="N16" s="62">
-        <v>0</v>
-      </c>
-      <c r="O16" s="62">
-        <v>0</v>
-      </c>
-      <c r="P16" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="62">
-        <v>1</v>
-      </c>
-      <c r="R16" s="62" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" s="62">
-        <v>6616532.7210103311</v>
-      </c>
-      <c r="D17" s="62">
-        <v>1</v>
-      </c>
-      <c r="E17" s="62">
-        <v>0</v>
-      </c>
-      <c r="F17" s="62">
-        <v>0</v>
-      </c>
-      <c r="G17" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="62">
-        <v>0.6</v>
-      </c>
-      <c r="I17" s="62">
-        <v>0</v>
-      </c>
-      <c r="J17" s="62">
-        <v>1</v>
-      </c>
-      <c r="K17" s="62">
-        <v>0</v>
-      </c>
-      <c r="L17" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="N17" s="62">
-        <v>0</v>
-      </c>
-      <c r="O17" s="62">
-        <v>0</v>
-      </c>
-      <c r="P17" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="62">
-        <v>1</v>
-      </c>
-      <c r="R17" s="62" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="62" t="s">
-        <v>144</v>
-      </c>
-      <c r="B18" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="62">
-        <v>3777900</v>
-      </c>
-      <c r="D18" s="62">
-        <v>1</v>
-      </c>
-      <c r="E18" s="62">
-        <v>0</v>
-      </c>
-      <c r="F18" s="62">
-        <v>0</v>
-      </c>
-      <c r="G18" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="62">
-        <v>0.7</v>
-      </c>
-      <c r="I18" s="62">
-        <v>0</v>
-      </c>
-      <c r="J18" s="62">
-        <v>1</v>
-      </c>
-      <c r="K18" s="62">
-        <v>0</v>
-      </c>
-      <c r="L18" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="N18" s="62">
-        <v>0</v>
-      </c>
-      <c r="O18" s="62">
-        <v>0</v>
-      </c>
-      <c r="P18" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="62">
-        <v>1</v>
-      </c>
-      <c r="R18" s="62" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="B19" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="62">
-        <v>13233065.442020662</v>
-      </c>
-      <c r="D19" s="62">
-        <v>1</v>
-      </c>
-      <c r="E19" s="62">
-        <v>0</v>
-      </c>
-      <c r="F19" s="62">
-        <v>0</v>
-      </c>
-      <c r="G19" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="62">
-        <v>0.52</v>
-      </c>
-      <c r="I19" s="62">
-        <v>0</v>
-      </c>
-      <c r="J19" s="62">
-        <v>1</v>
-      </c>
-      <c r="K19" s="62">
-        <v>0</v>
-      </c>
-      <c r="L19" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="N19" s="62">
-        <v>0</v>
-      </c>
-      <c r="O19" s="62">
-        <v>0</v>
-      </c>
-      <c r="P19" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="62">
-        <v>1</v>
-      </c>
-      <c r="R19" s="62" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="62" t="s">
-        <v>146</v>
-      </c>
-      <c r="B20" s="62" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="62">
-        <v>12870471.774193544</v>
-      </c>
-      <c r="D20" s="62">
-        <v>1</v>
-      </c>
-      <c r="E20" s="62">
-        <v>0</v>
-      </c>
-      <c r="F20" s="62">
-        <v>0</v>
-      </c>
-      <c r="G20" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="62">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="I20" s="62">
-        <v>0</v>
-      </c>
-      <c r="J20" s="62">
-        <v>1</v>
-      </c>
-      <c r="K20" s="62">
-        <v>0</v>
-      </c>
-      <c r="L20" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="N20" s="62">
-        <v>0</v>
-      </c>
-      <c r="O20" s="62">
-        <v>0</v>
-      </c>
-      <c r="P20" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="62">
-        <v>1</v>
-      </c>
-      <c r="R20" s="62" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="B21" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="C21" s="62">
-        <v>21420000</v>
-      </c>
-      <c r="D21" s="62">
-        <v>0.75</v>
-      </c>
-      <c r="E21" s="62">
-        <v>0.75</v>
-      </c>
-      <c r="F21" s="62">
-        <v>0</v>
-      </c>
-      <c r="G21" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="62">
-        <v>0.45</v>
-      </c>
-      <c r="I21" s="62">
-        <v>0</v>
-      </c>
-      <c r="J21" s="62">
-        <v>1</v>
-      </c>
-      <c r="K21" s="62">
-        <v>0</v>
-      </c>
-      <c r="L21" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="M21" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="N21" s="62">
-        <v>0</v>
-      </c>
-      <c r="O21" s="62">
-        <v>0</v>
-      </c>
-      <c r="P21" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="62">
-        <v>1</v>
-      </c>
-      <c r="R21" s="62" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="B22" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22" s="62">
-        <v>105000000</v>
-      </c>
-      <c r="D22" s="62">
-        <v>0.75</v>
-      </c>
-      <c r="E22" s="62">
-        <v>0.75</v>
-      </c>
-      <c r="F22" s="62">
-        <v>0</v>
-      </c>
-      <c r="G22" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="62">
-        <v>0.47</v>
-      </c>
-      <c r="I22" s="62">
-        <v>0</v>
-      </c>
-      <c r="J22" s="62">
-        <v>1</v>
-      </c>
-      <c r="K22" s="62">
-        <v>0</v>
-      </c>
-      <c r="L22" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="N22" s="62">
-        <v>0</v>
-      </c>
-      <c r="O22" s="62">
-        <v>0</v>
-      </c>
-      <c r="P22" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="62">
-        <v>1</v>
-      </c>
-      <c r="R22" s="62" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="64" t="s">
-        <v>139</v>
       </c>
       <c r="C23" s="61">
         <v>69156293.222683266</v>
       </c>
-      <c r="D23" s="62">
-        <v>1</v>
-      </c>
-      <c r="E23" s="62">
-        <v>0</v>
-      </c>
-      <c r="F23" s="62">
-        <v>0</v>
-      </c>
-      <c r="G23" s="62" t="s">
+      <c r="D23" s="36">
+        <v>1</v>
+      </c>
+      <c r="E23" s="36">
+        <v>0</v>
+      </c>
+      <c r="F23" s="36">
+        <v>0</v>
+      </c>
+      <c r="G23" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H23" s="62">
+      <c r="H23" s="36">
         <v>0.35</v>
       </c>
-      <c r="I23" s="62">
-        <v>0</v>
-      </c>
-      <c r="J23" s="62">
-        <v>1</v>
-      </c>
-      <c r="K23" s="62">
-        <v>0</v>
-      </c>
-      <c r="L23" s="62" t="s">
+      <c r="I23" s="36">
+        <v>0</v>
+      </c>
+      <c r="J23" s="36">
+        <v>1</v>
+      </c>
+      <c r="K23" s="36">
+        <v>0</v>
+      </c>
+      <c r="L23" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="M23" s="62" t="s">
+      <c r="M23" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="N23" s="62">
-        <v>0</v>
-      </c>
-      <c r="O23" s="62">
-        <v>0</v>
-      </c>
-      <c r="P23" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="62">
-        <v>1</v>
-      </c>
-      <c r="R23" s="62" t="s">
+      <c r="N23" s="36">
+        <v>0</v>
+      </c>
+      <c r="O23" s="36">
+        <v>0</v>
+      </c>
+      <c r="P23" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="36">
+        <v>1</v>
+      </c>
+      <c r="R23" s="36" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="B24" s="64" t="s">
-        <v>155</v>
+      <c r="B24" s="63" t="s">
+        <v>138</v>
       </c>
       <c r="C24" s="61">
         <v>10653600</v>
       </c>
-      <c r="D24" s="62">
-        <v>1</v>
-      </c>
-      <c r="E24" s="62">
-        <v>0</v>
-      </c>
-      <c r="F24" s="62">
-        <v>0</v>
-      </c>
-      <c r="G24" s="62" t="s">
+      <c r="D24" s="36">
+        <v>1</v>
+      </c>
+      <c r="E24" s="36">
+        <v>0</v>
+      </c>
+      <c r="F24" s="36">
+        <v>0</v>
+      </c>
+      <c r="G24" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H24" s="62">
+      <c r="H24" s="36">
         <v>0.85</v>
       </c>
-      <c r="I24" s="62">
-        <v>0</v>
-      </c>
-      <c r="J24" s="62">
-        <v>1</v>
-      </c>
-      <c r="K24" s="62">
-        <v>0</v>
-      </c>
-      <c r="L24" s="62" t="s">
+      <c r="I24" s="36">
+        <v>0</v>
+      </c>
+      <c r="J24" s="36">
+        <v>1</v>
+      </c>
+      <c r="K24" s="36">
+        <v>0</v>
+      </c>
+      <c r="L24" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="M24" s="62" t="s">
+      <c r="M24" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="N24" s="62">
-        <v>0</v>
-      </c>
-      <c r="O24" s="62">
-        <v>0</v>
-      </c>
-      <c r="P24" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="62">
-        <v>1</v>
-      </c>
-      <c r="R24" s="62" t="s">
+      <c r="N24" s="36">
+        <v>0</v>
+      </c>
+      <c r="O24" s="36">
+        <v>0</v>
+      </c>
+      <c r="P24" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="36">
+        <v>1</v>
+      </c>
+      <c r="R24" s="36" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="B25" s="64" t="s">
-        <v>156</v>
+      <c r="B25" s="63" t="s">
+        <v>139</v>
       </c>
       <c r="C25" s="61">
         <v>40341171.046565235</v>
       </c>
-      <c r="D25" s="62">
-        <v>1</v>
-      </c>
-      <c r="E25" s="62">
-        <v>0</v>
-      </c>
-      <c r="F25" s="62">
-        <v>0</v>
-      </c>
-      <c r="G25" s="62" t="s">
+      <c r="D25" s="36">
+        <v>1</v>
+      </c>
+      <c r="E25" s="36">
+        <v>0</v>
+      </c>
+      <c r="F25" s="36">
+        <v>0</v>
+      </c>
+      <c r="G25" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H25" s="62">
+      <c r="H25" s="36">
         <v>0.6</v>
       </c>
-      <c r="I25" s="62">
-        <v>0</v>
-      </c>
-      <c r="J25" s="62">
-        <v>1</v>
-      </c>
-      <c r="K25" s="62">
-        <v>0</v>
-      </c>
-      <c r="L25" s="62" t="s">
+      <c r="I25" s="36">
+        <v>0</v>
+      </c>
+      <c r="J25" s="36">
+        <v>1</v>
+      </c>
+      <c r="K25" s="36">
+        <v>0</v>
+      </c>
+      <c r="L25" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="M25" s="62" t="s">
+      <c r="M25" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="N25" s="62">
-        <v>0</v>
-      </c>
-      <c r="O25" s="62">
-        <v>0</v>
-      </c>
-      <c r="P25" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="62">
-        <v>1</v>
-      </c>
-      <c r="R25" s="62" t="s">
+      <c r="N25" s="36">
+        <v>0</v>
+      </c>
+      <c r="O25" s="36">
+        <v>0</v>
+      </c>
+      <c r="P25" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="36">
+        <v>1</v>
+      </c>
+      <c r="R25" s="36" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="B26" s="64" t="s">
-        <v>157</v>
+      <c r="B26" s="63" t="s">
+        <v>140</v>
       </c>
       <c r="C26" s="61">
         <v>52523956.178019531</v>
       </c>
-      <c r="D26" s="62">
-        <v>1</v>
-      </c>
-      <c r="E26" s="62">
-        <v>0</v>
-      </c>
-      <c r="F26" s="62">
-        <v>0</v>
-      </c>
-      <c r="G26" s="62" t="s">
+      <c r="D26" s="36">
+        <v>1</v>
+      </c>
+      <c r="E26" s="36">
+        <v>0</v>
+      </c>
+      <c r="F26" s="36">
+        <v>0</v>
+      </c>
+      <c r="G26" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="62">
+      <c r="H26" s="36">
         <v>0.52</v>
       </c>
-      <c r="I26" s="62">
-        <v>0</v>
-      </c>
-      <c r="J26" s="62">
-        <v>1</v>
-      </c>
-      <c r="K26" s="62">
-        <v>0</v>
-      </c>
-      <c r="L26" s="62" t="s">
+      <c r="I26" s="36">
+        <v>0</v>
+      </c>
+      <c r="J26" s="36">
+        <v>1</v>
+      </c>
+      <c r="K26" s="36">
+        <v>0</v>
+      </c>
+      <c r="L26" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="M26" s="62" t="s">
+      <c r="M26" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="N26" s="62">
-        <v>0</v>
-      </c>
-      <c r="O26" s="62">
-        <v>0</v>
-      </c>
-      <c r="P26" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="62">
-        <v>1</v>
-      </c>
-      <c r="R26" s="62" t="s">
+      <c r="N26" s="36">
+        <v>0</v>
+      </c>
+      <c r="O26" s="36">
+        <v>0</v>
+      </c>
+      <c r="P26" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="36">
+        <v>1</v>
+      </c>
+      <c r="R26" s="36" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="B27" s="64" t="s">
-        <v>158</v>
+      <c r="B27" s="63" t="s">
+        <v>141</v>
       </c>
       <c r="C27" s="61">
         <v>77706469.3767436</v>
       </c>
-      <c r="D27" s="62">
-        <v>1</v>
-      </c>
-      <c r="E27" s="62">
-        <v>0</v>
-      </c>
-      <c r="F27" s="62">
-        <v>0</v>
-      </c>
-      <c r="G27" s="62" t="s">
+      <c r="D27" s="36">
+        <v>1</v>
+      </c>
+      <c r="E27" s="36">
+        <v>0</v>
+      </c>
+      <c r="F27" s="36">
+        <v>0</v>
+      </c>
+      <c r="G27" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H27" s="62">
+      <c r="H27" s="36">
         <v>0.35</v>
       </c>
-      <c r="I27" s="62">
-        <v>0</v>
-      </c>
-      <c r="J27" s="62">
-        <v>1</v>
-      </c>
-      <c r="K27" s="62">
-        <v>0</v>
-      </c>
-      <c r="L27" s="62" t="s">
+      <c r="I27" s="36">
+        <v>0</v>
+      </c>
+      <c r="J27" s="36">
+        <v>1</v>
+      </c>
+      <c r="K27" s="36">
+        <v>0</v>
+      </c>
+      <c r="L27" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="M27" s="62" t="s">
+      <c r="M27" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="N27" s="62">
-        <v>0</v>
-      </c>
-      <c r="O27" s="62">
-        <v>0</v>
-      </c>
-      <c r="P27" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="62">
-        <v>1</v>
-      </c>
-      <c r="R27" s="62" t="s">
+      <c r="N27" s="36">
+        <v>0</v>
+      </c>
+      <c r="O27" s="36">
+        <v>0</v>
+      </c>
+      <c r="P27" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="36">
+        <v>1</v>
+      </c>
+      <c r="R27" s="36" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="B28" s="64" t="s">
-        <v>149</v>
+      <c r="B28" s="63" t="s">
+        <v>135</v>
       </c>
       <c r="C28" s="61">
         <v>168148056.37771592</v>
       </c>
-      <c r="D28" s="62">
-        <v>1</v>
-      </c>
-      <c r="E28" s="62">
-        <v>0</v>
-      </c>
-      <c r="F28" s="62">
-        <v>0</v>
-      </c>
-      <c r="G28" s="62" t="s">
+      <c r="D28" s="36">
+        <v>1</v>
+      </c>
+      <c r="E28" s="36">
+        <v>0</v>
+      </c>
+      <c r="F28" s="36">
+        <v>0</v>
+      </c>
+      <c r="G28" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="62">
+      <c r="H28" s="36">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="I28" s="62">
-        <v>0</v>
-      </c>
-      <c r="J28" s="62">
-        <v>1</v>
-      </c>
-      <c r="K28" s="62">
-        <v>0</v>
-      </c>
-      <c r="L28" s="62" t="s">
+      <c r="I28" s="36">
+        <v>0</v>
+      </c>
+      <c r="J28" s="36">
+        <v>1</v>
+      </c>
+      <c r="K28" s="36">
+        <v>0</v>
+      </c>
+      <c r="L28" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="M28" s="62" t="s">
+      <c r="M28" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="N28" s="62">
-        <v>0</v>
-      </c>
-      <c r="O28" s="62">
-        <v>0</v>
-      </c>
-      <c r="P28" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="62">
-        <v>1</v>
-      </c>
-      <c r="R28" s="62" t="s">
+      <c r="N28" s="36">
+        <v>0</v>
+      </c>
+      <c r="O28" s="36">
+        <v>0</v>
+      </c>
+      <c r="P28" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="36">
+        <v>1</v>
+      </c>
+      <c r="R28" s="36" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="63" t="s">
         <v>126</v>
-      </c>
-      <c r="B29" s="64" t="s">
-        <v>127</v>
       </c>
       <c r="C29" s="61">
         <v>459403.00584958051</v>
       </c>
-      <c r="D29" s="62">
-        <v>1</v>
-      </c>
-      <c r="E29" s="62">
-        <v>0</v>
-      </c>
-      <c r="F29" s="62">
-        <v>0</v>
-      </c>
-      <c r="G29" s="62" t="s">
+      <c r="D29" s="36">
+        <v>1</v>
+      </c>
+      <c r="E29" s="36">
+        <v>0</v>
+      </c>
+      <c r="F29" s="36">
+        <v>0</v>
+      </c>
+      <c r="G29" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H29" s="62">
+      <c r="H29" s="36">
         <v>0.995</v>
       </c>
-      <c r="I29" s="62">
-        <v>0</v>
-      </c>
-      <c r="J29" s="62">
-        <v>1</v>
-      </c>
-      <c r="K29" s="62">
-        <v>0</v>
-      </c>
-      <c r="L29" s="62" t="s">
+      <c r="I29" s="36">
+        <v>0</v>
+      </c>
+      <c r="J29" s="36">
+        <v>1</v>
+      </c>
+      <c r="K29" s="36">
+        <v>0</v>
+      </c>
+      <c r="L29" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="M29" s="62" t="s">
+      <c r="M29" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="N29" s="62">
-        <v>0</v>
-      </c>
-      <c r="O29" s="62">
-        <v>0</v>
-      </c>
-      <c r="P29" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="62">
-        <v>1</v>
-      </c>
-      <c r="R29" s="62" t="s">
+      <c r="N29" s="36">
+        <v>0</v>
+      </c>
+      <c r="O29" s="36">
+        <v>0</v>
+      </c>
+      <c r="P29" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="36">
+        <v>1</v>
+      </c>
+      <c r="R29" s="36" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" t="s">
         <v>142</v>
-      </c>
-      <c r="B30" s="65" t="s">
-        <v>159</v>
       </c>
       <c r="C30" s="61">
         <v>3021000</v>
       </c>
-      <c r="D30" s="62">
-        <v>1</v>
-      </c>
-      <c r="E30" s="62">
-        <v>0</v>
-      </c>
-      <c r="F30" s="62">
-        <v>0</v>
-      </c>
-      <c r="G30" s="62" t="s">
+      <c r="D30" s="36">
+        <v>1</v>
+      </c>
+      <c r="E30" s="36">
+        <v>0</v>
+      </c>
+      <c r="F30" s="36">
+        <v>0</v>
+      </c>
+      <c r="G30" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="62">
+      <c r="H30" s="36">
         <v>0.98</v>
       </c>
-      <c r="I30" s="62">
-        <v>0</v>
-      </c>
-      <c r="J30" s="62">
-        <v>1</v>
-      </c>
-      <c r="K30" s="62">
-        <v>0</v>
-      </c>
-      <c r="L30" s="62" t="s">
+      <c r="I30" s="36">
+        <v>0</v>
+      </c>
+      <c r="J30" s="36">
+        <v>1</v>
+      </c>
+      <c r="K30" s="36">
+        <v>0</v>
+      </c>
+      <c r="L30" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="M30" s="62" t="s">
+      <c r="M30" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="N30" s="62">
-        <v>0</v>
-      </c>
-      <c r="O30" s="62">
-        <v>0</v>
-      </c>
-      <c r="P30" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="62">
-        <v>1</v>
-      </c>
-      <c r="R30" s="62" t="s">
+      <c r="N30" s="36">
+        <v>0</v>
+      </c>
+      <c r="O30" s="36">
+        <v>0</v>
+      </c>
+      <c r="P30" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="36">
+        <v>1</v>
+      </c>
+      <c r="R30" s="36" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="62" t="s">
-        <v>169</v>
-      </c>
-      <c r="B31" s="65" t="s">
-        <v>149</v>
+      <c r="A31" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" t="s">
+        <v>135</v>
       </c>
       <c r="C31" s="61">
         <v>21895243.97692433</v>
       </c>
-      <c r="D31" s="62">
-        <v>1</v>
-      </c>
-      <c r="E31" s="62">
-        <v>0</v>
-      </c>
-      <c r="F31" s="62">
-        <v>0</v>
-      </c>
-      <c r="G31" s="62" t="s">
+      <c r="D31" s="36">
+        <v>1</v>
+      </c>
+      <c r="E31" s="36">
+        <v>0</v>
+      </c>
+      <c r="F31" s="36">
+        <v>0</v>
+      </c>
+      <c r="G31" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="62">
+      <c r="H31" s="36">
         <v>0.97</v>
       </c>
-      <c r="I31" s="62">
-        <v>0</v>
-      </c>
-      <c r="J31" s="62">
-        <v>1</v>
-      </c>
-      <c r="K31" s="62">
-        <v>0</v>
-      </c>
-      <c r="L31" s="62" t="s">
+      <c r="I31" s="36">
+        <v>0</v>
+      </c>
+      <c r="J31" s="36">
+        <v>1</v>
+      </c>
+      <c r="K31" s="36">
+        <v>0</v>
+      </c>
+      <c r="L31" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="M31" s="62" t="s">
+      <c r="M31" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="N31" s="62">
-        <v>0</v>
-      </c>
-      <c r="O31" s="62">
-        <v>0</v>
-      </c>
-      <c r="P31" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="62">
-        <v>1</v>
-      </c>
-      <c r="R31" s="62" t="s">
+      <c r="N31" s="36">
+        <v>0</v>
+      </c>
+      <c r="O31" s="36">
+        <v>0</v>
+      </c>
+      <c r="P31" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="36">
+        <v>1</v>
+      </c>
+      <c r="R31" s="36" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="B32" s="64" t="s">
-        <v>127</v>
+      <c r="A32" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" s="63" t="s">
+        <v>126</v>
       </c>
       <c r="C32" s="61">
         <v>1620000</v>
       </c>
-      <c r="D32" s="62">
-        <v>1</v>
-      </c>
-      <c r="E32" s="62">
-        <v>0</v>
-      </c>
-      <c r="F32" s="62">
-        <v>0</v>
-      </c>
-      <c r="G32" s="62" t="s">
+      <c r="D32" s="36">
+        <v>1</v>
+      </c>
+      <c r="E32" s="36">
+        <v>0</v>
+      </c>
+      <c r="F32" s="36">
+        <v>0</v>
+      </c>
+      <c r="G32" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="62">
+      <c r="H32" s="36">
         <v>0.98899999999999999</v>
       </c>
-      <c r="I32" s="62">
-        <v>0</v>
-      </c>
-      <c r="J32" s="62">
-        <v>1</v>
-      </c>
-      <c r="K32" s="62">
-        <v>0</v>
-      </c>
-      <c r="L32" s="62" t="s">
+      <c r="I32" s="36">
+        <v>0</v>
+      </c>
+      <c r="J32" s="36">
+        <v>1</v>
+      </c>
+      <c r="K32" s="36">
+        <v>0</v>
+      </c>
+      <c r="L32" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="M32" s="62" t="s">
+      <c r="M32" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="N32" s="62">
-        <v>0</v>
-      </c>
-      <c r="O32" s="62">
-        <v>0</v>
-      </c>
-      <c r="P32" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="62">
-        <v>1</v>
-      </c>
-      <c r="R32" s="62" t="s">
+      <c r="N32" s="36">
+        <v>0</v>
+      </c>
+      <c r="O32" s="36">
+        <v>0</v>
+      </c>
+      <c r="P32" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="36">
+        <v>1</v>
+      </c>
+      <c r="R32" s="36" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="62" t="s">
-        <v>168</v>
-      </c>
-      <c r="B33" s="64" t="s">
-        <v>155</v>
+      <c r="A33" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="63" t="s">
+        <v>138</v>
       </c>
       <c r="C33" s="61">
         <v>30674921.313818198</v>
       </c>
-      <c r="D33" s="62">
-        <v>1</v>
-      </c>
-      <c r="E33" s="62">
-        <v>0</v>
-      </c>
-      <c r="F33" s="62">
-        <v>0</v>
-      </c>
-      <c r="G33" s="62" t="s">
+      <c r="D33" s="36">
+        <v>1</v>
+      </c>
+      <c r="E33" s="36">
+        <v>0</v>
+      </c>
+      <c r="F33" s="36">
+        <v>0</v>
+      </c>
+      <c r="G33" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H33" s="62">
+      <c r="H33" s="36">
         <v>0.9</v>
       </c>
-      <c r="I33" s="62">
-        <v>0</v>
-      </c>
-      <c r="J33" s="62">
-        <v>1</v>
-      </c>
-      <c r="K33" s="62">
-        <v>0</v>
-      </c>
-      <c r="L33" s="62" t="s">
+      <c r="I33" s="36">
+        <v>0</v>
+      </c>
+      <c r="J33" s="36">
+        <v>1</v>
+      </c>
+      <c r="K33" s="36">
+        <v>0</v>
+      </c>
+      <c r="L33" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="M33" s="62" t="s">
+      <c r="M33" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="N33" s="62">
-        <v>0</v>
-      </c>
-      <c r="O33" s="62">
-        <v>0</v>
-      </c>
-      <c r="P33" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="62">
-        <v>1</v>
-      </c>
-      <c r="R33" s="62" t="s">
+      <c r="N33" s="36">
+        <v>0</v>
+      </c>
+      <c r="O33" s="36">
+        <v>0</v>
+      </c>
+      <c r="P33" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="36">
+        <v>1</v>
+      </c>
+      <c r="R33" s="36" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="B34" s="64" t="s">
-        <v>160</v>
+      <c r="B34" s="63" t="s">
+        <v>143</v>
       </c>
       <c r="C34" s="61">
         <v>13500000</v>
       </c>
-      <c r="D34" s="62">
-        <v>1</v>
-      </c>
-      <c r="E34" s="62">
-        <v>0</v>
-      </c>
-      <c r="F34" s="62">
-        <v>0</v>
-      </c>
-      <c r="G34" s="62" t="s">
+      <c r="D34" s="36">
+        <v>1</v>
+      </c>
+      <c r="E34" s="36">
+        <v>0</v>
+      </c>
+      <c r="F34" s="36">
+        <v>0</v>
+      </c>
+      <c r="G34" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H34" s="62">
+      <c r="H34" s="36">
         <v>0.97299999999999998</v>
       </c>
-      <c r="I34" s="62">
-        <v>0</v>
-      </c>
-      <c r="J34" s="62">
-        <v>1</v>
-      </c>
-      <c r="K34" s="62">
-        <v>0</v>
-      </c>
-      <c r="L34" s="62" t="s">
+      <c r="I34" s="36">
+        <v>0</v>
+      </c>
+      <c r="J34" s="36">
+        <v>1</v>
+      </c>
+      <c r="K34" s="36">
+        <v>0</v>
+      </c>
+      <c r="L34" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="M34" s="62" t="s">
+      <c r="M34" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="N34" s="62">
-        <v>0</v>
-      </c>
-      <c r="O34" s="62">
-        <v>0</v>
-      </c>
-      <c r="P34" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="62">
-        <v>1</v>
-      </c>
-      <c r="R34" s="62" t="s">
+      <c r="N34" s="36">
+        <v>0</v>
+      </c>
+      <c r="O34" s="36">
+        <v>0</v>
+      </c>
+      <c r="P34" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="36">
+        <v>1</v>
+      </c>
+      <c r="R34" s="36" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="B35" s="62" t="s">
-        <v>161</v>
+      <c r="B35" s="36" t="s">
+        <v>144</v>
       </c>
       <c r="C35" s="61">
         <v>13500000</v>
       </c>
-      <c r="D35" s="62">
-        <v>1</v>
-      </c>
-      <c r="E35" s="62">
-        <v>0</v>
-      </c>
-      <c r="F35" s="62">
-        <v>0</v>
-      </c>
-      <c r="G35" s="62" t="s">
+      <c r="D35" s="36">
+        <v>1</v>
+      </c>
+      <c r="E35" s="36">
+        <v>0</v>
+      </c>
+      <c r="F35" s="36">
+        <v>0</v>
+      </c>
+      <c r="G35" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H35" s="62">
+      <c r="H35" s="36">
         <v>0.98</v>
       </c>
-      <c r="I35" s="62">
-        <v>0</v>
-      </c>
-      <c r="J35" s="62">
-        <v>1</v>
-      </c>
-      <c r="K35" s="62">
-        <v>0</v>
-      </c>
-      <c r="L35" s="62" t="s">
+      <c r="I35" s="36">
+        <v>0</v>
+      </c>
+      <c r="J35" s="36">
+        <v>1</v>
+      </c>
+      <c r="K35" s="36">
+        <v>0</v>
+      </c>
+      <c r="L35" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="M35" s="62" t="s">
+      <c r="M35" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="N35" s="62">
-        <v>0</v>
-      </c>
-      <c r="O35" s="62">
-        <v>0</v>
-      </c>
-      <c r="P35" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="62">
-        <v>1</v>
-      </c>
-      <c r="R35" s="62" t="s">
+      <c r="N35" s="36">
+        <v>0</v>
+      </c>
+      <c r="O35" s="36">
+        <v>0</v>
+      </c>
+      <c r="P35" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="36">
+        <v>1</v>
+      </c>
+      <c r="R35" s="36" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="B36" s="62" t="s">
-        <v>133</v>
+      <c r="B36" s="36" t="s">
+        <v>129</v>
       </c>
       <c r="C36" s="61">
         <v>92345330.174345016</v>
       </c>
-      <c r="D36" s="62">
-        <v>1</v>
-      </c>
-      <c r="E36" s="62">
-        <v>0</v>
-      </c>
-      <c r="F36" s="62">
-        <v>0</v>
-      </c>
-      <c r="G36" s="62" t="s">
+      <c r="D36" s="36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="36">
+        <v>0</v>
+      </c>
+      <c r="F36" s="36">
+        <v>0</v>
+      </c>
+      <c r="G36" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H36" s="62">
+      <c r="H36" s="36">
         <v>0.83</v>
       </c>
-      <c r="I36" s="62">
-        <v>0</v>
-      </c>
-      <c r="J36" s="62">
-        <v>1</v>
-      </c>
-      <c r="K36" s="62">
-        <v>0</v>
-      </c>
-      <c r="L36" s="62" t="s">
+      <c r="I36" s="36">
+        <v>0</v>
+      </c>
+      <c r="J36" s="36">
+        <v>1</v>
+      </c>
+      <c r="K36" s="36">
+        <v>0</v>
+      </c>
+      <c r="L36" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="M36" s="62" t="s">
+      <c r="M36" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="N36" s="62">
-        <v>0</v>
-      </c>
-      <c r="O36" s="62">
-        <v>0</v>
-      </c>
-      <c r="P36" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="62">
-        <v>1</v>
-      </c>
-      <c r="R36" s="62" t="s">
+      <c r="N36" s="36">
+        <v>0</v>
+      </c>
+      <c r="O36" s="36">
+        <v>0</v>
+      </c>
+      <c r="P36" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="36">
+        <v>1</v>
+      </c>
+      <c r="R36" s="36" t="s">
         <v>89</v>
       </c>
     </row>
@@ -10925,10 +10923,10 @@
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="2" width="16.54296875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -11767,13 +11765,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="32.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.7265625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -11786,7 +11784,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="13">
       <c r="A4" s="14" t="s">
         <v>48</v>
       </c>
@@ -11837,7 +11835,7 @@
       </c>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:11" ht="14.25">
+    <row r="9" spans="1:11" ht="14.5">
       <c r="A9" s="2" t="s">
         <v>52</v>
       </c>
@@ -11855,7 +11853,7 @@
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
     </row>
-    <row r="11" spans="1:11" ht="14.25">
+    <row r="11" spans="1:11" ht="14.5">
       <c r="A11" s="2" t="s">
         <v>54</v>
       </c>
@@ -11895,7 +11893,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="13">
       <c r="A15" s="7" t="s">
         <v>59</v>
       </c>
@@ -11907,7 +11905,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" ht="13">
       <c r="A18" s="13" t="s">
         <v>43</v>
       </c>
@@ -11946,7 +11944,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" ht="13">
       <c r="A22" s="1" t="s">
         <v>64</v>
       </c>
@@ -11958,7 +11956,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" ht="13">
       <c r="A24" s="13" t="s">
         <v>40</v>
       </c>
@@ -11984,7 +11982,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" ht="13">
       <c r="A26" s="6" t="s">
         <v>59</v>
       </c>
@@ -11996,7 +11994,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" ht="13">
       <c r="A28" s="13" t="s">
         <v>41</v>
       </c>
@@ -12060,7 +12058,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" ht="13">
       <c r="A34" s="6" t="s">
         <v>59</v>
       </c>
@@ -12072,7 +12070,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" ht="13">
       <c r="A36" s="13" t="s">
         <v>42</v>
       </c>
@@ -12149,7 +12147,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" ht="13">
       <c r="A43" s="6" t="s">
         <v>59</v>
       </c>
@@ -12173,19 +12171,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1"/>
-    <col min="8" max="8" width="11.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.453125" style="1"/>
+    <col min="2" max="2" width="5.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="1"/>
+    <col min="8" max="8" width="11.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.26953125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -12225,7 +12223,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="13">
       <c r="A4" s="1">
         <v>2012</v>
       </c>
@@ -12265,7 +12263,7 @@
         <v>191904375.02062601</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="13">
       <c r="A5" s="1">
         <v>2013</v>
       </c>
@@ -12305,7 +12303,7 @@
         <v>183502462.52103853</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="13">
       <c r="A6" s="1">
         <v>2014</v>
       </c>
@@ -12345,7 +12343,7 @@
         <v>174932511.77145931</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="13">
       <c r="A7" s="1">
         <v>2015</v>
       </c>
@@ -12385,7 +12383,7 @@
         <v>166191162.00688851</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="13">
       <c r="A8" s="1">
         <v>2016</v>
       </c>
@@ -12425,7 +12423,7 @@
         <v>157274985.24702629</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="13">
       <c r="A9" s="1">
         <v>2017</v>
       </c>
@@ -12465,7 +12463,7 @@
         <v>148180484.95196682</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="13">
       <c r="A10" s="1">
         <v>2018</v>
       </c>
@@ -12505,7 +12503,7 @@
         <v>138904094.65100616</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="13">
       <c r="A11" s="1">
         <v>2019</v>
       </c>
@@ -12545,7 +12543,7 @@
         <v>129442176.54402629</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="13">
       <c r="A12" s="1">
         <v>2020</v>
       </c>
@@ -12585,7 +12583,7 @@
         <v>119791020.07490681</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="13">
       <c r="A13" s="1">
         <v>2021</v>
       </c>
@@ -12625,7 +12623,7 @@
         <v>109946840.47640495</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="13">
       <c r="A14" s="1">
         <v>2022</v>
       </c>
@@ -12665,7 +12663,7 @@
         <v>99905777.285933048</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="13">
       <c r="A15" s="1">
         <v>2023</v>
       </c>
@@ -12705,7 +12703,7 @@
         <v>89663892.831651717</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" ht="13">
       <c r="A16" s="1">
         <v>2024</v>
       </c>
@@ -12745,7 +12743,7 @@
         <v>79217170.688284755</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" ht="13">
       <c r="A17" s="1">
         <v>2025</v>
       </c>
@@ -12785,7 +12783,7 @@
         <v>68561514.102050453</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" ht="13">
       <c r="A18" s="1">
         <v>2026</v>
       </c>
@@ -12825,7 +12823,7 @@
         <v>57692744.384091474</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" ht="13">
       <c r="A19" s="1">
         <v>2027</v>
       </c>
@@ -12865,7 +12863,7 @@
         <v>46606599.271773301</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" ht="13">
       <c r="A20" s="1">
         <v>2028</v>
       </c>
@@ -12905,7 +12903,7 @@
         <v>35298731.257208765</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="13">
       <c r="A21" s="1">
         <v>2029</v>
       </c>
@@ -12945,7 +12943,7 @@
         <v>23764705.882352941</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" ht="13">
       <c r="A22" s="1">
         <v>2030</v>
       </c>
@@ -12999,2269 +12997,2269 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="95.85546875" customWidth="1"/>
-    <col min="257" max="261" width="10.85546875" customWidth="1"/>
-    <col min="263" max="266" width="10.85546875" customWidth="1"/>
-    <col min="269" max="269" width="10.85546875" customWidth="1"/>
-    <col min="272" max="272" width="10.85546875" customWidth="1"/>
-    <col min="274" max="274" width="10.85546875" customWidth="1"/>
-    <col min="276" max="277" width="10.85546875" customWidth="1"/>
-    <col min="280" max="282" width="10.85546875" customWidth="1"/>
-    <col min="284" max="284" width="10.85546875" customWidth="1"/>
-    <col min="288" max="290" width="10.85546875" customWidth="1"/>
-    <col min="292" max="292" width="10.85546875" customWidth="1"/>
-    <col min="296" max="296" width="10.85546875" customWidth="1"/>
-    <col min="298" max="298" width="10.85546875" customWidth="1"/>
-    <col min="300" max="301" width="10.85546875" customWidth="1"/>
-    <col min="304" max="305" width="10.85546875" customWidth="1"/>
-    <col min="307" max="308" width="10.85546875" customWidth="1"/>
-    <col min="312" max="312" width="10.85546875" customWidth="1"/>
-    <col min="315" max="316" width="10.85546875" customWidth="1"/>
-    <col min="320" max="322" width="10.85546875" customWidth="1"/>
-    <col min="325" max="325" width="10.85546875" customWidth="1"/>
-    <col min="327" max="333" width="10.85546875" customWidth="1"/>
-    <col min="335" max="337" width="10.85546875" customWidth="1"/>
-    <col min="341" max="341" width="10.85546875" customWidth="1"/>
-    <col min="344" max="344" width="10.85546875" customWidth="1"/>
-    <col min="346" max="346" width="10.85546875" customWidth="1"/>
-    <col min="348" max="348" width="10.85546875" customWidth="1"/>
-    <col min="352" max="352" width="10.85546875" customWidth="1"/>
-    <col min="354" max="354" width="10.85546875" customWidth="1"/>
-    <col min="357" max="357" width="10.85546875" customWidth="1"/>
-    <col min="360" max="361" width="10.85546875" customWidth="1"/>
-    <col min="363" max="365" width="10.85546875" customWidth="1"/>
-    <col min="368" max="368" width="10.85546875" customWidth="1"/>
-    <col min="370" max="370" width="10.85546875" customWidth="1"/>
-    <col min="372" max="373" width="10.85546875" customWidth="1"/>
-    <col min="376" max="377" width="10.85546875" customWidth="1"/>
-    <col min="379" max="380" width="10.85546875" customWidth="1"/>
-    <col min="384" max="384" width="10.85546875" customWidth="1"/>
-    <col min="387" max="388" width="10.85546875" customWidth="1"/>
-    <col min="392" max="397" width="10.85546875" customWidth="1"/>
-    <col min="399" max="400" width="10.85546875" customWidth="1"/>
-    <col min="402" max="405" width="10.85546875" customWidth="1"/>
-    <col min="408" max="409" width="10.85546875" customWidth="1"/>
-    <col min="413" max="413" width="10.85546875" customWidth="1"/>
-    <col min="416" max="418" width="10.85546875" customWidth="1"/>
-    <col min="420" max="421" width="10.85546875" customWidth="1"/>
-    <col min="424" max="429" width="10.85546875" customWidth="1"/>
-    <col min="431" max="432" width="10.85546875" customWidth="1"/>
-    <col min="435" max="436" width="10.85546875" customWidth="1"/>
-    <col min="440" max="444" width="10.85546875" customWidth="1"/>
-    <col min="448" max="448" width="10.85546875" customWidth="1"/>
-    <col min="450" max="453" width="10.85546875" customWidth="1"/>
-    <col min="456" max="456" width="10.85546875" customWidth="1"/>
-    <col min="459" max="461" width="10.85546875" customWidth="1"/>
-    <col min="464" max="464" width="10.85546875" customWidth="1"/>
-    <col min="466" max="466" width="10.85546875" customWidth="1"/>
-    <col min="468" max="469" width="10.85546875" customWidth="1"/>
-    <col min="472" max="472" width="10.85546875" customWidth="1"/>
-    <col min="475" max="476" width="10.85546875" customWidth="1"/>
-    <col min="480" max="482" width="10.85546875" customWidth="1"/>
-    <col min="485" max="485" width="10.85546875" customWidth="1"/>
-    <col min="487" max="493" width="10.85546875" customWidth="1"/>
-    <col min="495" max="498" width="10.85546875" customWidth="1"/>
-    <col min="500" max="501" width="10.85546875" customWidth="1"/>
-    <col min="504" max="504" width="10.85546875" customWidth="1"/>
-    <col min="509" max="509" width="10.85546875" customWidth="1"/>
-    <col min="512" max="517" width="10.85546875" customWidth="1"/>
-    <col min="519" max="521" width="10.85546875" customWidth="1"/>
-    <col min="525" max="525" width="10.85546875" customWidth="1"/>
-    <col min="528" max="528" width="10.85546875" customWidth="1"/>
-    <col min="533" max="533" width="10.85546875" customWidth="1"/>
-    <col min="536" max="538" width="10.85546875" customWidth="1"/>
-    <col min="540" max="540" width="10.85546875" customWidth="1"/>
-    <col min="544" max="549" width="10.85546875" customWidth="1"/>
-    <col min="551" max="552" width="10.85546875" customWidth="1"/>
-    <col min="555" max="556" width="10.85546875" customWidth="1"/>
-    <col min="560" max="562" width="10.85546875" customWidth="1"/>
-    <col min="564" max="564" width="10.85546875" customWidth="1"/>
-    <col min="568" max="568" width="10.85546875" customWidth="1"/>
-    <col min="570" max="573" width="10.85546875" customWidth="1"/>
-    <col min="576" max="577" width="10.85546875" customWidth="1"/>
-    <col min="579" max="580" width="10.85546875" customWidth="1"/>
-    <col min="584" max="586" width="10.85546875" customWidth="1"/>
-    <col min="588" max="588" width="10.85546875" customWidth="1"/>
-    <col min="592" max="597" width="10.85546875" customWidth="1"/>
-    <col min="599" max="600" width="10.85546875" customWidth="1"/>
-    <col min="604" max="604" width="10.85546875" customWidth="1"/>
-    <col min="608" max="608" width="10.85546875" customWidth="1"/>
-    <col min="610" max="611" width="10.85546875" customWidth="1"/>
-    <col min="613" max="613" width="10.85546875" customWidth="1"/>
-    <col min="616" max="618" width="10.85546875" customWidth="1"/>
-    <col min="620" max="620" width="10.85546875" customWidth="1"/>
-    <col min="624" max="627" width="10.85546875" customWidth="1"/>
-    <col min="629" max="629" width="10.85546875" customWidth="1"/>
-    <col min="632" max="637" width="10.85546875" customWidth="1"/>
-    <col min="639" max="640" width="10.85546875" customWidth="1"/>
-    <col min="642" max="645" width="10.85546875" customWidth="1"/>
-    <col min="648" max="653" width="10.85546875" customWidth="1"/>
-    <col min="655" max="657" width="10.85546875" customWidth="1"/>
-    <col min="661" max="661" width="10.85546875" customWidth="1"/>
-    <col min="664" max="664" width="10.85546875" customWidth="1"/>
-    <col min="666" max="666" width="10.85546875" customWidth="1"/>
-    <col min="668" max="668" width="10.85546875" customWidth="1"/>
-    <col min="672" max="672" width="10.85546875" customWidth="1"/>
-    <col min="674" max="674" width="10.85546875" customWidth="1"/>
-    <col min="677" max="677" width="10.85546875" customWidth="1"/>
-    <col min="680" max="681" width="10.85546875" customWidth="1"/>
-    <col min="683" max="685" width="10.85546875" customWidth="1"/>
-    <col min="688" max="688" width="10.85546875" customWidth="1"/>
-    <col min="690" max="690" width="10.85546875" customWidth="1"/>
-    <col min="692" max="693" width="10.85546875" customWidth="1"/>
-    <col min="696" max="697" width="10.85546875" customWidth="1"/>
-    <col min="699" max="700" width="10.85546875" customWidth="1"/>
-    <col min="704" max="704" width="10.85546875" customWidth="1"/>
-    <col min="708" max="709" width="10.85546875" customWidth="1"/>
-    <col min="712" max="712" width="10.85546875" customWidth="1"/>
-    <col min="714" max="714" width="10.85546875" customWidth="1"/>
-    <col min="716" max="717" width="10.85546875" customWidth="1"/>
-    <col min="720" max="721" width="10.85546875" customWidth="1"/>
-    <col min="723" max="724" width="10.85546875" customWidth="1"/>
-    <col min="728" max="733" width="10.85546875" customWidth="1"/>
-    <col min="735" max="736" width="10.85546875" customWidth="1"/>
-    <col min="738" max="739" width="10.85546875" customWidth="1"/>
-    <col min="741" max="742" width="10.85546875" customWidth="1"/>
-    <col min="744" max="746" width="10.85546875" customWidth="1"/>
-    <col min="748" max="750" width="10.85546875" customWidth="1"/>
-    <col min="752" max="752" width="10.85546875" customWidth="1"/>
-    <col min="755" max="756" width="10.85546875" customWidth="1"/>
-    <col min="760" max="765" width="10.85546875" customWidth="1"/>
-    <col min="767" max="771" width="10.85546875" customWidth="1"/>
-    <col min="773" max="773" width="10.85546875" customWidth="1"/>
-    <col min="775" max="776" width="10.85546875" customWidth="1"/>
-    <col min="778" max="779" width="10.85546875" customWidth="1"/>
-    <col min="781" max="781" width="10.85546875" customWidth="1"/>
-    <col min="784" max="785" width="10.85546875" customWidth="1"/>
-    <col min="789" max="789" width="10.85546875" customWidth="1"/>
-    <col min="791" max="792" width="10.85546875" customWidth="1"/>
-    <col min="794" max="794" width="10.85546875" customWidth="1"/>
-    <col min="796" max="797" width="10.85546875" customWidth="1"/>
-    <col min="800" max="801" width="10.85546875" customWidth="1"/>
-    <col min="805" max="805" width="10.85546875" customWidth="1"/>
-    <col min="807" max="813" width="10.85546875" customWidth="1"/>
-    <col min="815" max="817" width="10.85546875" customWidth="1"/>
-    <col min="821" max="821" width="10.85546875" customWidth="1"/>
-    <col min="824" max="824" width="10.85546875" customWidth="1"/>
-    <col min="829" max="829" width="10.85546875" customWidth="1"/>
-    <col min="832" max="834" width="10.85546875" customWidth="1"/>
-    <col min="836" max="836" width="10.85546875" customWidth="1"/>
-    <col min="840" max="845" width="10.85546875" customWidth="1"/>
-    <col min="847" max="849" width="10.85546875" customWidth="1"/>
-    <col min="852" max="853" width="10.85546875" customWidth="1"/>
-    <col min="856" max="856" width="10.85546875" customWidth="1"/>
-    <col min="861" max="861" width="10.85546875" customWidth="1"/>
-    <col min="864" max="865" width="10.85546875" customWidth="1"/>
-    <col min="867" max="868" width="10.85546875" customWidth="1"/>
-    <col min="872" max="877" width="10.85546875" customWidth="1"/>
-    <col min="879" max="884" width="10.85546875" customWidth="1"/>
-    <col min="886" max="886" width="10.85546875" customWidth="1"/>
-    <col min="888" max="888" width="10.85546875" customWidth="1"/>
-    <col min="890" max="890" width="10.85546875" customWidth="1"/>
-    <col min="892" max="893" width="10.85546875" customWidth="1"/>
-    <col min="896" max="897" width="10.85546875" customWidth="1"/>
-    <col min="899" max="900" width="10.85546875" customWidth="1"/>
-    <col min="904" max="904" width="10.85546875" customWidth="1"/>
-    <col min="906" max="907" width="10.85546875" customWidth="1"/>
-    <col min="909" max="909" width="10.85546875" customWidth="1"/>
-    <col min="912" max="914" width="10.85546875" customWidth="1"/>
-    <col min="917" max="917" width="10.85546875" customWidth="1"/>
-    <col min="920" max="920" width="10.85546875" customWidth="1"/>
-    <col min="922" max="923" width="10.85546875" customWidth="1"/>
-    <col min="925" max="926" width="10.85546875" customWidth="1"/>
-    <col min="928" max="930" width="10.85546875" customWidth="1"/>
-    <col min="932" max="934" width="10.85546875" customWidth="1"/>
-    <col min="936" max="936" width="10.85546875" customWidth="1"/>
-    <col min="938" max="939" width="10.85546875" customWidth="1"/>
-    <col min="941" max="941" width="10.85546875" customWidth="1"/>
-    <col min="943" max="944" width="10.85546875" customWidth="1"/>
-    <col min="946" max="946" width="10.85546875" customWidth="1"/>
-    <col min="949" max="952" width="10.85546875" customWidth="1"/>
-    <col min="954" max="954" width="10.85546875" customWidth="1"/>
-    <col min="957" max="960" width="10.85546875" customWidth="1"/>
-    <col min="964" max="964" width="10.85546875" customWidth="1"/>
-    <col min="968" max="971" width="10.85546875" customWidth="1"/>
-    <col min="973" max="973" width="10.85546875" customWidth="1"/>
-    <col min="976" max="976" width="10.85546875" customWidth="1"/>
-    <col min="978" max="979" width="10.85546875" customWidth="1"/>
-    <col min="981" max="981" width="10.85546875" customWidth="1"/>
-    <col min="984" max="984" width="10.85546875" customWidth="1"/>
-    <col min="987" max="989" width="10.85546875" customWidth="1"/>
-    <col min="992" max="995" width="10.85546875" customWidth="1"/>
-    <col min="997" max="997" width="10.85546875" customWidth="1"/>
-    <col min="1000" max="1005" width="10.85546875" customWidth="1"/>
-    <col min="1007" max="1008" width="10.85546875" customWidth="1"/>
-    <col min="1010" max="1011" width="10.85546875" customWidth="1"/>
-    <col min="1013" max="1013" width="10.85546875" customWidth="1"/>
-    <col min="1016" max="1018" width="10.85546875" customWidth="1"/>
-    <col min="1020" max="1020" width="10.85546875" customWidth="1"/>
-    <col min="1024" max="1024" width="10.85546875" customWidth="1"/>
-    <col min="1026" max="1026" width="10.85546875" customWidth="1"/>
-    <col min="1028" max="1029" width="10.85546875" customWidth="1"/>
-    <col min="1032" max="1032" width="10.85546875" customWidth="1"/>
-    <col min="1034" max="1034" width="10.85546875" customWidth="1"/>
-    <col min="1037" max="1037" width="10.85546875" customWidth="1"/>
-    <col min="1040" max="1045" width="10.85546875" customWidth="1"/>
-    <col min="1047" max="1050" width="10.85546875" customWidth="1"/>
-    <col min="1052" max="1052" width="10.85546875" customWidth="1"/>
-    <col min="1056" max="1059" width="10.85546875" customWidth="1"/>
-    <col min="1061" max="1061" width="10.85546875" customWidth="1"/>
-    <col min="1064" max="1064" width="10.85546875" customWidth="1"/>
-    <col min="1066" max="1066" width="10.85546875" customWidth="1"/>
-    <col min="1068" max="1069" width="10.85546875" customWidth="1"/>
-    <col min="1072" max="1077" width="10.85546875" customWidth="1"/>
-    <col min="1079" max="1080" width="10.85546875" customWidth="1"/>
-    <col min="1083" max="1084" width="10.85546875" customWidth="1"/>
-    <col min="1088" max="1092" width="10.85546875" customWidth="1"/>
-    <col min="1096" max="1096" width="10.85546875" customWidth="1"/>
-    <col min="1098" max="1098" width="10.85546875" customWidth="1"/>
-    <col min="1100" max="1101" width="10.85546875" customWidth="1"/>
-    <col min="1104" max="1104" width="10.85546875" customWidth="1"/>
-    <col min="1106" max="1109" width="10.85546875" customWidth="1"/>
-    <col min="1112" max="1112" width="10.85546875" customWidth="1"/>
-    <col min="1115" max="1115" width="10.85546875" customWidth="1"/>
-    <col min="1117" max="1117" width="10.85546875" customWidth="1"/>
-    <col min="1120" max="1120" width="10.85546875" customWidth="1"/>
-    <col min="1122" max="1123" width="10.85546875" customWidth="1"/>
-    <col min="1125" max="1125" width="10.85546875" customWidth="1"/>
-    <col min="1128" max="1129" width="10.85546875" customWidth="1"/>
-    <col min="1133" max="1133" width="10.85546875" customWidth="1"/>
-    <col min="1136" max="1136" width="10.85546875" customWidth="1"/>
-    <col min="1140" max="1141" width="10.85546875" customWidth="1"/>
-    <col min="1144" max="1149" width="10.85546875" customWidth="1"/>
-    <col min="1151" max="1153" width="10.85546875" customWidth="1"/>
-    <col min="1157" max="1157" width="10.85546875" customWidth="1"/>
-    <col min="1160" max="1160" width="10.85546875" customWidth="1"/>
-    <col min="1162" max="1165" width="10.85546875" customWidth="1"/>
-    <col min="1168" max="1168" width="10.85546875" customWidth="1"/>
-    <col min="1170" max="1170" width="10.85546875" customWidth="1"/>
-    <col min="1173" max="1173" width="10.85546875" customWidth="1"/>
-    <col min="1176" max="1176" width="10.85546875" customWidth="1"/>
-    <col min="1178" max="1178" width="10.85546875" customWidth="1"/>
-    <col min="1180" max="1181" width="10.85546875" customWidth="1"/>
-    <col min="1184" max="1189" width="10.85546875" customWidth="1"/>
-    <col min="1191" max="1193" width="10.85546875" customWidth="1"/>
-    <col min="1196" max="1197" width="10.85546875" customWidth="1"/>
-    <col min="1200" max="1200" width="10.85546875" customWidth="1"/>
-    <col min="1205" max="1205" width="10.85546875" customWidth="1"/>
-    <col min="1208" max="1209" width="10.85546875" customWidth="1"/>
-    <col min="1211" max="1212" width="10.85546875" customWidth="1"/>
-    <col min="1216" max="1221" width="10.85546875" customWidth="1"/>
-    <col min="1223" max="1224" width="10.85546875" customWidth="1"/>
-    <col min="1226" max="1229" width="10.85546875" customWidth="1"/>
-    <col min="1232" max="1233" width="10.85546875" customWidth="1"/>
-    <col min="1237" max="1237" width="10.85546875" customWidth="1"/>
-    <col min="1240" max="1245" width="10.85546875" customWidth="1"/>
-    <col min="1247" max="1248" width="10.85546875" customWidth="1"/>
-    <col min="1250" max="1251" width="10.85546875" customWidth="1"/>
-    <col min="1253" max="1254" width="10.85546875" customWidth="1"/>
-    <col min="1256" max="1258" width="10.85546875" customWidth="1"/>
-    <col min="1260" max="1262" width="10.85546875" customWidth="1"/>
-    <col min="1264" max="1269" width="10.85546875" customWidth="1"/>
-    <col min="1271" max="1272" width="10.85546875" customWidth="1"/>
-    <col min="1275" max="1276" width="10.85546875" customWidth="1"/>
-    <col min="1280" max="1283" width="10.85546875" customWidth="1"/>
-    <col min="1285" max="1285" width="10.85546875" customWidth="1"/>
-    <col min="1288" max="1288" width="10.85546875" customWidth="1"/>
-    <col min="1290" max="1293" width="10.85546875" customWidth="1"/>
-    <col min="1296" max="1298" width="10.85546875" customWidth="1"/>
-    <col min="1301" max="1301" width="10.85546875" customWidth="1"/>
-    <col min="1304" max="1306" width="10.85546875" customWidth="1"/>
-    <col min="1309" max="1309" width="10.85546875" customWidth="1"/>
-    <col min="1312" max="1317" width="10.85546875" customWidth="1"/>
-    <col min="1319" max="1320" width="10.85546875" customWidth="1"/>
-    <col min="1323" max="1325" width="10.85546875" customWidth="1"/>
-    <col min="1328" max="1328" width="10.85546875" customWidth="1"/>
-    <col min="1333" max="1333" width="10.85546875" customWidth="1"/>
-    <col min="1336" max="1337" width="10.85546875" customWidth="1"/>
-    <col min="1339" max="1340" width="10.85546875" customWidth="1"/>
-    <col min="1344" max="1345" width="10.85546875" customWidth="1"/>
-    <col min="1347" max="1348" width="10.85546875" customWidth="1"/>
-    <col min="1352" max="1352" width="10.85546875" customWidth="1"/>
-    <col min="1354" max="1354" width="10.85546875" customWidth="1"/>
-    <col min="1356" max="1357" width="10.85546875" customWidth="1"/>
-    <col min="1360" max="1360" width="10.85546875" customWidth="1"/>
-    <col min="1363" max="1364" width="10.85546875" customWidth="1"/>
-    <col min="1368" max="1372" width="10.85546875" customWidth="1"/>
-    <col min="1376" max="1376" width="10.85546875" customWidth="1"/>
-    <col min="1381" max="1381" width="10.85546875" customWidth="1"/>
-    <col min="1384" max="1385" width="10.85546875" customWidth="1"/>
-    <col min="1389" max="1389" width="10.85546875" customWidth="1"/>
-    <col min="1392" max="1394" width="10.85546875" customWidth="1"/>
-    <col min="1396" max="1397" width="10.85546875" customWidth="1"/>
-    <col min="1400" max="1405" width="10.85546875" customWidth="1"/>
-    <col min="1407" max="1410" width="10.85546875" customWidth="1"/>
-    <col min="1412" max="1412" width="10.85546875" customWidth="1"/>
-    <col min="1416" max="1416" width="10.85546875" customWidth="1"/>
-    <col min="1421" max="1421" width="10.85546875" customWidth="1"/>
-    <col min="1424" max="1426" width="10.85546875" customWidth="1"/>
-    <col min="1429" max="1429" width="10.85546875" customWidth="1"/>
-    <col min="1431" max="1437" width="10.85546875" customWidth="1"/>
-    <col min="1439" max="1440" width="10.85546875" customWidth="1"/>
-    <col min="1443" max="1444" width="10.85546875" customWidth="1"/>
-    <col min="1448" max="1448" width="10.85546875" customWidth="1"/>
-    <col min="1450" max="1450" width="10.85546875" customWidth="1"/>
-    <col min="1452" max="1452" width="10.85546875" customWidth="1"/>
-    <col min="1456" max="1456" width="10.85546875" customWidth="1"/>
-    <col min="1459" max="1461" width="10.85546875" customWidth="1"/>
-    <col min="1464" max="1467" width="10.85546875" customWidth="1"/>
-    <col min="1469" max="1469" width="10.85546875" customWidth="1"/>
-    <col min="1472" max="1477" width="10.85546875" customWidth="1"/>
-    <col min="1479" max="1480" width="10.85546875" customWidth="1"/>
-    <col min="1482" max="1485" width="10.85546875" customWidth="1"/>
-    <col min="1488" max="1488" width="10.85546875" customWidth="1"/>
-    <col min="1491" max="1492" width="10.85546875" customWidth="1"/>
-    <col min="1496" max="1501" width="10.85546875" customWidth="1"/>
-    <col min="1503" max="1504" width="10.85546875" customWidth="1"/>
-    <col min="1507" max="1510" width="10.85546875" customWidth="1"/>
-    <col min="1512" max="1512" width="10.85546875" customWidth="1"/>
-    <col min="1514" max="1517" width="10.85546875" customWidth="1"/>
-    <col min="1520" max="1522" width="10.85546875" customWidth="1"/>
-    <col min="1524" max="1524" width="10.85546875" customWidth="1"/>
-    <col min="1528" max="1528" width="10.85546875" customWidth="1"/>
-    <col min="1530" max="1530" width="10.85546875" customWidth="1"/>
-    <col min="1532" max="1533" width="10.85546875" customWidth="1"/>
-    <col min="1536" max="1536" width="10.85546875" customWidth="1"/>
-    <col min="1540" max="1541" width="10.85546875" customWidth="1"/>
-    <col min="1544" max="1544" width="10.85546875" customWidth="1"/>
-    <col min="1549" max="1549" width="10.85546875" customWidth="1"/>
-    <col min="1552" max="1553" width="10.85546875" customWidth="1"/>
-    <col min="1555" max="1556" width="10.85546875" customWidth="1"/>
-    <col min="1560" max="1560" width="10.85546875" customWidth="1"/>
-    <col min="1562" max="1563" width="10.85546875" customWidth="1"/>
-    <col min="1568" max="1570" width="10.85546875" customWidth="1"/>
-    <col min="1573" max="1573" width="10.85546875" customWidth="1"/>
-    <col min="1575" max="1581" width="10.85546875" customWidth="1"/>
-    <col min="1583" max="1586" width="10.85546875" customWidth="1"/>
-    <col min="1588" max="1590" width="10.85546875" customWidth="1"/>
-    <col min="1592" max="1592" width="10.85546875" customWidth="1"/>
-    <col min="1594" max="1597" width="10.85546875" customWidth="1"/>
-    <col min="1600" max="1600" width="10.85546875" customWidth="1"/>
-    <col min="1602" max="1602" width="10.85546875" customWidth="1"/>
-    <col min="1605" max="1605" width="10.85546875" customWidth="1"/>
-    <col min="1608" max="1608" width="10.85546875" customWidth="1"/>
-    <col min="1610" max="1613" width="10.85546875" customWidth="1"/>
-    <col min="1616" max="1616" width="10.85546875" customWidth="1"/>
-    <col min="1620" max="1621" width="10.85546875" customWidth="1"/>
-    <col min="1624" max="1624" width="10.85546875" customWidth="1"/>
-    <col min="1626" max="1626" width="10.85546875" customWidth="1"/>
-    <col min="1628" max="1629" width="10.85546875" customWidth="1"/>
-    <col min="1632" max="1633" width="10.85546875" customWidth="1"/>
-    <col min="1636" max="1638" width="10.85546875" customWidth="1"/>
-    <col min="1640" max="1640" width="10.85546875" customWidth="1"/>
-    <col min="1642" max="1642" width="10.85546875" customWidth="1"/>
-    <col min="1644" max="1644" width="10.85546875" customWidth="1"/>
-    <col min="1648" max="1649" width="10.85546875" customWidth="1"/>
-    <col min="1653" max="1653" width="10.85546875" customWidth="1"/>
-    <col min="1656" max="1656" width="10.85546875" customWidth="1"/>
-    <col min="1658" max="1659" width="10.85546875" customWidth="1"/>
-    <col min="1661" max="1662" width="10.85546875" customWidth="1"/>
-    <col min="1664" max="1666" width="10.85546875" customWidth="1"/>
-    <col min="1668" max="1670" width="10.85546875" customWidth="1"/>
-    <col min="1672" max="1673" width="10.85546875" customWidth="1"/>
-    <col min="1677" max="1677" width="10.85546875" customWidth="1"/>
-    <col min="1679" max="1681" width="10.85546875" customWidth="1"/>
-    <col min="1685" max="1685" width="10.85546875" customWidth="1"/>
-    <col min="1687" max="1689" width="10.85546875" customWidth="1"/>
-    <col min="1693" max="1693" width="10.85546875" customWidth="1"/>
-    <col min="1695" max="1696" width="10.85546875" customWidth="1"/>
-    <col min="1698" max="1698" width="10.85546875" customWidth="1"/>
-    <col min="1701" max="1705" width="10.85546875" customWidth="1"/>
-    <col min="1707" max="1708" width="10.85546875" customWidth="1"/>
-    <col min="1712" max="1712" width="10.85546875" customWidth="1"/>
-    <col min="1714" max="1714" width="10.85546875" customWidth="1"/>
-    <col min="1716" max="1717" width="10.85546875" customWidth="1"/>
-    <col min="1720" max="1720" width="10.85546875" customWidth="1"/>
-    <col min="1723" max="1724" width="10.85546875" customWidth="1"/>
-    <col min="1728" max="1732" width="10.85546875" customWidth="1"/>
-    <col min="1736" max="1736" width="10.85546875" customWidth="1"/>
-    <col min="1738" max="1738" width="10.85546875" customWidth="1"/>
-    <col min="1740" max="1741" width="10.85546875" customWidth="1"/>
-    <col min="1744" max="1744" width="10.85546875" customWidth="1"/>
-    <col min="1747" max="1749" width="10.85546875" customWidth="1"/>
-    <col min="1752" max="1754" width="10.85546875" customWidth="1"/>
-    <col min="1756" max="1756" width="10.85546875" customWidth="1"/>
-    <col min="1760" max="1760" width="10.85546875" customWidth="1"/>
-    <col min="1762" max="1763" width="10.85546875" customWidth="1"/>
-    <col min="1765" max="1765" width="10.85546875" customWidth="1"/>
-    <col min="1768" max="1769" width="10.85546875" customWidth="1"/>
-    <col min="1772" max="1772" width="10.85546875" customWidth="1"/>
-    <col min="1776" max="1776" width="10.85546875" customWidth="1"/>
-    <col min="1778" max="1778" width="10.85546875" customWidth="1"/>
-    <col min="1780" max="1781" width="10.85546875" customWidth="1"/>
-    <col min="1784" max="1789" width="10.85546875" customWidth="1"/>
-    <col min="1791" max="1792" width="10.85546875" customWidth="1"/>
-    <col min="1797" max="1797" width="10.85546875" customWidth="1"/>
-    <col min="1800" max="1801" width="10.85546875" customWidth="1"/>
-    <col min="1804" max="1805" width="10.85546875" customWidth="1"/>
-    <col min="1808" max="1813" width="10.85546875" customWidth="1"/>
-    <col min="1815" max="1820" width="10.85546875" customWidth="1"/>
-    <col min="1824" max="1824" width="10.85546875" customWidth="1"/>
-    <col min="1826" max="1826" width="10.85546875" customWidth="1"/>
-    <col min="1828" max="1829" width="10.85546875" customWidth="1"/>
-    <col min="1832" max="1833" width="10.85546875" customWidth="1"/>
-    <col min="1835" max="1836" width="10.85546875" customWidth="1"/>
-    <col min="1840" max="1840" width="10.85546875" customWidth="1"/>
-    <col min="1842" max="1843" width="10.85546875" customWidth="1"/>
-    <col min="1845" max="1845" width="10.85546875" customWidth="1"/>
-    <col min="1848" max="1850" width="10.85546875" customWidth="1"/>
-    <col min="1853" max="1853" width="10.85546875" customWidth="1"/>
-    <col min="1856" max="1861" width="10.85546875" customWidth="1"/>
-    <col min="1863" max="1867" width="10.85546875" customWidth="1"/>
-    <col min="1869" max="1869" width="10.85546875" customWidth="1"/>
-    <col min="1871" max="1872" width="10.85546875" customWidth="1"/>
-    <col min="1874" max="1875" width="10.85546875" customWidth="1"/>
-    <col min="1877" max="1877" width="10.85546875" customWidth="1"/>
-    <col min="1880" max="1881" width="10.85546875" customWidth="1"/>
-    <col min="1885" max="1885" width="10.85546875" customWidth="1"/>
-    <col min="1887" max="1888" width="10.85546875" customWidth="1"/>
-    <col min="1890" max="1890" width="10.85546875" customWidth="1"/>
-    <col min="1892" max="1893" width="10.85546875" customWidth="1"/>
-    <col min="1896" max="1897" width="10.85546875" customWidth="1"/>
-    <col min="1901" max="1901" width="10.85546875" customWidth="1"/>
-    <col min="1903" max="1909" width="10.85546875" customWidth="1"/>
-    <col min="1911" max="1914" width="10.85546875" customWidth="1"/>
-    <col min="1916" max="1916" width="10.85546875" customWidth="1"/>
-    <col min="1920" max="1923" width="10.85546875" customWidth="1"/>
-    <col min="1925" max="1925" width="10.85546875" customWidth="1"/>
-    <col min="1928" max="1928" width="10.85546875" customWidth="1"/>
-    <col min="1930" max="1930" width="10.85546875" customWidth="1"/>
-    <col min="1932" max="1933" width="10.85546875" customWidth="1"/>
-    <col min="1936" max="1941" width="10.85546875" customWidth="1"/>
-    <col min="1943" max="1944" width="10.85546875" customWidth="1"/>
-    <col min="1946" max="1946" width="10.85546875" customWidth="1"/>
-    <col min="1948" max="1948" width="10.85546875" customWidth="1"/>
-    <col min="1952" max="1952" width="10.85546875" customWidth="1"/>
-    <col min="1955" max="1956" width="10.85546875" customWidth="1"/>
-    <col min="1960" max="1960" width="10.85546875" customWidth="1"/>
-    <col min="1962" max="1962" width="10.85546875" customWidth="1"/>
-    <col min="1964" max="1965" width="10.85546875" customWidth="1"/>
-    <col min="1968" max="1969" width="10.85546875" customWidth="1"/>
-    <col min="1971" max="1972" width="10.85546875" customWidth="1"/>
-    <col min="1976" max="1981" width="10.85546875" customWidth="1"/>
-    <col min="1983" max="1985" width="10.85546875" customWidth="1"/>
-    <col min="1989" max="1989" width="10.85546875" customWidth="1"/>
-    <col min="1992" max="1992" width="10.85546875" customWidth="1"/>
-    <col min="1994" max="1994" width="10.85546875" customWidth="1"/>
-    <col min="1996" max="1997" width="10.85546875" customWidth="1"/>
-    <col min="2000" max="2000" width="10.85546875" customWidth="1"/>
-    <col min="2002" max="2002" width="10.85546875" customWidth="1"/>
-    <col min="2004" max="2005" width="10.85546875" customWidth="1"/>
-    <col min="2008" max="2010" width="10.85546875" customWidth="1"/>
-    <col min="2012" max="2013" width="10.85546875" customWidth="1"/>
-    <col min="2016" max="2016" width="10.85546875" customWidth="1"/>
-    <col min="2019" max="2020" width="10.85546875" customWidth="1"/>
-    <col min="2024" max="2029" width="10.85546875" customWidth="1"/>
-    <col min="2031" max="2034" width="10.85546875" customWidth="1"/>
-    <col min="2036" max="2036" width="10.85546875" customWidth="1"/>
-    <col min="2040" max="2040" width="10.85546875" customWidth="1"/>
-    <col min="2045" max="2045" width="10.85546875" customWidth="1"/>
-    <col min="2048" max="2053" width="10.85546875" customWidth="1"/>
-    <col min="2055" max="2056" width="10.85546875" customWidth="1"/>
-    <col min="2059" max="2059" width="10.85546875" customWidth="1"/>
-    <col min="2061" max="2061" width="10.85546875" customWidth="1"/>
-    <col min="2064" max="2065" width="10.85546875" customWidth="1"/>
-    <col min="2069" max="2069" width="10.85546875" customWidth="1"/>
-    <col min="2072" max="2072" width="10.85546875" customWidth="1"/>
-    <col min="2077" max="2077" width="10.85546875" customWidth="1"/>
-    <col min="2080" max="2080" width="10.85546875" customWidth="1"/>
-    <col min="2084" max="2084" width="10.85546875" customWidth="1"/>
-    <col min="2088" max="2093" width="10.85546875" customWidth="1"/>
-    <col min="2095" max="2096" width="10.85546875" customWidth="1"/>
-    <col min="2100" max="2100" width="10.85546875" customWidth="1"/>
-    <col min="2104" max="2107" width="10.85546875" customWidth="1"/>
-    <col min="2109" max="2109" width="10.85546875" customWidth="1"/>
-    <col min="2112" max="2112" width="10.85546875" customWidth="1"/>
-    <col min="2114" max="2115" width="10.85546875" customWidth="1"/>
-    <col min="2117" max="2117" width="10.85546875" customWidth="1"/>
-    <col min="2120" max="2120" width="10.85546875" customWidth="1"/>
-    <col min="2123" max="2125" width="10.85546875" customWidth="1"/>
-    <col min="2128" max="2131" width="10.85546875" customWidth="1"/>
-    <col min="2133" max="2133" width="10.85546875" customWidth="1"/>
-    <col min="2136" max="2141" width="10.85546875" customWidth="1"/>
-    <col min="2143" max="2144" width="10.85546875" customWidth="1"/>
-    <col min="2146" max="2146" width="10.85546875" customWidth="1"/>
-    <col min="2148" max="2149" width="10.85546875" customWidth="1"/>
-    <col min="2152" max="2153" width="10.85546875" customWidth="1"/>
-    <col min="2157" max="2157" width="10.85546875" customWidth="1"/>
-    <col min="2160" max="2162" width="10.85546875" customWidth="1"/>
-    <col min="2164" max="2164" width="10.85546875" customWidth="1"/>
-    <col min="2168" max="2168" width="10.85546875" customWidth="1"/>
-    <col min="2170" max="2171" width="10.85546875" customWidth="1"/>
-    <col min="2173" max="2173" width="10.85546875" customWidth="1"/>
-    <col min="2176" max="2178" width="10.85546875" customWidth="1"/>
-    <col min="2180" max="2180" width="10.85546875" customWidth="1"/>
-    <col min="2184" max="2184" width="10.85546875" customWidth="1"/>
-    <col min="2186" max="2187" width="10.85546875" customWidth="1"/>
-    <col min="2192" max="2197" width="10.85546875" customWidth="1"/>
-    <col min="2199" max="2202" width="10.85546875" customWidth="1"/>
-    <col min="2204" max="2204" width="10.85546875" customWidth="1"/>
-    <col min="2208" max="2208" width="10.85546875" customWidth="1"/>
-    <col min="2213" max="2213" width="10.85546875" customWidth="1"/>
-    <col min="2216" max="2221" width="10.85546875" customWidth="1"/>
-    <col min="2223" max="2224" width="10.85546875" customWidth="1"/>
-    <col min="2226" max="2226" width="10.85546875" customWidth="1"/>
-    <col min="2228" max="2229" width="10.85546875" customWidth="1"/>
-    <col min="2232" max="2235" width="10.85546875" customWidth="1"/>
-    <col min="2240" max="2244" width="10.85546875" customWidth="1"/>
-    <col min="2248" max="2248" width="10.85546875" customWidth="1"/>
-    <col min="2253" max="2253" width="10.85546875" customWidth="1"/>
-    <col min="2256" max="2256" width="10.85546875" customWidth="1"/>
-    <col min="2259" max="2260" width="10.85546875" customWidth="1"/>
-    <col min="2264" max="2264" width="10.85546875" customWidth="1"/>
-    <col min="2266" max="2266" width="10.85546875" customWidth="1"/>
-    <col min="2268" max="2269" width="10.85546875" customWidth="1"/>
-    <col min="2272" max="2277" width="10.85546875" customWidth="1"/>
-    <col min="2279" max="2282" width="10.85546875" customWidth="1"/>
-    <col min="2284" max="2284" width="10.85546875" customWidth="1"/>
-    <col min="2288" max="2288" width="10.85546875" customWidth="1"/>
-    <col min="2293" max="2293" width="10.85546875" customWidth="1"/>
-    <col min="2296" max="2301" width="10.85546875" customWidth="1"/>
-    <col min="2303" max="2304" width="10.85546875" customWidth="1"/>
-    <col min="2308" max="2308" width="10.85546875" customWidth="1"/>
-    <col min="2312" max="2315" width="10.85546875" customWidth="1"/>
-    <col min="2317" max="2317" width="10.85546875" customWidth="1"/>
-    <col min="2320" max="2320" width="10.85546875" customWidth="1"/>
-    <col min="2322" max="2323" width="10.85546875" customWidth="1"/>
-    <col min="2325" max="2325" width="10.85546875" customWidth="1"/>
-    <col min="2328" max="2328" width="10.85546875" customWidth="1"/>
-    <col min="2331" max="2333" width="10.85546875" customWidth="1"/>
-    <col min="2336" max="2339" width="10.85546875" customWidth="1"/>
-    <col min="2341" max="2341" width="10.85546875" customWidth="1"/>
-    <col min="2344" max="2349" width="10.85546875" customWidth="1"/>
-    <col min="2351" max="2356" width="10.85546875" customWidth="1"/>
-    <col min="2360" max="2360" width="10.85546875" customWidth="1"/>
-    <col min="2362" max="2362" width="10.85546875" customWidth="1"/>
-    <col min="2364" max="2365" width="10.85546875" customWidth="1"/>
-    <col min="2368" max="2369" width="10.85546875" customWidth="1"/>
-    <col min="2371" max="2372" width="10.85546875" customWidth="1"/>
-    <col min="2376" max="2376" width="10.85546875" customWidth="1"/>
-    <col min="2378" max="2379" width="10.85546875" customWidth="1"/>
-    <col min="2381" max="2381" width="10.85546875" customWidth="1"/>
-    <col min="2384" max="2386" width="10.85546875" customWidth="1"/>
-    <col min="2389" max="2389" width="10.85546875" customWidth="1"/>
-    <col min="2392" max="2392" width="10.85546875" customWidth="1"/>
-    <col min="2394" max="2395" width="10.85546875" customWidth="1"/>
-    <col min="2397" max="2397" width="10.85546875" customWidth="1"/>
-    <col min="2399" max="2400" width="10.85546875" customWidth="1"/>
-    <col min="2402" max="2402" width="10.85546875" customWidth="1"/>
-    <col min="2405" max="2408" width="10.85546875" customWidth="1"/>
-    <col min="2411" max="2411" width="10.85546875" customWidth="1"/>
-    <col min="2413" max="2413" width="10.85546875" customWidth="1"/>
-    <col min="2416" max="2416" width="10.85546875" customWidth="1"/>
-    <col min="2418" max="2418" width="10.85546875" customWidth="1"/>
-    <col min="2420" max="2421" width="10.85546875" customWidth="1"/>
-    <col min="2424" max="2429" width="10.85546875" customWidth="1"/>
-    <col min="2431" max="2435" width="10.85546875" customWidth="1"/>
-    <col min="2437" max="2437" width="10.85546875" customWidth="1"/>
-    <col min="2439" max="2441" width="10.85546875" customWidth="1"/>
-    <col min="2445" max="2445" width="10.85546875" customWidth="1"/>
-    <col min="2448" max="2448" width="10.85546875" customWidth="1"/>
-    <col min="2453" max="2453" width="10.85546875" customWidth="1"/>
-    <col min="2456" max="2461" width="10.85546875" customWidth="1"/>
-    <col min="2463" max="2464" width="10.85546875" customWidth="1"/>
-    <col min="2467" max="2468" width="10.85546875" customWidth="1"/>
-    <col min="2472" max="2472" width="10.85546875" customWidth="1"/>
-    <col min="2474" max="2474" width="10.85546875" customWidth="1"/>
-    <col min="2476" max="2477" width="10.85546875" customWidth="1"/>
-    <col min="2480" max="2480" width="10.85546875" customWidth="1"/>
-    <col min="2482" max="2482" width="10.85546875" customWidth="1"/>
-    <col min="2485" max="2485" width="10.85546875" customWidth="1"/>
-    <col min="2488" max="2488" width="10.85546875" customWidth="1"/>
-    <col min="2490" max="2491" width="10.85546875" customWidth="1"/>
-    <col min="2493" max="2493" width="10.85546875" customWidth="1"/>
-    <col min="2496" max="2496" width="10.85546875" customWidth="1"/>
-    <col min="2499" max="2501" width="10.85546875" customWidth="1"/>
-    <col min="2504" max="2504" width="10.85546875" customWidth="1"/>
-    <col min="2509" max="2509" width="10.85546875" customWidth="1"/>
-    <col min="2512" max="2514" width="10.85546875" customWidth="1"/>
-    <col min="2517" max="2517" width="10.85546875" customWidth="1"/>
-    <col min="2520" max="2520" width="10.85546875" customWidth="1"/>
-    <col min="2525" max="2525" width="10.85546875" customWidth="1"/>
-    <col min="2528" max="2529" width="10.85546875" customWidth="1"/>
-    <col min="2533" max="2533" width="10.85546875" customWidth="1"/>
-    <col min="2536" max="2541" width="10.85546875" customWidth="1"/>
-    <col min="2543" max="2544" width="10.85546875" customWidth="1"/>
-    <col min="2546" max="2549" width="10.85546875" customWidth="1"/>
-    <col min="2552" max="2554" width="10.85546875" customWidth="1"/>
-    <col min="2556" max="2556" width="10.85546875" customWidth="1"/>
-    <col min="2560" max="2565" width="10.85546875" customWidth="1"/>
-    <col min="2567" max="2570" width="10.85546875" customWidth="1"/>
-    <col min="2572" max="2572" width="10.85546875" customWidth="1"/>
-    <col min="2576" max="2579" width="10.85546875" customWidth="1"/>
-    <col min="2581" max="2581" width="10.85546875" customWidth="1"/>
-    <col min="2584" max="2584" width="10.85546875" customWidth="1"/>
-    <col min="2586" max="2586" width="10.85546875" customWidth="1"/>
-    <col min="2588" max="2589" width="10.85546875" customWidth="1"/>
-    <col min="2592" max="2597" width="10.85546875" customWidth="1"/>
-    <col min="2599" max="2600" width="10.85546875" customWidth="1"/>
-    <col min="2602" max="2602" width="10.85546875" customWidth="1"/>
-    <col min="2604" max="2605" width="10.85546875" customWidth="1"/>
-    <col min="2608" max="2609" width="10.85546875" customWidth="1"/>
-    <col min="2613" max="2613" width="10.85546875" customWidth="1"/>
-    <col min="2616" max="2618" width="10.85546875" customWidth="1"/>
-    <col min="2620" max="2621" width="10.85546875" customWidth="1"/>
-    <col min="2624" max="2624" width="10.85546875" customWidth="1"/>
-    <col min="2626" max="2627" width="10.85546875" customWidth="1"/>
-    <col min="2629" max="2629" width="10.85546875" customWidth="1"/>
-    <col min="2631" max="2633" width="10.85546875" customWidth="1"/>
-    <col min="2635" max="2635" width="10.85546875" customWidth="1"/>
-    <col min="2639" max="2640" width="10.85546875" customWidth="1"/>
-    <col min="2642" max="2642" width="10.85546875" customWidth="1"/>
-    <col min="2645" max="2648" width="10.85546875" customWidth="1"/>
-    <col min="2650" max="2652" width="10.85546875" customWidth="1"/>
-    <col min="2655" max="2658" width="10.85546875" customWidth="1"/>
-    <col min="2660" max="2660" width="10.85546875" customWidth="1"/>
-    <col min="2664" max="2664" width="10.85546875" customWidth="1"/>
-    <col min="2669" max="2669" width="10.85546875" customWidth="1"/>
-    <col min="2672" max="2672" width="10.85546875" customWidth="1"/>
-    <col min="2675" max="2676" width="10.85546875" customWidth="1"/>
-    <col min="2679" max="2680" width="10.85546875" customWidth="1"/>
-    <col min="2683" max="2683" width="10.85546875" customWidth="1"/>
-    <col min="2687" max="2688" width="10.85546875" customWidth="1"/>
-    <col min="2691" max="2692" width="10.85546875" customWidth="1"/>
-    <col min="2695" max="2698" width="10.85546875" customWidth="1"/>
-    <col min="2700" max="2700" width="10.85546875" customWidth="1"/>
-    <col min="2704" max="2704" width="10.85546875" customWidth="1"/>
-    <col min="2709" max="2709" width="10.85546875" customWidth="1"/>
-    <col min="2712" max="2714" width="10.85546875" customWidth="1"/>
-    <col min="2716" max="2716" width="10.85546875" customWidth="1"/>
-    <col min="2719" max="2720" width="10.85546875" customWidth="1"/>
-    <col min="2722" max="2722" width="10.85546875" customWidth="1"/>
-    <col min="2725" max="2728" width="10.85546875" customWidth="1"/>
-    <col min="2730" max="2730" width="10.85546875" customWidth="1"/>
-    <col min="2733" max="2736" width="10.85546875" customWidth="1"/>
-    <col min="2738" max="2738" width="10.85546875" customWidth="1"/>
-    <col min="2740" max="2742" width="10.85546875" customWidth="1"/>
-    <col min="2744" max="2745" width="10.85546875" customWidth="1"/>
-    <col min="2749" max="2749" width="10.85546875" customWidth="1"/>
-    <col min="2752" max="2754" width="10.85546875" customWidth="1"/>
-    <col min="2756" max="2756" width="10.85546875" customWidth="1"/>
-    <col min="2760" max="2760" width="10.85546875" customWidth="1"/>
-    <col min="2762" max="2762" width="10.85546875" customWidth="1"/>
-    <col min="2764" max="2765" width="10.85546875" customWidth="1"/>
-    <col min="2768" max="2769" width="10.85546875" customWidth="1"/>
-    <col min="2771" max="2772" width="10.85546875" customWidth="1"/>
-    <col min="2776" max="2781" width="10.85546875" customWidth="1"/>
-    <col min="2783" max="2785" width="10.85546875" customWidth="1"/>
-    <col min="2789" max="2789" width="10.85546875" customWidth="1"/>
-    <col min="2792" max="2792" width="10.85546875" customWidth="1"/>
-    <col min="2794" max="2795" width="10.85546875" customWidth="1"/>
-    <col min="2797" max="2797" width="10.85546875" customWidth="1"/>
-    <col min="2800" max="2802" width="10.85546875" customWidth="1"/>
-    <col min="2805" max="2805" width="10.85546875" customWidth="1"/>
-    <col min="2808" max="2813" width="10.85546875" customWidth="1"/>
-    <col min="2815" max="2816" width="10.85546875" customWidth="1"/>
-    <col min="2818" max="2819" width="10.85546875" customWidth="1"/>
-    <col min="2821" max="2821" width="10.85546875" customWidth="1"/>
-    <col min="2824" max="2825" width="10.85546875" customWidth="1"/>
-    <col min="2828" max="2829" width="10.85546875" customWidth="1"/>
-    <col min="2832" max="2837" width="10.85546875" customWidth="1"/>
-    <col min="2839" max="2841" width="10.85546875" customWidth="1"/>
-    <col min="2845" max="2845" width="10.85546875" customWidth="1"/>
-    <col min="2848" max="2848" width="10.85546875" customWidth="1"/>
-    <col min="2853" max="2853" width="10.85546875" customWidth="1"/>
-    <col min="2856" max="2861" width="10.85546875" customWidth="1"/>
-    <col min="2863" max="2864" width="10.85546875" customWidth="1"/>
-    <col min="2866" max="2866" width="10.85546875" customWidth="1"/>
-    <col min="2869" max="2869" width="10.85546875" customWidth="1"/>
-    <col min="2872" max="2872" width="10.85546875" customWidth="1"/>
-    <col min="2874" max="2877" width="10.85546875" customWidth="1"/>
-    <col min="2880" max="2884" width="10.85546875" customWidth="1"/>
-    <col min="2888" max="2892" width="10.85546875" customWidth="1"/>
-    <col min="2896" max="2896" width="10.85546875" customWidth="1"/>
-    <col min="2898" max="2899" width="10.85546875" customWidth="1"/>
-    <col min="2901" max="2901" width="10.85546875" customWidth="1"/>
-    <col min="2904" max="2905" width="10.85546875" customWidth="1"/>
-    <col min="2909" max="2909" width="10.85546875" customWidth="1"/>
-    <col min="2912" max="2912" width="10.85546875" customWidth="1"/>
-    <col min="2916" max="2917" width="10.85546875" customWidth="1"/>
-    <col min="2920" max="2925" width="10.85546875" customWidth="1"/>
-    <col min="2927" max="2929" width="10.85546875" customWidth="1"/>
-    <col min="2932" max="2933" width="10.85546875" customWidth="1"/>
-    <col min="2936" max="2936" width="10.85546875" customWidth="1"/>
-    <col min="2941" max="2941" width="10.85546875" customWidth="1"/>
-    <col min="2944" max="2945" width="10.85546875" customWidth="1"/>
-    <col min="2947" max="2948" width="10.85546875" customWidth="1"/>
-    <col min="2952" max="2957" width="10.85546875" customWidth="1"/>
-    <col min="2959" max="2960" width="10.85546875" customWidth="1"/>
-    <col min="2962" max="2965" width="10.85546875" customWidth="1"/>
-    <col min="2968" max="2973" width="10.85546875" customWidth="1"/>
-    <col min="2975" max="2976" width="10.85546875" customWidth="1"/>
-    <col min="2980" max="2981" width="10.85546875" customWidth="1"/>
-    <col min="2984" max="2984" width="10.85546875" customWidth="1"/>
-    <col min="2986" max="2987" width="10.85546875" customWidth="1"/>
-    <col min="2989" max="2989" width="10.85546875" customWidth="1"/>
-    <col min="2992" max="2993" width="10.85546875" customWidth="1"/>
-    <col min="2996" max="2996" width="10.85546875" customWidth="1"/>
-    <col min="3000" max="3000" width="10.85546875" customWidth="1"/>
-    <col min="3002" max="3002" width="10.85546875" customWidth="1"/>
-    <col min="3004" max="3005" width="10.85546875" customWidth="1"/>
-    <col min="3008" max="3009" width="10.85546875" customWidth="1"/>
-    <col min="3013" max="3013" width="10.85546875" customWidth="1"/>
-    <col min="3016" max="3021" width="10.85546875" customWidth="1"/>
-    <col min="3023" max="3024" width="10.85546875" customWidth="1"/>
-    <col min="3026" max="3026" width="10.85546875" customWidth="1"/>
-    <col min="3029" max="3029" width="10.85546875" customWidth="1"/>
-    <col min="3032" max="3032" width="10.85546875" customWidth="1"/>
-    <col min="3034" max="3034" width="10.85546875" customWidth="1"/>
-    <col min="3036" max="3037" width="10.85546875" customWidth="1"/>
-    <col min="3040" max="3040" width="10.85546875" customWidth="1"/>
-    <col min="3042" max="3045" width="10.85546875" customWidth="1"/>
-    <col min="3048" max="3048" width="10.85546875" customWidth="1"/>
-    <col min="3051" max="3052" width="10.85546875" customWidth="1"/>
-    <col min="3056" max="3056" width="10.85546875" customWidth="1"/>
-    <col min="3058" max="3058" width="10.85546875" customWidth="1"/>
-    <col min="3060" max="3060" width="10.85546875" customWidth="1"/>
-    <col min="3064" max="3065" width="10.85546875" customWidth="1"/>
-    <col min="3067" max="3068" width="10.85546875" customWidth="1"/>
-    <col min="3072" max="3072" width="10.85546875" customWidth="1"/>
-    <col min="3074" max="3074" width="10.85546875" customWidth="1"/>
-    <col min="3076" max="3077" width="10.85546875" customWidth="1"/>
-    <col min="3080" max="3081" width="10.85546875" customWidth="1"/>
-    <col min="3085" max="3085" width="10.85546875" customWidth="1"/>
-    <col min="3087" max="3088" width="10.85546875" customWidth="1"/>
-    <col min="3090" max="3090" width="10.85546875" customWidth="1"/>
-    <col min="3093" max="3096" width="10.85546875" customWidth="1"/>
-    <col min="3098" max="3098" width="10.85546875" customWidth="1"/>
-    <col min="3101" max="3106" width="10.85546875" customWidth="1"/>
-    <col min="3108" max="3109" width="10.85546875" customWidth="1"/>
-    <col min="3112" max="3112" width="10.85546875" customWidth="1"/>
-    <col min="3114" max="3114" width="10.85546875" customWidth="1"/>
-    <col min="3116" max="3117" width="10.85546875" customWidth="1"/>
-    <col min="3120" max="3121" width="10.85546875" customWidth="1"/>
-    <col min="3124" max="3125" width="10.85546875" customWidth="1"/>
-    <col min="3128" max="3128" width="10.85546875" customWidth="1"/>
-    <col min="3130" max="3133" width="10.85546875" customWidth="1"/>
-    <col min="3136" max="3136" width="10.85546875" customWidth="1"/>
-    <col min="3138" max="3138" width="10.85546875" customWidth="1"/>
-    <col min="3140" max="3140" width="10.85546875" customWidth="1"/>
-    <col min="3144" max="3146" width="10.85546875" customWidth="1"/>
-    <col min="3149" max="3149" width="10.85546875" customWidth="1"/>
-    <col min="3152" max="3154" width="10.85546875" customWidth="1"/>
-    <col min="3156" max="3156" width="10.85546875" customWidth="1"/>
-    <col min="3160" max="3160" width="10.85546875" customWidth="1"/>
-    <col min="3162" max="3162" width="10.85546875" customWidth="1"/>
-    <col min="3167" max="3169" width="10.85546875" customWidth="1"/>
-    <col min="3173" max="3173" width="10.85546875" customWidth="1"/>
-    <col min="3176" max="3176" width="10.85546875" customWidth="1"/>
-    <col min="3178" max="3179" width="10.85546875" customWidth="1"/>
-    <col min="3181" max="3181" width="10.85546875" customWidth="1"/>
-    <col min="3184" max="3186" width="10.85546875" customWidth="1"/>
-    <col min="3189" max="3189" width="10.85546875" customWidth="1"/>
-    <col min="3192" max="3192" width="10.85546875" customWidth="1"/>
-    <col min="3194" max="3194" width="10.85546875" customWidth="1"/>
-    <col min="3197" max="3200" width="10.85546875" customWidth="1"/>
-    <col min="3202" max="3202" width="10.85546875" customWidth="1"/>
-    <col min="3204" max="3205" width="10.85546875" customWidth="1"/>
-    <col min="3208" max="3212" width="10.85546875" customWidth="1"/>
-    <col min="3216" max="3217" width="10.85546875" customWidth="1"/>
-    <col min="3219" max="3220" width="10.85546875" customWidth="1"/>
-    <col min="3224" max="3224" width="10.85546875" customWidth="1"/>
-    <col min="3226" max="3226" width="10.85546875" customWidth="1"/>
-    <col min="3228" max="3229" width="10.85546875" customWidth="1"/>
-    <col min="3232" max="3232" width="10.85546875" customWidth="1"/>
-    <col min="3235" max="3236" width="10.85546875" customWidth="1"/>
-    <col min="3240" max="3240" width="10.85546875" customWidth="1"/>
-    <col min="3242" max="3242" width="10.85546875" customWidth="1"/>
-    <col min="3244" max="3245" width="10.85546875" customWidth="1"/>
-    <col min="3248" max="3249" width="10.85546875" customWidth="1"/>
-    <col min="3253" max="3253" width="10.85546875" customWidth="1"/>
-    <col min="3256" max="3258" width="10.85546875" customWidth="1"/>
-    <col min="3260" max="3260" width="10.85546875" customWidth="1"/>
-    <col min="3264" max="3264" width="10.85546875" customWidth="1"/>
-    <col min="3266" max="3269" width="10.85546875" customWidth="1"/>
-    <col min="3272" max="3274" width="10.85546875" customWidth="1"/>
-    <col min="3276" max="3276" width="10.85546875" customWidth="1"/>
-    <col min="3280" max="3280" width="10.85546875" customWidth="1"/>
-    <col min="3282" max="3283" width="10.85546875" customWidth="1"/>
-    <col min="3285" max="3285" width="10.85546875" customWidth="1"/>
-    <col min="3288" max="3289" width="10.85546875" customWidth="1"/>
-    <col min="3292" max="3292" width="10.85546875" customWidth="1"/>
-    <col min="3296" max="3296" width="10.85546875" customWidth="1"/>
-    <col min="3298" max="3298" width="10.85546875" customWidth="1"/>
-    <col min="3300" max="3301" width="10.85546875" customWidth="1"/>
-    <col min="3304" max="3309" width="10.85546875" customWidth="1"/>
-    <col min="3311" max="3313" width="10.85546875" customWidth="1"/>
-    <col min="3316" max="3317" width="10.85546875" customWidth="1"/>
-    <col min="3320" max="3320" width="10.85546875" customWidth="1"/>
-    <col min="3325" max="3325" width="10.85546875" customWidth="1"/>
-    <col min="3328" max="3329" width="10.85546875" customWidth="1"/>
-    <col min="3331" max="3332" width="10.85546875" customWidth="1"/>
-    <col min="3336" max="3341" width="10.85546875" customWidth="1"/>
-    <col min="3343" max="3346" width="10.85546875" customWidth="1"/>
-    <col min="3348" max="3349" width="10.85546875" customWidth="1"/>
-    <col min="3352" max="3352" width="10.85546875" customWidth="1"/>
-    <col min="3354" max="3355" width="10.85546875" customWidth="1"/>
-    <col min="3357" max="3357" width="10.85546875" customWidth="1"/>
-    <col min="3360" max="3361" width="10.85546875" customWidth="1"/>
-    <col min="3364" max="3365" width="10.85546875" customWidth="1"/>
-    <col min="3368" max="3369" width="10.85546875" customWidth="1"/>
-    <col min="3372" max="3373" width="10.85546875" customWidth="1"/>
-    <col min="3376" max="3376" width="10.85546875" customWidth="1"/>
-    <col min="3378" max="3378" width="10.85546875" customWidth="1"/>
-    <col min="3380" max="3381" width="10.85546875" customWidth="1"/>
-    <col min="3384" max="3385" width="10.85546875" customWidth="1"/>
-    <col min="3387" max="3388" width="10.85546875" customWidth="1"/>
-    <col min="3392" max="3392" width="10.85546875" customWidth="1"/>
-    <col min="3394" max="3394" width="10.85546875" customWidth="1"/>
-    <col min="3396" max="3397" width="10.85546875" customWidth="1"/>
-    <col min="3400" max="3401" width="10.85546875" customWidth="1"/>
-    <col min="3405" max="3405" width="10.85546875" customWidth="1"/>
-    <col min="3408" max="3410" width="10.85546875" customWidth="1"/>
-    <col min="3412" max="3412" width="10.85546875" customWidth="1"/>
-    <col min="3416" max="3421" width="10.85546875" customWidth="1"/>
-    <col min="3423" max="3426" width="10.85546875" customWidth="1"/>
-    <col min="3428" max="3428" width="10.85546875" customWidth="1"/>
-    <col min="3432" max="3432" width="10.85546875" customWidth="1"/>
-    <col min="3434" max="3435" width="10.85546875" customWidth="1"/>
-    <col min="3437" max="3437" width="10.85546875" customWidth="1"/>
-    <col min="3440" max="3440" width="10.85546875" customWidth="1"/>
-    <col min="3442" max="3442" width="10.85546875" customWidth="1"/>
-    <col min="3445" max="3445" width="10.85546875" customWidth="1"/>
-    <col min="3448" max="3448" width="10.85546875" customWidth="1"/>
-    <col min="3450" max="3450" width="10.85546875" customWidth="1"/>
-    <col min="3452" max="3453" width="10.85546875" customWidth="1"/>
-    <col min="3456" max="3456" width="10.85546875" customWidth="1"/>
-    <col min="3459" max="3460" width="10.85546875" customWidth="1"/>
-    <col min="3464" max="3466" width="10.85546875" customWidth="1"/>
-    <col min="3469" max="3469" width="10.85546875" customWidth="1"/>
-    <col min="3471" max="3477" width="10.85546875" customWidth="1"/>
-    <col min="3479" max="3480" width="10.85546875" customWidth="1"/>
-    <col min="3482" max="3482" width="10.85546875" customWidth="1"/>
-    <col min="3484" max="3485" width="10.85546875" customWidth="1"/>
-    <col min="3488" max="3489" width="10.85546875" customWidth="1"/>
-    <col min="3493" max="3493" width="10.85546875" customWidth="1"/>
-    <col min="3495" max="3496" width="10.85546875" customWidth="1"/>
-    <col min="3500" max="3501" width="10.85546875" customWidth="1"/>
-    <col min="3504" max="3505" width="10.85546875" customWidth="1"/>
-    <col min="3509" max="3509" width="10.85546875" customWidth="1"/>
-    <col min="3511" max="3517" width="10.85546875" customWidth="1"/>
-    <col min="3519" max="3520" width="10.85546875" customWidth="1"/>
-    <col min="3525" max="3525" width="10.85546875" customWidth="1"/>
-    <col min="3528" max="3529" width="10.85546875" customWidth="1"/>
-    <col min="3533" max="3533" width="10.85546875" customWidth="1"/>
-    <col min="3536" max="3536" width="10.85546875" customWidth="1"/>
-    <col min="3539" max="3541" width="10.85546875" customWidth="1"/>
-    <col min="3544" max="3544" width="10.85546875" customWidth="1"/>
-    <col min="3546" max="3546" width="10.85546875" customWidth="1"/>
-    <col min="3548" max="3549" width="10.85546875" customWidth="1"/>
-    <col min="3552" max="3557" width="10.85546875" customWidth="1"/>
-    <col min="3559" max="3560" width="10.85546875" customWidth="1"/>
-    <col min="3562" max="3565" width="10.85546875" customWidth="1"/>
-    <col min="3568" max="3573" width="10.85546875" customWidth="1"/>
-    <col min="3575" max="3579" width="10.85546875" customWidth="1"/>
-    <col min="3581" max="3581" width="10.85546875" customWidth="1"/>
-    <col min="3584" max="3584" width="10.85546875" customWidth="1"/>
-    <col min="3586" max="3589" width="10.85546875" customWidth="1"/>
-    <col min="3592" max="3593" width="10.85546875" customWidth="1"/>
-    <col min="3595" max="3595" width="10.85546875" customWidth="1"/>
-    <col min="3600" max="3600" width="10.85546875" customWidth="1"/>
-    <col min="3602" max="3605" width="10.85546875" customWidth="1"/>
-    <col min="3608" max="3609" width="10.85546875" customWidth="1"/>
-    <col min="3611" max="3612" width="10.85546875" customWidth="1"/>
-    <col min="3616" max="3618" width="10.85546875" customWidth="1"/>
-    <col min="3620" max="3621" width="10.85546875" customWidth="1"/>
-    <col min="3624" max="3629" width="10.85546875" customWidth="1"/>
-    <col min="3631" max="3632" width="10.85546875" customWidth="1"/>
-    <col min="3635" max="3636" width="10.85546875" customWidth="1"/>
-    <col min="3640" max="3640" width="10.85546875" customWidth="1"/>
-    <col min="3642" max="3642" width="10.85546875" customWidth="1"/>
-    <col min="3644" max="3645" width="10.85546875" customWidth="1"/>
-    <col min="3648" max="3650" width="10.85546875" customWidth="1"/>
-    <col min="3652" max="3652" width="10.85546875" customWidth="1"/>
-    <col min="3656" max="3661" width="10.85546875" customWidth="1"/>
-    <col min="3663" max="3665" width="10.85546875" customWidth="1"/>
-    <col min="3667" max="3668" width="10.85546875" customWidth="1"/>
-    <col min="3672" max="3672" width="10.85546875" customWidth="1"/>
-    <col min="3674" max="3674" width="10.85546875" customWidth="1"/>
-    <col min="3676" max="3677" width="10.85546875" customWidth="1"/>
-    <col min="3680" max="3684" width="10.85546875" customWidth="1"/>
-    <col min="3688" max="3689" width="10.85546875" customWidth="1"/>
-    <col min="3691" max="3692" width="10.85546875" customWidth="1"/>
-    <col min="3696" max="3696" width="10.85546875" customWidth="1"/>
-    <col min="3698" max="3698" width="10.85546875" customWidth="1"/>
-    <col min="3700" max="3701" width="10.85546875" customWidth="1"/>
-    <col min="3704" max="3704" width="10.85546875" customWidth="1"/>
-    <col min="3707" max="3708" width="10.85546875" customWidth="1"/>
-    <col min="3712" max="3712" width="10.85546875" customWidth="1"/>
-    <col min="3714" max="3714" width="10.85546875" customWidth="1"/>
-    <col min="3716" max="3717" width="10.85546875" customWidth="1"/>
-    <col min="3720" max="3721" width="10.85546875" customWidth="1"/>
-    <col min="3725" max="3725" width="10.85546875" customWidth="1"/>
-    <col min="3728" max="3730" width="10.85546875" customWidth="1"/>
-    <col min="3732" max="3732" width="10.85546875" customWidth="1"/>
-    <col min="3736" max="3736" width="10.85546875" customWidth="1"/>
-    <col min="3738" max="3741" width="10.85546875" customWidth="1"/>
-    <col min="3744" max="3746" width="10.85546875" customWidth="1"/>
-    <col min="3748" max="3748" width="10.85546875" customWidth="1"/>
-    <col min="3752" max="3752" width="10.85546875" customWidth="1"/>
-    <col min="3754" max="3755" width="10.85546875" customWidth="1"/>
-    <col min="3757" max="3757" width="10.85546875" customWidth="1"/>
-    <col min="3760" max="3761" width="10.85546875" customWidth="1"/>
-    <col min="3764" max="3764" width="10.85546875" customWidth="1"/>
-    <col min="3768" max="3768" width="10.85546875" customWidth="1"/>
-    <col min="3770" max="3770" width="10.85546875" customWidth="1"/>
-    <col min="3772" max="3773" width="10.85546875" customWidth="1"/>
-    <col min="3776" max="3781" width="10.85546875" customWidth="1"/>
-    <col min="3783" max="3785" width="10.85546875" customWidth="1"/>
-    <col min="3788" max="3789" width="10.85546875" customWidth="1"/>
-    <col min="3792" max="3792" width="10.85546875" customWidth="1"/>
-    <col min="3797" max="3797" width="10.85546875" customWidth="1"/>
-    <col min="3800" max="3801" width="10.85546875" customWidth="1"/>
-    <col min="3803" max="3804" width="10.85546875" customWidth="1"/>
-    <col min="3808" max="3813" width="10.85546875" customWidth="1"/>
-    <col min="3815" max="3818" width="10.85546875" customWidth="1"/>
-    <col min="3820" max="3820" width="10.85546875" customWidth="1"/>
-    <col min="3824" max="3824" width="10.85546875" customWidth="1"/>
-    <col min="3829" max="3829" width="10.85546875" customWidth="1"/>
-    <col min="3832" max="3834" width="10.85546875" customWidth="1"/>
-    <col min="3836" max="3837" width="10.85546875" customWidth="1"/>
-    <col min="3840" max="3840" width="10.85546875" customWidth="1"/>
-    <col min="3842" max="3845" width="10.85546875" customWidth="1"/>
-    <col min="3848" max="3848" width="10.85546875" customWidth="1"/>
-    <col min="3850" max="3851" width="10.85546875" customWidth="1"/>
-    <col min="3856" max="3858" width="10.85546875" customWidth="1"/>
-    <col min="3861" max="3861" width="10.85546875" customWidth="1"/>
-    <col min="3863" max="3869" width="10.85546875" customWidth="1"/>
-    <col min="3871" max="3874" width="10.85546875" customWidth="1"/>
-    <col min="3876" max="3876" width="10.85546875" customWidth="1"/>
-    <col min="3880" max="3883" width="10.85546875" customWidth="1"/>
-    <col min="3885" max="3885" width="10.85546875" customWidth="1"/>
-    <col min="3888" max="3888" width="10.85546875" customWidth="1"/>
-    <col min="3890" max="3890" width="10.85546875" customWidth="1"/>
-    <col min="3892" max="3893" width="10.85546875" customWidth="1"/>
-    <col min="3896" max="3897" width="10.85546875" customWidth="1"/>
-    <col min="3901" max="3901" width="10.85546875" customWidth="1"/>
-    <col min="3904" max="3909" width="10.85546875" customWidth="1"/>
-    <col min="3911" max="3912" width="10.85546875" customWidth="1"/>
-    <col min="3917" max="3917" width="10.85546875" customWidth="1"/>
-    <col min="3920" max="3921" width="10.85546875" customWidth="1"/>
-    <col min="3925" max="3925" width="10.85546875" customWidth="1"/>
-    <col min="3928" max="3928" width="10.85546875" customWidth="1"/>
-    <col min="3930" max="3930" width="10.85546875" customWidth="1"/>
-    <col min="3932" max="3933" width="10.85546875" customWidth="1"/>
-    <col min="3936" max="3941" width="10.85546875" customWidth="1"/>
-    <col min="3943" max="3945" width="10.85546875" customWidth="1"/>
-    <col min="3948" max="3949" width="10.85546875" customWidth="1"/>
-    <col min="3952" max="3952" width="10.85546875" customWidth="1"/>
-    <col min="3957" max="3957" width="10.85546875" customWidth="1"/>
-    <col min="3960" max="3961" width="10.85546875" customWidth="1"/>
-    <col min="3963" max="3964" width="10.85546875" customWidth="1"/>
-    <col min="3968" max="3973" width="10.85546875" customWidth="1"/>
-    <col min="3975" max="3977" width="10.85546875" customWidth="1"/>
-    <col min="3979" max="3980" width="10.85546875" customWidth="1"/>
-    <col min="3983" max="3988" width="10.85546875" customWidth="1"/>
-    <col min="3991" max="3992" width="10.85546875" customWidth="1"/>
-    <col min="3995" max="3996" width="10.85546875" customWidth="1"/>
-    <col min="3999" max="4004" width="10.85546875" customWidth="1"/>
-    <col min="4007" max="4010" width="10.85546875" customWidth="1"/>
-    <col min="4013" max="4013" width="10.85546875" customWidth="1"/>
-    <col min="4015" max="4021" width="10.85546875" customWidth="1"/>
-    <col min="4023" max="4026" width="10.85546875" customWidth="1"/>
-    <col min="4028" max="4028" width="10.85546875" customWidth="1"/>
-    <col min="4032" max="4035" width="10.85546875" customWidth="1"/>
-    <col min="4037" max="4037" width="10.85546875" customWidth="1"/>
-    <col min="4040" max="4040" width="10.85546875" customWidth="1"/>
-    <col min="4042" max="4042" width="10.85546875" customWidth="1"/>
-    <col min="4044" max="4045" width="10.85546875" customWidth="1"/>
-    <col min="4048" max="4053" width="10.85546875" customWidth="1"/>
-    <col min="4055" max="4056" width="10.85546875" customWidth="1"/>
-    <col min="4058" max="4058" width="10.85546875" customWidth="1"/>
-    <col min="4061" max="4061" width="10.85546875" customWidth="1"/>
-    <col min="4064" max="4064" width="10.85546875" customWidth="1"/>
-    <col min="4066" max="4066" width="10.85546875" customWidth="1"/>
-    <col min="4068" max="4069" width="10.85546875" customWidth="1"/>
-    <col min="4072" max="4072" width="10.85546875" customWidth="1"/>
-    <col min="4074" max="4077" width="10.85546875" customWidth="1"/>
-    <col min="4080" max="4080" width="10.85546875" customWidth="1"/>
-    <col min="4083" max="4084" width="10.85546875" customWidth="1"/>
-    <col min="4088" max="4088" width="10.85546875" customWidth="1"/>
-    <col min="4090" max="4090" width="10.85546875" customWidth="1"/>
-    <col min="4092" max="4092" width="10.85546875" customWidth="1"/>
-    <col min="4096" max="4097" width="10.85546875" customWidth="1"/>
-    <col min="4099" max="4100" width="10.85546875" customWidth="1"/>
-    <col min="4104" max="4104" width="10.85546875" customWidth="1"/>
-    <col min="4106" max="4106" width="10.85546875" customWidth="1"/>
-    <col min="4108" max="4109" width="10.85546875" customWidth="1"/>
-    <col min="4112" max="4112" width="10.85546875" customWidth="1"/>
-    <col min="4114" max="4114" width="10.85546875" customWidth="1"/>
-    <col min="4117" max="4117" width="10.85546875" customWidth="1"/>
-    <col min="4119" max="4120" width="10.85546875" customWidth="1"/>
-    <col min="4123" max="4124" width="10.85546875" customWidth="1"/>
-    <col min="4128" max="4132" width="10.85546875" customWidth="1"/>
-    <col min="4136" max="4136" width="10.85546875" customWidth="1"/>
-    <col min="4138" max="4138" width="10.85546875" customWidth="1"/>
-    <col min="4140" max="4141" width="10.85546875" customWidth="1"/>
-    <col min="4144" max="4144" width="10.85546875" customWidth="1"/>
-    <col min="4147" max="4149" width="10.85546875" customWidth="1"/>
-    <col min="4152" max="4152" width="10.85546875" customWidth="1"/>
-    <col min="4154" max="4155" width="10.85546875" customWidth="1"/>
-    <col min="4157" max="4157" width="10.85546875" customWidth="1"/>
-    <col min="4160" max="4161" width="10.85546875" customWidth="1"/>
-    <col min="4164" max="4165" width="10.85546875" customWidth="1"/>
-    <col min="4168" max="4168" width="10.85546875" customWidth="1"/>
-    <col min="4170" max="4171" width="10.85546875" customWidth="1"/>
-    <col min="4173" max="4173" width="10.85546875" customWidth="1"/>
-    <col min="4176" max="4176" width="10.85546875" customWidth="1"/>
-    <col min="4179" max="4181" width="10.85546875" customWidth="1"/>
-    <col min="4184" max="4189" width="10.85546875" customWidth="1"/>
-    <col min="4191" max="4195" width="10.85546875" customWidth="1"/>
-    <col min="4197" max="4197" width="10.85546875" customWidth="1"/>
-    <col min="4200" max="4200" width="10.85546875" customWidth="1"/>
-    <col min="4202" max="4205" width="10.85546875" customWidth="1"/>
-    <col min="4208" max="4209" width="10.85546875" customWidth="1"/>
-    <col min="4211" max="4211" width="10.85546875" customWidth="1"/>
-    <col min="4216" max="4216" width="10.85546875" customWidth="1"/>
-    <col min="4218" max="4221" width="10.85546875" customWidth="1"/>
-    <col min="4224" max="4225" width="10.85546875" customWidth="1"/>
-    <col min="4227" max="4228" width="10.85546875" customWidth="1"/>
-    <col min="4232" max="4234" width="10.85546875" customWidth="1"/>
-    <col min="4236" max="4237" width="10.85546875" customWidth="1"/>
-    <col min="4240" max="4245" width="10.85546875" customWidth="1"/>
-    <col min="4247" max="4248" width="10.85546875" customWidth="1"/>
-    <col min="4250" max="4250" width="10.85546875" customWidth="1"/>
-    <col min="4252" max="4253" width="10.85546875" customWidth="1"/>
-    <col min="4256" max="4257" width="10.85546875" customWidth="1"/>
-    <col min="4260" max="4260" width="10.85546875" customWidth="1"/>
-    <col min="4264" max="4264" width="10.85546875" customWidth="1"/>
-    <col min="4266" max="4266" width="10.85546875" customWidth="1"/>
-    <col min="4268" max="4269" width="10.85546875" customWidth="1"/>
-    <col min="4272" max="4273" width="10.85546875" customWidth="1"/>
-    <col min="4277" max="4277" width="10.85546875" customWidth="1"/>
-    <col min="4280" max="4282" width="10.85546875" customWidth="1"/>
-    <col min="4284" max="4284" width="10.85546875" customWidth="1"/>
-    <col min="4288" max="4293" width="10.85546875" customWidth="1"/>
-    <col min="4295" max="4296" width="10.85546875" customWidth="1"/>
-    <col min="4299" max="4300" width="10.85546875" customWidth="1"/>
-    <col min="4304" max="4304" width="10.85546875" customWidth="1"/>
-    <col min="4306" max="4306" width="10.85546875" customWidth="1"/>
-    <col min="4308" max="4309" width="10.85546875" customWidth="1"/>
-    <col min="4312" max="4314" width="10.85546875" customWidth="1"/>
-    <col min="4316" max="4316" width="10.85546875" customWidth="1"/>
-    <col min="4320" max="4325" width="10.85546875" customWidth="1"/>
-    <col min="4327" max="4328" width="10.85546875" customWidth="1"/>
-    <col min="4330" max="4331" width="10.85546875" customWidth="1"/>
-    <col min="4333" max="4333" width="10.85546875" customWidth="1"/>
-    <col min="4336" max="4336" width="10.85546875" customWidth="1"/>
-    <col min="4339" max="4340" width="10.85546875" customWidth="1"/>
-    <col min="4344" max="4349" width="10.85546875" customWidth="1"/>
-    <col min="4351" max="4354" width="10.85546875" customWidth="1"/>
-    <col min="4357" max="4357" width="10.85546875" customWidth="1"/>
-    <col min="4360" max="4360" width="10.85546875" customWidth="1"/>
-    <col min="4362" max="4363" width="10.85546875" customWidth="1"/>
-    <col min="4365" max="4365" width="10.85546875" customWidth="1"/>
-    <col min="4368" max="4368" width="10.85546875" customWidth="1"/>
-    <col min="4371" max="4371" width="10.85546875" customWidth="1"/>
-    <col min="4373" max="4373" width="10.85546875" customWidth="1"/>
-    <col min="4376" max="4376" width="10.85546875" customWidth="1"/>
-    <col min="4378" max="4378" width="10.85546875" customWidth="1"/>
-    <col min="4380" max="4381" width="10.85546875" customWidth="1"/>
-    <col min="4384" max="4386" width="10.85546875" customWidth="1"/>
-    <col min="4389" max="4389" width="10.85546875" customWidth="1"/>
-    <col min="4392" max="4392" width="10.85546875" customWidth="1"/>
-    <col min="4394" max="4395" width="10.85546875" customWidth="1"/>
-    <col min="4400" max="4405" width="10.85546875" customWidth="1"/>
-    <col min="4407" max="4409" width="10.85546875" customWidth="1"/>
-    <col min="4413" max="4413" width="10.85546875" customWidth="1"/>
-    <col min="4416" max="4416" width="10.85546875" customWidth="1"/>
-    <col min="4421" max="4421" width="10.85546875" customWidth="1"/>
-    <col min="4424" max="4426" width="10.85546875" customWidth="1"/>
-    <col min="4428" max="4428" width="10.85546875" customWidth="1"/>
-    <col min="4432" max="4437" width="10.85546875" customWidth="1"/>
-    <col min="4439" max="4442" width="10.85546875" customWidth="1"/>
-    <col min="4444" max="4444" width="10.85546875" customWidth="1"/>
-    <col min="4448" max="4448" width="10.85546875" customWidth="1"/>
-    <col min="4453" max="4453" width="10.85546875" customWidth="1"/>
-    <col min="4456" max="4461" width="10.85546875" customWidth="1"/>
-    <col min="4463" max="4465" width="10.85546875" customWidth="1"/>
-    <col min="4467" max="4469" width="10.85546875" customWidth="1"/>
-    <col min="4472" max="4472" width="10.85546875" customWidth="1"/>
-    <col min="4474" max="4474" width="10.85546875" customWidth="1"/>
-    <col min="4476" max="4477" width="10.85546875" customWidth="1"/>
-    <col min="4480" max="4485" width="10.85546875" customWidth="1"/>
-    <col min="4487" max="4490" width="10.85546875" customWidth="1"/>
-    <col min="4492" max="4492" width="10.85546875" customWidth="1"/>
-    <col min="4496" max="4499" width="10.85546875" customWidth="1"/>
-    <col min="4501" max="4501" width="10.85546875" customWidth="1"/>
-    <col min="4504" max="4504" width="10.85546875" customWidth="1"/>
-    <col min="4506" max="4506" width="10.85546875" customWidth="1"/>
-    <col min="4508" max="4509" width="10.85546875" customWidth="1"/>
-    <col min="4512" max="4517" width="10.85546875" customWidth="1"/>
-    <col min="4519" max="4520" width="10.85546875" customWidth="1"/>
-    <col min="4523" max="4524" width="10.85546875" customWidth="1"/>
-    <col min="4528" max="4528" width="10.85546875" customWidth="1"/>
-    <col min="4530" max="4533" width="10.85546875" customWidth="1"/>
-    <col min="4536" max="4536" width="10.85546875" customWidth="1"/>
-    <col min="4538" max="4538" width="10.85546875" customWidth="1"/>
-    <col min="4541" max="4541" width="10.85546875" customWidth="1"/>
-    <col min="4544" max="4544" width="10.85546875" customWidth="1"/>
-    <col min="4546" max="4546" width="10.85546875" customWidth="1"/>
-    <col min="4548" max="4549" width="10.85546875" customWidth="1"/>
-    <col min="4552" max="4553" width="10.85546875" customWidth="1"/>
-    <col min="4557" max="4557" width="10.85546875" customWidth="1"/>
-    <col min="4559" max="4565" width="10.85546875" customWidth="1"/>
-    <col min="4567" max="4569" width="10.85546875" customWidth="1"/>
-    <col min="4571" max="4574" width="10.85546875" customWidth="1"/>
-    <col min="4576" max="4576" width="10.85546875" customWidth="1"/>
-    <col min="4578" max="4578" width="10.85546875" customWidth="1"/>
-    <col min="4580" max="4580" width="10.85546875" customWidth="1"/>
-    <col min="4584" max="4586" width="10.85546875" customWidth="1"/>
-    <col min="4588" max="4588" width="10.85546875" customWidth="1"/>
-    <col min="4592" max="4597" width="10.85546875" customWidth="1"/>
-    <col min="4599" max="4600" width="10.85546875" customWidth="1"/>
-    <col min="4602" max="4602" width="10.85546875" customWidth="1"/>
-    <col min="4604" max="4604" width="10.85546875" customWidth="1"/>
-    <col min="4608" max="4608" width="10.85546875" customWidth="1"/>
-    <col min="4611" max="4612" width="10.85546875" customWidth="1"/>
-    <col min="4616" max="4616" width="10.85546875" customWidth="1"/>
-    <col min="4618" max="4618" width="10.85546875" customWidth="1"/>
-    <col min="4620" max="4620" width="10.85546875" customWidth="1"/>
-    <col min="4624" max="4624" width="10.85546875" customWidth="1"/>
-    <col min="4626" max="4629" width="10.85546875" customWidth="1"/>
-    <col min="4632" max="4634" width="10.85546875" customWidth="1"/>
-    <col min="4637" max="4637" width="10.85546875" customWidth="1"/>
-    <col min="4640" max="4642" width="10.85546875" customWidth="1"/>
-    <col min="4645" max="4645" width="10.85546875" customWidth="1"/>
-    <col min="4648" max="4648" width="10.85546875" customWidth="1"/>
-    <col min="4650" max="4651" width="10.85546875" customWidth="1"/>
-    <col min="4656" max="4658" width="10.85546875" customWidth="1"/>
-    <col min="4661" max="4661" width="10.85546875" customWidth="1"/>
-    <col min="4663" max="4669" width="10.85546875" customWidth="1"/>
-    <col min="4671" max="4674" width="10.85546875" customWidth="1"/>
-    <col min="4676" max="4676" width="10.85546875" customWidth="1"/>
-    <col min="4680" max="4683" width="10.85546875" customWidth="1"/>
-    <col min="4685" max="4685" width="10.85546875" customWidth="1"/>
-    <col min="4688" max="4688" width="10.85546875" customWidth="1"/>
-    <col min="4690" max="4690" width="10.85546875" customWidth="1"/>
-    <col min="4692" max="4693" width="10.85546875" customWidth="1"/>
-    <col min="4696" max="4701" width="10.85546875" customWidth="1"/>
-    <col min="4703" max="4704" width="10.85546875" customWidth="1"/>
-    <col min="4706" max="4706" width="10.85546875" customWidth="1"/>
-    <col min="4708" max="4709" width="10.85546875" customWidth="1"/>
-    <col min="4712" max="4713" width="10.85546875" customWidth="1"/>
-    <col min="4717" max="4717" width="10.85546875" customWidth="1"/>
-    <col min="4720" max="4722" width="10.85546875" customWidth="1"/>
-    <col min="4724" max="4724" width="10.85546875" customWidth="1"/>
-    <col min="4728" max="4728" width="10.85546875" customWidth="1"/>
-    <col min="4730" max="4731" width="10.85546875" customWidth="1"/>
-    <col min="4733" max="4733" width="10.85546875" customWidth="1"/>
-    <col min="4736" max="4738" width="10.85546875" customWidth="1"/>
-    <col min="4740" max="4740" width="10.85546875" customWidth="1"/>
-    <col min="4744" max="4744" width="10.85546875" customWidth="1"/>
-    <col min="4746" max="4747" width="10.85546875" customWidth="1"/>
-    <col min="4752" max="4757" width="10.85546875" customWidth="1"/>
-    <col min="4759" max="4761" width="10.85546875" customWidth="1"/>
-    <col min="4764" max="4765" width="10.85546875" customWidth="1"/>
-    <col min="4768" max="4768" width="10.85546875" customWidth="1"/>
-    <col min="4770" max="4771" width="10.85546875" customWidth="1"/>
-    <col min="4773" max="4773" width="10.85546875" customWidth="1"/>
-    <col min="4776" max="4778" width="10.85546875" customWidth="1"/>
-    <col min="4781" max="4781" width="10.85546875" customWidth="1"/>
-    <col min="4784" max="4784" width="10.85546875" customWidth="1"/>
-    <col min="4786" max="4786" width="10.85546875" customWidth="1"/>
-    <col min="4788" max="4789" width="10.85546875" customWidth="1"/>
-    <col min="4792" max="4797" width="10.85546875" customWidth="1"/>
-    <col min="4799" max="4800" width="10.85546875" customWidth="1"/>
-    <col min="4802" max="4803" width="10.85546875" customWidth="1"/>
-    <col min="4805" max="4805" width="10.85546875" customWidth="1"/>
-    <col min="4808" max="4808" width="10.85546875" customWidth="1"/>
-    <col min="4811" max="4812" width="10.85546875" customWidth="1"/>
-    <col min="4816" max="4821" width="10.85546875" customWidth="1"/>
-    <col min="4823" max="4825" width="10.85546875" customWidth="1"/>
-    <col min="4828" max="4829" width="10.85546875" customWidth="1"/>
-    <col min="4832" max="4832" width="10.85546875" customWidth="1"/>
-    <col min="4837" max="4837" width="10.85546875" customWidth="1"/>
-    <col min="4840" max="4841" width="10.85546875" customWidth="1"/>
-    <col min="4843" max="4844" width="10.85546875" customWidth="1"/>
-    <col min="4848" max="4853" width="10.85546875" customWidth="1"/>
-    <col min="4855" max="4856" width="10.85546875" customWidth="1"/>
-    <col min="4858" max="4861" width="10.85546875" customWidth="1"/>
-    <col min="4864" max="4869" width="10.85546875" customWidth="1"/>
-    <col min="4871" max="4872" width="10.85546875" customWidth="1"/>
-    <col min="4875" max="4876" width="10.85546875" customWidth="1"/>
-    <col min="4880" max="4884" width="10.85546875" customWidth="1"/>
-    <col min="4888" max="4888" width="10.85546875" customWidth="1"/>
-    <col min="4890" max="4890" width="10.85546875" customWidth="1"/>
-    <col min="4892" max="4893" width="10.85546875" customWidth="1"/>
-    <col min="4896" max="4896" width="10.85546875" customWidth="1"/>
-    <col min="4899" max="4901" width="10.85546875" customWidth="1"/>
-    <col min="4904" max="4904" width="10.85546875" customWidth="1"/>
-    <col min="4906" max="4907" width="10.85546875" customWidth="1"/>
-    <col min="4909" max="4909" width="10.85546875" customWidth="1"/>
-    <col min="4912" max="4913" width="10.85546875" customWidth="1"/>
-    <col min="4916" max="4917" width="10.85546875" customWidth="1"/>
-    <col min="4920" max="4920" width="10.85546875" customWidth="1"/>
-    <col min="4922" max="4923" width="10.85546875" customWidth="1"/>
-    <col min="4925" max="4925" width="10.85546875" customWidth="1"/>
-    <col min="4928" max="4928" width="10.85546875" customWidth="1"/>
-    <col min="4931" max="4933" width="10.85546875" customWidth="1"/>
-    <col min="4936" max="4941" width="10.85546875" customWidth="1"/>
-    <col min="4943" max="4946" width="10.85546875" customWidth="1"/>
-    <col min="4948" max="4948" width="10.85546875" customWidth="1"/>
-    <col min="4952" max="4952" width="10.85546875" customWidth="1"/>
-    <col min="4954" max="4955" width="10.85546875" customWidth="1"/>
-    <col min="4957" max="4957" width="10.85546875" customWidth="1"/>
-    <col min="4960" max="4960" width="10.85546875" customWidth="1"/>
-    <col min="4962" max="4962" width="10.85546875" customWidth="1"/>
-    <col min="4965" max="4965" width="10.85546875" customWidth="1"/>
-    <col min="4968" max="4968" width="10.85546875" customWidth="1"/>
-    <col min="4970" max="4970" width="10.85546875" customWidth="1"/>
-    <col min="4972" max="4973" width="10.85546875" customWidth="1"/>
-    <col min="4976" max="4981" width="10.85546875" customWidth="1"/>
-    <col min="4983" max="4987" width="10.85546875" customWidth="1"/>
-    <col min="4989" max="4989" width="10.85546875" customWidth="1"/>
-    <col min="4991" max="4992" width="10.85546875" customWidth="1"/>
-    <col min="4994" max="4994" width="10.85546875" customWidth="1"/>
-    <col min="4996" max="4997" width="10.85546875" customWidth="1"/>
-    <col min="5000" max="5001" width="10.85546875" customWidth="1"/>
-    <col min="5005" max="5005" width="10.85546875" customWidth="1"/>
-    <col min="5007" max="5008" width="10.85546875" customWidth="1"/>
-    <col min="5012" max="5013" width="10.85546875" customWidth="1"/>
-    <col min="5016" max="5017" width="10.85546875" customWidth="1"/>
-    <col min="5021" max="5021" width="10.85546875" customWidth="1"/>
-    <col min="5023" max="5029" width="10.85546875" customWidth="1"/>
-    <col min="5031" max="5033" width="10.85546875" customWidth="1"/>
-    <col min="5035" max="5036" width="10.85546875" customWidth="1"/>
-    <col min="5039" max="5044" width="10.85546875" customWidth="1"/>
-    <col min="5047" max="5048" width="10.85546875" customWidth="1"/>
-    <col min="5051" max="5052" width="10.85546875" customWidth="1"/>
-    <col min="5055" max="5060" width="10.85546875" customWidth="1"/>
-    <col min="5063" max="5064" width="10.85546875" customWidth="1"/>
-    <col min="5066" max="5067" width="10.85546875" customWidth="1"/>
-    <col min="5069" max="5069" width="10.85546875" customWidth="1"/>
-    <col min="5071" max="5074" width="10.85546875" customWidth="1"/>
-    <col min="5077" max="5077" width="10.85546875" customWidth="1"/>
-    <col min="5079" max="5085" width="10.85546875" customWidth="1"/>
-    <col min="5087" max="5088" width="10.85546875" customWidth="1"/>
-    <col min="5090" max="5093" width="10.85546875" customWidth="1"/>
-    <col min="5096" max="5097" width="10.85546875" customWidth="1"/>
-    <col min="5101" max="5101" width="10.85546875" customWidth="1"/>
-    <col min="5104" max="5106" width="10.85546875" customWidth="1"/>
-    <col min="5108" max="5109" width="10.85546875" customWidth="1"/>
-    <col min="5112" max="5117" width="10.85546875" customWidth="1"/>
-    <col min="5119" max="5120" width="10.85546875" customWidth="1"/>
-    <col min="5123" max="5124" width="10.85546875" customWidth="1"/>
-    <col min="5128" max="5128" width="10.85546875" customWidth="1"/>
-    <col min="5133" max="5133" width="10.85546875" customWidth="1"/>
-    <col min="5136" max="5141" width="10.85546875" customWidth="1"/>
-    <col min="5143" max="5144" width="10.85546875" customWidth="1"/>
-    <col min="5148" max="5148" width="10.85546875" customWidth="1"/>
-    <col min="5152" max="5152" width="10.85546875" customWidth="1"/>
-    <col min="5154" max="5155" width="10.85546875" customWidth="1"/>
-    <col min="5157" max="5157" width="10.85546875" customWidth="1"/>
-    <col min="5160" max="5162" width="10.85546875" customWidth="1"/>
-    <col min="5165" max="5165" width="10.85546875" customWidth="1"/>
-    <col min="5168" max="5170" width="10.85546875" customWidth="1"/>
-    <col min="5173" max="5173" width="10.85546875" customWidth="1"/>
-    <col min="5176" max="5181" width="10.85546875" customWidth="1"/>
-    <col min="5183" max="5185" width="10.85546875" customWidth="1"/>
-    <col min="5187" max="5189" width="10.85546875" customWidth="1"/>
-    <col min="5192" max="5192" width="10.85546875" customWidth="1"/>
-    <col min="5194" max="5194" width="10.85546875" customWidth="1"/>
-    <col min="5196" max="5197" width="10.85546875" customWidth="1"/>
-    <col min="5200" max="5205" width="10.85546875" customWidth="1"/>
-    <col min="5207" max="5210" width="10.85546875" customWidth="1"/>
-    <col min="5212" max="5212" width="10.85546875" customWidth="1"/>
-    <col min="5216" max="5219" width="10.85546875" customWidth="1"/>
-    <col min="5221" max="5221" width="10.85546875" customWidth="1"/>
-    <col min="5224" max="5224" width="10.85546875" customWidth="1"/>
-    <col min="5226" max="5226" width="10.85546875" customWidth="1"/>
-    <col min="5228" max="5229" width="10.85546875" customWidth="1"/>
-    <col min="5232" max="5237" width="10.85546875" customWidth="1"/>
-    <col min="5239" max="5240" width="10.85546875" customWidth="1"/>
-    <col min="5242" max="5242" width="10.85546875" customWidth="1"/>
-    <col min="5245" max="5245" width="10.85546875" customWidth="1"/>
-    <col min="5248" max="5248" width="10.85546875" customWidth="1"/>
-    <col min="5250" max="5250" width="10.85546875" customWidth="1"/>
-    <col min="5252" max="5253" width="10.85546875" customWidth="1"/>
-    <col min="5256" max="5256" width="10.85546875" customWidth="1"/>
-    <col min="5258" max="5261" width="10.85546875" customWidth="1"/>
-    <col min="5264" max="5264" width="10.85546875" customWidth="1"/>
-    <col min="5267" max="5268" width="10.85546875" customWidth="1"/>
-    <col min="5272" max="5272" width="10.85546875" customWidth="1"/>
-    <col min="5274" max="5274" width="10.85546875" customWidth="1"/>
-    <col min="5276" max="5276" width="10.85546875" customWidth="1"/>
-    <col min="5280" max="5281" width="10.85546875" customWidth="1"/>
-    <col min="5283" max="5284" width="10.85546875" customWidth="1"/>
-    <col min="5288" max="5288" width="10.85546875" customWidth="1"/>
-    <col min="5290" max="5290" width="10.85546875" customWidth="1"/>
-    <col min="5292" max="5293" width="10.85546875" customWidth="1"/>
-    <col min="5296" max="5296" width="10.85546875" customWidth="1"/>
-    <col min="5298" max="5298" width="10.85546875" customWidth="1"/>
-    <col min="5301" max="5301" width="10.85546875" customWidth="1"/>
-    <col min="5303" max="5304" width="10.85546875" customWidth="1"/>
-    <col min="5307" max="5308" width="10.85546875" customWidth="1"/>
-    <col min="5312" max="5316" width="10.85546875" customWidth="1"/>
-    <col min="5320" max="5320" width="10.85546875" customWidth="1"/>
-    <col min="5322" max="5322" width="10.85546875" customWidth="1"/>
-    <col min="5324" max="5325" width="10.85546875" customWidth="1"/>
-    <col min="5328" max="5328" width="10.85546875" customWidth="1"/>
-    <col min="5331" max="5333" width="10.85546875" customWidth="1"/>
-    <col min="5336" max="5336" width="10.85546875" customWidth="1"/>
-    <col min="5338" max="5339" width="10.85546875" customWidth="1"/>
-    <col min="5341" max="5341" width="10.85546875" customWidth="1"/>
-    <col min="5344" max="5345" width="10.85546875" customWidth="1"/>
-    <col min="5348" max="5349" width="10.85546875" customWidth="1"/>
-    <col min="5352" max="5352" width="10.85546875" customWidth="1"/>
-    <col min="5354" max="5355" width="10.85546875" customWidth="1"/>
-    <col min="5357" max="5357" width="10.85546875" customWidth="1"/>
-    <col min="5360" max="5360" width="10.85546875" customWidth="1"/>
-    <col min="5363" max="5365" width="10.85546875" customWidth="1"/>
-    <col min="5368" max="5373" width="10.85546875" customWidth="1"/>
-    <col min="5375" max="5379" width="10.85546875" customWidth="1"/>
-    <col min="5381" max="5381" width="10.85546875" customWidth="1"/>
-    <col min="5384" max="5384" width="10.85546875" customWidth="1"/>
-    <col min="5386" max="5389" width="10.85546875" customWidth="1"/>
-    <col min="5392" max="5393" width="10.85546875" customWidth="1"/>
-    <col min="5395" max="5395" width="10.85546875" customWidth="1"/>
-    <col min="5400" max="5400" width="10.85546875" customWidth="1"/>
-    <col min="5402" max="5405" width="10.85546875" customWidth="1"/>
-    <col min="5408" max="5409" width="10.85546875" customWidth="1"/>
-    <col min="5411" max="5412" width="10.85546875" customWidth="1"/>
-    <col min="5416" max="5418" width="10.85546875" customWidth="1"/>
-    <col min="5420" max="5421" width="10.85546875" customWidth="1"/>
-    <col min="5424" max="5429" width="10.85546875" customWidth="1"/>
-    <col min="5431" max="5432" width="10.85546875" customWidth="1"/>
-    <col min="5434" max="5434" width="10.85546875" customWidth="1"/>
-    <col min="5436" max="5437" width="10.85546875" customWidth="1"/>
-    <col min="5440" max="5441" width="10.85546875" customWidth="1"/>
-    <col min="5444" max="5444" width="10.85546875" customWidth="1"/>
-    <col min="5448" max="5448" width="10.85546875" customWidth="1"/>
-    <col min="5450" max="5450" width="10.85546875" customWidth="1"/>
-    <col min="5452" max="5453" width="10.85546875" customWidth="1"/>
-    <col min="5456" max="5457" width="10.85546875" customWidth="1"/>
-    <col min="5461" max="5461" width="10.85546875" customWidth="1"/>
-    <col min="5464" max="5466" width="10.85546875" customWidth="1"/>
-    <col min="5468" max="5468" width="10.85546875" customWidth="1"/>
-    <col min="5472" max="5477" width="10.85546875" customWidth="1"/>
-    <col min="5479" max="5480" width="10.85546875" customWidth="1"/>
-    <col min="5483" max="5484" width="10.85546875" customWidth="1"/>
-    <col min="5488" max="5488" width="10.85546875" customWidth="1"/>
-    <col min="5490" max="5490" width="10.85546875" customWidth="1"/>
-    <col min="5492" max="5493" width="10.85546875" customWidth="1"/>
-    <col min="5496" max="5498" width="10.85546875" customWidth="1"/>
-    <col min="5500" max="5500" width="10.85546875" customWidth="1"/>
-    <col min="5504" max="5509" width="10.85546875" customWidth="1"/>
-    <col min="5511" max="5512" width="10.85546875" customWidth="1"/>
-    <col min="5515" max="5516" width="10.85546875" customWidth="1"/>
-    <col min="5520" max="5524" width="10.85546875" customWidth="1"/>
-    <col min="5528" max="5528" width="10.85546875" customWidth="1"/>
-    <col min="5530" max="5530" width="10.85546875" customWidth="1"/>
-    <col min="5532" max="5533" width="10.85546875" customWidth="1"/>
-    <col min="5536" max="5536" width="10.85546875" customWidth="1"/>
-    <col min="5539" max="5541" width="10.85546875" customWidth="1"/>
-    <col min="5544" max="5544" width="10.85546875" customWidth="1"/>
-    <col min="5546" max="5547" width="10.85546875" customWidth="1"/>
-    <col min="5549" max="5549" width="10.85546875" customWidth="1"/>
-    <col min="5552" max="5553" width="10.85546875" customWidth="1"/>
-    <col min="5556" max="5557" width="10.85546875" customWidth="1"/>
-    <col min="5560" max="5560" width="10.85546875" customWidth="1"/>
-    <col min="5562" max="5563" width="10.85546875" customWidth="1"/>
-    <col min="5565" max="5565" width="10.85546875" customWidth="1"/>
-    <col min="5568" max="5568" width="10.85546875" customWidth="1"/>
-    <col min="5570" max="5570" width="10.85546875" customWidth="1"/>
-    <col min="5572" max="5573" width="10.85546875" customWidth="1"/>
-    <col min="5576" max="5578" width="10.85546875" customWidth="1"/>
-    <col min="5580" max="5581" width="10.85546875" customWidth="1"/>
-    <col min="5584" max="5589" width="10.85546875" customWidth="1"/>
-    <col min="5591" max="5592" width="10.85546875" customWidth="1"/>
-    <col min="5596" max="5596" width="10.85546875" customWidth="1"/>
-    <col min="5600" max="5600" width="10.85546875" customWidth="1"/>
-    <col min="5602" max="5603" width="10.85546875" customWidth="1"/>
-    <col min="5605" max="5605" width="10.85546875" customWidth="1"/>
-    <col min="5608" max="5610" width="10.85546875" customWidth="1"/>
-    <col min="5612" max="5612" width="10.85546875" customWidth="1"/>
-    <col min="5616" max="5619" width="10.85546875" customWidth="1"/>
-    <col min="5621" max="5621" width="10.85546875" customWidth="1"/>
-    <col min="5624" max="5624" width="10.85546875" customWidth="1"/>
-    <col min="5626" max="5627" width="10.85546875" customWidth="1"/>
-    <col min="5629" max="5629" width="10.85546875" customWidth="1"/>
-    <col min="5632" max="5633" width="10.85546875" customWidth="1"/>
-    <col min="5637" max="5637" width="10.85546875" customWidth="1"/>
-    <col min="5640" max="5641" width="10.85546875" customWidth="1"/>
-    <col min="5645" max="5645" width="10.85546875" customWidth="1"/>
-    <col min="5647" max="5648" width="10.85546875" customWidth="1"/>
-    <col min="5650" max="5650" width="10.85546875" customWidth="1"/>
-    <col min="5653" max="5656" width="10.85546875" customWidth="1"/>
-    <col min="5658" max="5658" width="10.85546875" customWidth="1"/>
-    <col min="5661" max="5664" width="10.85546875" customWidth="1"/>
-    <col min="5666" max="5669" width="10.85546875" customWidth="1"/>
-    <col min="5672" max="5680" width="10.85546875" customWidth="1"/>
-    <col min="5686" max="5686" width="10.85546875" customWidth="1"/>
-    <col min="5688" max="5698" width="10.85546875" customWidth="1"/>
-    <col min="5700" max="5701" width="10.85546875" customWidth="1"/>
-    <col min="5704" max="5712" width="10.85546875" customWidth="1"/>
-    <col min="5714" max="5717" width="10.85546875" customWidth="1"/>
-    <col min="5720" max="5730" width="10.85546875" customWidth="1"/>
-    <col min="5732" max="5732" width="10.85546875" customWidth="1"/>
-    <col min="5736" max="5744" width="10.85546875" customWidth="1"/>
-    <col min="5746" max="5749" width="10.85546875" customWidth="1"/>
-    <col min="5752" max="5760" width="10.85546875" customWidth="1"/>
-    <col min="5765" max="5765" width="10.85546875" customWidth="1"/>
-    <col min="5767" max="5776" width="10.85546875" customWidth="1"/>
-    <col min="5778" max="5778" width="10.85546875" customWidth="1"/>
-    <col min="5780" max="5781" width="10.85546875" customWidth="1"/>
-    <col min="5784" max="5793" width="10.85546875" customWidth="1"/>
-    <col min="5797" max="5797" width="10.85546875" customWidth="1"/>
-    <col min="5800" max="5816" width="10.85546875" customWidth="1"/>
-    <col min="5818" max="5818" width="10.85546875" customWidth="1"/>
-    <col min="5820" max="5820" width="10.85546875" customWidth="1"/>
-    <col min="5822" max="5823" width="10.85546875" customWidth="1"/>
-    <col min="5826" max="5826" width="10.85546875" customWidth="1"/>
-    <col min="5828" max="5829" width="10.85546875" customWidth="1"/>
-    <col min="5831" max="5831" width="10.85546875" customWidth="1"/>
-    <col min="5833" max="5834" width="10.85546875" customWidth="1"/>
-    <col min="5836" max="5836" width="10.85546875" customWidth="1"/>
-    <col min="5842" max="5843" width="10.85546875" customWidth="1"/>
-    <col min="5847" max="5847" width="10.85546875" customWidth="1"/>
-    <col min="5856" max="5937" width="10.85546875" customWidth="1"/>
-    <col min="5941" max="5941" width="10.85546875" customWidth="1"/>
-    <col min="5944" max="5954" width="10.85546875" customWidth="1"/>
-    <col min="5956" max="5956" width="10.85546875" customWidth="1"/>
-    <col min="5960" max="5968" width="10.85546875" customWidth="1"/>
-    <col min="5970" max="5971" width="10.85546875" customWidth="1"/>
-    <col min="5973" max="5973" width="10.85546875" customWidth="1"/>
-    <col min="5976" max="5986" width="10.85546875" customWidth="1"/>
-    <col min="5988" max="5988" width="10.85546875" customWidth="1"/>
-    <col min="5992" max="5995" width="10.85546875" customWidth="1"/>
-    <col min="5998" max="5998" width="10.85546875" customWidth="1"/>
-    <col min="6000" max="6004" width="10.85546875" customWidth="1"/>
-    <col min="6006" max="6006" width="10.85546875" customWidth="1"/>
-    <col min="6008" max="6008" width="10.85546875" customWidth="1"/>
-    <col min="6012" max="6012" width="10.85546875" customWidth="1"/>
-    <col min="6015" max="6016" width="10.85546875" customWidth="1"/>
-    <col min="6018" max="6018" width="10.85546875" customWidth="1"/>
-    <col min="6021" max="6022" width="10.85546875" customWidth="1"/>
-    <col min="6029" max="6030" width="10.85546875" customWidth="1"/>
-    <col min="6032" max="6032" width="10.85546875" customWidth="1"/>
-    <col min="6048" max="6064" width="10.85546875" customWidth="1"/>
-    <col min="6066" max="6066" width="10.85546875" customWidth="1"/>
-    <col min="6068" max="6256" width="10.85546875" customWidth="1"/>
-    <col min="6258" max="6320" width="10.85546875" customWidth="1"/>
-    <col min="6322" max="6391" width="10.85546875" customWidth="1"/>
-    <col min="6393" max="6448" width="10.85546875" customWidth="1"/>
-    <col min="6451" max="6647" width="10.85546875" customWidth="1"/>
-    <col min="6649" max="6704" width="10.85546875" customWidth="1"/>
-    <col min="6707" max="6823" width="10.85546875" customWidth="1"/>
-    <col min="6833" max="6901" width="10.85546875" customWidth="1"/>
-    <col min="6903" max="6932" width="10.85546875" customWidth="1"/>
-    <col min="6935" max="6964" width="10.85546875" customWidth="1"/>
-    <col min="6967" max="6967" width="10.85546875" customWidth="1"/>
-    <col min="6971" max="6971" width="10.85546875" customWidth="1"/>
-    <col min="6975" max="6976" width="10.85546875" customWidth="1"/>
-    <col min="6978" max="6978" width="10.85546875" customWidth="1"/>
-    <col min="6981" max="6982" width="10.85546875" customWidth="1"/>
-    <col min="6989" max="6990" width="10.85546875" customWidth="1"/>
-    <col min="6992" max="6992" width="10.85546875" customWidth="1"/>
-    <col min="7008" max="7030" width="10.85546875" customWidth="1"/>
-    <col min="7033" max="7033" width="10.85546875" customWidth="1"/>
-    <col min="7035" max="7035" width="10.85546875" customWidth="1"/>
-    <col min="7039" max="7040" width="10.85546875" customWidth="1"/>
-    <col min="7042" max="7042" width="10.85546875" customWidth="1"/>
-    <col min="7045" max="7046" width="10.85546875" customWidth="1"/>
-    <col min="7053" max="7054" width="10.85546875" customWidth="1"/>
-    <col min="7056" max="7056" width="10.85546875" customWidth="1"/>
-    <col min="7072" max="7088" width="10.85546875" customWidth="1"/>
-    <col min="7090" max="7090" width="10.85546875" customWidth="1"/>
-    <col min="7093" max="7093" width="10.85546875" customWidth="1"/>
-    <col min="7095" max="7096" width="10.85546875" customWidth="1"/>
-    <col min="7100" max="7103" width="10.85546875" customWidth="1"/>
-    <col min="7106" max="7106" width="10.85546875" customWidth="1"/>
-    <col min="7110" max="7110" width="10.85546875" customWidth="1"/>
-    <col min="7114" max="7115" width="10.85546875" customWidth="1"/>
-    <col min="7118" max="7119" width="10.85546875" customWidth="1"/>
-    <col min="7136" max="7157" width="10.85546875" customWidth="1"/>
-    <col min="7159" max="7188" width="10.85546875" customWidth="1"/>
-    <col min="7191" max="7220" width="10.85546875" customWidth="1"/>
-    <col min="7222" max="7222" width="10.85546875" customWidth="1"/>
-    <col min="7227" max="7227" width="10.85546875" customWidth="1"/>
-    <col min="7231" max="7232" width="10.85546875" customWidth="1"/>
-    <col min="7234" max="7234" width="10.85546875" customWidth="1"/>
-    <col min="7237" max="7238" width="10.85546875" customWidth="1"/>
-    <col min="7245" max="7246" width="10.85546875" customWidth="1"/>
-    <col min="7248" max="7248" width="10.85546875" customWidth="1"/>
-    <col min="7264" max="7285" width="10.85546875" customWidth="1"/>
-    <col min="7289" max="7289" width="10.85546875" customWidth="1"/>
-    <col min="7291" max="7291" width="10.85546875" customWidth="1"/>
-    <col min="7295" max="7296" width="10.85546875" customWidth="1"/>
-    <col min="7298" max="7298" width="10.85546875" customWidth="1"/>
-    <col min="7301" max="7302" width="10.85546875" customWidth="1"/>
-    <col min="7309" max="7310" width="10.85546875" customWidth="1"/>
-    <col min="7312" max="7312" width="10.85546875" customWidth="1"/>
-    <col min="7328" max="7353" width="10.85546875" customWidth="1"/>
-    <col min="7355" max="7355" width="10.85546875" customWidth="1"/>
-    <col min="7358" max="7359" width="10.85546875" customWidth="1"/>
-    <col min="7361" max="7361" width="10.85546875" customWidth="1"/>
-    <col min="7365" max="7365" width="10.85546875" customWidth="1"/>
-    <col min="7367" max="7368" width="10.85546875" customWidth="1"/>
-    <col min="7370" max="7371" width="10.85546875" customWidth="1"/>
-    <col min="7374" max="7376" width="10.85546875" customWidth="1"/>
-    <col min="7378" max="7415" width="10.85546875" customWidth="1"/>
-    <col min="7417" max="7417" width="10.85546875" customWidth="1"/>
-    <col min="7420" max="7420" width="10.85546875" customWidth="1"/>
-    <col min="7423" max="7424" width="10.85546875" customWidth="1"/>
-    <col min="7426" max="7426" width="10.85546875" customWidth="1"/>
-    <col min="7429" max="7430" width="10.85546875" customWidth="1"/>
-    <col min="7437" max="7438" width="10.85546875" customWidth="1"/>
-    <col min="7440" max="7440" width="10.85546875" customWidth="1"/>
-    <col min="7456" max="7473" width="10.85546875" customWidth="1"/>
-    <col min="7475" max="7476" width="10.85546875" customWidth="1"/>
-    <col min="7478" max="7478" width="10.85546875" customWidth="1"/>
-    <col min="7480" max="7481" width="10.85546875" customWidth="1"/>
-    <col min="7487" max="7491" width="10.85546875" customWidth="1"/>
-    <col min="7493" max="7494" width="10.85546875" customWidth="1"/>
-    <col min="7496" max="7496" width="10.85546875" customWidth="1"/>
-    <col min="7500" max="7500" width="10.85546875" customWidth="1"/>
-    <col min="7502" max="7503" width="10.85546875" customWidth="1"/>
-    <col min="7520" max="7609" width="10.85546875" customWidth="1"/>
-    <col min="7613" max="7613" width="10.85546875" customWidth="1"/>
-    <col min="7615" max="7615" width="10.85546875" customWidth="1"/>
-    <col min="7617" max="7617" width="10.85546875" customWidth="1"/>
-    <col min="7621" max="7621" width="10.85546875" customWidth="1"/>
-    <col min="7623" max="7624" width="10.85546875" customWidth="1"/>
-    <col min="7626" max="7627" width="10.85546875" customWidth="1"/>
-    <col min="7630" max="7632" width="10.85546875" customWidth="1"/>
-    <col min="7634" max="7665" width="10.85546875" customWidth="1"/>
-    <col min="7667" max="7676" width="10.85546875" customWidth="1"/>
-    <col min="7678" max="7731" width="10.85546875" customWidth="1"/>
-    <col min="7733" max="7733" width="10.85546875" customWidth="1"/>
-    <col min="7735" max="7813" width="10.85546875" customWidth="1"/>
-    <col min="7815" max="7815" width="10.85546875" customWidth="1"/>
-    <col min="7817" max="7818" width="10.85546875" customWidth="1"/>
-    <col min="7820" max="7820" width="10.85546875" customWidth="1"/>
-    <col min="7826" max="7827" width="10.85546875" customWidth="1"/>
-    <col min="7831" max="7831" width="10.85546875" customWidth="1"/>
-    <col min="7840" max="7869" width="10.85546875" customWidth="1"/>
-    <col min="7872" max="7873" width="10.85546875" customWidth="1"/>
-    <col min="7877" max="7877" width="10.85546875" customWidth="1"/>
-    <col min="7879" max="7880" width="10.85546875" customWidth="1"/>
-    <col min="7882" max="7883" width="10.85546875" customWidth="1"/>
-    <col min="7886" max="7888" width="10.85546875" customWidth="1"/>
-    <col min="7890" max="7920" width="10.85546875" customWidth="1"/>
-    <col min="7923" max="7988" width="10.85546875" customWidth="1"/>
-    <col min="7992" max="7994" width="10.85546875" customWidth="1"/>
-    <col min="7996" max="7997" width="10.85546875" customWidth="1"/>
-    <col min="7999" max="7999" width="10.85546875" customWidth="1"/>
-    <col min="8001" max="8002" width="10.85546875" customWidth="1"/>
-    <col min="8004" max="8005" width="10.85546875" customWidth="1"/>
-    <col min="8007" max="8007" width="10.85546875" customWidth="1"/>
-    <col min="8009" max="8010" width="10.85546875" customWidth="1"/>
-    <col min="8012" max="8012" width="10.85546875" customWidth="1"/>
-    <col min="8018" max="8019" width="10.85546875" customWidth="1"/>
-    <col min="8023" max="8023" width="10.85546875" customWidth="1"/>
-    <col min="8032" max="8049" width="10.85546875" customWidth="1"/>
-    <col min="8051" max="8060" width="10.85546875" customWidth="1"/>
-    <col min="8062" max="8103" width="10.85546875" customWidth="1"/>
-    <col min="8130" max="8130" width="10.85546875" customWidth="1"/>
-    <col min="8133" max="8134" width="10.85546875" customWidth="1"/>
-    <col min="8141" max="8142" width="10.85546875" customWidth="1"/>
-    <col min="8144" max="8144" width="10.85546875" customWidth="1"/>
-    <col min="8160" max="8182" width="10.85546875" customWidth="1"/>
-    <col min="8185" max="8186" width="10.85546875" customWidth="1"/>
-    <col min="8188" max="8188" width="10.85546875" customWidth="1"/>
-    <col min="8190" max="8190" width="10.85546875" customWidth="1"/>
-    <col min="8196" max="8196" width="10.85546875" customWidth="1"/>
-    <col min="8199" max="8199" width="10.85546875" customWidth="1"/>
-    <col min="8201" max="8202" width="10.85546875" customWidth="1"/>
-    <col min="8205" max="8207" width="10.85546875" customWidth="1"/>
-    <col min="8224" max="8305" width="10.85546875" customWidth="1"/>
-    <col min="8307" max="8309" width="10.85546875" customWidth="1"/>
-    <col min="8313" max="8314" width="10.85546875" customWidth="1"/>
-    <col min="8318" max="8323" width="10.85546875" customWidth="1"/>
-    <col min="8325" max="8326" width="10.85546875" customWidth="1"/>
-    <col min="8328" max="8329" width="10.85546875" customWidth="1"/>
-    <col min="8331" max="8332" width="10.85546875" customWidth="1"/>
-    <col min="8334" max="8334" width="10.85546875" customWidth="1"/>
-    <col min="8337" max="8337" width="10.85546875" customWidth="1"/>
-    <col min="8339" max="8340" width="10.85546875" customWidth="1"/>
-    <col min="8344" max="8344" width="10.85546875" customWidth="1"/>
-    <col min="8347" max="8348" width="10.85546875" customWidth="1"/>
-    <col min="8352" max="8360" width="10.85546875" customWidth="1"/>
-    <col min="8363" max="8363" width="10.85546875" customWidth="1"/>
-    <col min="8365" max="8365" width="10.85546875" customWidth="1"/>
-    <col min="8368" max="8368" width="10.85546875" customWidth="1"/>
-    <col min="8370" max="8370" width="10.85546875" customWidth="1"/>
-    <col min="8373" max="8373" width="10.85546875" customWidth="1"/>
-    <col min="8375" max="8376" width="10.85546875" customWidth="1"/>
-    <col min="8380" max="8383" width="10.85546875" customWidth="1"/>
-    <col min="8386" max="8386" width="10.85546875" customWidth="1"/>
-    <col min="8390" max="8390" width="10.85546875" customWidth="1"/>
-    <col min="8394" max="8395" width="10.85546875" customWidth="1"/>
-    <col min="8398" max="8399" width="10.85546875" customWidth="1"/>
-    <col min="8410" max="8412" width="10.85546875" customWidth="1"/>
-    <col min="8415" max="8416" width="10.85546875" customWidth="1"/>
-    <col min="8418" max="8418" width="10.85546875" customWidth="1"/>
-    <col min="8420" max="8420" width="10.85546875" customWidth="1"/>
-    <col min="8423" max="8426" width="10.85546875" customWidth="1"/>
-    <col min="8428" max="8429" width="10.85546875" customWidth="1"/>
-    <col min="8432" max="8433" width="10.85546875" customWidth="1"/>
-    <col min="8436" max="8438" width="10.85546875" customWidth="1"/>
-    <col min="8440" max="8501" width="10.85546875" customWidth="1"/>
-    <col min="8503" max="8503" width="10.85546875" customWidth="1"/>
-    <col min="8505" max="8506" width="10.85546875" customWidth="1"/>
-    <col min="8511" max="8512" width="10.85546875" customWidth="1"/>
-    <col min="8514" max="8514" width="10.85546875" customWidth="1"/>
-    <col min="8517" max="8518" width="10.85546875" customWidth="1"/>
-    <col min="8525" max="8526" width="10.85546875" customWidth="1"/>
-    <col min="8528" max="8528" width="10.85546875" customWidth="1"/>
-    <col min="8544" max="8561" width="10.85546875" customWidth="1"/>
-    <col min="8563" max="8565" width="10.85546875" customWidth="1"/>
-    <col min="8569" max="8570" width="10.85546875" customWidth="1"/>
-    <col min="8574" max="8579" width="10.85546875" customWidth="1"/>
-    <col min="8581" max="8582" width="10.85546875" customWidth="1"/>
-    <col min="8584" max="8585" width="10.85546875" customWidth="1"/>
-    <col min="8587" max="8588" width="10.85546875" customWidth="1"/>
-    <col min="8590" max="8590" width="10.85546875" customWidth="1"/>
-    <col min="8593" max="8593" width="10.85546875" customWidth="1"/>
-    <col min="8595" max="8596" width="10.85546875" customWidth="1"/>
-    <col min="8600" max="8600" width="10.85546875" customWidth="1"/>
-    <col min="8603" max="8604" width="10.85546875" customWidth="1"/>
-    <col min="8608" max="8616" width="10.85546875" customWidth="1"/>
-    <col min="8619" max="8619" width="10.85546875" customWidth="1"/>
-    <col min="8621" max="8621" width="10.85546875" customWidth="1"/>
-    <col min="8624" max="8688" width="10.85546875" customWidth="1"/>
-    <col min="8691" max="8820" width="10.85546875" customWidth="1"/>
-    <col min="8823" max="8823" width="10.85546875" customWidth="1"/>
-    <col min="8827" max="8827" width="10.85546875" customWidth="1"/>
-    <col min="8831" max="8832" width="10.85546875" customWidth="1"/>
-    <col min="8834" max="8834" width="10.85546875" customWidth="1"/>
-    <col min="8837" max="8838" width="10.85546875" customWidth="1"/>
-    <col min="8845" max="8846" width="10.85546875" customWidth="1"/>
-    <col min="8848" max="8848" width="10.85546875" customWidth="1"/>
-    <col min="8864" max="8884" width="10.85546875" customWidth="1"/>
-    <col min="8889" max="8890" width="10.85546875" customWidth="1"/>
-    <col min="8892" max="8892" width="10.85546875" customWidth="1"/>
-    <col min="8894" max="8895" width="10.85546875" customWidth="1"/>
-    <col min="8898" max="8898" width="10.85546875" customWidth="1"/>
-    <col min="8900" max="8901" width="10.85546875" customWidth="1"/>
-    <col min="8903" max="8903" width="10.85546875" customWidth="1"/>
-    <col min="8905" max="8906" width="10.85546875" customWidth="1"/>
-    <col min="8908" max="8908" width="10.85546875" customWidth="1"/>
-    <col min="8914" max="8915" width="10.85546875" customWidth="1"/>
-    <col min="8919" max="8919" width="10.85546875" customWidth="1"/>
-    <col min="8928" max="8949" width="10.85546875" customWidth="1"/>
-    <col min="8951" max="8951" width="10.85546875" customWidth="1"/>
-    <col min="8955" max="8955" width="10.85546875" customWidth="1"/>
-    <col min="8959" max="8960" width="10.85546875" customWidth="1"/>
-    <col min="8962" max="8962" width="10.85546875" customWidth="1"/>
-    <col min="8965" max="8966" width="10.85546875" customWidth="1"/>
-    <col min="8973" max="8974" width="10.85546875" customWidth="1"/>
-    <col min="8976" max="8976" width="10.85546875" customWidth="1"/>
-    <col min="8992" max="9012" width="10.85546875" customWidth="1"/>
-    <col min="9014" max="9014" width="10.85546875" customWidth="1"/>
-    <col min="9017" max="9018" width="10.85546875" customWidth="1"/>
-    <col min="9021" max="9021" width="10.85546875" customWidth="1"/>
-    <col min="9023" max="9023" width="10.85546875" customWidth="1"/>
-    <col min="9025" max="9025" width="10.85546875" customWidth="1"/>
-    <col min="9028" max="9028" width="10.85546875" customWidth="1"/>
-    <col min="9032" max="9032" width="10.85546875" customWidth="1"/>
-    <col min="9037" max="9039" width="10.85546875" customWidth="1"/>
-    <col min="9056" max="9076" width="10.85546875" customWidth="1"/>
-    <col min="9078" max="9078" width="10.85546875" customWidth="1"/>
-    <col min="9083" max="9083" width="10.85546875" customWidth="1"/>
-    <col min="9087" max="9088" width="10.85546875" customWidth="1"/>
-    <col min="9090" max="9090" width="10.85546875" customWidth="1"/>
-    <col min="9093" max="9094" width="10.85546875" customWidth="1"/>
-    <col min="9101" max="9102" width="10.85546875" customWidth="1"/>
-    <col min="9104" max="9104" width="10.85546875" customWidth="1"/>
-    <col min="9120" max="9140" width="10.85546875" customWidth="1"/>
-    <col min="9145" max="9146" width="10.85546875" customWidth="1"/>
-    <col min="9148" max="9148" width="10.85546875" customWidth="1"/>
-    <col min="9150" max="9151" width="10.85546875" customWidth="1"/>
-    <col min="9154" max="9154" width="10.85546875" customWidth="1"/>
-    <col min="9156" max="9157" width="10.85546875" customWidth="1"/>
-    <col min="9159" max="9159" width="10.85546875" customWidth="1"/>
-    <col min="9161" max="9162" width="10.85546875" customWidth="1"/>
-    <col min="9164" max="9164" width="10.85546875" customWidth="1"/>
-    <col min="9170" max="9171" width="10.85546875" customWidth="1"/>
-    <col min="9175" max="9175" width="10.85546875" customWidth="1"/>
-    <col min="9184" max="9206" width="10.85546875" customWidth="1"/>
-    <col min="9211" max="9211" width="10.85546875" customWidth="1"/>
-    <col min="9215" max="9216" width="10.85546875" customWidth="1"/>
-    <col min="9218" max="9218" width="10.85546875" customWidth="1"/>
-    <col min="9221" max="9222" width="10.85546875" customWidth="1"/>
-    <col min="9229" max="9230" width="10.85546875" customWidth="1"/>
-    <col min="9232" max="9296" width="10.85546875" customWidth="1"/>
-    <col min="9312" max="9462" width="10.85546875" customWidth="1"/>
-    <col min="9465" max="9466" width="10.85546875" customWidth="1"/>
-    <col min="9468" max="9468" width="10.85546875" customWidth="1"/>
-    <col min="9470" max="9470" width="10.85546875" customWidth="1"/>
-    <col min="9476" max="9476" width="10.85546875" customWidth="1"/>
-    <col min="9479" max="9479" width="10.85546875" customWidth="1"/>
-    <col min="9481" max="9482" width="10.85546875" customWidth="1"/>
-    <col min="9485" max="9487" width="10.85546875" customWidth="1"/>
-    <col min="9489" max="9552" width="10.85546875" customWidth="1"/>
-    <col min="9554" max="9555" width="10.85546875" customWidth="1"/>
-    <col min="9559" max="9559" width="10.85546875" customWidth="1"/>
-    <col min="9568" max="9585" width="10.85546875" customWidth="1"/>
-    <col min="9587" max="9589" width="10.85546875" customWidth="1"/>
-    <col min="9593" max="9594" width="10.85546875" customWidth="1"/>
-    <col min="9598" max="9603" width="10.85546875" customWidth="1"/>
-    <col min="9605" max="9606" width="10.85546875" customWidth="1"/>
-    <col min="9608" max="9609" width="10.85546875" customWidth="1"/>
-    <col min="9611" max="9612" width="10.85546875" customWidth="1"/>
-    <col min="9614" max="9614" width="10.85546875" customWidth="1"/>
-    <col min="9617" max="9617" width="10.85546875" customWidth="1"/>
-    <col min="9619" max="9620" width="10.85546875" customWidth="1"/>
-    <col min="9624" max="9624" width="10.85546875" customWidth="1"/>
-    <col min="9627" max="9628" width="10.85546875" customWidth="1"/>
-    <col min="9632" max="9640" width="10.85546875" customWidth="1"/>
-    <col min="9643" max="9643" width="10.85546875" customWidth="1"/>
-    <col min="9645" max="9645" width="10.85546875" customWidth="1"/>
-    <col min="9648" max="9652" width="10.85546875" customWidth="1"/>
-    <col min="9655" max="9655" width="10.85546875" customWidth="1"/>
-    <col min="9657" max="9659" width="10.85546875" customWidth="1"/>
-    <col min="9663" max="9664" width="10.85546875" customWidth="1"/>
-    <col min="9666" max="9666" width="10.85546875" customWidth="1"/>
-    <col min="9669" max="9670" width="10.85546875" customWidth="1"/>
-    <col min="9677" max="9678" width="10.85546875" customWidth="1"/>
-    <col min="9680" max="9680" width="10.85546875" customWidth="1"/>
-    <col min="9696" max="9716" width="10.85546875" customWidth="1"/>
-    <col min="9721" max="9724" width="10.85546875" customWidth="1"/>
-    <col min="9731" max="9732" width="10.85546875" customWidth="1"/>
-    <col min="9735" max="9735" width="10.85546875" customWidth="1"/>
-    <col min="9740" max="9740" width="10.85546875" customWidth="1"/>
-    <col min="9744" max="9744" width="10.85546875" customWidth="1"/>
-    <col min="9760" max="9780" width="10.85546875" customWidth="1"/>
-    <col min="9783" max="9783" width="10.85546875" customWidth="1"/>
-    <col min="9791" max="9792" width="10.85546875" customWidth="1"/>
-    <col min="9794" max="9794" width="10.85546875" customWidth="1"/>
-    <col min="9797" max="9798" width="10.85546875" customWidth="1"/>
-    <col min="9805" max="9806" width="10.85546875" customWidth="1"/>
-    <col min="9808" max="9808" width="10.85546875" customWidth="1"/>
-    <col min="9824" max="9840" width="10.85546875" customWidth="1"/>
-    <col min="9905" max="9972" width="10.85546875" customWidth="1"/>
-    <col min="9974" max="9975" width="10.85546875" customWidth="1"/>
-    <col min="9977" max="9979" width="10.85546875" customWidth="1"/>
-    <col min="9983" max="9984" width="10.85546875" customWidth="1"/>
-    <col min="9986" max="9986" width="10.85546875" customWidth="1"/>
-    <col min="9989" max="9990" width="10.85546875" customWidth="1"/>
-    <col min="9997" max="9998" width="10.85546875" customWidth="1"/>
-    <col min="10000" max="10000" width="10.85546875" customWidth="1"/>
-    <col min="10016" max="10032" width="10.85546875" customWidth="1"/>
-    <col min="10034" max="10038" width="10.85546875" customWidth="1"/>
-    <col min="10041" max="10041" width="10.85546875" customWidth="1"/>
-    <col min="10044" max="10044" width="10.85546875" customWidth="1"/>
-    <col min="10047" max="10048" width="10.85546875" customWidth="1"/>
-    <col min="10050" max="10050" width="10.85546875" customWidth="1"/>
-    <col min="10054" max="10054" width="10.85546875" customWidth="1"/>
-    <col min="10056" max="10056" width="10.85546875" customWidth="1"/>
-    <col min="10058" max="10060" width="10.85546875" customWidth="1"/>
-    <col min="10062" max="10063" width="10.85546875" customWidth="1"/>
-    <col min="10080" max="10096" width="10.85546875" customWidth="1"/>
-    <col min="10161" max="10164" width="10.85546875" customWidth="1"/>
-    <col min="10168" max="10168" width="10.85546875" customWidth="1"/>
-    <col min="10171" max="10171" width="10.85546875" customWidth="1"/>
-    <col min="10175" max="10176" width="10.85546875" customWidth="1"/>
-    <col min="10178" max="10178" width="10.85546875" customWidth="1"/>
-    <col min="10181" max="10182" width="10.85546875" customWidth="1"/>
-    <col min="10189" max="10190" width="10.85546875" customWidth="1"/>
-    <col min="10192" max="10192" width="10.85546875" customWidth="1"/>
-    <col min="10208" max="10228" width="10.85546875" customWidth="1"/>
-    <col min="10231" max="10231" width="10.85546875" customWidth="1"/>
-    <col min="10233" max="10235" width="10.85546875" customWidth="1"/>
-    <col min="10239" max="10240" width="10.85546875" customWidth="1"/>
-    <col min="10242" max="10242" width="10.85546875" customWidth="1"/>
-    <col min="10245" max="10246" width="10.85546875" customWidth="1"/>
-    <col min="10253" max="10254" width="10.85546875" customWidth="1"/>
-    <col min="10256" max="10256" width="10.85546875" customWidth="1"/>
-    <col min="10272" max="10288" width="10.85546875" customWidth="1"/>
-    <col min="10290" max="10294" width="10.85546875" customWidth="1"/>
-    <col min="10297" max="10297" width="10.85546875" customWidth="1"/>
-    <col min="10300" max="10300" width="10.85546875" customWidth="1"/>
-    <col min="10303" max="10304" width="10.85546875" customWidth="1"/>
-    <col min="10306" max="10306" width="10.85546875" customWidth="1"/>
-    <col min="10310" max="10310" width="10.85546875" customWidth="1"/>
-    <col min="10312" max="10312" width="10.85546875" customWidth="1"/>
-    <col min="10314" max="10316" width="10.85546875" customWidth="1"/>
-    <col min="10318" max="10319" width="10.85546875" customWidth="1"/>
-    <col min="10336" max="10352" width="10.85546875" customWidth="1"/>
-    <col min="10355" max="10357" width="10.85546875" customWidth="1"/>
-    <col min="10360" max="10360" width="10.85546875" customWidth="1"/>
-    <col min="10362" max="10362" width="10.85546875" customWidth="1"/>
-    <col min="10364" max="10364" width="10.85546875" customWidth="1"/>
-    <col min="10368" max="10368" width="10.85546875" customWidth="1"/>
-    <col min="10370" max="10370" width="10.85546875" customWidth="1"/>
-    <col min="10373" max="10373" width="10.85546875" customWidth="1"/>
-    <col min="10376" max="10376" width="10.85546875" customWidth="1"/>
-    <col min="10378" max="10378" width="10.85546875" customWidth="1"/>
-    <col min="10380" max="10381" width="10.85546875" customWidth="1"/>
-    <col min="10384" max="10385" width="10.85546875" customWidth="1"/>
-    <col min="10389" max="10389" width="10.85546875" customWidth="1"/>
-    <col min="10392" max="10394" width="10.85546875" customWidth="1"/>
-    <col min="10396" max="10396" width="10.85546875" customWidth="1"/>
-    <col min="10400" max="10400" width="10.85546875" customWidth="1"/>
-    <col min="10403" max="10404" width="10.85546875" customWidth="1"/>
-    <col min="10408" max="10408" width="10.85546875" customWidth="1"/>
-    <col min="10413" max="10413" width="10.85546875" customWidth="1"/>
-    <col min="10415" max="10420" width="10.85546875" customWidth="1"/>
-    <col min="10422" max="10423" width="10.85546875" customWidth="1"/>
-    <col min="10427" max="10427" width="10.85546875" customWidth="1"/>
-    <col min="10431" max="10432" width="10.85546875" customWidth="1"/>
-    <col min="10434" max="10434" width="10.85546875" customWidth="1"/>
-    <col min="10437" max="10438" width="10.85546875" customWidth="1"/>
-    <col min="10445" max="10446" width="10.85546875" customWidth="1"/>
-    <col min="10448" max="10448" width="10.85546875" customWidth="1"/>
-    <col min="10464" max="10480" width="10.85546875" customWidth="1"/>
-    <col min="10482" max="10482" width="10.85546875" customWidth="1"/>
-    <col min="10485" max="10485" width="10.85546875" customWidth="1"/>
-    <col min="10488" max="10488" width="10.85546875" customWidth="1"/>
-    <col min="10490" max="10493" width="10.85546875" customWidth="1"/>
-    <col min="10496" max="10498" width="10.85546875" customWidth="1"/>
-    <col min="10500" max="10501" width="10.85546875" customWidth="1"/>
-    <col min="10504" max="10504" width="10.85546875" customWidth="1"/>
-    <col min="10506" max="10509" width="10.85546875" customWidth="1"/>
-    <col min="10512" max="10512" width="10.85546875" customWidth="1"/>
-    <col min="10518" max="10518" width="10.85546875" customWidth="1"/>
-    <col min="10520" max="10522" width="10.85546875" customWidth="1"/>
-    <col min="10524" max="10525" width="10.85546875" customWidth="1"/>
-    <col min="10528" max="10528" width="10.85546875" customWidth="1"/>
-    <col min="10530" max="10533" width="10.85546875" customWidth="1"/>
-    <col min="10536" max="10538" width="10.85546875" customWidth="1"/>
-    <col min="10540" max="10540" width="10.85546875" customWidth="1"/>
-    <col min="10544" max="10544" width="10.85546875" customWidth="1"/>
-    <col min="10546" max="10549" width="10.85546875" customWidth="1"/>
-    <col min="10552" max="10552" width="10.85546875" customWidth="1"/>
-    <col min="10557" max="10557" width="10.85546875" customWidth="1"/>
-    <col min="10559" max="10560" width="10.85546875" customWidth="1"/>
-    <col min="10562" max="10562" width="10.85546875" customWidth="1"/>
-    <col min="10564" max="10565" width="10.85546875" customWidth="1"/>
-    <col min="10568" max="10569" width="10.85546875" customWidth="1"/>
-    <col min="10573" max="10573" width="10.85546875" customWidth="1"/>
-    <col min="10576" max="10578" width="10.85546875" customWidth="1"/>
-    <col min="10580" max="10580" width="10.85546875" customWidth="1"/>
-    <col min="10584" max="10584" width="10.85546875" customWidth="1"/>
-    <col min="10586" max="10587" width="10.85546875" customWidth="1"/>
-    <col min="10589" max="10589" width="10.85546875" customWidth="1"/>
-    <col min="10592" max="10594" width="10.85546875" customWidth="1"/>
-    <col min="10596" max="10596" width="10.85546875" customWidth="1"/>
-    <col min="10600" max="10600" width="10.85546875" customWidth="1"/>
-    <col min="10602" max="10603" width="10.85546875" customWidth="1"/>
-    <col min="10605" max="10605" width="10.85546875" customWidth="1"/>
-    <col min="10608" max="10608" width="10.85546875" customWidth="1"/>
-    <col min="10610" max="10610" width="10.85546875" customWidth="1"/>
-    <col min="10612" max="10613" width="10.85546875" customWidth="1"/>
-    <col min="10616" max="10616" width="10.85546875" customWidth="1"/>
-    <col min="10619" max="10620" width="10.85546875" customWidth="1"/>
-    <col min="10624" max="10624" width="10.85546875" customWidth="1"/>
-    <col min="10629" max="10629" width="10.85546875" customWidth="1"/>
-    <col min="10631" max="10632" width="10.85546875" customWidth="1"/>
-    <col min="10634" max="10634" width="10.85546875" customWidth="1"/>
-    <col min="10636" max="10637" width="10.85546875" customWidth="1"/>
-    <col min="10640" max="10641" width="10.85546875" customWidth="1"/>
-    <col min="10645" max="10645" width="10.85546875" customWidth="1"/>
-    <col min="10648" max="10650" width="10.85546875" customWidth="1"/>
-    <col min="10652" max="10652" width="10.85546875" customWidth="1"/>
-    <col min="10656" max="10656" width="10.85546875" customWidth="1"/>
-    <col min="10658" max="10659" width="10.85546875" customWidth="1"/>
-    <col min="10661" max="10661" width="10.85546875" customWidth="1"/>
-    <col min="10664" max="10666" width="10.85546875" customWidth="1"/>
-    <col min="10668" max="10668" width="10.85546875" customWidth="1"/>
-    <col min="10672" max="10672" width="10.85546875" customWidth="1"/>
-    <col min="10674" max="10675" width="10.85546875" customWidth="1"/>
-    <col min="10680" max="10680" width="10.85546875" customWidth="1"/>
-    <col min="10686" max="10686" width="10.85546875" customWidth="1"/>
-    <col min="10688" max="10690" width="10.85546875" customWidth="1"/>
-    <col min="10692" max="10692" width="10.85546875" customWidth="1"/>
-    <col min="10696" max="10696" width="10.85546875" customWidth="1"/>
-    <col min="10698" max="10698" width="10.85546875" customWidth="1"/>
-    <col min="10700" max="10701" width="10.85546875" customWidth="1"/>
-    <col min="10704" max="10704" width="10.85546875" customWidth="1"/>
-    <col min="10706" max="10706" width="10.85546875" customWidth="1"/>
-    <col min="10709" max="10709" width="10.85546875" customWidth="1"/>
-    <col min="10712" max="10716" width="10.85546875" customWidth="1"/>
-    <col min="10720" max="10722" width="10.85546875" customWidth="1"/>
-    <col min="10725" max="10725" width="10.85546875" customWidth="1"/>
-    <col min="10728" max="10728" width="10.85546875" customWidth="1"/>
-    <col min="10730" max="10733" width="10.85546875" customWidth="1"/>
-    <col min="10736" max="10738" width="10.85546875" customWidth="1"/>
-    <col min="10740" max="10740" width="10.85546875" customWidth="1"/>
-    <col min="10744" max="10744" width="10.85546875" customWidth="1"/>
-    <col min="10746" max="10746" width="10.85546875" customWidth="1"/>
-    <col min="10748" max="10749" width="10.85546875" customWidth="1"/>
-    <col min="10752" max="10753" width="10.85546875" customWidth="1"/>
-    <col min="10757" max="10757" width="10.85546875" customWidth="1"/>
-    <col min="10759" max="10763" width="10.85546875" customWidth="1"/>
-    <col min="10768" max="10770" width="10.85546875" customWidth="1"/>
-    <col min="10773" max="10773" width="10.85546875" customWidth="1"/>
-    <col min="10776" max="10776" width="10.85546875" customWidth="1"/>
-    <col min="10779" max="10780" width="10.85546875" customWidth="1"/>
-    <col min="10784" max="10800" width="10.85546875" customWidth="1"/>
-    <col min="10802" max="10804" width="10.85546875" customWidth="1"/>
-    <col min="10806" max="10806" width="10.85546875" customWidth="1"/>
-    <col min="10808" max="10812" width="10.85546875" customWidth="1"/>
-    <col min="10815" max="10816" width="10.85546875" customWidth="1"/>
-    <col min="10818" max="10819" width="10.85546875" customWidth="1"/>
-    <col min="10822" max="10822" width="10.85546875" customWidth="1"/>
-    <col min="10827" max="10828" width="10.85546875" customWidth="1"/>
-    <col min="10830" max="10832" width="10.85546875" customWidth="1"/>
-    <col min="10834" max="10864" width="10.85546875" customWidth="1"/>
-    <col min="10897" max="10897" width="10.85546875" customWidth="1"/>
-    <col min="10929" max="10931" width="10.85546875" customWidth="1"/>
-    <col min="10935" max="10937" width="10.85546875" customWidth="1"/>
-    <col min="10939" max="10940" width="10.85546875" customWidth="1"/>
-    <col min="10942" max="10942" width="10.85546875" customWidth="1"/>
-    <col min="10944" max="10944" width="10.85546875" customWidth="1"/>
-    <col min="10946" max="10949" width="10.85546875" customWidth="1"/>
-    <col min="10951" max="10951" width="10.85546875" customWidth="1"/>
-    <col min="10954" max="10956" width="10.85546875" customWidth="1"/>
-    <col min="10962" max="10963" width="10.85546875" customWidth="1"/>
-    <col min="10967" max="10967" width="10.85546875" customWidth="1"/>
-    <col min="10976" max="10996" width="10.85546875" customWidth="1"/>
-    <col min="10998" max="10998" width="10.85546875" customWidth="1"/>
-    <col min="11000" max="11003" width="10.85546875" customWidth="1"/>
-    <col min="11007" max="11008" width="10.85546875" customWidth="1"/>
-    <col min="11010" max="11011" width="10.85546875" customWidth="1"/>
-    <col min="11013" max="11013" width="10.85546875" customWidth="1"/>
-    <col min="11015" max="11015" width="10.85546875" customWidth="1"/>
-    <col min="11018" max="11020" width="10.85546875" customWidth="1"/>
-    <col min="11026" max="11027" width="10.85546875" customWidth="1"/>
-    <col min="11031" max="11031" width="10.85546875" customWidth="1"/>
-    <col min="11040" max="11124" width="10.85546875" customWidth="1"/>
-    <col min="11126" max="11126" width="10.85546875" customWidth="1"/>
-    <col min="11128" max="11131" width="10.85546875" customWidth="1"/>
-    <col min="11135" max="11136" width="10.85546875" customWidth="1"/>
-    <col min="11138" max="11138" width="10.85546875" customWidth="1"/>
-    <col min="11141" max="11142" width="10.85546875" customWidth="1"/>
-    <col min="11149" max="11150" width="10.85546875" customWidth="1"/>
-    <col min="11152" max="11152" width="10.85546875" customWidth="1"/>
-    <col min="11168" max="11185" width="10.85546875" customWidth="1"/>
-    <col min="11187" max="11187" width="10.85546875" customWidth="1"/>
-    <col min="11190" max="11193" width="10.85546875" customWidth="1"/>
-    <col min="11195" max="11196" width="10.85546875" customWidth="1"/>
-    <col min="11198" max="11198" width="10.85546875" customWidth="1"/>
-    <col min="11200" max="11202" width="10.85546875" customWidth="1"/>
-    <col min="11204" max="11204" width="10.85546875" customWidth="1"/>
-    <col min="11208" max="11208" width="10.85546875" customWidth="1"/>
-    <col min="11213" max="11215" width="10.85546875" customWidth="1"/>
-    <col min="11232" max="11248" width="10.85546875" customWidth="1"/>
-    <col min="11252" max="11382" width="10.85546875" customWidth="1"/>
-    <col min="11384" max="11384" width="10.85546875" customWidth="1"/>
-    <col min="11386" max="11386" width="10.85546875" customWidth="1"/>
-    <col min="11391" max="11392" width="10.85546875" customWidth="1"/>
-    <col min="11394" max="11394" width="10.85546875" customWidth="1"/>
-    <col min="11397" max="11398" width="10.85546875" customWidth="1"/>
-    <col min="11405" max="11406" width="10.85546875" customWidth="1"/>
-    <col min="11408" max="11408" width="10.85546875" customWidth="1"/>
-    <col min="11424" max="11441" width="10.85546875" customWidth="1"/>
-    <col min="11444" max="11446" width="10.85546875" customWidth="1"/>
-    <col min="11450" max="11451" width="10.85546875" customWidth="1"/>
-    <col min="11454" max="11458" width="10.85546875" customWidth="1"/>
-    <col min="11460" max="11460" width="10.85546875" customWidth="1"/>
-    <col min="11464" max="11464" width="10.85546875" customWidth="1"/>
-    <col min="11469" max="11471" width="10.85546875" customWidth="1"/>
-    <col min="11488" max="11505" width="10.85546875" customWidth="1"/>
-    <col min="11507" max="11509" width="10.85546875" customWidth="1"/>
-    <col min="11513" max="11514" width="10.85546875" customWidth="1"/>
-    <col min="11518" max="11523" width="10.85546875" customWidth="1"/>
-    <col min="11525" max="11526" width="10.85546875" customWidth="1"/>
-    <col min="11528" max="11529" width="10.85546875" customWidth="1"/>
-    <col min="11531" max="11532" width="10.85546875" customWidth="1"/>
-    <col min="11534" max="11534" width="10.85546875" customWidth="1"/>
-    <col min="11537" max="11537" width="10.85546875" customWidth="1"/>
-    <col min="11539" max="11540" width="10.85546875" customWidth="1"/>
-    <col min="11544" max="11544" width="10.85546875" customWidth="1"/>
-    <col min="11547" max="11548" width="10.85546875" customWidth="1"/>
-    <col min="11552" max="11560" width="10.85546875" customWidth="1"/>
-    <col min="11563" max="11563" width="10.85546875" customWidth="1"/>
-    <col min="11565" max="11565" width="10.85546875" customWidth="1"/>
-    <col min="11568" max="11568" width="10.85546875" customWidth="1"/>
-    <col min="11578" max="11632" width="10.85546875" customWidth="1"/>
-    <col min="11697" max="11764" width="10.85546875" customWidth="1"/>
-    <col min="11767" max="11767" width="10.85546875" customWidth="1"/>
-    <col min="11771" max="11771" width="10.85546875" customWidth="1"/>
-    <col min="11775" max="11776" width="10.85546875" customWidth="1"/>
-    <col min="11778" max="11778" width="10.85546875" customWidth="1"/>
-    <col min="11781" max="11782" width="10.85546875" customWidth="1"/>
-    <col min="11789" max="11790" width="10.85546875" customWidth="1"/>
-    <col min="11792" max="11792" width="10.85546875" customWidth="1"/>
-    <col min="11808" max="11892" width="10.85546875" customWidth="1"/>
-    <col min="11894" max="11895" width="10.85546875" customWidth="1"/>
-    <col min="11897" max="11897" width="10.85546875" customWidth="1"/>
-    <col min="11899" max="11899" width="10.85546875" customWidth="1"/>
-    <col min="11903" max="11904" width="10.85546875" customWidth="1"/>
-    <col min="11906" max="11906" width="10.85546875" customWidth="1"/>
-    <col min="11909" max="11910" width="10.85546875" customWidth="1"/>
-    <col min="11917" max="11918" width="10.85546875" customWidth="1"/>
-    <col min="11920" max="11920" width="10.85546875" customWidth="1"/>
-    <col min="11936" max="11952" width="10.85546875" customWidth="1"/>
-    <col min="11954" max="11954" width="10.85546875" customWidth="1"/>
-    <col min="11957" max="11960" width="10.85546875" customWidth="1"/>
-    <col min="11962" max="11963" width="10.85546875" customWidth="1"/>
-    <col min="11968" max="11968" width="10.85546875" customWidth="1"/>
-    <col min="11971" max="11971" width="10.85546875" customWidth="1"/>
-    <col min="11974" max="11974" width="10.85546875" customWidth="1"/>
-    <col min="11976" max="11976" width="10.85546875" customWidth="1"/>
-    <col min="11978" max="11980" width="10.85546875" customWidth="1"/>
-    <col min="11982" max="11983" width="10.85546875" customWidth="1"/>
-    <col min="12000" max="12020" width="10.85546875" customWidth="1"/>
-    <col min="12022" max="12022" width="10.85546875" customWidth="1"/>
-    <col min="12027" max="12027" width="10.85546875" customWidth="1"/>
-    <col min="12031" max="12032" width="10.85546875" customWidth="1"/>
-    <col min="12034" max="12034" width="10.85546875" customWidth="1"/>
-    <col min="12037" max="12038" width="10.85546875" customWidth="1"/>
-    <col min="12045" max="12046" width="10.85546875" customWidth="1"/>
-    <col min="12048" max="12048" width="10.85546875" customWidth="1"/>
-    <col min="12064" max="12084" width="10.85546875" customWidth="1"/>
-    <col min="12087" max="12087" width="10.85546875" customWidth="1"/>
-    <col min="12095" max="12096" width="10.85546875" customWidth="1"/>
-    <col min="12098" max="12098" width="10.85546875" customWidth="1"/>
-    <col min="12101" max="12102" width="10.85546875" customWidth="1"/>
-    <col min="12109" max="12110" width="10.85546875" customWidth="1"/>
-    <col min="12112" max="12112" width="10.85546875" customWidth="1"/>
-    <col min="12128" max="12144" width="10.85546875" customWidth="1"/>
-    <col min="12147" max="12148" width="10.85546875" customWidth="1"/>
-    <col min="12151" max="12151" width="10.85546875" customWidth="1"/>
-    <col min="12155" max="12155" width="10.85546875" customWidth="1"/>
-    <col min="12159" max="12160" width="10.85546875" customWidth="1"/>
-    <col min="12162" max="12162" width="10.85546875" customWidth="1"/>
-    <col min="12165" max="12166" width="10.85546875" customWidth="1"/>
-    <col min="12173" max="12174" width="10.85546875" customWidth="1"/>
-    <col min="12176" max="12176" width="10.85546875" customWidth="1"/>
-    <col min="12192" max="12208" width="10.85546875" customWidth="1"/>
-    <col min="12210" max="12210" width="10.85546875" customWidth="1"/>
-    <col min="12213" max="12216" width="10.85546875" customWidth="1"/>
-    <col min="12218" max="12219" width="10.85546875" customWidth="1"/>
-    <col min="12224" max="12224" width="10.85546875" customWidth="1"/>
-    <col min="12227" max="12227" width="10.85546875" customWidth="1"/>
-    <col min="12230" max="12230" width="10.85546875" customWidth="1"/>
-    <col min="12232" max="12232" width="10.85546875" customWidth="1"/>
-    <col min="12234" max="12236" width="10.85546875" customWidth="1"/>
-    <col min="12238" max="12239" width="10.85546875" customWidth="1"/>
-    <col min="12243" max="12243" width="10.85546875" customWidth="1"/>
-    <col min="12250" max="12275" width="10.85546875" customWidth="1"/>
-    <col min="12277" max="12281" width="10.85546875" customWidth="1"/>
-    <col min="12283" max="12288" width="10.85546875" customWidth="1"/>
-    <col min="12305" max="12340" width="10.85546875" customWidth="1"/>
-    <col min="12343" max="12343" width="10.85546875" customWidth="1"/>
-    <col min="12347" max="12347" width="10.85546875" customWidth="1"/>
-    <col min="12351" max="12352" width="10.85546875" customWidth="1"/>
-    <col min="12354" max="12354" width="10.85546875" customWidth="1"/>
-    <col min="12357" max="12358" width="10.85546875" customWidth="1"/>
-    <col min="12365" max="12366" width="10.85546875" customWidth="1"/>
-    <col min="12368" max="12368" width="10.85546875" customWidth="1"/>
-    <col min="12384" max="12401" width="10.85546875" customWidth="1"/>
-    <col min="12410" max="12432" width="10.85546875" customWidth="1"/>
-    <col min="12448" max="12464" width="10.85546875" customWidth="1"/>
-    <col min="12466" max="12496" width="10.85546875" customWidth="1"/>
-    <col min="12499" max="12499" width="10.85546875" customWidth="1"/>
-    <col min="12506" max="12531" width="10.85546875" customWidth="1"/>
-    <col min="12533" max="12537" width="10.85546875" customWidth="1"/>
-    <col min="12539" max="12544" width="10.85546875" customWidth="1"/>
-    <col min="12561" max="12562" width="10.85546875" customWidth="1"/>
-    <col min="12564" max="12596" width="10.85546875" customWidth="1"/>
-    <col min="12598" max="12598" width="10.85546875" customWidth="1"/>
-    <col min="12603" max="12603" width="10.85546875" customWidth="1"/>
-    <col min="12607" max="12608" width="10.85546875" customWidth="1"/>
-    <col min="12610" max="12610" width="10.85546875" customWidth="1"/>
-    <col min="12613" max="12614" width="10.85546875" customWidth="1"/>
-    <col min="12621" max="12622" width="10.85546875" customWidth="1"/>
-    <col min="12624" max="12624" width="10.85546875" customWidth="1"/>
-    <col min="12640" max="12657" width="10.85546875" customWidth="1"/>
-    <col min="12666" max="12721" width="10.85546875" customWidth="1"/>
-    <col min="12723" max="12790" width="10.85546875" customWidth="1"/>
-    <col min="12792" max="12792" width="10.85546875" customWidth="1"/>
-    <col min="12794" max="12795" width="10.85546875" customWidth="1"/>
-    <col min="12799" max="12800" width="10.85546875" customWidth="1"/>
-    <col min="12802" max="12802" width="10.85546875" customWidth="1"/>
-    <col min="12805" max="12806" width="10.85546875" customWidth="1"/>
-    <col min="12813" max="12814" width="10.85546875" customWidth="1"/>
-    <col min="12816" max="12816" width="10.85546875" customWidth="1"/>
-    <col min="12832" max="12848" width="10.85546875" customWidth="1"/>
-    <col min="12854" max="12854" width="10.85546875" customWidth="1"/>
-    <col min="12856" max="12858" width="10.85546875" customWidth="1"/>
-    <col min="12864" max="12864" width="10.85546875" customWidth="1"/>
-    <col min="12866" max="12866" width="10.85546875" customWidth="1"/>
-    <col min="12870" max="12870" width="10.85546875" customWidth="1"/>
-    <col min="12874" max="12875" width="10.85546875" customWidth="1"/>
-    <col min="12878" max="12879" width="10.85546875" customWidth="1"/>
-    <col min="12896" max="12921" width="10.85546875" customWidth="1"/>
-    <col min="12923" max="12923" width="10.85546875" customWidth="1"/>
-    <col min="12926" max="12927" width="10.85546875" customWidth="1"/>
-    <col min="12929" max="12929" width="10.85546875" customWidth="1"/>
-    <col min="12933" max="12933" width="10.85546875" customWidth="1"/>
-    <col min="12935" max="12936" width="10.85546875" customWidth="1"/>
-    <col min="12938" max="12939" width="10.85546875" customWidth="1"/>
-    <col min="12942" max="12944" width="10.85546875" customWidth="1"/>
-    <col min="12946" max="12980" width="10.85546875" customWidth="1"/>
-    <col min="12982" max="12983" width="10.85546875" customWidth="1"/>
-    <col min="12986" max="12987" width="10.85546875" customWidth="1"/>
-    <col min="12991" max="12992" width="10.85546875" customWidth="1"/>
-    <col min="12994" max="12994" width="10.85546875" customWidth="1"/>
-    <col min="12997" max="12998" width="10.85546875" customWidth="1"/>
-    <col min="13005" max="13006" width="10.85546875" customWidth="1"/>
-    <col min="13008" max="13008" width="10.85546875" customWidth="1"/>
-    <col min="13024" max="13053" width="10.85546875" customWidth="1"/>
-    <col min="13056" max="13057" width="10.85546875" customWidth="1"/>
-    <col min="13061" max="13061" width="10.85546875" customWidth="1"/>
-    <col min="13063" max="13064" width="10.85546875" customWidth="1"/>
-    <col min="13066" max="13067" width="10.85546875" customWidth="1"/>
-    <col min="13070" max="13072" width="10.85546875" customWidth="1"/>
-    <col min="13074" max="13113" width="10.85546875" customWidth="1"/>
-    <col min="13117" max="13117" width="10.85546875" customWidth="1"/>
-    <col min="13119" max="13119" width="10.85546875" customWidth="1"/>
-    <col min="13121" max="13121" width="10.85546875" customWidth="1"/>
-    <col min="13125" max="13125" width="10.85546875" customWidth="1"/>
-    <col min="13127" max="13128" width="10.85546875" customWidth="1"/>
-    <col min="13130" max="13131" width="10.85546875" customWidth="1"/>
-    <col min="13134" max="13136" width="10.85546875" customWidth="1"/>
-    <col min="13138" max="13169" width="10.85546875" customWidth="1"/>
-    <col min="13172" max="13236" width="10.85546875" customWidth="1"/>
-    <col min="13239" max="13239" width="10.85546875" customWidth="1"/>
-    <col min="13242" max="13243" width="10.85546875" customWidth="1"/>
-    <col min="13247" max="13248" width="10.85546875" customWidth="1"/>
-    <col min="13250" max="13250" width="10.85546875" customWidth="1"/>
-    <col min="13253" max="13254" width="10.85546875" customWidth="1"/>
-    <col min="13261" max="13262" width="10.85546875" customWidth="1"/>
-    <col min="13264" max="13264" width="10.85546875" customWidth="1"/>
-    <col min="13280" max="13300" width="10.85546875" customWidth="1"/>
-    <col min="13303" max="13305" width="10.85546875" customWidth="1"/>
-    <col min="13307" max="13307" width="10.85546875" customWidth="1"/>
-    <col min="13311" max="13312" width="10.85546875" customWidth="1"/>
-    <col min="13314" max="13314" width="10.85546875" customWidth="1"/>
-    <col min="13317" max="13318" width="10.85546875" customWidth="1"/>
-    <col min="13325" max="13326" width="10.85546875" customWidth="1"/>
-    <col min="13328" max="13328" width="10.85546875" customWidth="1"/>
-    <col min="13344" max="13361" width="10.85546875" customWidth="1"/>
-    <col min="13364" max="13365" width="10.85546875" customWidth="1"/>
-    <col min="13367" max="13369" width="10.85546875" customWidth="1"/>
-    <col min="13371" max="13371" width="10.85546875" customWidth="1"/>
-    <col min="13373" max="13373" width="10.85546875" customWidth="1"/>
-    <col min="13376" max="13376" width="10.85546875" customWidth="1"/>
-    <col min="13378" max="13378" width="10.85546875" customWidth="1"/>
-    <col min="13382" max="13382" width="10.85546875" customWidth="1"/>
-    <col min="13386" max="13387" width="10.85546875" customWidth="1"/>
-    <col min="13390" max="13391" width="10.85546875" customWidth="1"/>
-    <col min="13408" max="14001" width="10.85546875" customWidth="1"/>
-    <col min="14003" max="14005" width="10.85546875" customWidth="1"/>
-    <col min="14007" max="14007" width="10.85546875" customWidth="1"/>
-    <col min="14011" max="14011" width="10.85546875" customWidth="1"/>
-    <col min="14013" max="14013" width="10.85546875" customWidth="1"/>
-    <col min="14015" max="14015" width="10.85546875" customWidth="1"/>
-    <col min="14017" max="14017" width="10.85546875" customWidth="1"/>
-    <col min="14019" max="14019" width="10.85546875" customWidth="1"/>
-    <col min="14021" max="14021" width="10.85546875" customWidth="1"/>
-    <col min="14023" max="14023" width="10.85546875" customWidth="1"/>
-    <col min="14025" max="14025" width="10.85546875" customWidth="1"/>
-    <col min="14027" max="14028" width="10.85546875" customWidth="1"/>
-    <col min="14031" max="14512" width="10.85546875" customWidth="1"/>
-    <col min="14515" max="15601" width="10.85546875" customWidth="1"/>
-    <col min="15603" max="15605" width="10.85546875" customWidth="1"/>
-    <col min="15609" max="15610" width="10.85546875" customWidth="1"/>
-    <col min="15614" max="15619" width="10.85546875" customWidth="1"/>
-    <col min="15621" max="15622" width="10.85546875" customWidth="1"/>
-    <col min="15624" max="15625" width="10.85546875" customWidth="1"/>
-    <col min="15627" max="15628" width="10.85546875" customWidth="1"/>
-    <col min="15630" max="15630" width="10.85546875" customWidth="1"/>
-    <col min="15633" max="15633" width="10.85546875" customWidth="1"/>
-    <col min="15635" max="15636" width="10.85546875" customWidth="1"/>
-    <col min="15640" max="15640" width="10.85546875" customWidth="1"/>
-    <col min="15643" max="15644" width="10.85546875" customWidth="1"/>
-    <col min="15648" max="15656" width="10.85546875" customWidth="1"/>
-    <col min="15659" max="15659" width="10.85546875" customWidth="1"/>
-    <col min="15661" max="15661" width="10.85546875" customWidth="1"/>
-    <col min="15664" max="15665" width="10.85546875" customWidth="1"/>
-    <col min="15667" max="15669" width="10.85546875" customWidth="1"/>
-    <col min="15673" max="15674" width="10.85546875" customWidth="1"/>
-    <col min="15678" max="15683" width="10.85546875" customWidth="1"/>
-    <col min="15685" max="15686" width="10.85546875" customWidth="1"/>
-    <col min="15688" max="15689" width="10.85546875" customWidth="1"/>
-    <col min="15691" max="15692" width="10.85546875" customWidth="1"/>
-    <col min="15694" max="15694" width="10.85546875" customWidth="1"/>
-    <col min="15697" max="15697" width="10.85546875" customWidth="1"/>
-    <col min="15699" max="15700" width="10.85546875" customWidth="1"/>
-    <col min="15704" max="15704" width="10.85546875" customWidth="1"/>
-    <col min="15707" max="15708" width="10.85546875" customWidth="1"/>
-    <col min="15712" max="15720" width="10.85546875" customWidth="1"/>
-    <col min="15723" max="15723" width="10.85546875" customWidth="1"/>
-    <col min="15725" max="15725" width="10.85546875" customWidth="1"/>
-    <col min="15728" max="15732" width="10.85546875" customWidth="1"/>
-    <col min="15735" max="15735" width="10.85546875" customWidth="1"/>
-    <col min="15739" max="15739" width="10.85546875" customWidth="1"/>
-    <col min="15743" max="15744" width="10.85546875" customWidth="1"/>
-    <col min="15746" max="15746" width="10.85546875" customWidth="1"/>
-    <col min="15749" max="15750" width="10.85546875" customWidth="1"/>
-    <col min="15757" max="15758" width="10.85546875" customWidth="1"/>
-    <col min="15760" max="15760" width="10.85546875" customWidth="1"/>
-    <col min="15776" max="15861" width="10.85546875" customWidth="1"/>
-    <col min="15866" max="15867" width="10.85546875" customWidth="1"/>
-    <col min="15869" max="15870" width="10.85546875" customWidth="1"/>
-    <col min="15872" max="15872" width="10.85546875" customWidth="1"/>
-    <col min="15874" max="15874" width="10.85546875" customWidth="1"/>
-    <col min="15877" max="15878" width="10.85546875" customWidth="1"/>
-    <col min="15885" max="15886" width="10.85546875" customWidth="1"/>
-    <col min="15888" max="15888" width="10.85546875" customWidth="1"/>
-    <col min="15904" max="15921" width="10.85546875" customWidth="1"/>
-    <col min="15923" max="15925" width="10.85546875" customWidth="1"/>
-    <col min="15930" max="15931" width="10.85546875" customWidth="1"/>
-    <col min="15933" max="15934" width="10.85546875" customWidth="1"/>
-    <col min="15936" max="15936" width="10.85546875" customWidth="1"/>
-    <col min="15938" max="15938" width="10.85546875" customWidth="1"/>
-    <col min="15941" max="15942" width="10.85546875" customWidth="1"/>
-    <col min="15949" max="15950" width="10.85546875" customWidth="1"/>
-    <col min="15952" max="15952" width="10.85546875" customWidth="1"/>
-    <col min="15968" max="15988" width="10.85546875" customWidth="1"/>
-    <col min="15991" max="15991" width="10.85546875" customWidth="1"/>
-    <col min="15993" max="15993" width="10.85546875" customWidth="1"/>
-    <col min="15995" max="15995" width="10.85546875" customWidth="1"/>
-    <col min="15999" max="16000" width="10.85546875" customWidth="1"/>
-    <col min="16002" max="16002" width="10.85546875" customWidth="1"/>
-    <col min="16005" max="16006" width="10.85546875" customWidth="1"/>
-    <col min="16013" max="16014" width="10.85546875" customWidth="1"/>
-    <col min="16016" max="16016" width="10.85546875" customWidth="1"/>
-    <col min="16032" max="16050" width="10.85546875" customWidth="1"/>
-    <col min="16053" max="16053" width="10.85546875" customWidth="1"/>
-    <col min="16056" max="16056" width="10.85546875" customWidth="1"/>
-    <col min="16058" max="16059" width="10.85546875" customWidth="1"/>
-    <col min="16064" max="16064" width="10.85546875" customWidth="1"/>
-    <col min="16067" max="16067" width="10.85546875" customWidth="1"/>
-    <col min="16070" max="16070" width="10.85546875" customWidth="1"/>
-    <col min="16072" max="16072" width="10.85546875" customWidth="1"/>
-    <col min="16074" max="16076" width="10.85546875" customWidth="1"/>
-    <col min="16078" max="16079" width="10.85546875" customWidth="1"/>
-    <col min="16096" max="16116" width="10.85546875" customWidth="1"/>
-    <col min="16120" max="16120" width="10.85546875" customWidth="1"/>
-    <col min="16123" max="16123" width="10.85546875" customWidth="1"/>
-    <col min="16127" max="16128" width="10.85546875" customWidth="1"/>
-    <col min="16130" max="16130" width="10.85546875" customWidth="1"/>
-    <col min="16133" max="16134" width="10.85546875" customWidth="1"/>
-    <col min="16141" max="16142" width="10.85546875" customWidth="1"/>
-    <col min="16144" max="16144" width="10.85546875" customWidth="1"/>
-    <col min="16160" max="16177" width="10.85546875" customWidth="1"/>
-    <col min="16179" max="16185" width="10.85546875" customWidth="1"/>
-    <col min="16187" max="16187" width="10.85546875" customWidth="1"/>
-    <col min="16189" max="16190" width="10.85546875" customWidth="1"/>
-    <col min="16192" max="16192" width="10.85546875" customWidth="1"/>
-    <col min="16194" max="16194" width="10.85546875" customWidth="1"/>
-    <col min="16197" max="16198" width="10.85546875" customWidth="1"/>
-    <col min="16205" max="16206" width="10.85546875" customWidth="1"/>
-    <col min="16208" max="16208" width="10.85546875" customWidth="1"/>
-    <col min="16224" max="16245" width="10.85546875" customWidth="1"/>
-    <col min="16247" max="16247" width="10.85546875" customWidth="1"/>
-    <col min="16251" max="16251" width="10.85546875" customWidth="1"/>
-    <col min="16255" max="16256" width="10.85546875" customWidth="1"/>
-    <col min="16258" max="16258" width="10.85546875" customWidth="1"/>
-    <col min="16261" max="16262" width="10.85546875" customWidth="1"/>
-    <col min="16269" max="16270" width="10.85546875" customWidth="1"/>
-    <col min="16272" max="16272" width="10.85546875" customWidth="1"/>
-    <col min="16288" max="16305" width="10.85546875" customWidth="1"/>
-    <col min="16308" max="16308" width="10.85546875" customWidth="1"/>
-    <col min="16310" max="16313" width="10.85546875" customWidth="1"/>
-    <col min="16320" max="16321" width="10.85546875" customWidth="1"/>
-    <col min="16323" max="16323" width="10.85546875" customWidth="1"/>
-    <col min="16326" max="16326" width="10.85546875" customWidth="1"/>
-    <col min="16328" max="16328" width="10.85546875" customWidth="1"/>
-    <col min="16330" max="16332" width="10.85546875" customWidth="1"/>
-    <col min="16334" max="16335" width="10.85546875" customWidth="1"/>
-    <col min="16352" max="16372" width="10.85546875" customWidth="1"/>
-    <col min="16374" max="16375" width="10.85546875" customWidth="1"/>
-    <col min="16379" max="16379" width="10.85546875" customWidth="1"/>
-    <col min="16383" max="16384" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="95.81640625" customWidth="1"/>
+    <col min="257" max="261" width="10.81640625" customWidth="1"/>
+    <col min="263" max="266" width="10.81640625" customWidth="1"/>
+    <col min="269" max="269" width="10.81640625" customWidth="1"/>
+    <col min="272" max="272" width="10.81640625" customWidth="1"/>
+    <col min="274" max="274" width="10.81640625" customWidth="1"/>
+    <col min="276" max="277" width="10.81640625" customWidth="1"/>
+    <col min="280" max="282" width="10.81640625" customWidth="1"/>
+    <col min="284" max="284" width="10.81640625" customWidth="1"/>
+    <col min="288" max="290" width="10.81640625" customWidth="1"/>
+    <col min="292" max="292" width="10.81640625" customWidth="1"/>
+    <col min="296" max="296" width="10.81640625" customWidth="1"/>
+    <col min="298" max="298" width="10.81640625" customWidth="1"/>
+    <col min="300" max="301" width="10.81640625" customWidth="1"/>
+    <col min="304" max="305" width="10.81640625" customWidth="1"/>
+    <col min="307" max="308" width="10.81640625" customWidth="1"/>
+    <col min="312" max="312" width="10.81640625" customWidth="1"/>
+    <col min="315" max="316" width="10.81640625" customWidth="1"/>
+    <col min="320" max="322" width="10.81640625" customWidth="1"/>
+    <col min="325" max="325" width="10.81640625" customWidth="1"/>
+    <col min="327" max="333" width="10.81640625" customWidth="1"/>
+    <col min="335" max="337" width="10.81640625" customWidth="1"/>
+    <col min="341" max="341" width="10.81640625" customWidth="1"/>
+    <col min="344" max="344" width="10.81640625" customWidth="1"/>
+    <col min="346" max="346" width="10.81640625" customWidth="1"/>
+    <col min="348" max="348" width="10.81640625" customWidth="1"/>
+    <col min="352" max="352" width="10.81640625" customWidth="1"/>
+    <col min="354" max="354" width="10.81640625" customWidth="1"/>
+    <col min="357" max="357" width="10.81640625" customWidth="1"/>
+    <col min="360" max="361" width="10.81640625" customWidth="1"/>
+    <col min="363" max="365" width="10.81640625" customWidth="1"/>
+    <col min="368" max="368" width="10.81640625" customWidth="1"/>
+    <col min="370" max="370" width="10.81640625" customWidth="1"/>
+    <col min="372" max="373" width="10.81640625" customWidth="1"/>
+    <col min="376" max="377" width="10.81640625" customWidth="1"/>
+    <col min="379" max="380" width="10.81640625" customWidth="1"/>
+    <col min="384" max="384" width="10.81640625" customWidth="1"/>
+    <col min="387" max="388" width="10.81640625" customWidth="1"/>
+    <col min="392" max="397" width="10.81640625" customWidth="1"/>
+    <col min="399" max="400" width="10.81640625" customWidth="1"/>
+    <col min="402" max="405" width="10.81640625" customWidth="1"/>
+    <col min="408" max="409" width="10.81640625" customWidth="1"/>
+    <col min="413" max="413" width="10.81640625" customWidth="1"/>
+    <col min="416" max="418" width="10.81640625" customWidth="1"/>
+    <col min="420" max="421" width="10.81640625" customWidth="1"/>
+    <col min="424" max="429" width="10.81640625" customWidth="1"/>
+    <col min="431" max="432" width="10.81640625" customWidth="1"/>
+    <col min="435" max="436" width="10.81640625" customWidth="1"/>
+    <col min="440" max="444" width="10.81640625" customWidth="1"/>
+    <col min="448" max="448" width="10.81640625" customWidth="1"/>
+    <col min="450" max="453" width="10.81640625" customWidth="1"/>
+    <col min="456" max="456" width="10.81640625" customWidth="1"/>
+    <col min="459" max="461" width="10.81640625" customWidth="1"/>
+    <col min="464" max="464" width="10.81640625" customWidth="1"/>
+    <col min="466" max="466" width="10.81640625" customWidth="1"/>
+    <col min="468" max="469" width="10.81640625" customWidth="1"/>
+    <col min="472" max="472" width="10.81640625" customWidth="1"/>
+    <col min="475" max="476" width="10.81640625" customWidth="1"/>
+    <col min="480" max="482" width="10.81640625" customWidth="1"/>
+    <col min="485" max="485" width="10.81640625" customWidth="1"/>
+    <col min="487" max="493" width="10.81640625" customWidth="1"/>
+    <col min="495" max="498" width="10.81640625" customWidth="1"/>
+    <col min="500" max="501" width="10.81640625" customWidth="1"/>
+    <col min="504" max="504" width="10.81640625" customWidth="1"/>
+    <col min="509" max="509" width="10.81640625" customWidth="1"/>
+    <col min="512" max="517" width="10.81640625" customWidth="1"/>
+    <col min="519" max="521" width="10.81640625" customWidth="1"/>
+    <col min="525" max="525" width="10.81640625" customWidth="1"/>
+    <col min="528" max="528" width="10.81640625" customWidth="1"/>
+    <col min="533" max="533" width="10.81640625" customWidth="1"/>
+    <col min="536" max="538" width="10.81640625" customWidth="1"/>
+    <col min="540" max="540" width="10.81640625" customWidth="1"/>
+    <col min="544" max="549" width="10.81640625" customWidth="1"/>
+    <col min="551" max="552" width="10.81640625" customWidth="1"/>
+    <col min="555" max="556" width="10.81640625" customWidth="1"/>
+    <col min="560" max="562" width="10.81640625" customWidth="1"/>
+    <col min="564" max="564" width="10.81640625" customWidth="1"/>
+    <col min="568" max="568" width="10.81640625" customWidth="1"/>
+    <col min="570" max="573" width="10.81640625" customWidth="1"/>
+    <col min="576" max="577" width="10.81640625" customWidth="1"/>
+    <col min="579" max="580" width="10.81640625" customWidth="1"/>
+    <col min="584" max="586" width="10.81640625" customWidth="1"/>
+    <col min="588" max="588" width="10.81640625" customWidth="1"/>
+    <col min="592" max="597" width="10.81640625" customWidth="1"/>
+    <col min="599" max="600" width="10.81640625" customWidth="1"/>
+    <col min="604" max="604" width="10.81640625" customWidth="1"/>
+    <col min="608" max="608" width="10.81640625" customWidth="1"/>
+    <col min="610" max="611" width="10.81640625" customWidth="1"/>
+    <col min="613" max="613" width="10.81640625" customWidth="1"/>
+    <col min="616" max="618" width="10.81640625" customWidth="1"/>
+    <col min="620" max="620" width="10.81640625" customWidth="1"/>
+    <col min="624" max="627" width="10.81640625" customWidth="1"/>
+    <col min="629" max="629" width="10.81640625" customWidth="1"/>
+    <col min="632" max="637" width="10.81640625" customWidth="1"/>
+    <col min="639" max="640" width="10.81640625" customWidth="1"/>
+    <col min="642" max="645" width="10.81640625" customWidth="1"/>
+    <col min="648" max="653" width="10.81640625" customWidth="1"/>
+    <col min="655" max="657" width="10.81640625" customWidth="1"/>
+    <col min="661" max="661" width="10.81640625" customWidth="1"/>
+    <col min="664" max="664" width="10.81640625" customWidth="1"/>
+    <col min="666" max="666" width="10.81640625" customWidth="1"/>
+    <col min="668" max="668" width="10.81640625" customWidth="1"/>
+    <col min="672" max="672" width="10.81640625" customWidth="1"/>
+    <col min="674" max="674" width="10.81640625" customWidth="1"/>
+    <col min="677" max="677" width="10.81640625" customWidth="1"/>
+    <col min="680" max="681" width="10.81640625" customWidth="1"/>
+    <col min="683" max="685" width="10.81640625" customWidth="1"/>
+    <col min="688" max="688" width="10.81640625" customWidth="1"/>
+    <col min="690" max="690" width="10.81640625" customWidth="1"/>
+    <col min="692" max="693" width="10.81640625" customWidth="1"/>
+    <col min="696" max="697" width="10.81640625" customWidth="1"/>
+    <col min="699" max="700" width="10.81640625" customWidth="1"/>
+    <col min="704" max="704" width="10.81640625" customWidth="1"/>
+    <col min="708" max="709" width="10.81640625" customWidth="1"/>
+    <col min="712" max="712" width="10.81640625" customWidth="1"/>
+    <col min="714" max="714" width="10.81640625" customWidth="1"/>
+    <col min="716" max="717" width="10.81640625" customWidth="1"/>
+    <col min="720" max="721" width="10.81640625" customWidth="1"/>
+    <col min="723" max="724" width="10.81640625" customWidth="1"/>
+    <col min="728" max="733" width="10.81640625" customWidth="1"/>
+    <col min="735" max="736" width="10.81640625" customWidth="1"/>
+    <col min="738" max="739" width="10.81640625" customWidth="1"/>
+    <col min="741" max="742" width="10.81640625" customWidth="1"/>
+    <col min="744" max="746" width="10.81640625" customWidth="1"/>
+    <col min="748" max="750" width="10.81640625" customWidth="1"/>
+    <col min="752" max="752" width="10.81640625" customWidth="1"/>
+    <col min="755" max="756" width="10.81640625" customWidth="1"/>
+    <col min="760" max="765" width="10.81640625" customWidth="1"/>
+    <col min="767" max="771" width="10.81640625" customWidth="1"/>
+    <col min="773" max="773" width="10.81640625" customWidth="1"/>
+    <col min="775" max="776" width="10.81640625" customWidth="1"/>
+    <col min="778" max="779" width="10.81640625" customWidth="1"/>
+    <col min="781" max="781" width="10.81640625" customWidth="1"/>
+    <col min="784" max="785" width="10.81640625" customWidth="1"/>
+    <col min="789" max="789" width="10.81640625" customWidth="1"/>
+    <col min="791" max="792" width="10.81640625" customWidth="1"/>
+    <col min="794" max="794" width="10.81640625" customWidth="1"/>
+    <col min="796" max="797" width="10.81640625" customWidth="1"/>
+    <col min="800" max="801" width="10.81640625" customWidth="1"/>
+    <col min="805" max="805" width="10.81640625" customWidth="1"/>
+    <col min="807" max="813" width="10.81640625" customWidth="1"/>
+    <col min="815" max="817" width="10.81640625" customWidth="1"/>
+    <col min="821" max="821" width="10.81640625" customWidth="1"/>
+    <col min="824" max="824" width="10.81640625" customWidth="1"/>
+    <col min="829" max="829" width="10.81640625" customWidth="1"/>
+    <col min="832" max="834" width="10.81640625" customWidth="1"/>
+    <col min="836" max="836" width="10.81640625" customWidth="1"/>
+    <col min="840" max="845" width="10.81640625" customWidth="1"/>
+    <col min="847" max="849" width="10.81640625" customWidth="1"/>
+    <col min="852" max="853" width="10.81640625" customWidth="1"/>
+    <col min="856" max="856" width="10.81640625" customWidth="1"/>
+    <col min="861" max="861" width="10.81640625" customWidth="1"/>
+    <col min="864" max="865" width="10.81640625" customWidth="1"/>
+    <col min="867" max="868" width="10.81640625" customWidth="1"/>
+    <col min="872" max="877" width="10.81640625" customWidth="1"/>
+    <col min="879" max="884" width="10.81640625" customWidth="1"/>
+    <col min="886" max="886" width="10.81640625" customWidth="1"/>
+    <col min="888" max="888" width="10.81640625" customWidth="1"/>
+    <col min="890" max="890" width="10.81640625" customWidth="1"/>
+    <col min="892" max="893" width="10.81640625" customWidth="1"/>
+    <col min="896" max="897" width="10.81640625" customWidth="1"/>
+    <col min="899" max="900" width="10.81640625" customWidth="1"/>
+    <col min="904" max="904" width="10.81640625" customWidth="1"/>
+    <col min="906" max="907" width="10.81640625" customWidth="1"/>
+    <col min="909" max="909" width="10.81640625" customWidth="1"/>
+    <col min="912" max="914" width="10.81640625" customWidth="1"/>
+    <col min="917" max="917" width="10.81640625" customWidth="1"/>
+    <col min="920" max="920" width="10.81640625" customWidth="1"/>
+    <col min="922" max="923" width="10.81640625" customWidth="1"/>
+    <col min="925" max="926" width="10.81640625" customWidth="1"/>
+    <col min="928" max="930" width="10.81640625" customWidth="1"/>
+    <col min="932" max="934" width="10.81640625" customWidth="1"/>
+    <col min="936" max="936" width="10.81640625" customWidth="1"/>
+    <col min="938" max="939" width="10.81640625" customWidth="1"/>
+    <col min="941" max="941" width="10.81640625" customWidth="1"/>
+    <col min="943" max="944" width="10.81640625" customWidth="1"/>
+    <col min="946" max="946" width="10.81640625" customWidth="1"/>
+    <col min="949" max="952" width="10.81640625" customWidth="1"/>
+    <col min="954" max="954" width="10.81640625" customWidth="1"/>
+    <col min="957" max="960" width="10.81640625" customWidth="1"/>
+    <col min="964" max="964" width="10.81640625" customWidth="1"/>
+    <col min="968" max="971" width="10.81640625" customWidth="1"/>
+    <col min="973" max="973" width="10.81640625" customWidth="1"/>
+    <col min="976" max="976" width="10.81640625" customWidth="1"/>
+    <col min="978" max="979" width="10.81640625" customWidth="1"/>
+    <col min="981" max="981" width="10.81640625" customWidth="1"/>
+    <col min="984" max="984" width="10.81640625" customWidth="1"/>
+    <col min="987" max="989" width="10.81640625" customWidth="1"/>
+    <col min="992" max="995" width="10.81640625" customWidth="1"/>
+    <col min="997" max="997" width="10.81640625" customWidth="1"/>
+    <col min="1000" max="1005" width="10.81640625" customWidth="1"/>
+    <col min="1007" max="1008" width="10.81640625" customWidth="1"/>
+    <col min="1010" max="1011" width="10.81640625" customWidth="1"/>
+    <col min="1013" max="1013" width="10.81640625" customWidth="1"/>
+    <col min="1016" max="1018" width="10.81640625" customWidth="1"/>
+    <col min="1020" max="1020" width="10.81640625" customWidth="1"/>
+    <col min="1024" max="1024" width="10.81640625" customWidth="1"/>
+    <col min="1026" max="1026" width="10.81640625" customWidth="1"/>
+    <col min="1028" max="1029" width="10.81640625" customWidth="1"/>
+    <col min="1032" max="1032" width="10.81640625" customWidth="1"/>
+    <col min="1034" max="1034" width="10.81640625" customWidth="1"/>
+    <col min="1037" max="1037" width="10.81640625" customWidth="1"/>
+    <col min="1040" max="1045" width="10.81640625" customWidth="1"/>
+    <col min="1047" max="1050" width="10.81640625" customWidth="1"/>
+    <col min="1052" max="1052" width="10.81640625" customWidth="1"/>
+    <col min="1056" max="1059" width="10.81640625" customWidth="1"/>
+    <col min="1061" max="1061" width="10.81640625" customWidth="1"/>
+    <col min="1064" max="1064" width="10.81640625" customWidth="1"/>
+    <col min="1066" max="1066" width="10.81640625" customWidth="1"/>
+    <col min="1068" max="1069" width="10.81640625" customWidth="1"/>
+    <col min="1072" max="1077" width="10.81640625" customWidth="1"/>
+    <col min="1079" max="1080" width="10.81640625" customWidth="1"/>
+    <col min="1083" max="1084" width="10.81640625" customWidth="1"/>
+    <col min="1088" max="1092" width="10.81640625" customWidth="1"/>
+    <col min="1096" max="1096" width="10.81640625" customWidth="1"/>
+    <col min="1098" max="1098" width="10.81640625" customWidth="1"/>
+    <col min="1100" max="1101" width="10.81640625" customWidth="1"/>
+    <col min="1104" max="1104" width="10.81640625" customWidth="1"/>
+    <col min="1106" max="1109" width="10.81640625" customWidth="1"/>
+    <col min="1112" max="1112" width="10.81640625" customWidth="1"/>
+    <col min="1115" max="1115" width="10.81640625" customWidth="1"/>
+    <col min="1117" max="1117" width="10.81640625" customWidth="1"/>
+    <col min="1120" max="1120" width="10.81640625" customWidth="1"/>
+    <col min="1122" max="1123" width="10.81640625" customWidth="1"/>
+    <col min="1125" max="1125" width="10.81640625" customWidth="1"/>
+    <col min="1128" max="1129" width="10.81640625" customWidth="1"/>
+    <col min="1133" max="1133" width="10.81640625" customWidth="1"/>
+    <col min="1136" max="1136" width="10.81640625" customWidth="1"/>
+    <col min="1140" max="1141" width="10.81640625" customWidth="1"/>
+    <col min="1144" max="1149" width="10.81640625" customWidth="1"/>
+    <col min="1151" max="1153" width="10.81640625" customWidth="1"/>
+    <col min="1157" max="1157" width="10.81640625" customWidth="1"/>
+    <col min="1160" max="1160" width="10.81640625" customWidth="1"/>
+    <col min="1162" max="1165" width="10.81640625" customWidth="1"/>
+    <col min="1168" max="1168" width="10.81640625" customWidth="1"/>
+    <col min="1170" max="1170" width="10.81640625" customWidth="1"/>
+    <col min="1173" max="1173" width="10.81640625" customWidth="1"/>
+    <col min="1176" max="1176" width="10.81640625" customWidth="1"/>
+    <col min="1178" max="1178" width="10.81640625" customWidth="1"/>
+    <col min="1180" max="1181" width="10.81640625" customWidth="1"/>
+    <col min="1184" max="1189" width="10.81640625" customWidth="1"/>
+    <col min="1191" max="1193" width="10.81640625" customWidth="1"/>
+    <col min="1196" max="1197" width="10.81640625" customWidth="1"/>
+    <col min="1200" max="1200" width="10.81640625" customWidth="1"/>
+    <col min="1205" max="1205" width="10.81640625" customWidth="1"/>
+    <col min="1208" max="1209" width="10.81640625" customWidth="1"/>
+    <col min="1211" max="1212" width="10.81640625" customWidth="1"/>
+    <col min="1216" max="1221" width="10.81640625" customWidth="1"/>
+    <col min="1223" max="1224" width="10.81640625" customWidth="1"/>
+    <col min="1226" max="1229" width="10.81640625" customWidth="1"/>
+    <col min="1232" max="1233" width="10.81640625" customWidth="1"/>
+    <col min="1237" max="1237" width="10.81640625" customWidth="1"/>
+    <col min="1240" max="1245" width="10.81640625" customWidth="1"/>
+    <col min="1247" max="1248" width="10.81640625" customWidth="1"/>
+    <col min="1250" max="1251" width="10.81640625" customWidth="1"/>
+    <col min="1253" max="1254" width="10.81640625" customWidth="1"/>
+    <col min="1256" max="1258" width="10.81640625" customWidth="1"/>
+    <col min="1260" max="1262" width="10.81640625" customWidth="1"/>
+    <col min="1264" max="1269" width="10.81640625" customWidth="1"/>
+    <col min="1271" max="1272" width="10.81640625" customWidth="1"/>
+    <col min="1275" max="1276" width="10.81640625" customWidth="1"/>
+    <col min="1280" max="1283" width="10.81640625" customWidth="1"/>
+    <col min="1285" max="1285" width="10.81640625" customWidth="1"/>
+    <col min="1288" max="1288" width="10.81640625" customWidth="1"/>
+    <col min="1290" max="1293" width="10.81640625" customWidth="1"/>
+    <col min="1296" max="1298" width="10.81640625" customWidth="1"/>
+    <col min="1301" max="1301" width="10.81640625" customWidth="1"/>
+    <col min="1304" max="1306" width="10.81640625" customWidth="1"/>
+    <col min="1309" max="1309" width="10.81640625" customWidth="1"/>
+    <col min="1312" max="1317" width="10.81640625" customWidth="1"/>
+    <col min="1319" max="1320" width="10.81640625" customWidth="1"/>
+    <col min="1323" max="1325" width="10.81640625" customWidth="1"/>
+    <col min="1328" max="1328" width="10.81640625" customWidth="1"/>
+    <col min="1333" max="1333" width="10.81640625" customWidth="1"/>
+    <col min="1336" max="1337" width="10.81640625" customWidth="1"/>
+    <col min="1339" max="1340" width="10.81640625" customWidth="1"/>
+    <col min="1344" max="1345" width="10.81640625" customWidth="1"/>
+    <col min="1347" max="1348" width="10.81640625" customWidth="1"/>
+    <col min="1352" max="1352" width="10.81640625" customWidth="1"/>
+    <col min="1354" max="1354" width="10.81640625" customWidth="1"/>
+    <col min="1356" max="1357" width="10.81640625" customWidth="1"/>
+    <col min="1360" max="1360" width="10.81640625" customWidth="1"/>
+    <col min="1363" max="1364" width="10.81640625" customWidth="1"/>
+    <col min="1368" max="1372" width="10.81640625" customWidth="1"/>
+    <col min="1376" max="1376" width="10.81640625" customWidth="1"/>
+    <col min="1381" max="1381" width="10.81640625" customWidth="1"/>
+    <col min="1384" max="1385" width="10.81640625" customWidth="1"/>
+    <col min="1389" max="1389" width="10.81640625" customWidth="1"/>
+    <col min="1392" max="1394" width="10.81640625" customWidth="1"/>
+    <col min="1396" max="1397" width="10.81640625" customWidth="1"/>
+    <col min="1400" max="1405" width="10.81640625" customWidth="1"/>
+    <col min="1407" max="1410" width="10.81640625" customWidth="1"/>
+    <col min="1412" max="1412" width="10.81640625" customWidth="1"/>
+    <col min="1416" max="1416" width="10.81640625" customWidth="1"/>
+    <col min="1421" max="1421" width="10.81640625" customWidth="1"/>
+    <col min="1424" max="1426" width="10.81640625" customWidth="1"/>
+    <col min="1429" max="1429" width="10.81640625" customWidth="1"/>
+    <col min="1431" max="1437" width="10.81640625" customWidth="1"/>
+    <col min="1439" max="1440" width="10.81640625" customWidth="1"/>
+    <col min="1443" max="1444" width="10.81640625" customWidth="1"/>
+    <col min="1448" max="1448" width="10.81640625" customWidth="1"/>
+    <col min="1450" max="1450" width="10.81640625" customWidth="1"/>
+    <col min="1452" max="1452" width="10.81640625" customWidth="1"/>
+    <col min="1456" max="1456" width="10.81640625" customWidth="1"/>
+    <col min="1459" max="1461" width="10.81640625" customWidth="1"/>
+    <col min="1464" max="1467" width="10.81640625" customWidth="1"/>
+    <col min="1469" max="1469" width="10.81640625" customWidth="1"/>
+    <col min="1472" max="1477" width="10.81640625" customWidth="1"/>
+    <col min="1479" max="1480" width="10.81640625" customWidth="1"/>
+    <col min="1482" max="1485" width="10.81640625" customWidth="1"/>
+    <col min="1488" max="1488" width="10.81640625" customWidth="1"/>
+    <col min="1491" max="1492" width="10.81640625" customWidth="1"/>
+    <col min="1496" max="1501" width="10.81640625" customWidth="1"/>
+    <col min="1503" max="1504" width="10.81640625" customWidth="1"/>
+    <col min="1507" max="1510" width="10.81640625" customWidth="1"/>
+    <col min="1512" max="1512" width="10.81640625" customWidth="1"/>
+    <col min="1514" max="1517" width="10.81640625" customWidth="1"/>
+    <col min="1520" max="1522" width="10.81640625" customWidth="1"/>
+    <col min="1524" max="1524" width="10.81640625" customWidth="1"/>
+    <col min="1528" max="1528" width="10.81640625" customWidth="1"/>
+    <col min="1530" max="1530" width="10.81640625" customWidth="1"/>
+    <col min="1532" max="1533" width="10.81640625" customWidth="1"/>
+    <col min="1536" max="1536" width="10.81640625" customWidth="1"/>
+    <col min="1540" max="1541" width="10.81640625" customWidth="1"/>
+    <col min="1544" max="1544" width="10.81640625" customWidth="1"/>
+    <col min="1549" max="1549" width="10.81640625" customWidth="1"/>
+    <col min="1552" max="1553" width="10.81640625" customWidth="1"/>
+    <col min="1555" max="1556" width="10.81640625" customWidth="1"/>
+    <col min="1560" max="1560" width="10.81640625" customWidth="1"/>
+    <col min="1562" max="1563" width="10.81640625" customWidth="1"/>
+    <col min="1568" max="1570" width="10.81640625" customWidth="1"/>
+    <col min="1573" max="1573" width="10.81640625" customWidth="1"/>
+    <col min="1575" max="1581" width="10.81640625" customWidth="1"/>
+    <col min="1583" max="1586" width="10.81640625" customWidth="1"/>
+    <col min="1588" max="1590" width="10.81640625" customWidth="1"/>
+    <col min="1592" max="1592" width="10.81640625" customWidth="1"/>
+    <col min="1594" max="1597" width="10.81640625" customWidth="1"/>
+    <col min="1600" max="1600" width="10.81640625" customWidth="1"/>
+    <col min="1602" max="1602" width="10.81640625" customWidth="1"/>
+    <col min="1605" max="1605" width="10.81640625" customWidth="1"/>
+    <col min="1608" max="1608" width="10.81640625" customWidth="1"/>
+    <col min="1610" max="1613" width="10.81640625" customWidth="1"/>
+    <col min="1616" max="1616" width="10.81640625" customWidth="1"/>
+    <col min="1620" max="1621" width="10.81640625" customWidth="1"/>
+    <col min="1624" max="1624" width="10.81640625" customWidth="1"/>
+    <col min="1626" max="1626" width="10.81640625" customWidth="1"/>
+    <col min="1628" max="1629" width="10.81640625" customWidth="1"/>
+    <col min="1632" max="1633" width="10.81640625" customWidth="1"/>
+    <col min="1636" max="1638" width="10.81640625" customWidth="1"/>
+    <col min="1640" max="1640" width="10.81640625" customWidth="1"/>
+    <col min="1642" max="1642" width="10.81640625" customWidth="1"/>
+    <col min="1644" max="1644" width="10.81640625" customWidth="1"/>
+    <col min="1648" max="1649" width="10.81640625" customWidth="1"/>
+    <col min="1653" max="1653" width="10.81640625" customWidth="1"/>
+    <col min="1656" max="1656" width="10.81640625" customWidth="1"/>
+    <col min="1658" max="1659" width="10.81640625" customWidth="1"/>
+    <col min="1661" max="1662" width="10.81640625" customWidth="1"/>
+    <col min="1664" max="1666" width="10.81640625" customWidth="1"/>
+    <col min="1668" max="1670" width="10.81640625" customWidth="1"/>
+    <col min="1672" max="1673" width="10.81640625" customWidth="1"/>
+    <col min="1677" max="1677" width="10.81640625" customWidth="1"/>
+    <col min="1679" max="1681" width="10.81640625" customWidth="1"/>
+    <col min="1685" max="1685" width="10.81640625" customWidth="1"/>
+    <col min="1687" max="1689" width="10.81640625" customWidth="1"/>
+    <col min="1693" max="1693" width="10.81640625" customWidth="1"/>
+    <col min="1695" max="1696" width="10.81640625" customWidth="1"/>
+    <col min="1698" max="1698" width="10.81640625" customWidth="1"/>
+    <col min="1701" max="1705" width="10.81640625" customWidth="1"/>
+    <col min="1707" max="1708" width="10.81640625" customWidth="1"/>
+    <col min="1712" max="1712" width="10.81640625" customWidth="1"/>
+    <col min="1714" max="1714" width="10.81640625" customWidth="1"/>
+    <col min="1716" max="1717" width="10.81640625" customWidth="1"/>
+    <col min="1720" max="1720" width="10.81640625" customWidth="1"/>
+    <col min="1723" max="1724" width="10.81640625" customWidth="1"/>
+    <col min="1728" max="1732" width="10.81640625" customWidth="1"/>
+    <col min="1736" max="1736" width="10.81640625" customWidth="1"/>
+    <col min="1738" max="1738" width="10.81640625" customWidth="1"/>
+    <col min="1740" max="1741" width="10.81640625" customWidth="1"/>
+    <col min="1744" max="1744" width="10.81640625" customWidth="1"/>
+    <col min="1747" max="1749" width="10.81640625" customWidth="1"/>
+    <col min="1752" max="1754" width="10.81640625" customWidth="1"/>
+    <col min="1756" max="1756" width="10.81640625" customWidth="1"/>
+    <col min="1760" max="1760" width="10.81640625" customWidth="1"/>
+    <col min="1762" max="1763" width="10.81640625" customWidth="1"/>
+    <col min="1765" max="1765" width="10.81640625" customWidth="1"/>
+    <col min="1768" max="1769" width="10.81640625" customWidth="1"/>
+    <col min="1772" max="1772" width="10.81640625" customWidth="1"/>
+    <col min="1776" max="1776" width="10.81640625" customWidth="1"/>
+    <col min="1778" max="1778" width="10.81640625" customWidth="1"/>
+    <col min="1780" max="1781" width="10.81640625" customWidth="1"/>
+    <col min="1784" max="1789" width="10.81640625" customWidth="1"/>
+    <col min="1791" max="1792" width="10.81640625" customWidth="1"/>
+    <col min="1797" max="1797" width="10.81640625" customWidth="1"/>
+    <col min="1800" max="1801" width="10.81640625" customWidth="1"/>
+    <col min="1804" max="1805" width="10.81640625" customWidth="1"/>
+    <col min="1808" max="1813" width="10.81640625" customWidth="1"/>
+    <col min="1815" max="1820" width="10.81640625" customWidth="1"/>
+    <col min="1824" max="1824" width="10.81640625" customWidth="1"/>
+    <col min="1826" max="1826" width="10.81640625" customWidth="1"/>
+    <col min="1828" max="1829" width="10.81640625" customWidth="1"/>
+    <col min="1832" max="1833" width="10.81640625" customWidth="1"/>
+    <col min="1835" max="1836" width="10.81640625" customWidth="1"/>
+    <col min="1840" max="1840" width="10.81640625" customWidth="1"/>
+    <col min="1842" max="1843" width="10.81640625" customWidth="1"/>
+    <col min="1845" max="1845" width="10.81640625" customWidth="1"/>
+    <col min="1848" max="1850" width="10.81640625" customWidth="1"/>
+    <col min="1853" max="1853" width="10.81640625" customWidth="1"/>
+    <col min="1856" max="1861" width="10.81640625" customWidth="1"/>
+    <col min="1863" max="1867" width="10.81640625" customWidth="1"/>
+    <col min="1869" max="1869" width="10.81640625" customWidth="1"/>
+    <col min="1871" max="1872" width="10.81640625" customWidth="1"/>
+    <col min="1874" max="1875" width="10.81640625" customWidth="1"/>
+    <col min="1877" max="1877" width="10.81640625" customWidth="1"/>
+    <col min="1880" max="1881" width="10.81640625" customWidth="1"/>
+    <col min="1885" max="1885" width="10.81640625" customWidth="1"/>
+    <col min="1887" max="1888" width="10.81640625" customWidth="1"/>
+    <col min="1890" max="1890" width="10.81640625" customWidth="1"/>
+    <col min="1892" max="1893" width="10.81640625" customWidth="1"/>
+    <col min="1896" max="1897" width="10.81640625" customWidth="1"/>
+    <col min="1901" max="1901" width="10.81640625" customWidth="1"/>
+    <col min="1903" max="1909" width="10.81640625" customWidth="1"/>
+    <col min="1911" max="1914" width="10.81640625" customWidth="1"/>
+    <col min="1916" max="1916" width="10.81640625" customWidth="1"/>
+    <col min="1920" max="1923" width="10.81640625" customWidth="1"/>
+    <col min="1925" max="1925" width="10.81640625" customWidth="1"/>
+    <col min="1928" max="1928" width="10.81640625" customWidth="1"/>
+    <col min="1930" max="1930" width="10.81640625" customWidth="1"/>
+    <col min="1932" max="1933" width="10.81640625" customWidth="1"/>
+    <col min="1936" max="1941" width="10.81640625" customWidth="1"/>
+    <col min="1943" max="1944" width="10.81640625" customWidth="1"/>
+    <col min="1946" max="1946" width="10.81640625" customWidth="1"/>
+    <col min="1948" max="1948" width="10.81640625" customWidth="1"/>
+    <col min="1952" max="1952" width="10.81640625" customWidth="1"/>
+    <col min="1955" max="1956" width="10.81640625" customWidth="1"/>
+    <col min="1960" max="1960" width="10.81640625" customWidth="1"/>
+    <col min="1962" max="1962" width="10.81640625" customWidth="1"/>
+    <col min="1964" max="1965" width="10.81640625" customWidth="1"/>
+    <col min="1968" max="1969" width="10.81640625" customWidth="1"/>
+    <col min="1971" max="1972" width="10.81640625" customWidth="1"/>
+    <col min="1976" max="1981" width="10.81640625" customWidth="1"/>
+    <col min="1983" max="1985" width="10.81640625" customWidth="1"/>
+    <col min="1989" max="1989" width="10.81640625" customWidth="1"/>
+    <col min="1992" max="1992" width="10.81640625" customWidth="1"/>
+    <col min="1994" max="1994" width="10.81640625" customWidth="1"/>
+    <col min="1996" max="1997" width="10.81640625" customWidth="1"/>
+    <col min="2000" max="2000" width="10.81640625" customWidth="1"/>
+    <col min="2002" max="2002" width="10.81640625" customWidth="1"/>
+    <col min="2004" max="2005" width="10.81640625" customWidth="1"/>
+    <col min="2008" max="2010" width="10.81640625" customWidth="1"/>
+    <col min="2012" max="2013" width="10.81640625" customWidth="1"/>
+    <col min="2016" max="2016" width="10.81640625" customWidth="1"/>
+    <col min="2019" max="2020" width="10.81640625" customWidth="1"/>
+    <col min="2024" max="2029" width="10.81640625" customWidth="1"/>
+    <col min="2031" max="2034" width="10.81640625" customWidth="1"/>
+    <col min="2036" max="2036" width="10.81640625" customWidth="1"/>
+    <col min="2040" max="2040" width="10.81640625" customWidth="1"/>
+    <col min="2045" max="2045" width="10.81640625" customWidth="1"/>
+    <col min="2048" max="2053" width="10.81640625" customWidth="1"/>
+    <col min="2055" max="2056" width="10.81640625" customWidth="1"/>
+    <col min="2059" max="2059" width="10.81640625" customWidth="1"/>
+    <col min="2061" max="2061" width="10.81640625" customWidth="1"/>
+    <col min="2064" max="2065" width="10.81640625" customWidth="1"/>
+    <col min="2069" max="2069" width="10.81640625" customWidth="1"/>
+    <col min="2072" max="2072" width="10.81640625" customWidth="1"/>
+    <col min="2077" max="2077" width="10.81640625" customWidth="1"/>
+    <col min="2080" max="2080" width="10.81640625" customWidth="1"/>
+    <col min="2084" max="2084" width="10.81640625" customWidth="1"/>
+    <col min="2088" max="2093" width="10.81640625" customWidth="1"/>
+    <col min="2095" max="2096" width="10.81640625" customWidth="1"/>
+    <col min="2100" max="2100" width="10.81640625" customWidth="1"/>
+    <col min="2104" max="2107" width="10.81640625" customWidth="1"/>
+    <col min="2109" max="2109" width="10.81640625" customWidth="1"/>
+    <col min="2112" max="2112" width="10.81640625" customWidth="1"/>
+    <col min="2114" max="2115" width="10.81640625" customWidth="1"/>
+    <col min="2117" max="2117" width="10.81640625" customWidth="1"/>
+    <col min="2120" max="2120" width="10.81640625" customWidth="1"/>
+    <col min="2123" max="2125" width="10.81640625" customWidth="1"/>
+    <col min="2128" max="2131" width="10.81640625" customWidth="1"/>
+    <col min="2133" max="2133" width="10.81640625" customWidth="1"/>
+    <col min="2136" max="2141" width="10.81640625" customWidth="1"/>
+    <col min="2143" max="2144" width="10.81640625" customWidth="1"/>
+    <col min="2146" max="2146" width="10.81640625" customWidth="1"/>
+    <col min="2148" max="2149" width="10.81640625" customWidth="1"/>
+    <col min="2152" max="2153" width="10.81640625" customWidth="1"/>
+    <col min="2157" max="2157" width="10.81640625" customWidth="1"/>
+    <col min="2160" max="2162" width="10.81640625" customWidth="1"/>
+    <col min="2164" max="2164" width="10.81640625" customWidth="1"/>
+    <col min="2168" max="2168" width="10.81640625" customWidth="1"/>
+    <col min="2170" max="2171" width="10.81640625" customWidth="1"/>
+    <col min="2173" max="2173" width="10.81640625" customWidth="1"/>
+    <col min="2176" max="2178" width="10.81640625" customWidth="1"/>
+    <col min="2180" max="2180" width="10.81640625" customWidth="1"/>
+    <col min="2184" max="2184" width="10.81640625" customWidth="1"/>
+    <col min="2186" max="2187" width="10.81640625" customWidth="1"/>
+    <col min="2192" max="2197" width="10.81640625" customWidth="1"/>
+    <col min="2199" max="2202" width="10.81640625" customWidth="1"/>
+    <col min="2204" max="2204" width="10.81640625" customWidth="1"/>
+    <col min="2208" max="2208" width="10.81640625" customWidth="1"/>
+    <col min="2213" max="2213" width="10.81640625" customWidth="1"/>
+    <col min="2216" max="2221" width="10.81640625" customWidth="1"/>
+    <col min="2223" max="2224" width="10.81640625" customWidth="1"/>
+    <col min="2226" max="2226" width="10.81640625" customWidth="1"/>
+    <col min="2228" max="2229" width="10.81640625" customWidth="1"/>
+    <col min="2232" max="2235" width="10.81640625" customWidth="1"/>
+    <col min="2240" max="2244" width="10.81640625" customWidth="1"/>
+    <col min="2248" max="2248" width="10.81640625" customWidth="1"/>
+    <col min="2253" max="2253" width="10.81640625" customWidth="1"/>
+    <col min="2256" max="2256" width="10.81640625" customWidth="1"/>
+    <col min="2259" max="2260" width="10.81640625" customWidth="1"/>
+    <col min="2264" max="2264" width="10.81640625" customWidth="1"/>
+    <col min="2266" max="2266" width="10.81640625" customWidth="1"/>
+    <col min="2268" max="2269" width="10.81640625" customWidth="1"/>
+    <col min="2272" max="2277" width="10.81640625" customWidth="1"/>
+    <col min="2279" max="2282" width="10.81640625" customWidth="1"/>
+    <col min="2284" max="2284" width="10.81640625" customWidth="1"/>
+    <col min="2288" max="2288" width="10.81640625" customWidth="1"/>
+    <col min="2293" max="2293" width="10.81640625" customWidth="1"/>
+    <col min="2296" max="2301" width="10.81640625" customWidth="1"/>
+    <col min="2303" max="2304" width="10.81640625" customWidth="1"/>
+    <col min="2308" max="2308" width="10.81640625" customWidth="1"/>
+    <col min="2312" max="2315" width="10.81640625" customWidth="1"/>
+    <col min="2317" max="2317" width="10.81640625" customWidth="1"/>
+    <col min="2320" max="2320" width="10.81640625" customWidth="1"/>
+    <col min="2322" max="2323" width="10.81640625" customWidth="1"/>
+    <col min="2325" max="2325" width="10.81640625" customWidth="1"/>
+    <col min="2328" max="2328" width="10.81640625" customWidth="1"/>
+    <col min="2331" max="2333" width="10.81640625" customWidth="1"/>
+    <col min="2336" max="2339" width="10.81640625" customWidth="1"/>
+    <col min="2341" max="2341" width="10.81640625" customWidth="1"/>
+    <col min="2344" max="2349" width="10.81640625" customWidth="1"/>
+    <col min="2351" max="2356" width="10.81640625" customWidth="1"/>
+    <col min="2360" max="2360" width="10.81640625" customWidth="1"/>
+    <col min="2362" max="2362" width="10.81640625" customWidth="1"/>
+    <col min="2364" max="2365" width="10.81640625" customWidth="1"/>
+    <col min="2368" max="2369" width="10.81640625" customWidth="1"/>
+    <col min="2371" max="2372" width="10.81640625" customWidth="1"/>
+    <col min="2376" max="2376" width="10.81640625" customWidth="1"/>
+    <col min="2378" max="2379" width="10.81640625" customWidth="1"/>
+    <col min="2381" max="2381" width="10.81640625" customWidth="1"/>
+    <col min="2384" max="2386" width="10.81640625" customWidth="1"/>
+    <col min="2389" max="2389" width="10.81640625" customWidth="1"/>
+    <col min="2392" max="2392" width="10.81640625" customWidth="1"/>
+    <col min="2394" max="2395" width="10.81640625" customWidth="1"/>
+    <col min="2397" max="2397" width="10.81640625" customWidth="1"/>
+    <col min="2399" max="2400" width="10.81640625" customWidth="1"/>
+    <col min="2402" max="2402" width="10.81640625" customWidth="1"/>
+    <col min="2405" max="2408" width="10.81640625" customWidth="1"/>
+    <col min="2411" max="2411" width="10.81640625" customWidth="1"/>
+    <col min="2413" max="2413" width="10.81640625" customWidth="1"/>
+    <col min="2416" max="2416" width="10.81640625" customWidth="1"/>
+    <col min="2418" max="2418" width="10.81640625" customWidth="1"/>
+    <col min="2420" max="2421" width="10.81640625" customWidth="1"/>
+    <col min="2424" max="2429" width="10.81640625" customWidth="1"/>
+    <col min="2431" max="2435" width="10.81640625" customWidth="1"/>
+    <col min="2437" max="2437" width="10.81640625" customWidth="1"/>
+    <col min="2439" max="2441" width="10.81640625" customWidth="1"/>
+    <col min="2445" max="2445" width="10.81640625" customWidth="1"/>
+    <col min="2448" max="2448" width="10.81640625" customWidth="1"/>
+    <col min="2453" max="2453" width="10.81640625" customWidth="1"/>
+    <col min="2456" max="2461" width="10.81640625" customWidth="1"/>
+    <col min="2463" max="2464" width="10.81640625" customWidth="1"/>
+    <col min="2467" max="2468" width="10.81640625" customWidth="1"/>
+    <col min="2472" max="2472" width="10.81640625" customWidth="1"/>
+    <col min="2474" max="2474" width="10.81640625" customWidth="1"/>
+    <col min="2476" max="2477" width="10.81640625" customWidth="1"/>
+    <col min="2480" max="2480" width="10.81640625" customWidth="1"/>
+    <col min="2482" max="2482" width="10.81640625" customWidth="1"/>
+    <col min="2485" max="2485" width="10.81640625" customWidth="1"/>
+    <col min="2488" max="2488" width="10.81640625" customWidth="1"/>
+    <col min="2490" max="2491" width="10.81640625" customWidth="1"/>
+    <col min="2493" max="2493" width="10.81640625" customWidth="1"/>
+    <col min="2496" max="2496" width="10.81640625" customWidth="1"/>
+    <col min="2499" max="2501" width="10.81640625" customWidth="1"/>
+    <col min="2504" max="2504" width="10.81640625" customWidth="1"/>
+    <col min="2509" max="2509" width="10.81640625" customWidth="1"/>
+    <col min="2512" max="2514" width="10.81640625" customWidth="1"/>
+    <col min="2517" max="2517" width="10.81640625" customWidth="1"/>
+    <col min="2520" max="2520" width="10.81640625" customWidth="1"/>
+    <col min="2525" max="2525" width="10.81640625" customWidth="1"/>
+    <col min="2528" max="2529" width="10.81640625" customWidth="1"/>
+    <col min="2533" max="2533" width="10.81640625" customWidth="1"/>
+    <col min="2536" max="2541" width="10.81640625" customWidth="1"/>
+    <col min="2543" max="2544" width="10.81640625" customWidth="1"/>
+    <col min="2546" max="2549" width="10.81640625" customWidth="1"/>
+    <col min="2552" max="2554" width="10.81640625" customWidth="1"/>
+    <col min="2556" max="2556" width="10.81640625" customWidth="1"/>
+    <col min="2560" max="2565" width="10.81640625" customWidth="1"/>
+    <col min="2567" max="2570" width="10.81640625" customWidth="1"/>
+    <col min="2572" max="2572" width="10.81640625" customWidth="1"/>
+    <col min="2576" max="2579" width="10.81640625" customWidth="1"/>
+    <col min="2581" max="2581" width="10.81640625" customWidth="1"/>
+    <col min="2584" max="2584" width="10.81640625" customWidth="1"/>
+    <col min="2586" max="2586" width="10.81640625" customWidth="1"/>
+    <col min="2588" max="2589" width="10.81640625" customWidth="1"/>
+    <col min="2592" max="2597" width="10.81640625" customWidth="1"/>
+    <col min="2599" max="2600" width="10.81640625" customWidth="1"/>
+    <col min="2602" max="2602" width="10.81640625" customWidth="1"/>
+    <col min="2604" max="2605" width="10.81640625" customWidth="1"/>
+    <col min="2608" max="2609" width="10.81640625" customWidth="1"/>
+    <col min="2613" max="2613" width="10.81640625" customWidth="1"/>
+    <col min="2616" max="2618" width="10.81640625" customWidth="1"/>
+    <col min="2620" max="2621" width="10.81640625" customWidth="1"/>
+    <col min="2624" max="2624" width="10.81640625" customWidth="1"/>
+    <col min="2626" max="2627" width="10.81640625" customWidth="1"/>
+    <col min="2629" max="2629" width="10.81640625" customWidth="1"/>
+    <col min="2631" max="2633" width="10.81640625" customWidth="1"/>
+    <col min="2635" max="2635" width="10.81640625" customWidth="1"/>
+    <col min="2639" max="2640" width="10.81640625" customWidth="1"/>
+    <col min="2642" max="2642" width="10.81640625" customWidth="1"/>
+    <col min="2645" max="2648" width="10.81640625" customWidth="1"/>
+    <col min="2650" max="2652" width="10.81640625" customWidth="1"/>
+    <col min="2655" max="2658" width="10.81640625" customWidth="1"/>
+    <col min="2660" max="2660" width="10.81640625" customWidth="1"/>
+    <col min="2664" max="2664" width="10.81640625" customWidth="1"/>
+    <col min="2669" max="2669" width="10.81640625" customWidth="1"/>
+    <col min="2672" max="2672" width="10.81640625" customWidth="1"/>
+    <col min="2675" max="2676" width="10.81640625" customWidth="1"/>
+    <col min="2679" max="2680" width="10.81640625" customWidth="1"/>
+    <col min="2683" max="2683" width="10.81640625" customWidth="1"/>
+    <col min="2687" max="2688" width="10.81640625" customWidth="1"/>
+    <col min="2691" max="2692" width="10.81640625" customWidth="1"/>
+    <col min="2695" max="2698" width="10.81640625" customWidth="1"/>
+    <col min="2700" max="2700" width="10.81640625" customWidth="1"/>
+    <col min="2704" max="2704" width="10.81640625" customWidth="1"/>
+    <col min="2709" max="2709" width="10.81640625" customWidth="1"/>
+    <col min="2712" max="2714" width="10.81640625" customWidth="1"/>
+    <col min="2716" max="2716" width="10.81640625" customWidth="1"/>
+    <col min="2719" max="2720" width="10.81640625" customWidth="1"/>
+    <col min="2722" max="2722" width="10.81640625" customWidth="1"/>
+    <col min="2725" max="2728" width="10.81640625" customWidth="1"/>
+    <col min="2730" max="2730" width="10.81640625" customWidth="1"/>
+    <col min="2733" max="2736" width="10.81640625" customWidth="1"/>
+    <col min="2738" max="2738" width="10.81640625" customWidth="1"/>
+    <col min="2740" max="2742" width="10.81640625" customWidth="1"/>
+    <col min="2744" max="2745" width="10.81640625" customWidth="1"/>
+    <col min="2749" max="2749" width="10.81640625" customWidth="1"/>
+    <col min="2752" max="2754" width="10.81640625" customWidth="1"/>
+    <col min="2756" max="2756" width="10.81640625" customWidth="1"/>
+    <col min="2760" max="2760" width="10.81640625" customWidth="1"/>
+    <col min="2762" max="2762" width="10.81640625" customWidth="1"/>
+    <col min="2764" max="2765" width="10.81640625" customWidth="1"/>
+    <col min="2768" max="2769" width="10.81640625" customWidth="1"/>
+    <col min="2771" max="2772" width="10.81640625" customWidth="1"/>
+    <col min="2776" max="2781" width="10.81640625" customWidth="1"/>
+    <col min="2783" max="2785" width="10.81640625" customWidth="1"/>
+    <col min="2789" max="2789" width="10.81640625" customWidth="1"/>
+    <col min="2792" max="2792" width="10.81640625" customWidth="1"/>
+    <col min="2794" max="2795" width="10.81640625" customWidth="1"/>
+    <col min="2797" max="2797" width="10.81640625" customWidth="1"/>
+    <col min="2800" max="2802" width="10.81640625" customWidth="1"/>
+    <col min="2805" max="2805" width="10.81640625" customWidth="1"/>
+    <col min="2808" max="2813" width="10.81640625" customWidth="1"/>
+    <col min="2815" max="2816" width="10.81640625" customWidth="1"/>
+    <col min="2818" max="2819" width="10.81640625" customWidth="1"/>
+    <col min="2821" max="2821" width="10.81640625" customWidth="1"/>
+    <col min="2824" max="2825" width="10.81640625" customWidth="1"/>
+    <col min="2828" max="2829" width="10.81640625" customWidth="1"/>
+    <col min="2832" max="2837" width="10.81640625" customWidth="1"/>
+    <col min="2839" max="2841" width="10.81640625" customWidth="1"/>
+    <col min="2845" max="2845" width="10.81640625" customWidth="1"/>
+    <col min="2848" max="2848" width="10.81640625" customWidth="1"/>
+    <col min="2853" max="2853" width="10.81640625" customWidth="1"/>
+    <col min="2856" max="2861" width="10.81640625" customWidth="1"/>
+    <col min="2863" max="2864" width="10.81640625" customWidth="1"/>
+    <col min="2866" max="2866" width="10.81640625" customWidth="1"/>
+    <col min="2869" max="2869" width="10.81640625" customWidth="1"/>
+    <col min="2872" max="2872" width="10.81640625" customWidth="1"/>
+    <col min="2874" max="2877" width="10.81640625" customWidth="1"/>
+    <col min="2880" max="2884" width="10.81640625" customWidth="1"/>
+    <col min="2888" max="2892" width="10.81640625" customWidth="1"/>
+    <col min="2896" max="2896" width="10.81640625" customWidth="1"/>
+    <col min="2898" max="2899" width="10.81640625" customWidth="1"/>
+    <col min="2901" max="2901" width="10.81640625" customWidth="1"/>
+    <col min="2904" max="2905" width="10.81640625" customWidth="1"/>
+    <col min="2909" max="2909" width="10.81640625" customWidth="1"/>
+    <col min="2912" max="2912" width="10.81640625" customWidth="1"/>
+    <col min="2916" max="2917" width="10.81640625" customWidth="1"/>
+    <col min="2920" max="2925" width="10.81640625" customWidth="1"/>
+    <col min="2927" max="2929" width="10.81640625" customWidth="1"/>
+    <col min="2932" max="2933" width="10.81640625" customWidth="1"/>
+    <col min="2936" max="2936" width="10.81640625" customWidth="1"/>
+    <col min="2941" max="2941" width="10.81640625" customWidth="1"/>
+    <col min="2944" max="2945" width="10.81640625" customWidth="1"/>
+    <col min="2947" max="2948" width="10.81640625" customWidth="1"/>
+    <col min="2952" max="2957" width="10.81640625" customWidth="1"/>
+    <col min="2959" max="2960" width="10.81640625" customWidth="1"/>
+    <col min="2962" max="2965" width="10.81640625" customWidth="1"/>
+    <col min="2968" max="2973" width="10.81640625" customWidth="1"/>
+    <col min="2975" max="2976" width="10.81640625" customWidth="1"/>
+    <col min="2980" max="2981" width="10.81640625" customWidth="1"/>
+    <col min="2984" max="2984" width="10.81640625" customWidth="1"/>
+    <col min="2986" max="2987" width="10.81640625" customWidth="1"/>
+    <col min="2989" max="2989" width="10.81640625" customWidth="1"/>
+    <col min="2992" max="2993" width="10.81640625" customWidth="1"/>
+    <col min="2996" max="2996" width="10.81640625" customWidth="1"/>
+    <col min="3000" max="3000" width="10.81640625" customWidth="1"/>
+    <col min="3002" max="3002" width="10.81640625" customWidth="1"/>
+    <col min="3004" max="3005" width="10.81640625" customWidth="1"/>
+    <col min="3008" max="3009" width="10.81640625" customWidth="1"/>
+    <col min="3013" max="3013" width="10.81640625" customWidth="1"/>
+    <col min="3016" max="3021" width="10.81640625" customWidth="1"/>
+    <col min="3023" max="3024" width="10.81640625" customWidth="1"/>
+    <col min="3026" max="3026" width="10.81640625" customWidth="1"/>
+    <col min="3029" max="3029" width="10.81640625" customWidth="1"/>
+    <col min="3032" max="3032" width="10.81640625" customWidth="1"/>
+    <col min="3034" max="3034" width="10.81640625" customWidth="1"/>
+    <col min="3036" max="3037" width="10.81640625" customWidth="1"/>
+    <col min="3040" max="3040" width="10.81640625" customWidth="1"/>
+    <col min="3042" max="3045" width="10.81640625" customWidth="1"/>
+    <col min="3048" max="3048" width="10.81640625" customWidth="1"/>
+    <col min="3051" max="3052" width="10.81640625" customWidth="1"/>
+    <col min="3056" max="3056" width="10.81640625" customWidth="1"/>
+    <col min="3058" max="3058" width="10.81640625" customWidth="1"/>
+    <col min="3060" max="3060" width="10.81640625" customWidth="1"/>
+    <col min="3064" max="3065" width="10.81640625" customWidth="1"/>
+    <col min="3067" max="3068" width="10.81640625" customWidth="1"/>
+    <col min="3072" max="3072" width="10.81640625" customWidth="1"/>
+    <col min="3074" max="3074" width="10.81640625" customWidth="1"/>
+    <col min="3076" max="3077" width="10.81640625" customWidth="1"/>
+    <col min="3080" max="3081" width="10.81640625" customWidth="1"/>
+    <col min="3085" max="3085" width="10.81640625" customWidth="1"/>
+    <col min="3087" max="3088" width="10.81640625" customWidth="1"/>
+    <col min="3090" max="3090" width="10.81640625" customWidth="1"/>
+    <col min="3093" max="3096" width="10.81640625" customWidth="1"/>
+    <col min="3098" max="3098" width="10.81640625" customWidth="1"/>
+    <col min="3101" max="3106" width="10.81640625" customWidth="1"/>
+    <col min="3108" max="3109" width="10.81640625" customWidth="1"/>
+    <col min="3112" max="3112" width="10.81640625" customWidth="1"/>
+    <col min="3114" max="3114" width="10.81640625" customWidth="1"/>
+    <col min="3116" max="3117" width="10.81640625" customWidth="1"/>
+    <col min="3120" max="3121" width="10.81640625" customWidth="1"/>
+    <col min="3124" max="3125" width="10.81640625" customWidth="1"/>
+    <col min="3128" max="3128" width="10.81640625" customWidth="1"/>
+    <col min="3130" max="3133" width="10.81640625" customWidth="1"/>
+    <col min="3136" max="3136" width="10.81640625" customWidth="1"/>
+    <col min="3138" max="3138" width="10.81640625" customWidth="1"/>
+    <col min="3140" max="3140" width="10.81640625" customWidth="1"/>
+    <col min="3144" max="3146" width="10.81640625" customWidth="1"/>
+    <col min="3149" max="3149" width="10.81640625" customWidth="1"/>
+    <col min="3152" max="3154" width="10.81640625" customWidth="1"/>
+    <col min="3156" max="3156" width="10.81640625" customWidth="1"/>
+    <col min="3160" max="3160" width="10.81640625" customWidth="1"/>
+    <col min="3162" max="3162" width="10.81640625" customWidth="1"/>
+    <col min="3167" max="3169" width="10.81640625" customWidth="1"/>
+    <col min="3173" max="3173" width="10.81640625" customWidth="1"/>
+    <col min="3176" max="3176" width="10.81640625" customWidth="1"/>
+    <col min="3178" max="3179" width="10.81640625" customWidth="1"/>
+    <col min="3181" max="3181" width="10.81640625" customWidth="1"/>
+    <col min="3184" max="3186" width="10.81640625" customWidth="1"/>
+    <col min="3189" max="3189" width="10.81640625" customWidth="1"/>
+    <col min="3192" max="3192" width="10.81640625" customWidth="1"/>
+    <col min="3194" max="3194" width="10.81640625" customWidth="1"/>
+    <col min="3197" max="3200" width="10.81640625" customWidth="1"/>
+    <col min="3202" max="3202" width="10.81640625" customWidth="1"/>
+    <col min="3204" max="3205" width="10.81640625" customWidth="1"/>
+    <col min="3208" max="3212" width="10.81640625" customWidth="1"/>
+    <col min="3216" max="3217" width="10.81640625" customWidth="1"/>
+    <col min="3219" max="3220" width="10.81640625" customWidth="1"/>
+    <col min="3224" max="3224" width="10.81640625" customWidth="1"/>
+    <col min="3226" max="3226" width="10.81640625" customWidth="1"/>
+    <col min="3228" max="3229" width="10.81640625" customWidth="1"/>
+    <col min="3232" max="3232" width="10.81640625" customWidth="1"/>
+    <col min="3235" max="3236" width="10.81640625" customWidth="1"/>
+    <col min="3240" max="3240" width="10.81640625" customWidth="1"/>
+    <col min="3242" max="3242" width="10.81640625" customWidth="1"/>
+    <col min="3244" max="3245" width="10.81640625" customWidth="1"/>
+    <col min="3248" max="3249" width="10.81640625" customWidth="1"/>
+    <col min="3253" max="3253" width="10.81640625" customWidth="1"/>
+    <col min="3256" max="3258" width="10.81640625" customWidth="1"/>
+    <col min="3260" max="3260" width="10.81640625" customWidth="1"/>
+    <col min="3264" max="3264" width="10.81640625" customWidth="1"/>
+    <col min="3266" max="3269" width="10.81640625" customWidth="1"/>
+    <col min="3272" max="3274" width="10.81640625" customWidth="1"/>
+    <col min="3276" max="3276" width="10.81640625" customWidth="1"/>
+    <col min="3280" max="3280" width="10.81640625" customWidth="1"/>
+    <col min="3282" max="3283" width="10.81640625" customWidth="1"/>
+    <col min="3285" max="3285" width="10.81640625" customWidth="1"/>
+    <col min="3288" max="3289" width="10.81640625" customWidth="1"/>
+    <col min="3292" max="3292" width="10.81640625" customWidth="1"/>
+    <col min="3296" max="3296" width="10.81640625" customWidth="1"/>
+    <col min="3298" max="3298" width="10.81640625" customWidth="1"/>
+    <col min="3300" max="3301" width="10.81640625" customWidth="1"/>
+    <col min="3304" max="3309" width="10.81640625" customWidth="1"/>
+    <col min="3311" max="3313" width="10.81640625" customWidth="1"/>
+    <col min="3316" max="3317" width="10.81640625" customWidth="1"/>
+    <col min="3320" max="3320" width="10.81640625" customWidth="1"/>
+    <col min="3325" max="3325" width="10.81640625" customWidth="1"/>
+    <col min="3328" max="3329" width="10.81640625" customWidth="1"/>
+    <col min="3331" max="3332" width="10.81640625" customWidth="1"/>
+    <col min="3336" max="3341" width="10.81640625" customWidth="1"/>
+    <col min="3343" max="3346" width="10.81640625" customWidth="1"/>
+    <col min="3348" max="3349" width="10.81640625" customWidth="1"/>
+    <col min="3352" max="3352" width="10.81640625" customWidth="1"/>
+    <col min="3354" max="3355" width="10.81640625" customWidth="1"/>
+    <col min="3357" max="3357" width="10.81640625" customWidth="1"/>
+    <col min="3360" max="3361" width="10.81640625" customWidth="1"/>
+    <col min="3364" max="3365" width="10.81640625" customWidth="1"/>
+    <col min="3368" max="3369" width="10.81640625" customWidth="1"/>
+    <col min="3372" max="3373" width="10.81640625" customWidth="1"/>
+    <col min="3376" max="3376" width="10.81640625" customWidth="1"/>
+    <col min="3378" max="3378" width="10.81640625" customWidth="1"/>
+    <col min="3380" max="3381" width="10.81640625" customWidth="1"/>
+    <col min="3384" max="3385" width="10.81640625" customWidth="1"/>
+    <col min="3387" max="3388" width="10.81640625" customWidth="1"/>
+    <col min="3392" max="3392" width="10.81640625" customWidth="1"/>
+    <col min="3394" max="3394" width="10.81640625" customWidth="1"/>
+    <col min="3396" max="3397" width="10.81640625" customWidth="1"/>
+    <col min="3400" max="3401" width="10.81640625" customWidth="1"/>
+    <col min="3405" max="3405" width="10.81640625" customWidth="1"/>
+    <col min="3408" max="3410" width="10.81640625" customWidth="1"/>
+    <col min="3412" max="3412" width="10.81640625" customWidth="1"/>
+    <col min="3416" max="3421" width="10.81640625" customWidth="1"/>
+    <col min="3423" max="3426" width="10.81640625" customWidth="1"/>
+    <col min="3428" max="3428" width="10.81640625" customWidth="1"/>
+    <col min="3432" max="3432" width="10.81640625" customWidth="1"/>
+    <col min="3434" max="3435" width="10.81640625" customWidth="1"/>
+    <col min="3437" max="3437" width="10.81640625" customWidth="1"/>
+    <col min="3440" max="3440" width="10.81640625" customWidth="1"/>
+    <col min="3442" max="3442" width="10.81640625" customWidth="1"/>
+    <col min="3445" max="3445" width="10.81640625" customWidth="1"/>
+    <col min="3448" max="3448" width="10.81640625" customWidth="1"/>
+    <col min="3450" max="3450" width="10.81640625" customWidth="1"/>
+    <col min="3452" max="3453" width="10.81640625" customWidth="1"/>
+    <col min="3456" max="3456" width="10.81640625" customWidth="1"/>
+    <col min="3459" max="3460" width="10.81640625" customWidth="1"/>
+    <col min="3464" max="3466" width="10.81640625" customWidth="1"/>
+    <col min="3469" max="3469" width="10.81640625" customWidth="1"/>
+    <col min="3471" max="3477" width="10.81640625" customWidth="1"/>
+    <col min="3479" max="3480" width="10.81640625" customWidth="1"/>
+    <col min="3482" max="3482" width="10.81640625" customWidth="1"/>
+    <col min="3484" max="3485" width="10.81640625" customWidth="1"/>
+    <col min="3488" max="3489" width="10.81640625" customWidth="1"/>
+    <col min="3493" max="3493" width="10.81640625" customWidth="1"/>
+    <col min="3495" max="3496" width="10.81640625" customWidth="1"/>
+    <col min="3500" max="3501" width="10.81640625" customWidth="1"/>
+    <col min="3504" max="3505" width="10.81640625" customWidth="1"/>
+    <col min="3509" max="3509" width="10.81640625" customWidth="1"/>
+    <col min="3511" max="3517" width="10.81640625" customWidth="1"/>
+    <col min="3519" max="3520" width="10.81640625" customWidth="1"/>
+    <col min="3525" max="3525" width="10.81640625" customWidth="1"/>
+    <col min="3528" max="3529" width="10.81640625" customWidth="1"/>
+    <col min="3533" max="3533" width="10.81640625" customWidth="1"/>
+    <col min="3536" max="3536" width="10.81640625" customWidth="1"/>
+    <col min="3539" max="3541" width="10.81640625" customWidth="1"/>
+    <col min="3544" max="3544" width="10.81640625" customWidth="1"/>
+    <col min="3546" max="3546" width="10.81640625" customWidth="1"/>
+    <col min="3548" max="3549" width="10.81640625" customWidth="1"/>
+    <col min="3552" max="3557" width="10.81640625" customWidth="1"/>
+    <col min="3559" max="3560" width="10.81640625" customWidth="1"/>
+    <col min="3562" max="3565" width="10.81640625" customWidth="1"/>
+    <col min="3568" max="3573" width="10.81640625" customWidth="1"/>
+    <col min="3575" max="3579" width="10.81640625" customWidth="1"/>
+    <col min="3581" max="3581" width="10.81640625" customWidth="1"/>
+    <col min="3584" max="3584" width="10.81640625" customWidth="1"/>
+    <col min="3586" max="3589" width="10.81640625" customWidth="1"/>
+    <col min="3592" max="3593" width="10.81640625" customWidth="1"/>
+    <col min="3595" max="3595" width="10.81640625" customWidth="1"/>
+    <col min="3600" max="3600" width="10.81640625" customWidth="1"/>
+    <col min="3602" max="3605" width="10.81640625" customWidth="1"/>
+    <col min="3608" max="3609" width="10.81640625" customWidth="1"/>
+    <col min="3611" max="3612" width="10.81640625" customWidth="1"/>
+    <col min="3616" max="3618" width="10.81640625" customWidth="1"/>
+    <col min="3620" max="3621" width="10.81640625" customWidth="1"/>
+    <col min="3624" max="3629" width="10.81640625" customWidth="1"/>
+    <col min="3631" max="3632" width="10.81640625" customWidth="1"/>
+    <col min="3635" max="3636" width="10.81640625" customWidth="1"/>
+    <col min="3640" max="3640" width="10.81640625" customWidth="1"/>
+    <col min="3642" max="3642" width="10.81640625" customWidth="1"/>
+    <col min="3644" max="3645" width="10.81640625" customWidth="1"/>
+    <col min="3648" max="3650" width="10.81640625" customWidth="1"/>
+    <col min="3652" max="3652" width="10.81640625" customWidth="1"/>
+    <col min="3656" max="3661" width="10.81640625" customWidth="1"/>
+    <col min="3663" max="3665" width="10.81640625" customWidth="1"/>
+    <col min="3667" max="3668" width="10.81640625" customWidth="1"/>
+    <col min="3672" max="3672" width="10.81640625" customWidth="1"/>
+    <col min="3674" max="3674" width="10.81640625" customWidth="1"/>
+    <col min="3676" max="3677" width="10.81640625" customWidth="1"/>
+    <col min="3680" max="3684" width="10.81640625" customWidth="1"/>
+    <col min="3688" max="3689" width="10.81640625" customWidth="1"/>
+    <col min="3691" max="3692" width="10.81640625" customWidth="1"/>
+    <col min="3696" max="3696" width="10.81640625" customWidth="1"/>
+    <col min="3698" max="3698" width="10.81640625" customWidth="1"/>
+    <col min="3700" max="3701" width="10.81640625" customWidth="1"/>
+    <col min="3704" max="3704" width="10.81640625" customWidth="1"/>
+    <col min="3707" max="3708" width="10.81640625" customWidth="1"/>
+    <col min="3712" max="3712" width="10.81640625" customWidth="1"/>
+    <col min="3714" max="3714" width="10.81640625" customWidth="1"/>
+    <col min="3716" max="3717" width="10.81640625" customWidth="1"/>
+    <col min="3720" max="3721" width="10.81640625" customWidth="1"/>
+    <col min="3725" max="3725" width="10.81640625" customWidth="1"/>
+    <col min="3728" max="3730" width="10.81640625" customWidth="1"/>
+    <col min="3732" max="3732" width="10.81640625" customWidth="1"/>
+    <col min="3736" max="3736" width="10.81640625" customWidth="1"/>
+    <col min="3738" max="3741" width="10.81640625" customWidth="1"/>
+    <col min="3744" max="3746" width="10.81640625" customWidth="1"/>
+    <col min="3748" max="3748" width="10.81640625" customWidth="1"/>
+    <col min="3752" max="3752" width="10.81640625" customWidth="1"/>
+    <col min="3754" max="3755" width="10.81640625" customWidth="1"/>
+    <col min="3757" max="3757" width="10.81640625" customWidth="1"/>
+    <col min="3760" max="3761" width="10.81640625" customWidth="1"/>
+    <col min="3764" max="3764" width="10.81640625" customWidth="1"/>
+    <col min="3768" max="3768" width="10.81640625" customWidth="1"/>
+    <col min="3770" max="3770" width="10.81640625" customWidth="1"/>
+    <col min="3772" max="3773" width="10.81640625" customWidth="1"/>
+    <col min="3776" max="3781" width="10.81640625" customWidth="1"/>
+    <col min="3783" max="3785" width="10.81640625" customWidth="1"/>
+    <col min="3788" max="3789" width="10.81640625" customWidth="1"/>
+    <col min="3792" max="3792" width="10.81640625" customWidth="1"/>
+    <col min="3797" max="3797" width="10.81640625" customWidth="1"/>
+    <col min="3800" max="3801" width="10.81640625" customWidth="1"/>
+    <col min="3803" max="3804" width="10.81640625" customWidth="1"/>
+    <col min="3808" max="3813" width="10.81640625" customWidth="1"/>
+    <col min="3815" max="3818" width="10.81640625" customWidth="1"/>
+    <col min="3820" max="3820" width="10.81640625" customWidth="1"/>
+    <col min="3824" max="3824" width="10.81640625" customWidth="1"/>
+    <col min="3829" max="3829" width="10.81640625" customWidth="1"/>
+    <col min="3832" max="3834" width="10.81640625" customWidth="1"/>
+    <col min="3836" max="3837" width="10.81640625" customWidth="1"/>
+    <col min="3840" max="3840" width="10.81640625" customWidth="1"/>
+    <col min="3842" max="3845" width="10.81640625" customWidth="1"/>
+    <col min="3848" max="3848" width="10.81640625" customWidth="1"/>
+    <col min="3850" max="3851" width="10.81640625" customWidth="1"/>
+    <col min="3856" max="3858" width="10.81640625" customWidth="1"/>
+    <col min="3861" max="3861" width="10.81640625" customWidth="1"/>
+    <col min="3863" max="3869" width="10.81640625" customWidth="1"/>
+    <col min="3871" max="3874" width="10.81640625" customWidth="1"/>
+    <col min="3876" max="3876" width="10.81640625" customWidth="1"/>
+    <col min="3880" max="3883" width="10.81640625" customWidth="1"/>
+    <col min="3885" max="3885" width="10.81640625" customWidth="1"/>
+    <col min="3888" max="3888" width="10.81640625" customWidth="1"/>
+    <col min="3890" max="3890" width="10.81640625" customWidth="1"/>
+    <col min="3892" max="3893" width="10.81640625" customWidth="1"/>
+    <col min="3896" max="3897" width="10.81640625" customWidth="1"/>
+    <col min="3901" max="3901" width="10.81640625" customWidth="1"/>
+    <col min="3904" max="3909" width="10.81640625" customWidth="1"/>
+    <col min="3911" max="3912" width="10.81640625" customWidth="1"/>
+    <col min="3917" max="3917" width="10.81640625" customWidth="1"/>
+    <col min="3920" max="3921" width="10.81640625" customWidth="1"/>
+    <col min="3925" max="3925" width="10.81640625" customWidth="1"/>
+    <col min="3928" max="3928" width="10.81640625" customWidth="1"/>
+    <col min="3930" max="3930" width="10.81640625" customWidth="1"/>
+    <col min="3932" max="3933" width="10.81640625" customWidth="1"/>
+    <col min="3936" max="3941" width="10.81640625" customWidth="1"/>
+    <col min="3943" max="3945" width="10.81640625" customWidth="1"/>
+    <col min="3948" max="3949" width="10.81640625" customWidth="1"/>
+    <col min="3952" max="3952" width="10.81640625" customWidth="1"/>
+    <col min="3957" max="3957" width="10.81640625" customWidth="1"/>
+    <col min="3960" max="3961" width="10.81640625" customWidth="1"/>
+    <col min="3963" max="3964" width="10.81640625" customWidth="1"/>
+    <col min="3968" max="3973" width="10.81640625" customWidth="1"/>
+    <col min="3975" max="3977" width="10.81640625" customWidth="1"/>
+    <col min="3979" max="3980" width="10.81640625" customWidth="1"/>
+    <col min="3983" max="3988" width="10.81640625" customWidth="1"/>
+    <col min="3991" max="3992" width="10.81640625" customWidth="1"/>
+    <col min="3995" max="3996" width="10.81640625" customWidth="1"/>
+    <col min="3999" max="4004" width="10.81640625" customWidth="1"/>
+    <col min="4007" max="4010" width="10.81640625" customWidth="1"/>
+    <col min="4013" max="4013" width="10.81640625" customWidth="1"/>
+    <col min="4015" max="4021" width="10.81640625" customWidth="1"/>
+    <col min="4023" max="4026" width="10.81640625" customWidth="1"/>
+    <col min="4028" max="4028" width="10.81640625" customWidth="1"/>
+    <col min="4032" max="4035" width="10.81640625" customWidth="1"/>
+    <col min="4037" max="4037" width="10.81640625" customWidth="1"/>
+    <col min="4040" max="4040" width="10.81640625" customWidth="1"/>
+    <col min="4042" max="4042" width="10.81640625" customWidth="1"/>
+    <col min="4044" max="4045" width="10.81640625" customWidth="1"/>
+    <col min="4048" max="4053" width="10.81640625" customWidth="1"/>
+    <col min="4055" max="4056" width="10.81640625" customWidth="1"/>
+    <col min="4058" max="4058" width="10.81640625" customWidth="1"/>
+    <col min="4061" max="4061" width="10.81640625" customWidth="1"/>
+    <col min="4064" max="4064" width="10.81640625" customWidth="1"/>
+    <col min="4066" max="4066" width="10.81640625" customWidth="1"/>
+    <col min="4068" max="4069" width="10.81640625" customWidth="1"/>
+    <col min="4072" max="4072" width="10.81640625" customWidth="1"/>
+    <col min="4074" max="4077" width="10.81640625" customWidth="1"/>
+    <col min="4080" max="4080" width="10.81640625" customWidth="1"/>
+    <col min="4083" max="4084" width="10.81640625" customWidth="1"/>
+    <col min="4088" max="4088" width="10.81640625" customWidth="1"/>
+    <col min="4090" max="4090" width="10.81640625" customWidth="1"/>
+    <col min="4092" max="4092" width="10.81640625" customWidth="1"/>
+    <col min="4096" max="4097" width="10.81640625" customWidth="1"/>
+    <col min="4099" max="4100" width="10.81640625" customWidth="1"/>
+    <col min="4104" max="4104" width="10.81640625" customWidth="1"/>
+    <col min="4106" max="4106" width="10.81640625" customWidth="1"/>
+    <col min="4108" max="4109" width="10.81640625" customWidth="1"/>
+    <col min="4112" max="4112" width="10.81640625" customWidth="1"/>
+    <col min="4114" max="4114" width="10.81640625" customWidth="1"/>
+    <col min="4117" max="4117" width="10.81640625" customWidth="1"/>
+    <col min="4119" max="4120" width="10.81640625" customWidth="1"/>
+    <col min="4123" max="4124" width="10.81640625" customWidth="1"/>
+    <col min="4128" max="4132" width="10.81640625" customWidth="1"/>
+    <col min="4136" max="4136" width="10.81640625" customWidth="1"/>
+    <col min="4138" max="4138" width="10.81640625" customWidth="1"/>
+    <col min="4140" max="4141" width="10.81640625" customWidth="1"/>
+    <col min="4144" max="4144" width="10.81640625" customWidth="1"/>
+    <col min="4147" max="4149" width="10.81640625" customWidth="1"/>
+    <col min="4152" max="4152" width="10.81640625" customWidth="1"/>
+    <col min="4154" max="4155" width="10.81640625" customWidth="1"/>
+    <col min="4157" max="4157" width="10.81640625" customWidth="1"/>
+    <col min="4160" max="4161" width="10.81640625" customWidth="1"/>
+    <col min="4164" max="4165" width="10.81640625" customWidth="1"/>
+    <col min="4168" max="4168" width="10.81640625" customWidth="1"/>
+    <col min="4170" max="4171" width="10.81640625" customWidth="1"/>
+    <col min="4173" max="4173" width="10.81640625" customWidth="1"/>
+    <col min="4176" max="4176" width="10.81640625" customWidth="1"/>
+    <col min="4179" max="4181" width="10.81640625" customWidth="1"/>
+    <col min="4184" max="4189" width="10.81640625" customWidth="1"/>
+    <col min="4191" max="4195" width="10.81640625" customWidth="1"/>
+    <col min="4197" max="4197" width="10.81640625" customWidth="1"/>
+    <col min="4200" max="4200" width="10.81640625" customWidth="1"/>
+    <col min="4202" max="4205" width="10.81640625" customWidth="1"/>
+    <col min="4208" max="4209" width="10.81640625" customWidth="1"/>
+    <col min="4211" max="4211" width="10.81640625" customWidth="1"/>
+    <col min="4216" max="4216" width="10.81640625" customWidth="1"/>
+    <col min="4218" max="4221" width="10.81640625" customWidth="1"/>
+    <col min="4224" max="4225" width="10.81640625" customWidth="1"/>
+    <col min="4227" max="4228" width="10.81640625" customWidth="1"/>
+    <col min="4232" max="4234" width="10.81640625" customWidth="1"/>
+    <col min="4236" max="4237" width="10.81640625" customWidth="1"/>
+    <col min="4240" max="4245" width="10.81640625" customWidth="1"/>
+    <col min="4247" max="4248" width="10.81640625" customWidth="1"/>
+    <col min="4250" max="4250" width="10.81640625" customWidth="1"/>
+    <col min="4252" max="4253" width="10.81640625" customWidth="1"/>
+    <col min="4256" max="4257" width="10.81640625" customWidth="1"/>
+    <col min="4260" max="4260" width="10.81640625" customWidth="1"/>
+    <col min="4264" max="4264" width="10.81640625" customWidth="1"/>
+    <col min="4266" max="4266" width="10.81640625" customWidth="1"/>
+    <col min="4268" max="4269" width="10.81640625" customWidth="1"/>
+    <col min="4272" max="4273" width="10.81640625" customWidth="1"/>
+    <col min="4277" max="4277" width="10.81640625" customWidth="1"/>
+    <col min="4280" max="4282" width="10.81640625" customWidth="1"/>
+    <col min="4284" max="4284" width="10.81640625" customWidth="1"/>
+    <col min="4288" max="4293" width="10.81640625" customWidth="1"/>
+    <col min="4295" max="4296" width="10.81640625" customWidth="1"/>
+    <col min="4299" max="4300" width="10.81640625" customWidth="1"/>
+    <col min="4304" max="4304" width="10.81640625" customWidth="1"/>
+    <col min="4306" max="4306" width="10.81640625" customWidth="1"/>
+    <col min="4308" max="4309" width="10.81640625" customWidth="1"/>
+    <col min="4312" max="4314" width="10.81640625" customWidth="1"/>
+    <col min="4316" max="4316" width="10.81640625" customWidth="1"/>
+    <col min="4320" max="4325" width="10.81640625" customWidth="1"/>
+    <col min="4327" max="4328" width="10.81640625" customWidth="1"/>
+    <col min="4330" max="4331" width="10.81640625" customWidth="1"/>
+    <col min="4333" max="4333" width="10.81640625" customWidth="1"/>
+    <col min="4336" max="4336" width="10.81640625" customWidth="1"/>
+    <col min="4339" max="4340" width="10.81640625" customWidth="1"/>
+    <col min="4344" max="4349" width="10.81640625" customWidth="1"/>
+    <col min="4351" max="4354" width="10.81640625" customWidth="1"/>
+    <col min="4357" max="4357" width="10.81640625" customWidth="1"/>
+    <col min="4360" max="4360" width="10.81640625" customWidth="1"/>
+    <col min="4362" max="4363" width="10.81640625" customWidth="1"/>
+    <col min="4365" max="4365" width="10.81640625" customWidth="1"/>
+    <col min="4368" max="4368" width="10.81640625" customWidth="1"/>
+    <col min="4371" max="4371" width="10.81640625" customWidth="1"/>
+    <col min="4373" max="4373" width="10.81640625" customWidth="1"/>
+    <col min="4376" max="4376" width="10.81640625" customWidth="1"/>
+    <col min="4378" max="4378" width="10.81640625" customWidth="1"/>
+    <col min="4380" max="4381" width="10.81640625" customWidth="1"/>
+    <col min="4384" max="4386" width="10.81640625" customWidth="1"/>
+    <col min="4389" max="4389" width="10.81640625" customWidth="1"/>
+    <col min="4392" max="4392" width="10.81640625" customWidth="1"/>
+    <col min="4394" max="4395" width="10.81640625" customWidth="1"/>
+    <col min="4400" max="4405" width="10.81640625" customWidth="1"/>
+    <col min="4407" max="4409" width="10.81640625" customWidth="1"/>
+    <col min="4413" max="4413" width="10.81640625" customWidth="1"/>
+    <col min="4416" max="4416" width="10.81640625" customWidth="1"/>
+    <col min="4421" max="4421" width="10.81640625" customWidth="1"/>
+    <col min="4424" max="4426" width="10.81640625" customWidth="1"/>
+    <col min="4428" max="4428" width="10.81640625" customWidth="1"/>
+    <col min="4432" max="4437" width="10.81640625" customWidth="1"/>
+    <col min="4439" max="4442" width="10.81640625" customWidth="1"/>
+    <col min="4444" max="4444" width="10.81640625" customWidth="1"/>
+    <col min="4448" max="4448" width="10.81640625" customWidth="1"/>
+    <col min="4453" max="4453" width="10.81640625" customWidth="1"/>
+    <col min="4456" max="4461" width="10.81640625" customWidth="1"/>
+    <col min="4463" max="4465" width="10.81640625" customWidth="1"/>
+    <col min="4467" max="4469" width="10.81640625" customWidth="1"/>
+    <col min="4472" max="4472" width="10.81640625" customWidth="1"/>
+    <col min="4474" max="4474" width="10.81640625" customWidth="1"/>
+    <col min="4476" max="4477" width="10.81640625" customWidth="1"/>
+    <col min="4480" max="4485" width="10.81640625" customWidth="1"/>
+    <col min="4487" max="4490" width="10.81640625" customWidth="1"/>
+    <col min="4492" max="4492" width="10.81640625" customWidth="1"/>
+    <col min="4496" max="4499" width="10.81640625" customWidth="1"/>
+    <col min="4501" max="4501" width="10.81640625" customWidth="1"/>
+    <col min="4504" max="4504" width="10.81640625" customWidth="1"/>
+    <col min="4506" max="4506" width="10.81640625" customWidth="1"/>
+    <col min="4508" max="4509" width="10.81640625" customWidth="1"/>
+    <col min="4512" max="4517" width="10.81640625" customWidth="1"/>
+    <col min="4519" max="4520" width="10.81640625" customWidth="1"/>
+    <col min="4523" max="4524" width="10.81640625" customWidth="1"/>
+    <col min="4528" max="4528" width="10.81640625" customWidth="1"/>
+    <col min="4530" max="4533" width="10.81640625" customWidth="1"/>
+    <col min="4536" max="4536" width="10.81640625" customWidth="1"/>
+    <col min="4538" max="4538" width="10.81640625" customWidth="1"/>
+    <col min="4541" max="4541" width="10.81640625" customWidth="1"/>
+    <col min="4544" max="4544" width="10.81640625" customWidth="1"/>
+    <col min="4546" max="4546" width="10.81640625" customWidth="1"/>
+    <col min="4548" max="4549" width="10.81640625" customWidth="1"/>
+    <col min="4552" max="4553" width="10.81640625" customWidth="1"/>
+    <col min="4557" max="4557" width="10.81640625" customWidth="1"/>
+    <col min="4559" max="4565" width="10.81640625" customWidth="1"/>
+    <col min="4567" max="4569" width="10.81640625" customWidth="1"/>
+    <col min="4571" max="4574" width="10.81640625" customWidth="1"/>
+    <col min="4576" max="4576" width="10.81640625" customWidth="1"/>
+    <col min="4578" max="4578" width="10.81640625" customWidth="1"/>
+    <col min="4580" max="4580" width="10.81640625" customWidth="1"/>
+    <col min="4584" max="4586" width="10.81640625" customWidth="1"/>
+    <col min="4588" max="4588" width="10.81640625" customWidth="1"/>
+    <col min="4592" max="4597" width="10.81640625" customWidth="1"/>
+    <col min="4599" max="4600" width="10.81640625" customWidth="1"/>
+    <col min="4602" max="4602" width="10.81640625" customWidth="1"/>
+    <col min="4604" max="4604" width="10.81640625" customWidth="1"/>
+    <col min="4608" max="4608" width="10.81640625" customWidth="1"/>
+    <col min="4611" max="4612" width="10.81640625" customWidth="1"/>
+    <col min="4616" max="4616" width="10.81640625" customWidth="1"/>
+    <col min="4618" max="4618" width="10.81640625" customWidth="1"/>
+    <col min="4620" max="4620" width="10.81640625" customWidth="1"/>
+    <col min="4624" max="4624" width="10.81640625" customWidth="1"/>
+    <col min="4626" max="4629" width="10.81640625" customWidth="1"/>
+    <col min="4632" max="4634" width="10.81640625" customWidth="1"/>
+    <col min="4637" max="4637" width="10.81640625" customWidth="1"/>
+    <col min="4640" max="4642" width="10.81640625" customWidth="1"/>
+    <col min="4645" max="4645" width="10.81640625" customWidth="1"/>
+    <col min="4648" max="4648" width="10.81640625" customWidth="1"/>
+    <col min="4650" max="4651" width="10.81640625" customWidth="1"/>
+    <col min="4656" max="4658" width="10.81640625" customWidth="1"/>
+    <col min="4661" max="4661" width="10.81640625" customWidth="1"/>
+    <col min="4663" max="4669" width="10.81640625" customWidth="1"/>
+    <col min="4671" max="4674" width="10.81640625" customWidth="1"/>
+    <col min="4676" max="4676" width="10.81640625" customWidth="1"/>
+    <col min="4680" max="4683" width="10.81640625" customWidth="1"/>
+    <col min="4685" max="4685" width="10.81640625" customWidth="1"/>
+    <col min="4688" max="4688" width="10.81640625" customWidth="1"/>
+    <col min="4690" max="4690" width="10.81640625" customWidth="1"/>
+    <col min="4692" max="4693" width="10.81640625" customWidth="1"/>
+    <col min="4696" max="4701" width="10.81640625" customWidth="1"/>
+    <col min="4703" max="4704" width="10.81640625" customWidth="1"/>
+    <col min="4706" max="4706" width="10.81640625" customWidth="1"/>
+    <col min="4708" max="4709" width="10.81640625" customWidth="1"/>
+    <col min="4712" max="4713" width="10.81640625" customWidth="1"/>
+    <col min="4717" max="4717" width="10.81640625" customWidth="1"/>
+    <col min="4720" max="4722" width="10.81640625" customWidth="1"/>
+    <col min="4724" max="4724" width="10.81640625" customWidth="1"/>
+    <col min="4728" max="4728" width="10.81640625" customWidth="1"/>
+    <col min="4730" max="4731" width="10.81640625" customWidth="1"/>
+    <col min="4733" max="4733" width="10.81640625" customWidth="1"/>
+    <col min="4736" max="4738" width="10.81640625" customWidth="1"/>
+    <col min="4740" max="4740" width="10.81640625" customWidth="1"/>
+    <col min="4744" max="4744" width="10.81640625" customWidth="1"/>
+    <col min="4746" max="4747" width="10.81640625" customWidth="1"/>
+    <col min="4752" max="4757" width="10.81640625" customWidth="1"/>
+    <col min="4759" max="4761" width="10.81640625" customWidth="1"/>
+    <col min="4764" max="4765" width="10.81640625" customWidth="1"/>
+    <col min="4768" max="4768" width="10.81640625" customWidth="1"/>
+    <col min="4770" max="4771" width="10.81640625" customWidth="1"/>
+    <col min="4773" max="4773" width="10.81640625" customWidth="1"/>
+    <col min="4776" max="4778" width="10.81640625" customWidth="1"/>
+    <col min="4781" max="4781" width="10.81640625" customWidth="1"/>
+    <col min="4784" max="4784" width="10.81640625" customWidth="1"/>
+    <col min="4786" max="4786" width="10.81640625" customWidth="1"/>
+    <col min="4788" max="4789" width="10.81640625" customWidth="1"/>
+    <col min="4792" max="4797" width="10.81640625" customWidth="1"/>
+    <col min="4799" max="4800" width="10.81640625" customWidth="1"/>
+    <col min="4802" max="4803" width="10.81640625" customWidth="1"/>
+    <col min="4805" max="4805" width="10.81640625" customWidth="1"/>
+    <col min="4808" max="4808" width="10.81640625" customWidth="1"/>
+    <col min="4811" max="4812" width="10.81640625" customWidth="1"/>
+    <col min="4816" max="4821" width="10.81640625" customWidth="1"/>
+    <col min="4823" max="4825" width="10.81640625" customWidth="1"/>
+    <col min="4828" max="4829" width="10.81640625" customWidth="1"/>
+    <col min="4832" max="4832" width="10.81640625" customWidth="1"/>
+    <col min="4837" max="4837" width="10.81640625" customWidth="1"/>
+    <col min="4840" max="4841" width="10.81640625" customWidth="1"/>
+    <col min="4843" max="4844" width="10.81640625" customWidth="1"/>
+    <col min="4848" max="4853" width="10.81640625" customWidth="1"/>
+    <col min="4855" max="4856" width="10.81640625" customWidth="1"/>
+    <col min="4858" max="4861" width="10.81640625" customWidth="1"/>
+    <col min="4864" max="4869" width="10.81640625" customWidth="1"/>
+    <col min="4871" max="4872" width="10.81640625" customWidth="1"/>
+    <col min="4875" max="4876" width="10.81640625" customWidth="1"/>
+    <col min="4880" max="4884" width="10.81640625" customWidth="1"/>
+    <col min="4888" max="4888" width="10.81640625" customWidth="1"/>
+    <col min="4890" max="4890" width="10.81640625" customWidth="1"/>
+    <col min="4892" max="4893" width="10.81640625" customWidth="1"/>
+    <col min="4896" max="4896" width="10.81640625" customWidth="1"/>
+    <col min="4899" max="4901" width="10.81640625" customWidth="1"/>
+    <col min="4904" max="4904" width="10.81640625" customWidth="1"/>
+    <col min="4906" max="4907" width="10.81640625" customWidth="1"/>
+    <col min="4909" max="4909" width="10.81640625" customWidth="1"/>
+    <col min="4912" max="4913" width="10.81640625" customWidth="1"/>
+    <col min="4916" max="4917" width="10.81640625" customWidth="1"/>
+    <col min="4920" max="4920" width="10.81640625" customWidth="1"/>
+    <col min="4922" max="4923" width="10.81640625" customWidth="1"/>
+    <col min="4925" max="4925" width="10.81640625" customWidth="1"/>
+    <col min="4928" max="4928" width="10.81640625" customWidth="1"/>
+    <col min="4931" max="4933" width="10.81640625" customWidth="1"/>
+    <col min="4936" max="4941" width="10.81640625" customWidth="1"/>
+    <col min="4943" max="4946" width="10.81640625" customWidth="1"/>
+    <col min="4948" max="4948" width="10.81640625" customWidth="1"/>
+    <col min="4952" max="4952" width="10.81640625" customWidth="1"/>
+    <col min="4954" max="4955" width="10.81640625" customWidth="1"/>
+    <col min="4957" max="4957" width="10.81640625" customWidth="1"/>
+    <col min="4960" max="4960" width="10.81640625" customWidth="1"/>
+    <col min="4962" max="4962" width="10.81640625" customWidth="1"/>
+    <col min="4965" max="4965" width="10.81640625" customWidth="1"/>
+    <col min="4968" max="4968" width="10.81640625" customWidth="1"/>
+    <col min="4970" max="4970" width="10.81640625" customWidth="1"/>
+    <col min="4972" max="4973" width="10.81640625" customWidth="1"/>
+    <col min="4976" max="4981" width="10.81640625" customWidth="1"/>
+    <col min="4983" max="4987" width="10.81640625" customWidth="1"/>
+    <col min="4989" max="4989" width="10.81640625" customWidth="1"/>
+    <col min="4991" max="4992" width="10.81640625" customWidth="1"/>
+    <col min="4994" max="4994" width="10.81640625" customWidth="1"/>
+    <col min="4996" max="4997" width="10.81640625" customWidth="1"/>
+    <col min="5000" max="5001" width="10.81640625" customWidth="1"/>
+    <col min="5005" max="5005" width="10.81640625" customWidth="1"/>
+    <col min="5007" max="5008" width="10.81640625" customWidth="1"/>
+    <col min="5012" max="5013" width="10.81640625" customWidth="1"/>
+    <col min="5016" max="5017" width="10.81640625" customWidth="1"/>
+    <col min="5021" max="5021" width="10.81640625" customWidth="1"/>
+    <col min="5023" max="5029" width="10.81640625" customWidth="1"/>
+    <col min="5031" max="5033" width="10.81640625" customWidth="1"/>
+    <col min="5035" max="5036" width="10.81640625" customWidth="1"/>
+    <col min="5039" max="5044" width="10.81640625" customWidth="1"/>
+    <col min="5047" max="5048" width="10.81640625" customWidth="1"/>
+    <col min="5051" max="5052" width="10.81640625" customWidth="1"/>
+    <col min="5055" max="5060" width="10.81640625" customWidth="1"/>
+    <col min="5063" max="5064" width="10.81640625" customWidth="1"/>
+    <col min="5066" max="5067" width="10.81640625" customWidth="1"/>
+    <col min="5069" max="5069" width="10.81640625" customWidth="1"/>
+    <col min="5071" max="5074" width="10.81640625" customWidth="1"/>
+    <col min="5077" max="5077" width="10.81640625" customWidth="1"/>
+    <col min="5079" max="5085" width="10.81640625" customWidth="1"/>
+    <col min="5087" max="5088" width="10.81640625" customWidth="1"/>
+    <col min="5090" max="5093" width="10.81640625" customWidth="1"/>
+    <col min="5096" max="5097" width="10.81640625" customWidth="1"/>
+    <col min="5101" max="5101" width="10.81640625" customWidth="1"/>
+    <col min="5104" max="5106" width="10.81640625" customWidth="1"/>
+    <col min="5108" max="5109" width="10.81640625" customWidth="1"/>
+    <col min="5112" max="5117" width="10.81640625" customWidth="1"/>
+    <col min="5119" max="5120" width="10.81640625" customWidth="1"/>
+    <col min="5123" max="5124" width="10.81640625" customWidth="1"/>
+    <col min="5128" max="5128" width="10.81640625" customWidth="1"/>
+    <col min="5133" max="5133" width="10.81640625" customWidth="1"/>
+    <col min="5136" max="5141" width="10.81640625" customWidth="1"/>
+    <col min="5143" max="5144" width="10.81640625" customWidth="1"/>
+    <col min="5148" max="5148" width="10.81640625" customWidth="1"/>
+    <col min="5152" max="5152" width="10.81640625" customWidth="1"/>
+    <col min="5154" max="5155" width="10.81640625" customWidth="1"/>
+    <col min="5157" max="5157" width="10.81640625" customWidth="1"/>
+    <col min="5160" max="5162" width="10.81640625" customWidth="1"/>
+    <col min="5165" max="5165" width="10.81640625" customWidth="1"/>
+    <col min="5168" max="5170" width="10.81640625" customWidth="1"/>
+    <col min="5173" max="5173" width="10.81640625" customWidth="1"/>
+    <col min="5176" max="5181" width="10.81640625" customWidth="1"/>
+    <col min="5183" max="5185" width="10.81640625" customWidth="1"/>
+    <col min="5187" max="5189" width="10.81640625" customWidth="1"/>
+    <col min="5192" max="5192" width="10.81640625" customWidth="1"/>
+    <col min="5194" max="5194" width="10.81640625" customWidth="1"/>
+    <col min="5196" max="5197" width="10.81640625" customWidth="1"/>
+    <col min="5200" max="5205" width="10.81640625" customWidth="1"/>
+    <col min="5207" max="5210" width="10.81640625" customWidth="1"/>
+    <col min="5212" max="5212" width="10.81640625" customWidth="1"/>
+    <col min="5216" max="5219" width="10.81640625" customWidth="1"/>
+    <col min="5221" max="5221" width="10.81640625" customWidth="1"/>
+    <col min="5224" max="5224" width="10.81640625" customWidth="1"/>
+    <col min="5226" max="5226" width="10.81640625" customWidth="1"/>
+    <col min="5228" max="5229" width="10.81640625" customWidth="1"/>
+    <col min="5232" max="5237" width="10.81640625" customWidth="1"/>
+    <col min="5239" max="5240" width="10.81640625" customWidth="1"/>
+    <col min="5242" max="5242" width="10.81640625" customWidth="1"/>
+    <col min="5245" max="5245" width="10.81640625" customWidth="1"/>
+    <col min="5248" max="5248" width="10.81640625" customWidth="1"/>
+    <col min="5250" max="5250" width="10.81640625" customWidth="1"/>
+    <col min="5252" max="5253" width="10.81640625" customWidth="1"/>
+    <col min="5256" max="5256" width="10.81640625" customWidth="1"/>
+    <col min="5258" max="5261" width="10.81640625" customWidth="1"/>
+    <col min="5264" max="5264" width="10.81640625" customWidth="1"/>
+    <col min="5267" max="5268" width="10.81640625" customWidth="1"/>
+    <col min="5272" max="5272" width="10.81640625" customWidth="1"/>
+    <col min="5274" max="5274" width="10.81640625" customWidth="1"/>
+    <col min="5276" max="5276" width="10.81640625" customWidth="1"/>
+    <col min="5280" max="5281" width="10.81640625" customWidth="1"/>
+    <col min="5283" max="5284" width="10.81640625" customWidth="1"/>
+    <col min="5288" max="5288" width="10.81640625" customWidth="1"/>
+    <col min="5290" max="5290" width="10.81640625" customWidth="1"/>
+    <col min="5292" max="5293" width="10.81640625" customWidth="1"/>
+    <col min="5296" max="5296" width="10.81640625" customWidth="1"/>
+    <col min="5298" max="5298" width="10.81640625" customWidth="1"/>
+    <col min="5301" max="5301" width="10.81640625" customWidth="1"/>
+    <col min="5303" max="5304" width="10.81640625" customWidth="1"/>
+    <col min="5307" max="5308" width="10.81640625" customWidth="1"/>
+    <col min="5312" max="5316" width="10.81640625" customWidth="1"/>
+    <col min="5320" max="5320" width="10.81640625" customWidth="1"/>
+    <col min="5322" max="5322" width="10.81640625" customWidth="1"/>
+    <col min="5324" max="5325" width="10.81640625" customWidth="1"/>
+    <col min="5328" max="5328" width="10.81640625" customWidth="1"/>
+    <col min="5331" max="5333" width="10.81640625" customWidth="1"/>
+    <col min="5336" max="5336" width="10.81640625" customWidth="1"/>
+    <col min="5338" max="5339" width="10.81640625" customWidth="1"/>
+    <col min="5341" max="5341" width="10.81640625" customWidth="1"/>
+    <col min="5344" max="5345" width="10.81640625" customWidth="1"/>
+    <col min="5348" max="5349" width="10.81640625" customWidth="1"/>
+    <col min="5352" max="5352" width="10.81640625" customWidth="1"/>
+    <col min="5354" max="5355" width="10.81640625" customWidth="1"/>
+    <col min="5357" max="5357" width="10.81640625" customWidth="1"/>
+    <col min="5360" max="5360" width="10.81640625" customWidth="1"/>
+    <col min="5363" max="5365" width="10.81640625" customWidth="1"/>
+    <col min="5368" max="5373" width="10.81640625" customWidth="1"/>
+    <col min="5375" max="5379" width="10.81640625" customWidth="1"/>
+    <col min="5381" max="5381" width="10.81640625" customWidth="1"/>
+    <col min="5384" max="5384" width="10.81640625" customWidth="1"/>
+    <col min="5386" max="5389" width="10.81640625" customWidth="1"/>
+    <col min="5392" max="5393" width="10.81640625" customWidth="1"/>
+    <col min="5395" max="5395" width="10.81640625" customWidth="1"/>
+    <col min="5400" max="5400" width="10.81640625" customWidth="1"/>
+    <col min="5402" max="5405" width="10.81640625" customWidth="1"/>
+    <col min="5408" max="5409" width="10.81640625" customWidth="1"/>
+    <col min="5411" max="5412" width="10.81640625" customWidth="1"/>
+    <col min="5416" max="5418" width="10.81640625" customWidth="1"/>
+    <col min="5420" max="5421" width="10.81640625" customWidth="1"/>
+    <col min="5424" max="5429" width="10.81640625" customWidth="1"/>
+    <col min="5431" max="5432" width="10.81640625" customWidth="1"/>
+    <col min="5434" max="5434" width="10.81640625" customWidth="1"/>
+    <col min="5436" max="5437" width="10.81640625" customWidth="1"/>
+    <col min="5440" max="5441" width="10.81640625" customWidth="1"/>
+    <col min="5444" max="5444" width="10.81640625" customWidth="1"/>
+    <col min="5448" max="5448" width="10.81640625" customWidth="1"/>
+    <col min="5450" max="5450" width="10.81640625" customWidth="1"/>
+    <col min="5452" max="5453" width="10.81640625" customWidth="1"/>
+    <col min="5456" max="5457" width="10.81640625" customWidth="1"/>
+    <col min="5461" max="5461" width="10.81640625" customWidth="1"/>
+    <col min="5464" max="5466" width="10.81640625" customWidth="1"/>
+    <col min="5468" max="5468" width="10.81640625" customWidth="1"/>
+    <col min="5472" max="5477" width="10.81640625" customWidth="1"/>
+    <col min="5479" max="5480" width="10.81640625" customWidth="1"/>
+    <col min="5483" max="5484" width="10.81640625" customWidth="1"/>
+    <col min="5488" max="5488" width="10.81640625" customWidth="1"/>
+    <col min="5490" max="5490" width="10.81640625" customWidth="1"/>
+    <col min="5492" max="5493" width="10.81640625" customWidth="1"/>
+    <col min="5496" max="5498" width="10.81640625" customWidth="1"/>
+    <col min="5500" max="5500" width="10.81640625" customWidth="1"/>
+    <col min="5504" max="5509" width="10.81640625" customWidth="1"/>
+    <col min="5511" max="5512" width="10.81640625" customWidth="1"/>
+    <col min="5515" max="5516" width="10.81640625" customWidth="1"/>
+    <col min="5520" max="5524" width="10.81640625" customWidth="1"/>
+    <col min="5528" max="5528" width="10.81640625" customWidth="1"/>
+    <col min="5530" max="5530" width="10.81640625" customWidth="1"/>
+    <col min="5532" max="5533" width="10.81640625" customWidth="1"/>
+    <col min="5536" max="5536" width="10.81640625" customWidth="1"/>
+    <col min="5539" max="5541" width="10.81640625" customWidth="1"/>
+    <col min="5544" max="5544" width="10.81640625" customWidth="1"/>
+    <col min="5546" max="5547" width="10.81640625" customWidth="1"/>
+    <col min="5549" max="5549" width="10.81640625" customWidth="1"/>
+    <col min="5552" max="5553" width="10.81640625" customWidth="1"/>
+    <col min="5556" max="5557" width="10.81640625" customWidth="1"/>
+    <col min="5560" max="5560" width="10.81640625" customWidth="1"/>
+    <col min="5562" max="5563" width="10.81640625" customWidth="1"/>
+    <col min="5565" max="5565" width="10.81640625" customWidth="1"/>
+    <col min="5568" max="5568" width="10.81640625" customWidth="1"/>
+    <col min="5570" max="5570" width="10.81640625" customWidth="1"/>
+    <col min="5572" max="5573" width="10.81640625" customWidth="1"/>
+    <col min="5576" max="5578" width="10.81640625" customWidth="1"/>
+    <col min="5580" max="5581" width="10.81640625" customWidth="1"/>
+    <col min="5584" max="5589" width="10.81640625" customWidth="1"/>
+    <col min="5591" max="5592" width="10.81640625" customWidth="1"/>
+    <col min="5596" max="5596" width="10.81640625" customWidth="1"/>
+    <col min="5600" max="5600" width="10.81640625" customWidth="1"/>
+    <col min="5602" max="5603" width="10.81640625" customWidth="1"/>
+    <col min="5605" max="5605" width="10.81640625" customWidth="1"/>
+    <col min="5608" max="5610" width="10.81640625" customWidth="1"/>
+    <col min="5612" max="5612" width="10.81640625" customWidth="1"/>
+    <col min="5616" max="5619" width="10.81640625" customWidth="1"/>
+    <col min="5621" max="5621" width="10.81640625" customWidth="1"/>
+    <col min="5624" max="5624" width="10.81640625" customWidth="1"/>
+    <col min="5626" max="5627" width="10.81640625" customWidth="1"/>
+    <col min="5629" max="5629" width="10.81640625" customWidth="1"/>
+    <col min="5632" max="5633" width="10.81640625" customWidth="1"/>
+    <col min="5637" max="5637" width="10.81640625" customWidth="1"/>
+    <col min="5640" max="5641" width="10.81640625" customWidth="1"/>
+    <col min="5645" max="5645" width="10.81640625" customWidth="1"/>
+    <col min="5647" max="5648" width="10.81640625" customWidth="1"/>
+    <col min="5650" max="5650" width="10.81640625" customWidth="1"/>
+    <col min="5653" max="5656" width="10.81640625" customWidth="1"/>
+    <col min="5658" max="5658" width="10.81640625" customWidth="1"/>
+    <col min="5661" max="5664" width="10.81640625" customWidth="1"/>
+    <col min="5666" max="5669" width="10.81640625" customWidth="1"/>
+    <col min="5672" max="5680" width="10.81640625" customWidth="1"/>
+    <col min="5686" max="5686" width="10.81640625" customWidth="1"/>
+    <col min="5688" max="5698" width="10.81640625" customWidth="1"/>
+    <col min="5700" max="5701" width="10.81640625" customWidth="1"/>
+    <col min="5704" max="5712" width="10.81640625" customWidth="1"/>
+    <col min="5714" max="5717" width="10.81640625" customWidth="1"/>
+    <col min="5720" max="5730" width="10.81640625" customWidth="1"/>
+    <col min="5732" max="5732" width="10.81640625" customWidth="1"/>
+    <col min="5736" max="5744" width="10.81640625" customWidth="1"/>
+    <col min="5746" max="5749" width="10.81640625" customWidth="1"/>
+    <col min="5752" max="5760" width="10.81640625" customWidth="1"/>
+    <col min="5765" max="5765" width="10.81640625" customWidth="1"/>
+    <col min="5767" max="5776" width="10.81640625" customWidth="1"/>
+    <col min="5778" max="5778" width="10.81640625" customWidth="1"/>
+    <col min="5780" max="5781" width="10.81640625" customWidth="1"/>
+    <col min="5784" max="5793" width="10.81640625" customWidth="1"/>
+    <col min="5797" max="5797" width="10.81640625" customWidth="1"/>
+    <col min="5800" max="5816" width="10.81640625" customWidth="1"/>
+    <col min="5818" max="5818" width="10.81640625" customWidth="1"/>
+    <col min="5820" max="5820" width="10.81640625" customWidth="1"/>
+    <col min="5822" max="5823" width="10.81640625" customWidth="1"/>
+    <col min="5826" max="5826" width="10.81640625" customWidth="1"/>
+    <col min="5828" max="5829" width="10.81640625" customWidth="1"/>
+    <col min="5831" max="5831" width="10.81640625" customWidth="1"/>
+    <col min="5833" max="5834" width="10.81640625" customWidth="1"/>
+    <col min="5836" max="5836" width="10.81640625" customWidth="1"/>
+    <col min="5842" max="5843" width="10.81640625" customWidth="1"/>
+    <col min="5847" max="5847" width="10.81640625" customWidth="1"/>
+    <col min="5856" max="5937" width="10.81640625" customWidth="1"/>
+    <col min="5941" max="5941" width="10.81640625" customWidth="1"/>
+    <col min="5944" max="5954" width="10.81640625" customWidth="1"/>
+    <col min="5956" max="5956" width="10.81640625" customWidth="1"/>
+    <col min="5960" max="5968" width="10.81640625" customWidth="1"/>
+    <col min="5970" max="5971" width="10.81640625" customWidth="1"/>
+    <col min="5973" max="5973" width="10.81640625" customWidth="1"/>
+    <col min="5976" max="5986" width="10.81640625" customWidth="1"/>
+    <col min="5988" max="5988" width="10.81640625" customWidth="1"/>
+    <col min="5992" max="5995" width="10.81640625" customWidth="1"/>
+    <col min="5998" max="5998" width="10.81640625" customWidth="1"/>
+    <col min="6000" max="6004" width="10.81640625" customWidth="1"/>
+    <col min="6006" max="6006" width="10.81640625" customWidth="1"/>
+    <col min="6008" max="6008" width="10.81640625" customWidth="1"/>
+    <col min="6012" max="6012" width="10.81640625" customWidth="1"/>
+    <col min="6015" max="6016" width="10.81640625" customWidth="1"/>
+    <col min="6018" max="6018" width="10.81640625" customWidth="1"/>
+    <col min="6021" max="6022" width="10.81640625" customWidth="1"/>
+    <col min="6029" max="6030" width="10.81640625" customWidth="1"/>
+    <col min="6032" max="6032" width="10.81640625" customWidth="1"/>
+    <col min="6048" max="6064" width="10.81640625" customWidth="1"/>
+    <col min="6066" max="6066" width="10.81640625" customWidth="1"/>
+    <col min="6068" max="6256" width="10.81640625" customWidth="1"/>
+    <col min="6258" max="6320" width="10.81640625" customWidth="1"/>
+    <col min="6322" max="6391" width="10.81640625" customWidth="1"/>
+    <col min="6393" max="6448" width="10.81640625" customWidth="1"/>
+    <col min="6451" max="6647" width="10.81640625" customWidth="1"/>
+    <col min="6649" max="6704" width="10.81640625" customWidth="1"/>
+    <col min="6707" max="6823" width="10.81640625" customWidth="1"/>
+    <col min="6833" max="6901" width="10.81640625" customWidth="1"/>
+    <col min="6903" max="6932" width="10.81640625" customWidth="1"/>
+    <col min="6935" max="6964" width="10.81640625" customWidth="1"/>
+    <col min="6967" max="6967" width="10.81640625" customWidth="1"/>
+    <col min="6971" max="6971" width="10.81640625" customWidth="1"/>
+    <col min="6975" max="6976" width="10.81640625" customWidth="1"/>
+    <col min="6978" max="6978" width="10.81640625" customWidth="1"/>
+    <col min="6981" max="6982" width="10.81640625" customWidth="1"/>
+    <col min="6989" max="6990" width="10.81640625" customWidth="1"/>
+    <col min="6992" max="6992" width="10.81640625" customWidth="1"/>
+    <col min="7008" max="7030" width="10.81640625" customWidth="1"/>
+    <col min="7033" max="7033" width="10.81640625" customWidth="1"/>
+    <col min="7035" max="7035" width="10.81640625" customWidth="1"/>
+    <col min="7039" max="7040" width="10.81640625" customWidth="1"/>
+    <col min="7042" max="7042" width="10.81640625" customWidth="1"/>
+    <col min="7045" max="7046" width="10.81640625" customWidth="1"/>
+    <col min="7053" max="7054" width="10.81640625" customWidth="1"/>
+    <col min="7056" max="7056" width="10.81640625" customWidth="1"/>
+    <col min="7072" max="7088" width="10.81640625" customWidth="1"/>
+    <col min="7090" max="7090" width="10.81640625" customWidth="1"/>
+    <col min="7093" max="7093" width="10.81640625" customWidth="1"/>
+    <col min="7095" max="7096" width="10.81640625" customWidth="1"/>
+    <col min="7100" max="7103" width="10.81640625" customWidth="1"/>
+    <col min="7106" max="7106" width="10.81640625" customWidth="1"/>
+    <col min="7110" max="7110" width="10.81640625" customWidth="1"/>
+    <col min="7114" max="7115" width="10.81640625" customWidth="1"/>
+    <col min="7118" max="7119" width="10.81640625" customWidth="1"/>
+    <col min="7136" max="7157" width="10.81640625" customWidth="1"/>
+    <col min="7159" max="7188" width="10.81640625" customWidth="1"/>
+    <col min="7191" max="7220" width="10.81640625" customWidth="1"/>
+    <col min="7222" max="7222" width="10.81640625" customWidth="1"/>
+    <col min="7227" max="7227" width="10.81640625" customWidth="1"/>
+    <col min="7231" max="7232" width="10.81640625" customWidth="1"/>
+    <col min="7234" max="7234" width="10.81640625" customWidth="1"/>
+    <col min="7237" max="7238" width="10.81640625" customWidth="1"/>
+    <col min="7245" max="7246" width="10.81640625" customWidth="1"/>
+    <col min="7248" max="7248" width="10.81640625" customWidth="1"/>
+    <col min="7264" max="7285" width="10.81640625" customWidth="1"/>
+    <col min="7289" max="7289" width="10.81640625" customWidth="1"/>
+    <col min="7291" max="7291" width="10.81640625" customWidth="1"/>
+    <col min="7295" max="7296" width="10.81640625" customWidth="1"/>
+    <col min="7298" max="7298" width="10.81640625" customWidth="1"/>
+    <col min="7301" max="7302" width="10.81640625" customWidth="1"/>
+    <col min="7309" max="7310" width="10.81640625" customWidth="1"/>
+    <col min="7312" max="7312" width="10.81640625" customWidth="1"/>
+    <col min="7328" max="7353" width="10.81640625" customWidth="1"/>
+    <col min="7355" max="7355" width="10.81640625" customWidth="1"/>
+    <col min="7358" max="7359" width="10.81640625" customWidth="1"/>
+    <col min="7361" max="7361" width="10.81640625" customWidth="1"/>
+    <col min="7365" max="7365" width="10.81640625" customWidth="1"/>
+    <col min="7367" max="7368" width="10.81640625" customWidth="1"/>
+    <col min="7370" max="7371" width="10.81640625" customWidth="1"/>
+    <col min="7374" max="7376" width="10.81640625" customWidth="1"/>
+    <col min="7378" max="7415" width="10.81640625" customWidth="1"/>
+    <col min="7417" max="7417" width="10.81640625" customWidth="1"/>
+    <col min="7420" max="7420" width="10.81640625" customWidth="1"/>
+    <col min="7423" max="7424" width="10.81640625" customWidth="1"/>
+    <col min="7426" max="7426" width="10.81640625" customWidth="1"/>
+    <col min="7429" max="7430" width="10.81640625" customWidth="1"/>
+    <col min="7437" max="7438" width="10.81640625" customWidth="1"/>
+    <col min="7440" max="7440" width="10.81640625" customWidth="1"/>
+    <col min="7456" max="7473" width="10.81640625" customWidth="1"/>
+    <col min="7475" max="7476" width="10.81640625" customWidth="1"/>
+    <col min="7478" max="7478" width="10.81640625" customWidth="1"/>
+    <col min="7480" max="7481" width="10.81640625" customWidth="1"/>
+    <col min="7487" max="7491" width="10.81640625" customWidth="1"/>
+    <col min="7493" max="7494" width="10.81640625" customWidth="1"/>
+    <col min="7496" max="7496" width="10.81640625" customWidth="1"/>
+    <col min="7500" max="7500" width="10.81640625" customWidth="1"/>
+    <col min="7502" max="7503" width="10.81640625" customWidth="1"/>
+    <col min="7520" max="7609" width="10.81640625" customWidth="1"/>
+    <col min="7613" max="7613" width="10.81640625" customWidth="1"/>
+    <col min="7615" max="7615" width="10.81640625" customWidth="1"/>
+    <col min="7617" max="7617" width="10.81640625" customWidth="1"/>
+    <col min="7621" max="7621" width="10.81640625" customWidth="1"/>
+    <col min="7623" max="7624" width="10.81640625" customWidth="1"/>
+    <col min="7626" max="7627" width="10.81640625" customWidth="1"/>
+    <col min="7630" max="7632" width="10.81640625" customWidth="1"/>
+    <col min="7634" max="7665" width="10.81640625" customWidth="1"/>
+    <col min="7667" max="7676" width="10.81640625" customWidth="1"/>
+    <col min="7678" max="7731" width="10.81640625" customWidth="1"/>
+    <col min="7733" max="7733" width="10.81640625" customWidth="1"/>
+    <col min="7735" max="7813" width="10.81640625" customWidth="1"/>
+    <col min="7815" max="7815" width="10.81640625" customWidth="1"/>
+    <col min="7817" max="7818" width="10.81640625" customWidth="1"/>
+    <col min="7820" max="7820" width="10.81640625" customWidth="1"/>
+    <col min="7826" max="7827" width="10.81640625" customWidth="1"/>
+    <col min="7831" max="7831" width="10.81640625" customWidth="1"/>
+    <col min="7840" max="7869" width="10.81640625" customWidth="1"/>
+    <col min="7872" max="7873" width="10.81640625" customWidth="1"/>
+    <col min="7877" max="7877" width="10.81640625" customWidth="1"/>
+    <col min="7879" max="7880" width="10.81640625" customWidth="1"/>
+    <col min="7882" max="7883" width="10.81640625" customWidth="1"/>
+    <col min="7886" max="7888" width="10.81640625" customWidth="1"/>
+    <col min="7890" max="7920" width="10.81640625" customWidth="1"/>
+    <col min="7923" max="7988" width="10.81640625" customWidth="1"/>
+    <col min="7992" max="7994" width="10.81640625" customWidth="1"/>
+    <col min="7996" max="7997" width="10.81640625" customWidth="1"/>
+    <col min="7999" max="7999" width="10.81640625" customWidth="1"/>
+    <col min="8001" max="8002" width="10.81640625" customWidth="1"/>
+    <col min="8004" max="8005" width="10.81640625" customWidth="1"/>
+    <col min="8007" max="8007" width="10.81640625" customWidth="1"/>
+    <col min="8009" max="8010" width="10.81640625" customWidth="1"/>
+    <col min="8012" max="8012" width="10.81640625" customWidth="1"/>
+    <col min="8018" max="8019" width="10.81640625" customWidth="1"/>
+    <col min="8023" max="8023" width="10.81640625" customWidth="1"/>
+    <col min="8032" max="8049" width="10.81640625" customWidth="1"/>
+    <col min="8051" max="8060" width="10.81640625" customWidth="1"/>
+    <col min="8062" max="8103" width="10.81640625" customWidth="1"/>
+    <col min="8130" max="8130" width="10.81640625" customWidth="1"/>
+    <col min="8133" max="8134" width="10.81640625" customWidth="1"/>
+    <col min="8141" max="8142" width="10.81640625" customWidth="1"/>
+    <col min="8144" max="8144" width="10.81640625" customWidth="1"/>
+    <col min="8160" max="8182" width="10.81640625" customWidth="1"/>
+    <col min="8185" max="8186" width="10.81640625" customWidth="1"/>
+    <col min="8188" max="8188" width="10.81640625" customWidth="1"/>
+    <col min="8190" max="8190" width="10.81640625" customWidth="1"/>
+    <col min="8196" max="8196" width="10.81640625" customWidth="1"/>
+    <col min="8199" max="8199" width="10.81640625" customWidth="1"/>
+    <col min="8201" max="8202" width="10.81640625" customWidth="1"/>
+    <col min="8205" max="8207" width="10.81640625" customWidth="1"/>
+    <col min="8224" max="8305" width="10.81640625" customWidth="1"/>
+    <col min="8307" max="8309" width="10.81640625" customWidth="1"/>
+    <col min="8313" max="8314" width="10.81640625" customWidth="1"/>
+    <col min="8318" max="8323" width="10.81640625" customWidth="1"/>
+    <col min="8325" max="8326" width="10.81640625" customWidth="1"/>
+    <col min="8328" max="8329" width="10.81640625" customWidth="1"/>
+    <col min="8331" max="8332" width="10.81640625" customWidth="1"/>
+    <col min="8334" max="8334" width="10.81640625" customWidth="1"/>
+    <col min="8337" max="8337" width="10.81640625" customWidth="1"/>
+    <col min="8339" max="8340" width="10.81640625" customWidth="1"/>
+    <col min="8344" max="8344" width="10.81640625" customWidth="1"/>
+    <col min="8347" max="8348" width="10.81640625" customWidth="1"/>
+    <col min="8352" max="8360" width="10.81640625" customWidth="1"/>
+    <col min="8363" max="8363" width="10.81640625" customWidth="1"/>
+    <col min="8365" max="8365" width="10.81640625" customWidth="1"/>
+    <col min="8368" max="8368" width="10.81640625" customWidth="1"/>
+    <col min="8370" max="8370" width="10.81640625" customWidth="1"/>
+    <col min="8373" max="8373" width="10.81640625" customWidth="1"/>
+    <col min="8375" max="8376" width="10.81640625" customWidth="1"/>
+    <col min="8380" max="8383" width="10.81640625" customWidth="1"/>
+    <col min="8386" max="8386" width="10.81640625" customWidth="1"/>
+    <col min="8390" max="8390" width="10.81640625" customWidth="1"/>
+    <col min="8394" max="8395" width="10.81640625" customWidth="1"/>
+    <col min="8398" max="8399" width="10.81640625" customWidth="1"/>
+    <col min="8410" max="8412" width="10.81640625" customWidth="1"/>
+    <col min="8415" max="8416" width="10.81640625" customWidth="1"/>
+    <col min="8418" max="8418" width="10.81640625" customWidth="1"/>
+    <col min="8420" max="8420" width="10.81640625" customWidth="1"/>
+    <col min="8423" max="8426" width="10.81640625" customWidth="1"/>
+    <col min="8428" max="8429" width="10.81640625" customWidth="1"/>
+    <col min="8432" max="8433" width="10.81640625" customWidth="1"/>
+    <col min="8436" max="8438" width="10.81640625" customWidth="1"/>
+    <col min="8440" max="8501" width="10.81640625" customWidth="1"/>
+    <col min="8503" max="8503" width="10.81640625" customWidth="1"/>
+    <col min="8505" max="8506" width="10.81640625" customWidth="1"/>
+    <col min="8511" max="8512" width="10.81640625" customWidth="1"/>
+    <col min="8514" max="8514" width="10.81640625" customWidth="1"/>
+    <col min="8517" max="8518" width="10.81640625" customWidth="1"/>
+    <col min="8525" max="8526" width="10.81640625" customWidth="1"/>
+    <col min="8528" max="8528" width="10.81640625" customWidth="1"/>
+    <col min="8544" max="8561" width="10.81640625" customWidth="1"/>
+    <col min="8563" max="8565" width="10.81640625" customWidth="1"/>
+    <col min="8569" max="8570" width="10.81640625" customWidth="1"/>
+    <col min="8574" max="8579" width="10.81640625" customWidth="1"/>
+    <col min="8581" max="8582" width="10.81640625" customWidth="1"/>
+    <col min="8584" max="8585" width="10.81640625" customWidth="1"/>
+    <col min="8587" max="8588" width="10.81640625" customWidth="1"/>
+    <col min="8590" max="8590" width="10.81640625" customWidth="1"/>
+    <col min="8593" max="8593" width="10.81640625" customWidth="1"/>
+    <col min="8595" max="8596" width="10.81640625" customWidth="1"/>
+    <col min="8600" max="8600" width="10.81640625" customWidth="1"/>
+    <col min="8603" max="8604" width="10.81640625" customWidth="1"/>
+    <col min="8608" max="8616" width="10.81640625" customWidth="1"/>
+    <col min="8619" max="8619" width="10.81640625" customWidth="1"/>
+    <col min="8621" max="8621" width="10.81640625" customWidth="1"/>
+    <col min="8624" max="8688" width="10.81640625" customWidth="1"/>
+    <col min="8691" max="8820" width="10.81640625" customWidth="1"/>
+    <col min="8823" max="8823" width="10.81640625" customWidth="1"/>
+    <col min="8827" max="8827" width="10.81640625" customWidth="1"/>
+    <col min="8831" max="8832" width="10.81640625" customWidth="1"/>
+    <col min="8834" max="8834" width="10.81640625" customWidth="1"/>
+    <col min="8837" max="8838" width="10.81640625" customWidth="1"/>
+    <col min="8845" max="8846" width="10.81640625" customWidth="1"/>
+    <col min="8848" max="8848" width="10.81640625" customWidth="1"/>
+    <col min="8864" max="8884" width="10.81640625" customWidth="1"/>
+    <col min="8889" max="8890" width="10.81640625" customWidth="1"/>
+    <col min="8892" max="8892" width="10.81640625" customWidth="1"/>
+    <col min="8894" max="8895" width="10.81640625" customWidth="1"/>
+    <col min="8898" max="8898" width="10.81640625" customWidth="1"/>
+    <col min="8900" max="8901" width="10.81640625" customWidth="1"/>
+    <col min="8903" max="8903" width="10.81640625" customWidth="1"/>
+    <col min="8905" max="8906" width="10.81640625" customWidth="1"/>
+    <col min="8908" max="8908" width="10.81640625" customWidth="1"/>
+    <col min="8914" max="8915" width="10.81640625" customWidth="1"/>
+    <col min="8919" max="8919" width="10.81640625" customWidth="1"/>
+    <col min="8928" max="8949" width="10.81640625" customWidth="1"/>
+    <col min="8951" max="8951" width="10.81640625" customWidth="1"/>
+    <col min="8955" max="8955" width="10.81640625" customWidth="1"/>
+    <col min="8959" max="8960" width="10.81640625" customWidth="1"/>
+    <col min="8962" max="8962" width="10.81640625" customWidth="1"/>
+    <col min="8965" max="8966" width="10.81640625" customWidth="1"/>
+    <col min="8973" max="8974" width="10.81640625" customWidth="1"/>
+    <col min="8976" max="8976" width="10.81640625" customWidth="1"/>
+    <col min="8992" max="9012" width="10.81640625" customWidth="1"/>
+    <col min="9014" max="9014" width="10.81640625" customWidth="1"/>
+    <col min="9017" max="9018" width="10.81640625" customWidth="1"/>
+    <col min="9021" max="9021" width="10.81640625" customWidth="1"/>
+    <col min="9023" max="9023" width="10.81640625" customWidth="1"/>
+    <col min="9025" max="9025" width="10.81640625" customWidth="1"/>
+    <col min="9028" max="9028" width="10.81640625" customWidth="1"/>
+    <col min="9032" max="9032" width="10.81640625" customWidth="1"/>
+    <col min="9037" max="9039" width="10.81640625" customWidth="1"/>
+    <col min="9056" max="9076" width="10.81640625" customWidth="1"/>
+    <col min="9078" max="9078" width="10.81640625" customWidth="1"/>
+    <col min="9083" max="9083" width="10.81640625" customWidth="1"/>
+    <col min="9087" max="9088" width="10.81640625" customWidth="1"/>
+    <col min="9090" max="9090" width="10.81640625" customWidth="1"/>
+    <col min="9093" max="9094" width="10.81640625" customWidth="1"/>
+    <col min="9101" max="9102" width="10.81640625" customWidth="1"/>
+    <col min="9104" max="9104" width="10.81640625" customWidth="1"/>
+    <col min="9120" max="9140" width="10.81640625" customWidth="1"/>
+    <col min="9145" max="9146" width="10.81640625" customWidth="1"/>
+    <col min="9148" max="9148" width="10.81640625" customWidth="1"/>
+    <col min="9150" max="9151" width="10.81640625" customWidth="1"/>
+    <col min="9154" max="9154" width="10.81640625" customWidth="1"/>
+    <col min="9156" max="9157" width="10.81640625" customWidth="1"/>
+    <col min="9159" max="9159" width="10.81640625" customWidth="1"/>
+    <col min="9161" max="9162" width="10.81640625" customWidth="1"/>
+    <col min="9164" max="9164" width="10.81640625" customWidth="1"/>
+    <col min="9170" max="9171" width="10.81640625" customWidth="1"/>
+    <col min="9175" max="9175" width="10.81640625" customWidth="1"/>
+    <col min="9184" max="9206" width="10.81640625" customWidth="1"/>
+    <col min="9211" max="9211" width="10.81640625" customWidth="1"/>
+    <col min="9215" max="9216" width="10.81640625" customWidth="1"/>
+    <col min="9218" max="9218" width="10.81640625" customWidth="1"/>
+    <col min="9221" max="9222" width="10.81640625" customWidth="1"/>
+    <col min="9229" max="9230" width="10.81640625" customWidth="1"/>
+    <col min="9232" max="9296" width="10.81640625" customWidth="1"/>
+    <col min="9312" max="9462" width="10.81640625" customWidth="1"/>
+    <col min="9465" max="9466" width="10.81640625" customWidth="1"/>
+    <col min="9468" max="9468" width="10.81640625" customWidth="1"/>
+    <col min="9470" max="9470" width="10.81640625" customWidth="1"/>
+    <col min="9476" max="9476" width="10.81640625" customWidth="1"/>
+    <col min="9479" max="9479" width="10.81640625" customWidth="1"/>
+    <col min="9481" max="9482" width="10.81640625" customWidth="1"/>
+    <col min="9485" max="9487" width="10.81640625" customWidth="1"/>
+    <col min="9489" max="9552" width="10.81640625" customWidth="1"/>
+    <col min="9554" max="9555" width="10.81640625" customWidth="1"/>
+    <col min="9559" max="9559" width="10.81640625" customWidth="1"/>
+    <col min="9568" max="9585" width="10.81640625" customWidth="1"/>
+    <col min="9587" max="9589" width="10.81640625" customWidth="1"/>
+    <col min="9593" max="9594" width="10.81640625" customWidth="1"/>
+    <col min="9598" max="9603" width="10.81640625" customWidth="1"/>
+    <col min="9605" max="9606" width="10.81640625" customWidth="1"/>
+    <col min="9608" max="9609" width="10.81640625" customWidth="1"/>
+    <col min="9611" max="9612" width="10.81640625" customWidth="1"/>
+    <col min="9614" max="9614" width="10.81640625" customWidth="1"/>
+    <col min="9617" max="9617" width="10.81640625" customWidth="1"/>
+    <col min="9619" max="9620" width="10.81640625" customWidth="1"/>
+    <col min="9624" max="9624" width="10.81640625" customWidth="1"/>
+    <col min="9627" max="9628" width="10.81640625" customWidth="1"/>
+    <col min="9632" max="9640" width="10.81640625" customWidth="1"/>
+    <col min="9643" max="9643" width="10.81640625" customWidth="1"/>
+    <col min="9645" max="9645" width="10.81640625" customWidth="1"/>
+    <col min="9648" max="9652" width="10.81640625" customWidth="1"/>
+    <col min="9655" max="9655" width="10.81640625" customWidth="1"/>
+    <col min="9657" max="9659" width="10.81640625" customWidth="1"/>
+    <col min="9663" max="9664" width="10.81640625" customWidth="1"/>
+    <col min="9666" max="9666" width="10.81640625" customWidth="1"/>
+    <col min="9669" max="9670" width="10.81640625" customWidth="1"/>
+    <col min="9677" max="9678" width="10.81640625" customWidth="1"/>
+    <col min="9680" max="9680" width="10.81640625" customWidth="1"/>
+    <col min="9696" max="9716" width="10.81640625" customWidth="1"/>
+    <col min="9721" max="9724" width="10.81640625" customWidth="1"/>
+    <col min="9731" max="9732" width="10.81640625" customWidth="1"/>
+    <col min="9735" max="9735" width="10.81640625" customWidth="1"/>
+    <col min="9740" max="9740" width="10.81640625" customWidth="1"/>
+    <col min="9744" max="9744" width="10.81640625" customWidth="1"/>
+    <col min="9760" max="9780" width="10.81640625" customWidth="1"/>
+    <col min="9783" max="9783" width="10.81640625" customWidth="1"/>
+    <col min="9791" max="9792" width="10.81640625" customWidth="1"/>
+    <col min="9794" max="9794" width="10.81640625" customWidth="1"/>
+    <col min="9797" max="9798" width="10.81640625" customWidth="1"/>
+    <col min="9805" max="9806" width="10.81640625" customWidth="1"/>
+    <col min="9808" max="9808" width="10.81640625" customWidth="1"/>
+    <col min="9824" max="9840" width="10.81640625" customWidth="1"/>
+    <col min="9905" max="9972" width="10.81640625" customWidth="1"/>
+    <col min="9974" max="9975" width="10.81640625" customWidth="1"/>
+    <col min="9977" max="9979" width="10.81640625" customWidth="1"/>
+    <col min="9983" max="9984" width="10.81640625" customWidth="1"/>
+    <col min="9986" max="9986" width="10.81640625" customWidth="1"/>
+    <col min="9989" max="9990" width="10.81640625" customWidth="1"/>
+    <col min="9997" max="9998" width="10.81640625" customWidth="1"/>
+    <col min="10000" max="10000" width="10.81640625" customWidth="1"/>
+    <col min="10016" max="10032" width="10.81640625" customWidth="1"/>
+    <col min="10034" max="10038" width="10.81640625" customWidth="1"/>
+    <col min="10041" max="10041" width="10.81640625" customWidth="1"/>
+    <col min="10044" max="10044" width="10.81640625" customWidth="1"/>
+    <col min="10047" max="10048" width="10.81640625" customWidth="1"/>
+    <col min="10050" max="10050" width="10.81640625" customWidth="1"/>
+    <col min="10054" max="10054" width="10.81640625" customWidth="1"/>
+    <col min="10056" max="10056" width="10.81640625" customWidth="1"/>
+    <col min="10058" max="10060" width="10.81640625" customWidth="1"/>
+    <col min="10062" max="10063" width="10.81640625" customWidth="1"/>
+    <col min="10080" max="10096" width="10.81640625" customWidth="1"/>
+    <col min="10161" max="10164" width="10.81640625" customWidth="1"/>
+    <col min="10168" max="10168" width="10.81640625" customWidth="1"/>
+    <col min="10171" max="10171" width="10.81640625" customWidth="1"/>
+    <col min="10175" max="10176" width="10.81640625" customWidth="1"/>
+    <col min="10178" max="10178" width="10.81640625" customWidth="1"/>
+    <col min="10181" max="10182" width="10.81640625" customWidth="1"/>
+    <col min="10189" max="10190" width="10.81640625" customWidth="1"/>
+    <col min="10192" max="10192" width="10.81640625" customWidth="1"/>
+    <col min="10208" max="10228" width="10.81640625" customWidth="1"/>
+    <col min="10231" max="10231" width="10.81640625" customWidth="1"/>
+    <col min="10233" max="10235" width="10.81640625" customWidth="1"/>
+    <col min="10239" max="10240" width="10.81640625" customWidth="1"/>
+    <col min="10242" max="10242" width="10.81640625" customWidth="1"/>
+    <col min="10245" max="10246" width="10.81640625" customWidth="1"/>
+    <col min="10253" max="10254" width="10.81640625" customWidth="1"/>
+    <col min="10256" max="10256" width="10.81640625" customWidth="1"/>
+    <col min="10272" max="10288" width="10.81640625" customWidth="1"/>
+    <col min="10290" max="10294" width="10.81640625" customWidth="1"/>
+    <col min="10297" max="10297" width="10.81640625" customWidth="1"/>
+    <col min="10300" max="10300" width="10.81640625" customWidth="1"/>
+    <col min="10303" max="10304" width="10.81640625" customWidth="1"/>
+    <col min="10306" max="10306" width="10.81640625" customWidth="1"/>
+    <col min="10310" max="10310" width="10.81640625" customWidth="1"/>
+    <col min="10312" max="10312" width="10.81640625" customWidth="1"/>
+    <col min="10314" max="10316" width="10.81640625" customWidth="1"/>
+    <col min="10318" max="10319" width="10.81640625" customWidth="1"/>
+    <col min="10336" max="10352" width="10.81640625" customWidth="1"/>
+    <col min="10355" max="10357" width="10.81640625" customWidth="1"/>
+    <col min="10360" max="10360" width="10.81640625" customWidth="1"/>
+    <col min="10362" max="10362" width="10.81640625" customWidth="1"/>
+    <col min="10364" max="10364" width="10.81640625" customWidth="1"/>
+    <col min="10368" max="10368" width="10.81640625" customWidth="1"/>
+    <col min="10370" max="10370" width="10.81640625" customWidth="1"/>
+    <col min="10373" max="10373" width="10.81640625" customWidth="1"/>
+    <col min="10376" max="10376" width="10.81640625" customWidth="1"/>
+    <col min="10378" max="10378" width="10.81640625" customWidth="1"/>
+    <col min="10380" max="10381" width="10.81640625" customWidth="1"/>
+    <col min="10384" max="10385" width="10.81640625" customWidth="1"/>
+    <col min="10389" max="10389" width="10.81640625" customWidth="1"/>
+    <col min="10392" max="10394" width="10.81640625" customWidth="1"/>
+    <col min="10396" max="10396" width="10.81640625" customWidth="1"/>
+    <col min="10400" max="10400" width="10.81640625" customWidth="1"/>
+    <col min="10403" max="10404" width="10.81640625" customWidth="1"/>
+    <col min="10408" max="10408" width="10.81640625" customWidth="1"/>
+    <col min="10413" max="10413" width="10.81640625" customWidth="1"/>
+    <col min="10415" max="10420" width="10.81640625" customWidth="1"/>
+    <col min="10422" max="10423" width="10.81640625" customWidth="1"/>
+    <col min="10427" max="10427" width="10.81640625" customWidth="1"/>
+    <col min="10431" max="10432" width="10.81640625" customWidth="1"/>
+    <col min="10434" max="10434" width="10.81640625" customWidth="1"/>
+    <col min="10437" max="10438" width="10.81640625" customWidth="1"/>
+    <col min="10445" max="10446" width="10.81640625" customWidth="1"/>
+    <col min="10448" max="10448" width="10.81640625" customWidth="1"/>
+    <col min="10464" max="10480" width="10.81640625" customWidth="1"/>
+    <col min="10482" max="10482" width="10.81640625" customWidth="1"/>
+    <col min="10485" max="10485" width="10.81640625" customWidth="1"/>
+    <col min="10488" max="10488" width="10.81640625" customWidth="1"/>
+    <col min="10490" max="10493" width="10.81640625" customWidth="1"/>
+    <col min="10496" max="10498" width="10.81640625" customWidth="1"/>
+    <col min="10500" max="10501" width="10.81640625" customWidth="1"/>
+    <col min="10504" max="10504" width="10.81640625" customWidth="1"/>
+    <col min="10506" max="10509" width="10.81640625" customWidth="1"/>
+    <col min="10512" max="10512" width="10.81640625" customWidth="1"/>
+    <col min="10518" max="10518" width="10.81640625" customWidth="1"/>
+    <col min="10520" max="10522" width="10.81640625" customWidth="1"/>
+    <col min="10524" max="10525" width="10.81640625" customWidth="1"/>
+    <col min="10528" max="10528" width="10.81640625" customWidth="1"/>
+    <col min="10530" max="10533" width="10.81640625" customWidth="1"/>
+    <col min="10536" max="10538" width="10.81640625" customWidth="1"/>
+    <col min="10540" max="10540" width="10.81640625" customWidth="1"/>
+    <col min="10544" max="10544" width="10.81640625" customWidth="1"/>
+    <col min="10546" max="10549" width="10.81640625" customWidth="1"/>
+    <col min="10552" max="10552" width="10.81640625" customWidth="1"/>
+    <col min="10557" max="10557" width="10.81640625" customWidth="1"/>
+    <col min="10559" max="10560" width="10.81640625" customWidth="1"/>
+    <col min="10562" max="10562" width="10.81640625" customWidth="1"/>
+    <col min="10564" max="10565" width="10.81640625" customWidth="1"/>
+    <col min="10568" max="10569" width="10.81640625" customWidth="1"/>
+    <col min="10573" max="10573" width="10.81640625" customWidth="1"/>
+    <col min="10576" max="10578" width="10.81640625" customWidth="1"/>
+    <col min="10580" max="10580" width="10.81640625" customWidth="1"/>
+    <col min="10584" max="10584" width="10.81640625" customWidth="1"/>
+    <col min="10586" max="10587" width="10.81640625" customWidth="1"/>
+    <col min="10589" max="10589" width="10.81640625" customWidth="1"/>
+    <col min="10592" max="10594" width="10.81640625" customWidth="1"/>
+    <col min="10596" max="10596" width="10.81640625" customWidth="1"/>
+    <col min="10600" max="10600" width="10.81640625" customWidth="1"/>
+    <col min="10602" max="10603" width="10.81640625" customWidth="1"/>
+    <col min="10605" max="10605" width="10.81640625" customWidth="1"/>
+    <col min="10608" max="10608" width="10.81640625" customWidth="1"/>
+    <col min="10610" max="10610" width="10.81640625" customWidth="1"/>
+    <col min="10612" max="10613" width="10.81640625" customWidth="1"/>
+    <col min="10616" max="10616" width="10.81640625" customWidth="1"/>
+    <col min="10619" max="10620" width="10.81640625" customWidth="1"/>
+    <col min="10624" max="10624" width="10.81640625" customWidth="1"/>
+    <col min="10629" max="10629" width="10.81640625" customWidth="1"/>
+    <col min="10631" max="10632" width="10.81640625" customWidth="1"/>
+    <col min="10634" max="10634" width="10.81640625" customWidth="1"/>
+    <col min="10636" max="10637" width="10.81640625" customWidth="1"/>
+    <col min="10640" max="10641" width="10.81640625" customWidth="1"/>
+    <col min="10645" max="10645" width="10.81640625" customWidth="1"/>
+    <col min="10648" max="10650" width="10.81640625" customWidth="1"/>
+    <col min="10652" max="10652" width="10.81640625" customWidth="1"/>
+    <col min="10656" max="10656" width="10.81640625" customWidth="1"/>
+    <col min="10658" max="10659" width="10.81640625" customWidth="1"/>
+    <col min="10661" max="10661" width="10.81640625" customWidth="1"/>
+    <col min="10664" max="10666" width="10.81640625" customWidth="1"/>
+    <col min="10668" max="10668" width="10.81640625" customWidth="1"/>
+    <col min="10672" max="10672" width="10.81640625" customWidth="1"/>
+    <col min="10674" max="10675" width="10.81640625" customWidth="1"/>
+    <col min="10680" max="10680" width="10.81640625" customWidth="1"/>
+    <col min="10686" max="10686" width="10.81640625" customWidth="1"/>
+    <col min="10688" max="10690" width="10.81640625" customWidth="1"/>
+    <col min="10692" max="10692" width="10.81640625" customWidth="1"/>
+    <col min="10696" max="10696" width="10.81640625" customWidth="1"/>
+    <col min="10698" max="10698" width="10.81640625" customWidth="1"/>
+    <col min="10700" max="10701" width="10.81640625" customWidth="1"/>
+    <col min="10704" max="10704" width="10.81640625" customWidth="1"/>
+    <col min="10706" max="10706" width="10.81640625" customWidth="1"/>
+    <col min="10709" max="10709" width="10.81640625" customWidth="1"/>
+    <col min="10712" max="10716" width="10.81640625" customWidth="1"/>
+    <col min="10720" max="10722" width="10.81640625" customWidth="1"/>
+    <col min="10725" max="10725" width="10.81640625" customWidth="1"/>
+    <col min="10728" max="10728" width="10.81640625" customWidth="1"/>
+    <col min="10730" max="10733" width="10.81640625" customWidth="1"/>
+    <col min="10736" max="10738" width="10.81640625" customWidth="1"/>
+    <col min="10740" max="10740" width="10.81640625" customWidth="1"/>
+    <col min="10744" max="10744" width="10.81640625" customWidth="1"/>
+    <col min="10746" max="10746" width="10.81640625" customWidth="1"/>
+    <col min="10748" max="10749" width="10.81640625" customWidth="1"/>
+    <col min="10752" max="10753" width="10.81640625" customWidth="1"/>
+    <col min="10757" max="10757" width="10.81640625" customWidth="1"/>
+    <col min="10759" max="10763" width="10.81640625" customWidth="1"/>
+    <col min="10768" max="10770" width="10.81640625" customWidth="1"/>
+    <col min="10773" max="10773" width="10.81640625" customWidth="1"/>
+    <col min="10776" max="10776" width="10.81640625" customWidth="1"/>
+    <col min="10779" max="10780" width="10.81640625" customWidth="1"/>
+    <col min="10784" max="10800" width="10.81640625" customWidth="1"/>
+    <col min="10802" max="10804" width="10.81640625" customWidth="1"/>
+    <col min="10806" max="10806" width="10.81640625" customWidth="1"/>
+    <col min="10808" max="10812" width="10.81640625" customWidth="1"/>
+    <col min="10815" max="10816" width="10.81640625" customWidth="1"/>
+    <col min="10818" max="10819" width="10.81640625" customWidth="1"/>
+    <col min="10822" max="10822" width="10.81640625" customWidth="1"/>
+    <col min="10827" max="10828" width="10.81640625" customWidth="1"/>
+    <col min="10830" max="10832" width="10.81640625" customWidth="1"/>
+    <col min="10834" max="10864" width="10.81640625" customWidth="1"/>
+    <col min="10897" max="10897" width="10.81640625" customWidth="1"/>
+    <col min="10929" max="10931" width="10.81640625" customWidth="1"/>
+    <col min="10935" max="10937" width="10.81640625" customWidth="1"/>
+    <col min="10939" max="10940" width="10.81640625" customWidth="1"/>
+    <col min="10942" max="10942" width="10.81640625" customWidth="1"/>
+    <col min="10944" max="10944" width="10.81640625" customWidth="1"/>
+    <col min="10946" max="10949" width="10.81640625" customWidth="1"/>
+    <col min="10951" max="10951" width="10.81640625" customWidth="1"/>
+    <col min="10954" max="10956" width="10.81640625" customWidth="1"/>
+    <col min="10962" max="10963" width="10.81640625" customWidth="1"/>
+    <col min="10967" max="10967" width="10.81640625" customWidth="1"/>
+    <col min="10976" max="10996" width="10.81640625" customWidth="1"/>
+    <col min="10998" max="10998" width="10.81640625" customWidth="1"/>
+    <col min="11000" max="11003" width="10.81640625" customWidth="1"/>
+    <col min="11007" max="11008" width="10.81640625" customWidth="1"/>
+    <col min="11010" max="11011" width="10.81640625" customWidth="1"/>
+    <col min="11013" max="11013" width="10.81640625" customWidth="1"/>
+    <col min="11015" max="11015" width="10.81640625" customWidth="1"/>
+    <col min="11018" max="11020" width="10.81640625" customWidth="1"/>
+    <col min="11026" max="11027" width="10.81640625" customWidth="1"/>
+    <col min="11031" max="11031" width="10.81640625" customWidth="1"/>
+    <col min="11040" max="11124" width="10.81640625" customWidth="1"/>
+    <col min="11126" max="11126" width="10.81640625" customWidth="1"/>
+    <col min="11128" max="11131" width="10.81640625" customWidth="1"/>
+    <col min="11135" max="11136" width="10.81640625" customWidth="1"/>
+    <col min="11138" max="11138" width="10.81640625" customWidth="1"/>
+    <col min="11141" max="11142" width="10.81640625" customWidth="1"/>
+    <col min="11149" max="11150" width="10.81640625" customWidth="1"/>
+    <col min="11152" max="11152" width="10.81640625" customWidth="1"/>
+    <col min="11168" max="11185" width="10.81640625" customWidth="1"/>
+    <col min="11187" max="11187" width="10.81640625" customWidth="1"/>
+    <col min="11190" max="11193" width="10.81640625" customWidth="1"/>
+    <col min="11195" max="11196" width="10.81640625" customWidth="1"/>
+    <col min="11198" max="11198" width="10.81640625" customWidth="1"/>
+    <col min="11200" max="11202" width="10.81640625" customWidth="1"/>
+    <col min="11204" max="11204" width="10.81640625" customWidth="1"/>
+    <col min="11208" max="11208" width="10.81640625" customWidth="1"/>
+    <col min="11213" max="11215" width="10.81640625" customWidth="1"/>
+    <col min="11232" max="11248" width="10.81640625" customWidth="1"/>
+    <col min="11252" max="11382" width="10.81640625" customWidth="1"/>
+    <col min="11384" max="11384" width="10.81640625" customWidth="1"/>
+    <col min="11386" max="11386" width="10.81640625" customWidth="1"/>
+    <col min="11391" max="11392" width="10.81640625" customWidth="1"/>
+    <col min="11394" max="11394" width="10.81640625" customWidth="1"/>
+    <col min="11397" max="11398" width="10.81640625" customWidth="1"/>
+    <col min="11405" max="11406" width="10.81640625" customWidth="1"/>
+    <col min="11408" max="11408" width="10.81640625" customWidth="1"/>
+    <col min="11424" max="11441" width="10.81640625" customWidth="1"/>
+    <col min="11444" max="11446" width="10.81640625" customWidth="1"/>
+    <col min="11450" max="11451" width="10.81640625" customWidth="1"/>
+    <col min="11454" max="11458" width="10.81640625" customWidth="1"/>
+    <col min="11460" max="11460" width="10.81640625" customWidth="1"/>
+    <col min="11464" max="11464" width="10.81640625" customWidth="1"/>
+    <col min="11469" max="11471" width="10.81640625" customWidth="1"/>
+    <col min="11488" max="11505" width="10.81640625" customWidth="1"/>
+    <col min="11507" max="11509" width="10.81640625" customWidth="1"/>
+    <col min="11513" max="11514" width="10.81640625" customWidth="1"/>
+    <col min="11518" max="11523" width="10.81640625" customWidth="1"/>
+    <col min="11525" max="11526" width="10.81640625" customWidth="1"/>
+    <col min="11528" max="11529" width="10.81640625" customWidth="1"/>
+    <col min="11531" max="11532" width="10.81640625" customWidth="1"/>
+    <col min="11534" max="11534" width="10.81640625" customWidth="1"/>
+    <col min="11537" max="11537" width="10.81640625" customWidth="1"/>
+    <col min="11539" max="11540" width="10.81640625" customWidth="1"/>
+    <col min="11544" max="11544" width="10.81640625" customWidth="1"/>
+    <col min="11547" max="11548" width="10.81640625" customWidth="1"/>
+    <col min="11552" max="11560" width="10.81640625" customWidth="1"/>
+    <col min="11563" max="11563" width="10.81640625" customWidth="1"/>
+    <col min="11565" max="11565" width="10.81640625" customWidth="1"/>
+    <col min="11568" max="11568" width="10.81640625" customWidth="1"/>
+    <col min="11578" max="11632" width="10.81640625" customWidth="1"/>
+    <col min="11697" max="11764" width="10.81640625" customWidth="1"/>
+    <col min="11767" max="11767" width="10.81640625" customWidth="1"/>
+    <col min="11771" max="11771" width="10.81640625" customWidth="1"/>
+    <col min="11775" max="11776" width="10.81640625" customWidth="1"/>
+    <col min="11778" max="11778" width="10.81640625" customWidth="1"/>
+    <col min="11781" max="11782" width="10.81640625" customWidth="1"/>
+    <col min="11789" max="11790" width="10.81640625" customWidth="1"/>
+    <col min="11792" max="11792" width="10.81640625" customWidth="1"/>
+    <col min="11808" max="11892" width="10.81640625" customWidth="1"/>
+    <col min="11894" max="11895" width="10.81640625" customWidth="1"/>
+    <col min="11897" max="11897" width="10.81640625" customWidth="1"/>
+    <col min="11899" max="11899" width="10.81640625" customWidth="1"/>
+    <col min="11903" max="11904" width="10.81640625" customWidth="1"/>
+    <col min="11906" max="11906" width="10.81640625" customWidth="1"/>
+    <col min="11909" max="11910" width="10.81640625" customWidth="1"/>
+    <col min="11917" max="11918" width="10.81640625" customWidth="1"/>
+    <col min="11920" max="11920" width="10.81640625" customWidth="1"/>
+    <col min="11936" max="11952" width="10.81640625" customWidth="1"/>
+    <col min="11954" max="11954" width="10.81640625" customWidth="1"/>
+    <col min="11957" max="11960" width="10.81640625" customWidth="1"/>
+    <col min="11962" max="11963" width="10.81640625" customWidth="1"/>
+    <col min="11968" max="11968" width="10.81640625" customWidth="1"/>
+    <col min="11971" max="11971" width="10.81640625" customWidth="1"/>
+    <col min="11974" max="11974" width="10.81640625" customWidth="1"/>
+    <col min="11976" max="11976" width="10.81640625" customWidth="1"/>
+    <col min="11978" max="11980" width="10.81640625" customWidth="1"/>
+    <col min="11982" max="11983" width="10.81640625" customWidth="1"/>
+    <col min="12000" max="12020" width="10.81640625" customWidth="1"/>
+    <col min="12022" max="12022" width="10.81640625" customWidth="1"/>
+    <col min="12027" max="12027" width="10.81640625" customWidth="1"/>
+    <col min="12031" max="12032" width="10.81640625" customWidth="1"/>
+    <col min="12034" max="12034" width="10.81640625" customWidth="1"/>
+    <col min="12037" max="12038" width="10.81640625" customWidth="1"/>
+    <col min="12045" max="12046" width="10.81640625" customWidth="1"/>
+    <col min="12048" max="12048" width="10.81640625" customWidth="1"/>
+    <col min="12064" max="12084" width="10.81640625" customWidth="1"/>
+    <col min="12087" max="12087" width="10.81640625" customWidth="1"/>
+    <col min="12095" max="12096" width="10.81640625" customWidth="1"/>
+    <col min="12098" max="12098" width="10.81640625" customWidth="1"/>
+    <col min="12101" max="12102" width="10.81640625" customWidth="1"/>
+    <col min="12109" max="12110" width="10.81640625" customWidth="1"/>
+    <col min="12112" max="12112" width="10.81640625" customWidth="1"/>
+    <col min="12128" max="12144" width="10.81640625" customWidth="1"/>
+    <col min="12147" max="12148" width="10.81640625" customWidth="1"/>
+    <col min="12151" max="12151" width="10.81640625" customWidth="1"/>
+    <col min="12155" max="12155" width="10.81640625" customWidth="1"/>
+    <col min="12159" max="12160" width="10.81640625" customWidth="1"/>
+    <col min="12162" max="12162" width="10.81640625" customWidth="1"/>
+    <col min="12165" max="12166" width="10.81640625" customWidth="1"/>
+    <col min="12173" max="12174" width="10.81640625" customWidth="1"/>
+    <col min="12176" max="12176" width="10.81640625" customWidth="1"/>
+    <col min="12192" max="12208" width="10.81640625" customWidth="1"/>
+    <col min="12210" max="12210" width="10.81640625" customWidth="1"/>
+    <col min="12213" max="12216" width="10.81640625" customWidth="1"/>
+    <col min="12218" max="12219" width="10.81640625" customWidth="1"/>
+    <col min="12224" max="12224" width="10.81640625" customWidth="1"/>
+    <col min="12227" max="12227" width="10.81640625" customWidth="1"/>
+    <col min="12230" max="12230" width="10.81640625" customWidth="1"/>
+    <col min="12232" max="12232" width="10.81640625" customWidth="1"/>
+    <col min="12234" max="12236" width="10.81640625" customWidth="1"/>
+    <col min="12238" max="12239" width="10.81640625" customWidth="1"/>
+    <col min="12243" max="12243" width="10.81640625" customWidth="1"/>
+    <col min="12250" max="12275" width="10.81640625" customWidth="1"/>
+    <col min="12277" max="12281" width="10.81640625" customWidth="1"/>
+    <col min="12283" max="12288" width="10.81640625" customWidth="1"/>
+    <col min="12305" max="12340" width="10.81640625" customWidth="1"/>
+    <col min="12343" max="12343" width="10.81640625" customWidth="1"/>
+    <col min="12347" max="12347" width="10.81640625" customWidth="1"/>
+    <col min="12351" max="12352" width="10.81640625" customWidth="1"/>
+    <col min="12354" max="12354" width="10.81640625" customWidth="1"/>
+    <col min="12357" max="12358" width="10.81640625" customWidth="1"/>
+    <col min="12365" max="12366" width="10.81640625" customWidth="1"/>
+    <col min="12368" max="12368" width="10.81640625" customWidth="1"/>
+    <col min="12384" max="12401" width="10.81640625" customWidth="1"/>
+    <col min="12410" max="12432" width="10.81640625" customWidth="1"/>
+    <col min="12448" max="12464" width="10.81640625" customWidth="1"/>
+    <col min="12466" max="12496" width="10.81640625" customWidth="1"/>
+    <col min="12499" max="12499" width="10.81640625" customWidth="1"/>
+    <col min="12506" max="12531" width="10.81640625" customWidth="1"/>
+    <col min="12533" max="12537" width="10.81640625" customWidth="1"/>
+    <col min="12539" max="12544" width="10.81640625" customWidth="1"/>
+    <col min="12561" max="12562" width="10.81640625" customWidth="1"/>
+    <col min="12564" max="12596" width="10.81640625" customWidth="1"/>
+    <col min="12598" max="12598" width="10.81640625" customWidth="1"/>
+    <col min="12603" max="12603" width="10.81640625" customWidth="1"/>
+    <col min="12607" max="12608" width="10.81640625" customWidth="1"/>
+    <col min="12610" max="12610" width="10.81640625" customWidth="1"/>
+    <col min="12613" max="12614" width="10.81640625" customWidth="1"/>
+    <col min="12621" max="12622" width="10.81640625" customWidth="1"/>
+    <col min="12624" max="12624" width="10.81640625" customWidth="1"/>
+    <col min="12640" max="12657" width="10.81640625" customWidth="1"/>
+    <col min="12666" max="12721" width="10.81640625" customWidth="1"/>
+    <col min="12723" max="12790" width="10.81640625" customWidth="1"/>
+    <col min="12792" max="12792" width="10.81640625" customWidth="1"/>
+    <col min="12794" max="12795" width="10.81640625" customWidth="1"/>
+    <col min="12799" max="12800" width="10.81640625" customWidth="1"/>
+    <col min="12802" max="12802" width="10.81640625" customWidth="1"/>
+    <col min="12805" max="12806" width="10.81640625" customWidth="1"/>
+    <col min="12813" max="12814" width="10.81640625" customWidth="1"/>
+    <col min="12816" max="12816" width="10.81640625" customWidth="1"/>
+    <col min="12832" max="12848" width="10.81640625" customWidth="1"/>
+    <col min="12854" max="12854" width="10.81640625" customWidth="1"/>
+    <col min="12856" max="12858" width="10.81640625" customWidth="1"/>
+    <col min="12864" max="12864" width="10.81640625" customWidth="1"/>
+    <col min="12866" max="12866" width="10.81640625" customWidth="1"/>
+    <col min="12870" max="12870" width="10.81640625" customWidth="1"/>
+    <col min="12874" max="12875" width="10.81640625" customWidth="1"/>
+    <col min="12878" max="12879" width="10.81640625" customWidth="1"/>
+    <col min="12896" max="12921" width="10.81640625" customWidth="1"/>
+    <col min="12923" max="12923" width="10.81640625" customWidth="1"/>
+    <col min="12926" max="12927" width="10.81640625" customWidth="1"/>
+    <col min="12929" max="12929" width="10.81640625" customWidth="1"/>
+    <col min="12933" max="12933" width="10.81640625" customWidth="1"/>
+    <col min="12935" max="12936" width="10.81640625" customWidth="1"/>
+    <col min="12938" max="12939" width="10.81640625" customWidth="1"/>
+    <col min="12942" max="12944" width="10.81640625" customWidth="1"/>
+    <col min="12946" max="12980" width="10.81640625" customWidth="1"/>
+    <col min="12982" max="12983" width="10.81640625" customWidth="1"/>
+    <col min="12986" max="12987" width="10.81640625" customWidth="1"/>
+    <col min="12991" max="12992" width="10.81640625" customWidth="1"/>
+    <col min="12994" max="12994" width="10.81640625" customWidth="1"/>
+    <col min="12997" max="12998" width="10.81640625" customWidth="1"/>
+    <col min="13005" max="13006" width="10.81640625" customWidth="1"/>
+    <col min="13008" max="13008" width="10.81640625" customWidth="1"/>
+    <col min="13024" max="13053" width="10.81640625" customWidth="1"/>
+    <col min="13056" max="13057" width="10.81640625" customWidth="1"/>
+    <col min="13061" max="13061" width="10.81640625" customWidth="1"/>
+    <col min="13063" max="13064" width="10.81640625" customWidth="1"/>
+    <col min="13066" max="13067" width="10.81640625" customWidth="1"/>
+    <col min="13070" max="13072" width="10.81640625" customWidth="1"/>
+    <col min="13074" max="13113" width="10.81640625" customWidth="1"/>
+    <col min="13117" max="13117" width="10.81640625" customWidth="1"/>
+    <col min="13119" max="13119" width="10.81640625" customWidth="1"/>
+    <col min="13121" max="13121" width="10.81640625" customWidth="1"/>
+    <col min="13125" max="13125" width="10.81640625" customWidth="1"/>
+    <col min="13127" max="13128" width="10.81640625" customWidth="1"/>
+    <col min="13130" max="13131" width="10.81640625" customWidth="1"/>
+    <col min="13134" max="13136" width="10.81640625" customWidth="1"/>
+    <col min="13138" max="13169" width="10.81640625" customWidth="1"/>
+    <col min="13172" max="13236" width="10.81640625" customWidth="1"/>
+    <col min="13239" max="13239" width="10.81640625" customWidth="1"/>
+    <col min="13242" max="13243" width="10.81640625" customWidth="1"/>
+    <col min="13247" max="13248" width="10.81640625" customWidth="1"/>
+    <col min="13250" max="13250" width="10.81640625" customWidth="1"/>
+    <col min="13253" max="13254" width="10.81640625" customWidth="1"/>
+    <col min="13261" max="13262" width="10.81640625" customWidth="1"/>
+    <col min="13264" max="13264" width="10.81640625" customWidth="1"/>
+    <col min="13280" max="13300" width="10.81640625" customWidth="1"/>
+    <col min="13303" max="13305" width="10.81640625" customWidth="1"/>
+    <col min="13307" max="13307" width="10.81640625" customWidth="1"/>
+    <col min="13311" max="13312" width="10.81640625" customWidth="1"/>
+    <col min="13314" max="13314" width="10.81640625" customWidth="1"/>
+    <col min="13317" max="13318" width="10.81640625" customWidth="1"/>
+    <col min="13325" max="13326" width="10.81640625" customWidth="1"/>
+    <col min="13328" max="13328" width="10.81640625" customWidth="1"/>
+    <col min="13344" max="13361" width="10.81640625" customWidth="1"/>
+    <col min="13364" max="13365" width="10.81640625" customWidth="1"/>
+    <col min="13367" max="13369" width="10.81640625" customWidth="1"/>
+    <col min="13371" max="13371" width="10.81640625" customWidth="1"/>
+    <col min="13373" max="13373" width="10.81640625" customWidth="1"/>
+    <col min="13376" max="13376" width="10.81640625" customWidth="1"/>
+    <col min="13378" max="13378" width="10.81640625" customWidth="1"/>
+    <col min="13382" max="13382" width="10.81640625" customWidth="1"/>
+    <col min="13386" max="13387" width="10.81640625" customWidth="1"/>
+    <col min="13390" max="13391" width="10.81640625" customWidth="1"/>
+    <col min="13408" max="14001" width="10.81640625" customWidth="1"/>
+    <col min="14003" max="14005" width="10.81640625" customWidth="1"/>
+    <col min="14007" max="14007" width="10.81640625" customWidth="1"/>
+    <col min="14011" max="14011" width="10.81640625" customWidth="1"/>
+    <col min="14013" max="14013" width="10.81640625" customWidth="1"/>
+    <col min="14015" max="14015" width="10.81640625" customWidth="1"/>
+    <col min="14017" max="14017" width="10.81640625" customWidth="1"/>
+    <col min="14019" max="14019" width="10.81640625" customWidth="1"/>
+    <col min="14021" max="14021" width="10.81640625" customWidth="1"/>
+    <col min="14023" max="14023" width="10.81640625" customWidth="1"/>
+    <col min="14025" max="14025" width="10.81640625" customWidth="1"/>
+    <col min="14027" max="14028" width="10.81640625" customWidth="1"/>
+    <col min="14031" max="14512" width="10.81640625" customWidth="1"/>
+    <col min="14515" max="15601" width="10.81640625" customWidth="1"/>
+    <col min="15603" max="15605" width="10.81640625" customWidth="1"/>
+    <col min="15609" max="15610" width="10.81640625" customWidth="1"/>
+    <col min="15614" max="15619" width="10.81640625" customWidth="1"/>
+    <col min="15621" max="15622" width="10.81640625" customWidth="1"/>
+    <col min="15624" max="15625" width="10.81640625" customWidth="1"/>
+    <col min="15627" max="15628" width="10.81640625" customWidth="1"/>
+    <col min="15630" max="15630" width="10.81640625" customWidth="1"/>
+    <col min="15633" max="15633" width="10.81640625" customWidth="1"/>
+    <col min="15635" max="15636" width="10.81640625" customWidth="1"/>
+    <col min="15640" max="15640" width="10.81640625" customWidth="1"/>
+    <col min="15643" max="15644" width="10.81640625" customWidth="1"/>
+    <col min="15648" max="15656" width="10.81640625" customWidth="1"/>
+    <col min="15659" max="15659" width="10.81640625" customWidth="1"/>
+    <col min="15661" max="15661" width="10.81640625" customWidth="1"/>
+    <col min="15664" max="15665" width="10.81640625" customWidth="1"/>
+    <col min="15667" max="15669" width="10.81640625" customWidth="1"/>
+    <col min="15673" max="15674" width="10.81640625" customWidth="1"/>
+    <col min="15678" max="15683" width="10.81640625" customWidth="1"/>
+    <col min="15685" max="15686" width="10.81640625" customWidth="1"/>
+    <col min="15688" max="15689" width="10.81640625" customWidth="1"/>
+    <col min="15691" max="15692" width="10.81640625" customWidth="1"/>
+    <col min="15694" max="15694" width="10.81640625" customWidth="1"/>
+    <col min="15697" max="15697" width="10.81640625" customWidth="1"/>
+    <col min="15699" max="15700" width="10.81640625" customWidth="1"/>
+    <col min="15704" max="15704" width="10.81640625" customWidth="1"/>
+    <col min="15707" max="15708" width="10.81640625" customWidth="1"/>
+    <col min="15712" max="15720" width="10.81640625" customWidth="1"/>
+    <col min="15723" max="15723" width="10.81640625" customWidth="1"/>
+    <col min="15725" max="15725" width="10.81640625" customWidth="1"/>
+    <col min="15728" max="15732" width="10.81640625" customWidth="1"/>
+    <col min="15735" max="15735" width="10.81640625" customWidth="1"/>
+    <col min="15739" max="15739" width="10.81640625" customWidth="1"/>
+    <col min="15743" max="15744" width="10.81640625" customWidth="1"/>
+    <col min="15746" max="15746" width="10.81640625" customWidth="1"/>
+    <col min="15749" max="15750" width="10.81640625" customWidth="1"/>
+    <col min="15757" max="15758" width="10.81640625" customWidth="1"/>
+    <col min="15760" max="15760" width="10.81640625" customWidth="1"/>
+    <col min="15776" max="15861" width="10.81640625" customWidth="1"/>
+    <col min="15866" max="15867" width="10.81640625" customWidth="1"/>
+    <col min="15869" max="15870" width="10.81640625" customWidth="1"/>
+    <col min="15872" max="15872" width="10.81640625" customWidth="1"/>
+    <col min="15874" max="15874" width="10.81640625" customWidth="1"/>
+    <col min="15877" max="15878" width="10.81640625" customWidth="1"/>
+    <col min="15885" max="15886" width="10.81640625" customWidth="1"/>
+    <col min="15888" max="15888" width="10.81640625" customWidth="1"/>
+    <col min="15904" max="15921" width="10.81640625" customWidth="1"/>
+    <col min="15923" max="15925" width="10.81640625" customWidth="1"/>
+    <col min="15930" max="15931" width="10.81640625" customWidth="1"/>
+    <col min="15933" max="15934" width="10.81640625" customWidth="1"/>
+    <col min="15936" max="15936" width="10.81640625" customWidth="1"/>
+    <col min="15938" max="15938" width="10.81640625" customWidth="1"/>
+    <col min="15941" max="15942" width="10.81640625" customWidth="1"/>
+    <col min="15949" max="15950" width="10.81640625" customWidth="1"/>
+    <col min="15952" max="15952" width="10.81640625" customWidth="1"/>
+    <col min="15968" max="15988" width="10.81640625" customWidth="1"/>
+    <col min="15991" max="15991" width="10.81640625" customWidth="1"/>
+    <col min="15993" max="15993" width="10.81640625" customWidth="1"/>
+    <col min="15995" max="15995" width="10.81640625" customWidth="1"/>
+    <col min="15999" max="16000" width="10.81640625" customWidth="1"/>
+    <col min="16002" max="16002" width="10.81640625" customWidth="1"/>
+    <col min="16005" max="16006" width="10.81640625" customWidth="1"/>
+    <col min="16013" max="16014" width="10.81640625" customWidth="1"/>
+    <col min="16016" max="16016" width="10.81640625" customWidth="1"/>
+    <col min="16032" max="16050" width="10.81640625" customWidth="1"/>
+    <col min="16053" max="16053" width="10.81640625" customWidth="1"/>
+    <col min="16056" max="16056" width="10.81640625" customWidth="1"/>
+    <col min="16058" max="16059" width="10.81640625" customWidth="1"/>
+    <col min="16064" max="16064" width="10.81640625" customWidth="1"/>
+    <col min="16067" max="16067" width="10.81640625" customWidth="1"/>
+    <col min="16070" max="16070" width="10.81640625" customWidth="1"/>
+    <col min="16072" max="16072" width="10.81640625" customWidth="1"/>
+    <col min="16074" max="16076" width="10.81640625" customWidth="1"/>
+    <col min="16078" max="16079" width="10.81640625" customWidth="1"/>
+    <col min="16096" max="16116" width="10.81640625" customWidth="1"/>
+    <col min="16120" max="16120" width="10.81640625" customWidth="1"/>
+    <col min="16123" max="16123" width="10.81640625" customWidth="1"/>
+    <col min="16127" max="16128" width="10.81640625" customWidth="1"/>
+    <col min="16130" max="16130" width="10.81640625" customWidth="1"/>
+    <col min="16133" max="16134" width="10.81640625" customWidth="1"/>
+    <col min="16141" max="16142" width="10.81640625" customWidth="1"/>
+    <col min="16144" max="16144" width="10.81640625" customWidth="1"/>
+    <col min="16160" max="16177" width="10.81640625" customWidth="1"/>
+    <col min="16179" max="16185" width="10.81640625" customWidth="1"/>
+    <col min="16187" max="16187" width="10.81640625" customWidth="1"/>
+    <col min="16189" max="16190" width="10.81640625" customWidth="1"/>
+    <col min="16192" max="16192" width="10.81640625" customWidth="1"/>
+    <col min="16194" max="16194" width="10.81640625" customWidth="1"/>
+    <col min="16197" max="16198" width="10.81640625" customWidth="1"/>
+    <col min="16205" max="16206" width="10.81640625" customWidth="1"/>
+    <col min="16208" max="16208" width="10.81640625" customWidth="1"/>
+    <col min="16224" max="16245" width="10.81640625" customWidth="1"/>
+    <col min="16247" max="16247" width="10.81640625" customWidth="1"/>
+    <col min="16251" max="16251" width="10.81640625" customWidth="1"/>
+    <col min="16255" max="16256" width="10.81640625" customWidth="1"/>
+    <col min="16258" max="16258" width="10.81640625" customWidth="1"/>
+    <col min="16261" max="16262" width="10.81640625" customWidth="1"/>
+    <col min="16269" max="16270" width="10.81640625" customWidth="1"/>
+    <col min="16272" max="16272" width="10.81640625" customWidth="1"/>
+    <col min="16288" max="16305" width="10.81640625" customWidth="1"/>
+    <col min="16308" max="16308" width="10.81640625" customWidth="1"/>
+    <col min="16310" max="16313" width="10.81640625" customWidth="1"/>
+    <col min="16320" max="16321" width="10.81640625" customWidth="1"/>
+    <col min="16323" max="16323" width="10.81640625" customWidth="1"/>
+    <col min="16326" max="16326" width="10.81640625" customWidth="1"/>
+    <col min="16328" max="16328" width="10.81640625" customWidth="1"/>
+    <col min="16330" max="16332" width="10.81640625" customWidth="1"/>
+    <col min="16334" max="16335" width="10.81640625" customWidth="1"/>
+    <col min="16352" max="16372" width="10.81640625" customWidth="1"/>
+    <col min="16374" max="16375" width="10.81640625" customWidth="1"/>
+    <col min="16379" max="16379" width="10.81640625" customWidth="1"/>
+    <col min="16383" max="16384" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
